--- a/기사데이터/토스/엑셀파일/news(토스, 2023.02.16~2023.02.28).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.02.16~2023.02.28).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>"페이전쟁"....간편결제서 밀리는 카드사들</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011714441?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>기사내용 요약간편결제시장 3년새 2.5배↑…주도권 빅테크에카드사들 오픈페이 연이어 출범…흥행 미지수업계 2·4위 삼성·현대카드 참여 미정…시너지↓"타 카드사 부가혜택 제공해 경쟁력 제고해야"[서울=뉴시스] 권창회 기자 = 우크라이나 사태로 2차 생활물가 쇼크가 전방위로 퍼지고 있다. 한국은행에 따르면 4월 국내 물가상승률은 4.8%로 글로벌 금융위기가 있었던 2008년 10월(4.8%)이후 13년 6개월 만의 최대 상승률을 기록했다. 사진은 24일 오전 서울 시내 음식점에서 시민이 키오스크로 음식 주문을 하고 있다. 2022.05.24. kch0523@newsis.com[서울=뉴시스]한재혁 기자 = 애플의 자사 결재 서비스 '애플페이'의 국내 도입을 앞두고 삼성페이가 네이버파이낸셜(네이버페이)와 협력을 강화한 가운데 카드사들의 '오픈페이'서비스는 이용자의 관심을 받지 못하고 있다. 간편결제 시장 내 카드사들의 비중은 점점 더 낮아질 것으로 점쳐진다.28일 금융업계에 따르면 신한·KB국민·하나·롯데카드 등 4개 카드사들은 지난해 12월부터 자사의 오픈페이 서비스를 운용하고 있다. 지난해 12월 신한·KB국민·하나카드가 서비스를 시작한 뒤 롯데카드가 지난 21일 '로카페이'를 출시하며 후발주자로 합류했다.오픈페이는 한 카드사의 애플리케이션(앱)을 이용해 타 카드사들의 카드를 이용할 수 있는 간편결제 서비스다. 가령 KB국민카드의 자사 앱 'KB페이' 내에서 오픈페이 서비스를 운용하는 신한카드, 하나카드 등 타사의 카드를 등록해 간편결제를 할 수 있는 식이다.카드사들이 이 같은 서비스를 통해 협력을 강화하고 나선 것은 간편결제 시장 내 입지를 확대하기 위해서다. 현재 간편결제 시장은 코로나19 시기를 거치면서 빠르게 성장했으나 시장 내 주도권은 네이버·카카오·비바리퍼블리카(토스) 등 빅테크 기업에게 있다. 해당 기업들이 비대면 결제 시장을 초기에 장악하면서 지난해 상반기까지 전체 시장의 50%를 차지하고 있다.한국은행에 따르면 지난해 상반기 간편결제 서비스 이용금액은 일평균 7232억원으로 코로나 전인 2019년 상반기(2876억원)와 비교하면 3년새 2.5배가량 증가했다. 이용건수는 8.3% 증가한 2317만건으로 금액과 이용건수 모두 통계 작성 이후 역대 최대치다.이에 카드사들은 오픈페이를 통한 점유율 확대 시도를 펼치고 있지만 결과가 긍정적일지는 미지수다. 오픈페이는 참여하는 카드사의 수가 많을수록 이용자들의 카드 선택 폭도 늘어나는 구조인데, 업계 2·4위인 다만 삼성계열사인 삼성카드와 현시점에서 애플페이 제휴에 대한 독점 지위를 지닌 현대카드가 참여를 확정짓지 않았기 때문이다. 이들 카드사의 시장 내 점유율은 약 34%다.상황이 이렇다보니 카드사들의 입지도 좁아지고 있는 추세다. 하나금융연구소는 지난해 보고서에서 카카오·네이버 등 전자금융업자들의 시장 내 점유율은 지난 2016년 27%에서 지난해 상반기까지 50%까지 상승한 반면 카드사들은 같은 기간 57%에서 26%까지 감소했다고 밝혔다. 하나금융연구소는 해당 보고서에서 "단순히 개방형 플랫폼을 구축했다는 것만으로는 빅테크 간편결제앱을 능가하여 성공하기 어렵다"고 평가했다.특히 다음달 초 예정된 애플페이의 국내 서비스 시작과 삼성페이와 네이버페이의 온라인 결제 부문 강화도 카드사 입장에선 악재로 작용할 수밖에 없는 대목이다. 또 최근 현대자동차가 특허청에 '현대페이' 상표권 출원하면서 간편결제 시장 참여를 예고해 카드사들의 시장 내 입지도 불분명해졌다.한 카드업계 관계자는 "현대카드가 애플페이의 독점 지위를 포기하면서 다른 카드사들도 관망에 나섰다"며 "애플페이와의 제휴가 오픈페이 참여보다 이익이 더 된다면 이탈하는 카드사도 발생할 가능성이 있다"고 말했다.서지용 상명대 경영학부 교수는 "(오픈페이 서비스에 참여한) 카드사들이 이탈을 하지 않도록 하는 것이 중요하다"며 "타 카드사들의 부가 서비스도 사용이 가능하게끔 소비자에게 혜택을 늘리는 등의 조치를 통해 경쟁력을 제고해야 한다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>은행 1월 예대금리차 또 벌어져…전북·광주·토뱅순 차이 커</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006641791?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>가계 기준 2.07%로 전달比 0.05%P 확대…2달째 격차 벌어져서울시내 한 은행 영업점을 찾은 고객들이 상담을 받고 있다. 2022.1.24/뉴스1 ⓒ News1 유승관 기자(서울=뉴스1) 신병남 기자 = 은행권의 1월 가계 예대금리차(예금금리와 대출금리 차이)가 지난달에 이어서 또다시 확대됐다. 대출금리는 높게 유지한 가운데, 은행들이 예금금리를 하향 조정하면서 금리 격차가 벌어진 것으로 분석된다.은행연합회가 20일 소비자포털에 공시한 1월 예대금리차에 따르면 19개 은행의 평균 가계 예대금리차는 2.07%포인트(p)로 전달(2.02%p) 대비 0.05%p 확대됐다. 지난해 11월 1.78%p를 기록한 이후 차이는 계속 벌어지고 있다.KB국민·신한·하나·우리·농협 등 5대 은행의 예대금리차도 일제히 확대됐다. 이들 중 KB국민은행이 지난해 12월 1.10%p에서 지난달 1.81%p로 차이가 벌어지는 등 5대 은행 중 예대금리차가 가장 컸다. 국민은행 측은 1월 저금리의 법인 단기 예금이 증가했지만, 고금리 신용대출 취급액이 늘어나면서 차이가 벌어진 것이라고 해명했다.이어 NH농협은행 1.49%p, 우리은행 1.34%p, 하나은행 1.13%p, 신한은행 1.01%p 순이다.인터넷전문은행 중에서는 토스뱅크가 4.72%p로 가장 컸다. 케이뱅크는 2.15%p, 카카오뱅크는 1.33%p다.지방은행과 외국계 은행을 포함해 공시 대상 19개 은행 중 가계 예대금리차 가장 큰 곳은 전북은행으로 7.18%p를 기록했다. 광주은행이 5.11%p로 뒤를 이었다. 가장 작은 곳은 KDB산업은행으로 0.20%p다.다만 은행권에서는 예대금리가차 점차 줄어들 것이라는 전망이 우세하다. 은행 대출금리가 하락하면서 예금금리와의 차이가 좁혀질 것이라는 이유에서다.은행권 한 관계자는 "예금금리 인하에 따라 대출금리 기준이 되는 코픽스(COFIX·자금조달비용지수)도 지속 하락할 전망"이라며 "코픽스 반영이 예금금리 보다 후행하기에 대출금리가 본격적으로 떨어지는 건 3월부터"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>5대은행 지난달 예대금리차 국민-농협-우리 순으로 커</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003206176?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>지난달 5대 은행(신한·국민·하나·우리·농협) 중 가계 예대금리차(가계대출금리와 저축성수신금리의 차이)가 가장 큰 곳은 국민은행인 것으로 나타났다. 인터넷전문은행 중에는 토스뱅크가, 전체 은행 중에는 전북은행의 가계 예대금리차가 가장 컸다.20일 은행연합회 소비자포털의 ‘예대금리차비교’ 공시를 보면 햇살론뱅크·햇살론15 등 정책서민금융상품을 제외한 가계 예대금리차는 국민은행이 1.51%포인트로 5대 은행 중 가장 컸다. 이어 농협은행(1.44%포인트), 우리은행(1.07%포인트), 하나은행(1.03%포인트), 신한은행(0.84%포인트) 순이었다.인터넷은행 중에는 토스뱅크의 가계 예대금리차가 4.72%포인트로 가장 컸고 이어 케이뱅크와 카카오뱅크는 각각 2.15%포인트와 1.25%포인트였다.외국계은행과 지방은행까지 포함한 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%포인트)이었다. 이어 토스뱅크, 광주은행(4.12%포인트), 대구은행(2.69%포인트) 순이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리와 저축성수신금리의 차이) 순위는 가계대출 예대금리차와 유사했다. 5대 은행 중에서는 국민은행(1.81%포인트)이 가장 높았고 2∼5위는 농협은행(1.69%포인트), 우리은행(1.59%포인트), 하나은행(1.44%포인트), 신한은행(1.33%포인트)이었다.인터넷은행에서도 토스뱅크(4.54%포인트)가 가장 높았고 이어 케이뱅크(1.72%포인트), 카카오뱅크(1.40%포인트) 순이었다. 전체 은행의 예대금리차 1~3위는 전북은행(5.35%포인트), 토스뱅크, 광주은행(3.80%포인트)이었다.국민은행 관계자는 “지난달 법인 고객의 단기성 예금 비중이 늘면서 평균 예금금리는 낮아졌지만 주택담보대출 대비 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 커졌다”면서 “1월 말 시행한 가계대출금리 인하효과가 (다음 달에 하는) 2월 예대금리차에 반영될 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>인터넷은행 혹 떼주고 빅5 도장깨기 나서나</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000729752?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>금융당국, 인뱅 중·저신용자 대출 의무비율 완화 논란｜은행권 "중·저신용 대출 줄일 것…설립 취지에 어긋나"금융당국이 과점 5대 은행의 도장깨기 방안으로 기존 인터넷은행의 중·저신용 대출 의무 비율 완화 또는 폐지를 검토하면서 그 결과에 관심이 쏠리고 있다. 표면적으론 인터넷은행의 증가한 연체율 관리 차원이지만, 결과적으론 고신용자에 대한 대출을 늘려 기존 빅5의 고객 흡수를 고려한 고육지책으로 풀이된다.은행, ATM, 시중은행 [사진=뉴시스]◆ 낮은 금리로 고신용자 흡수 "메기 될 것"은행권에선 인터넷은행이 고신용자를 대상으로 금리 경쟁에 나서면 5대 은행을 흔드는 계기는 될 수 있다고 조심스럽게 예상한다.20일 현재 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행의 평균 신용대출 최저 금리는 4.953%로 5대 은행 평균 최저 금리인 5.786%보다 0.833 포인트(p) 낮다. 인터넷은행에서 5천만원을 빌린 차주라면 산술적으로 연 41만6천500원, 월 3만4천708원가량의 이자를 줄일 수 있다.현재 카카오뱅크는 중·저신용 대출 공급을 위해 고신용자 대출을 잠정 중단했다. 케이뱅크와 토스뱅크도 중·저신용 대출 취급에 주력하고 있다. 3년 전에 인터넷은행들이 중·저신용자에 공급하기로 한 대출 비율을 맞추기 위해서다.인터넷은행 설립 인가 때 가장 큰 명분 중의 하나가 이것이었다. 금융당국은 기존 은행들은 중·저신용자의 신용 상태를 제대로 분석하지 못해 자금 공급을 제대로 하지 못한다는 이유에서 인터넷은행의 신규 인가 명분을 찾았다.국내 거대 메신저 업체의 카카오톡과 통신사인 KT가 인터넷은행 인가를 받을 수 있었던 이유다. 실제로 인가받은 인터넷은행들은 광범위한 데이터 수집 능력이 있어서 이를 재가공한 씬파일(thin file)을 활용해 신용을 검증할 수 있다고 주장했었다.실제로 인가 초반에는 기존 은행권에서 보지 못한 톡톡 튀는 아이디어가 먹혔고, 국민 메신저 플랫폼의 강점으로 송금 시장에선 비교할 수 없는 편리함으로 기존 은행을 긴장시키며 자리를 잡았다.그러나 그 시간은 오래가지 못했다는 평가가 적지 않다. 글로벌 인플레이션과 이에 따른 금리 인상이 이어지면서 이들의 부실도 점점 가시화하고 있다. 지난해 내내 빠르게 늘어난 연체율과 고정이하여신(NPL) 즉 무수익여신이 두 배 이상 늘어나면서 빨간불이 들어왔다.카카오뱅크 연체율 현황. [그래픽=아이뉴스24 DB]인터넷전문은행 무수익여신 비율 [사진=아이뉴스24 DB]급기야 인터넷은행들은 이참에 중·저신용자 의무 대출 비율이라는 혹을 떼고자 하는 것으로 풀이된다. 연체가 빠르게 늘어나는 중·저신용자 대출 의무 비율에서 벗어나야 연체율을 방어할 수 있는 데다, 그 돈으로 고신용자 대출에 돌려야 성장을 할 수 있다는 생각이 깔려 있다.은행권에선 금융당국이 이들 은행에 대한 의무 비율을 완화하거나 폐지하면 고신용자를 대상으로 공격적 금리 경쟁을 펼칠 것으로 예상한다.은행권 관계자는 "4년 전 카카오뱅크가 고신용자를 대상으로 영업할 때 금리가 낮다고 직장인 사이에서 입소문이 나면서 고객이 몰렸었는데 그때 기존 은행에선 위기설까지 돌았다"며 "만일 인터넷은행이 낮은 금리로 고신용자 대출을 재개하면 신용대출 시장에선 5대 은행의 파이를 어느 정도 갉아먹으며 시장을 흔드는 양상이 벌어질 수 있다"고 내다봤다.◆ "역할에 벗어나…취약 차주 대출 절벽 높여"그러나 일부에선 인터넷은행의 중·저신용 대출 비중 완화는 인허가 조건의 근본을 흔드는 일이라고 주장하기도 한다. '인넷전문은행 설립 및 운영에 관한 특례법' 제1조는 은행업의 건전한 경쟁과 금융소비자의 편익 증대다. 중·저신용 대출 공급을 줄이면 소비자의 편익도 줄고 시장 질서도 무너진다고 설명한다.한 은행 관계자는 "고신용자에 대한 대출을 늘리려면 자본 확충도 필요한데, 조달이 안 되면 결국 중·저신용자 대출을 줄일 수밖에 없다"며 "오히려 인터넷은행 설립 벗어나는 상황이 된다"고 말했다. 다른 관계자도 "인터넷은행이 고신용자에 주력하면 스스로 정체성을 부인하는 꼴"이라며 "이들 은행조차 중·저신용 대출을 취급하지 않는다면 취약 차주들이 대출받을 곳이 없어지지 않겠느냐"고 꼬집었다.결국 이번 금융당국의 인터넷은행 중·저신용자 대출 의무비율 규제 완화 검토는 인터넷은행의 정책 목표를 바꿀 수도 있다는 것으로 읽힌다. 윤석열 대통령의 '은행 공공재' 발언에서 촉발된 화두가 5대 은행의 도장깨기 분위기로 흐르면서, 인터넷은행의 설립 취지에도 정책의 방점이 달라질 수도 있다는 것이다.은행업계 관계자들에 따르면 이번 중·저신용자 대출 의무 비율 완화 이슈는 인터넷은행들이 금융당국에 적극적으로 요청한 것으로 전해진다. 인터넷은행들로선 연체율이 급증하는 중·저신용자 대출 의무 비율 혹을 떼고, 양질의 고신용자 대출을 늘려 기존 5대 은행의 도장깨기로 보답하겠다는 의도로 보인다고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[IB명가에 듣는다] "올해 고수익 기회 … 프리IPO 투자 늘릴것"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005092396?sid=102</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>강성범 미래에셋증권 IB 부사장사모펀드·벤처 투자 확대메자닌 발행에도 적극 참여"올해가 시장 변동성을 활용해 높은 수익률을 낼 수 있는 투자 적기라고 생각해 프리IPO(상장 전 지분투자)와 사모투자(PE)·벤처캐피털(VC) 펀드 출자에 선제적으로 나설 예정입니다."강성범 미래에셋증권 IB1총괄 부사장(사진)이 최근 매일경제와 만나 "고평가됐던 비상장사들이 지난해 어려웠던 자금 시장을 겪으며 기업가치를 낮추는 분위기"라며 이같이 말했다.국내 증권사 중 가장 큰 자기자본 규모를 갖춘 미래에셋증권은 무신사와 토스(비바리퍼블리카)를 비롯해 마이리얼트립, 버킷플레이스, 마이셰프 등 비상장사에 투자하며 유니콘 기업 육성에 적극적인 행보를 보여왔다. 강 부사장은 "비상장 기업 투자는 당장 수익으로 연결되진 않지만 2023년은 기업가치가 낮아지는 최적의 '투자 빈티지'가 될 것"이라고 언급했다. 미래에셋증권이 올해 대형 사모투자펀드(PEF)에 올해 목표 출자 금액을 늘린 배경 역시 이와 같은 맥락이다.기업금융 커버리지 전문가로도 잘 알려진 강 부사장은 올 상반기까지 채권 발행 중심의 조달이 강세를 보일 것으로 예상하고 기업 커버리지를 강화해 채권발행시장(DCM) 부문 실적을 끌어올릴 계획이다. 그는 "금리 상승세가 주춤하면서 기업 조달 시장이 지난해 말에 우려됐던 것보다 빠른 속도로 안정화됨에 따라 머니무브는 우량 회사채를 중심으로 활성화되는 분위기"라고 진단했다.조달 시장이 안정기에 접어들었지만 주요 기업들은 당분간 허리띠를 조일 것으로 보인다. 강 부사장은 "시장이 우려한 대로 기업들의 연간 실적이 좋지 않은 상황이어서 한파를 버티려는 기업들의 구조조정성 거래가 나올 것으로 보고 있다"고 말했다. 그는 경기 침체 여파에 따른 자산 매각이나 투자 유치 등이 본격화될 것으로 보고 대형 회계법인과 파트너십을 통해 금융 자문 서비스를 제공하는 방안도 검토하고 있다.기업들의 자산 유동화뿐만 아니라 단기 자금 조달(브리지론)과 메자닌(주식연계채권) 발행에도 참여해 기업들의 조달 파트너로 자리 잡고 있다. 앞서 미래에셋증권은 코로나19로 유동성 위기를 겪었던 CJ CGV가 영구 전환사채(CB) 발행을 결정할 당시 단독 주관사로 나서 4000억원 규모 자금을 마련하는 데 힘을 보탰다. 미래에셋의 적극적인 지원으로 CJ CGV는 해당 영구 CB를 통해 발행액을 전부 자본으로 인정받을 수 있었다. 미래에셋으로서는 자금 시장이 급격히 경색되는 가운데 미매각된 CB 물량을 일정 기간 떠안아야 하는 리스크도 불사했다. 위기를 견딘 CJ CGV는 연초 리오프닝(경제활동 재개) 효과로 상승세를 탔고, 주가가 올라 미래에셋이 부담했던 평가손실은 축소되고 있다. 이 밖에도 미래에셋은 쌍용건설과 대우건설 거래에서 각각 인수 측 자문을 맡아 구조조정성 거래에서 이력을 쌓기도 했다.한편 미래에셋증권이 올 초 증시에 올린 공모주들은 시장에서 좋은 성적을 내고 있다. 올해 첫 번째 상장 기업이었던 알루미늄 주조 전문업체 한주라이트메탈은 상장 후 급등세를 보이며 지난 21일까지 공모가 대비 46%가량 주가가 뛰었다. 애니메이션 제작사 스튜디오미르는 상장 직후 '따상'(시초가가 공모가 대비 2배에 형성된 후 상한가)을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스 이승건 “금융, 더 많은 경쟁으로 혁신 일어나야”</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002106349?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>20일 국회 성일종·윤창현 의원 주최 세미나권대영 금융위 상임위원 “핀테크, 규제의 차등화 신경써야”20일 성일종·윤창현 국민의힘 의원이 주최한 핀테크 세미나에 참석한 인사들이 기념촬영을 진행하고 있다. 홍승희 기자[헤럴드경제=홍승희 기자] 이승건 비바리퍼블리카(토스) 대표가 “금융에서 더 많은 경쟁을 통해 더 좋은 상품으로 고객에게 다가가고 이 사회에 혁신이 일어나야 한다”며 경쟁의 중요성을 강조했다.이 대표는 20일 국회에서 열린 ‘2023 힘내라 핀테크 자율과 혁신으로’ 세미나에서 “금융의 디지털화는 거스를 수 없는 흐름”이라며 이같이 말했다.그는 “핀테크를 운영하는 입장에서 시간이 갈수록 절감하는 건 산업발전을 위해서는 회사 개별적 역량만으로는 성장할 수 없다는 것”이라며 “금융산업혁신에 대해서 여러 가지 의견 있을 수 있겠지만 지난 시간 돌아보며 말씀드리면 금융산업의 경쟁을 촉발시킨 점이 가장 큰 게 아니었나 생각한다”고 말했다.최근 금융당국에선 국내 은행에 대한 과점 체제 완화 논의가 본격화하고 있다. 윤석열 대통령도 역대 최대 실적을 경신한 은행을 두고 산업의 과점 시스템을 지적하며 경쟁 강화 방안을 마련하라고 언급하고 나섰다. 이에 핀테크은행, 소상공인은행 등 ‘스몰 라이센스’ 도입도 추진될 예정이다.이같은 논의 속에 이 대표는 “수많은 서비스가 경쟁 속에 발전하는 가운데 금융만은 경쟁의 영역에서 벗어나 있었다”며 “하지만 핀테크 금융플랫폼이 등장하면서 실제 소비자가 주체가 돼 금융상품을 비교해볼수있는 세상이 열렸다”고 언급했다.권대영(오른쪽부터) 금융위원회 상임위원, 이승건 비바리퍼블리카 대표, 윤창현 국민의힘 의원이 20일 국회에서 열린 핀테크 세미나에 참석하고 있다. 홍승희 기자한편 이날 참석한 권대영 금융위원회 상임위원은 글로벌 금융 긴축 기조로 어려운 상황에 직면해있는 핀테크를 향해 핀테크에 ‘규제의 차등화’를 신경쓸 필요가 있다고 강조했다.권 상임위원은 “글로벌 금융위기, 긴축기조로 상당히 어려운 측면이 있는 걸 정부가 잘 알고 있다”며 “아날로그 시대의 규제를 디지털 규제로 바꾸는 지속적 노력이 필요할 것 같다”고 말했다.그러면서 “동일행위, 동일규제에 대한 이야기도 있지만 핀테크는 스타트업이고 유치산업적 성격이 있기 때문에 기계적인 규제보다는 세심하게 산업을 일으킬 수 있는 정교하면서도 세련된 규제가 필요한 측면이 있다”며 “‘규제의 차등화’ 이런 부분도 신경을 써야 기회가 있을 것”이라고 말했다.권 상임위원은 이 외에도 ▷핀테크 투자 ▷책임있는 혁신 등을 강조했다. 그는 “굉장히 춥고 어려운 시기라고 하지만 이때 필요한 건 투자”라며 “1조원 규모 펀드를 만들지만 정책금융기관들도 총동원해야할 것이고 민간의 노력 통해서 보릿고개를 넘어갈 수 있는 투자자금의 집행이 굉장히 중요한다고 본다”고 했다.마지막으로 “혁신도 균형된 혁신이 필요하다”며 “국민의 신뢰를 받는 부분을 소홀히 하면 한 순간에 힘들어지기 때문에 규제를 잘 지켜야 한다. 비용으로 생각 마시고 투자로 생각해 균형된 혁신을 해야한다”고 제언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>5대은행 1월 가계대출 예대금리차, KB·농협·우리은행 순</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013767999?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>전체 1·2위 전북은행·토스뱅크 (서울=연합뉴스) 신호경 기자 = 지난달 전체 은행권에서 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 전북은행이었고 5대 은행 중에선 KB국민은행이었던 것으로 조사됐다.    지나친 '이자 장사'를 막자는 취지로 지난해 7월부터 19개 은행의 월별 예대금리차 공시가 시작됐는데, 예대금리차가 상대적으로 크다는 것은 일단 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.    20일 오후 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 1월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 KB국민은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.51%포인트(p)로 집계됐다.5대은행 1월 가계대출 예대금리차, KB·농협·우리 순(서울=연합뉴스) 김도훈 기자. 2023.2.16 superdoo82@yna.co.kr    은행권이 작년 7월 첫 공시 이후 저소득·저신용 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 같은 해 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.    KB국민은행에 이어 NH농협은행(1.44%포인트), 우리은행(1.07%포인트), 하나은행(1.03%포인트), 신한은행(0.84%포인트) 순으로 가계 예대금리차가 컸다.     인터넷 은행 중에서는 토스뱅크의 가계 예대금리차(4.72%포인트)가 가장 컸고, 케이뱅크(2.15%포인트)와 카카오뱅크(1.25%포인트)가 뒤를 이었다.    인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%포인트)이었다.    기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 KB국민은행이 1.81%포인트로 가장 컸다.    2∼5위는 NH농협은행(1.69%포인트), 우리은행(1.59%포인트), 하나은행(1.44%포인트), 신한은행(1.33%포인트) 순이었다.    KB국민은행 관계자는 "지난해 12월 주택담보대출과 전세자금대출의 금리를 낮췄지만, 부동산 경기 침체 등의 영향으로 신규 대출이 감소한 반면 신용대출은 늘어 가계대출 평균 금리가 상승했다. 주택담보대출 금리의 경우 지금도 5대 은행 가운데 가장 낮은 수준"이라며 "지난달 시행한 최대 1.30%포인트의 금리 인하는 26일부터 적용돼 2월 예대금리차에 반영될 예정"이라고 설명했다.    shk999@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>50만달러 걸린 '앱토스 서울 해커톤', 개발자 180명 몰렸다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004970079?sid=105</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>지난 2월 1일부터 2월 3일까지 열린 '앱토스 서울 해커톤'에 참가한 개발자들이 각자의 프로젝트를 진행하고 있다. 해시드 제공 [파이낸셜뉴스] 블록체인 앱토스가 서울에서 진행한 개발자 대회 '앱토스 서울 해커톤'에 개발자 180여명이 몰렸다.   16일 블록체인업계에 따르면 블록체인 앱토스(APT)는 앱토스 서울 해커톤을 지난 2월 1일부터 2월 3일까지 2박3일간 서울 강남구에 위치한 드림플러스와 해시드 라운지에서 진행했다.   앱토스 서울 해커톤은 '월드투어 해커톤'의 첫 번째 일정이다. 앱토스 재단, 해시드, SK네트워크, 점프(Jump), 엔픽셀(NPIXEL), 하이브(HYBE), 아이언그레이(IRONGREY) 등의 지원으로 개최됐다.   이번 해커톤에는 총 50만달러(약 6억원) 규모의 상금을 놓고 열린 이번 대회는 400명 이상의 지원자가 몰리는 등 뜨거운 관심을 받았다. 이들 지원자 중 180명 가량의 개발자들이 해커톤에 직접 참여했으며 이중 15팀이 우승팀으로 선정됐다.   앱토스 서울 해커톤 우승자들은 △게이밍(Gaming) △소셜·NFT(Social·NFTs) △디파이(Defi) △툴킷(Toolkit) △앱토스 개발 언어 무브 언어(Move Language)등 다섯 가지 트랙 별로 선정됐다.   게이밍 부문의 우승자는 앱토스 네트워크 위에서 개발자들이 손 쉽게 게임을 개발할 수 있도록 해주는 앱토플레이(Aptoplay) 프로젝트가 선정됐다. 소셜·NFT부문에서는 유저들이 스스로 이루고 싶은 목표들을 설정 후 이를 공유해 보상을 얻는 라이프마이닝(Life Mining)프로젝트가 선정됐다.   또한 디파이 부문에서는 탈중앙화선물거래소(DEX) 프로젝트 머클 트리(Merkle Tree), 툴킷 부문에서는 검색 허브 역할을 하는 무브 허브(Move Hub), 무브 언어 부문에서는NFT게임 웨어울프와 마녀(Werewolf and Witch) 프로젝트가 각각 우승팀으로 선정됐다.   앱토스 관계자는 “이번 해커톤 행사를 통해 한국에 있는 블록체인 개발 팀들을 뛰어난 역량을 확인했다”며 “대회에 참여해준 모든 지원자들에게 감사하고 앞으로도 업계의 많은 분들과 협업할 수 있는 기회를 찾을 계획”이라고 말했다.   한편, 앱토스는 앞서 코리아블록체인위크(KBW 2022) 등을 통해 지속적으로 한국 커뮤니티 행사에 참여하고 있다.    해시드 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>‘토스뱅크 사장님 대출’ 출시 1년…하루에 1600건씩 상담 몰려</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005427903?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>잔액 기준 1조5000억 달성, 대출 심사 총 60만건자체 신용평가모형으로 건전한 중저신용자 발굴해[이데일리 이명철 기자] 토스뱅크는 비대면 개인사업자 대출 ‘토스뱅크 사장님 대출(사장님 대출)’이 출시 1년만에 대출 규모 1조5000억원(잔액 기준)을 달성했다고 20일 밝혔다.(이미지=토스뱅크)사장님 대출은 토스뱅크가 지난해 2월 인터넷은행 최초로 출시한 비대면·무보증 무담보 신용대출이다. 지난달에만 공급 규모가 1830억원을 기록하는 등 개인사업자 이용이 많았다.대출 신청부터 실행까지 평균 3분 이내 이뤄져 시간을 내기 힘든 개인사업자들에게서 호응이 높았다. 지난 1년간 대출 심사는 총 60만건으로 일 평균 약 1644건에 달했다.개인사업자 고객군 분석 결과 소득 증빙이 어려워 제1금융권에서 대출받기 어려웠던 운수업 종사자를 비롯해 창고업·광업·긱워커 등이 4.2%를 차지했다. 종별로는 도소매업이 32.4%로 가장 많았고 음식점(13.3%), 제조업(6.7%)이 뒤를 이었다. 전체 개인사업자 대출 중 중저신용자의 비중은 49.8%로 집계됐다. 토스뱅크가 자체 개발한 신용평가모형(TSS)를 통해 실질소득과 상환능력을 갖춘 ‘건전한 중저신용자’를 발굴했다는 설명이다.TSS는 매출액이 크지 않아도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 실질 상환능력이 뛰어나다고 판단해 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정했다.3년간 광업에 종사하던 한 고객은 KCB 기준 신용점수가 767점으로 중저신용자에 해당했지만 건전한 소비 등 금융거래 기록과 꾸준히 매출을 올렸다는 점이 가점으로 인정돼 토스뱅크에서 4000만원을 빌렸다.이를 통해 제1금융권에서 소외돼 제2·3금융권으로 갔던 자영업자·소상공인의 이동이 두드러졌다.실제 예를 들면 10년간 소규모 영어학원을 운영 중인 고객은 제2금융권에서 사업자금 등 확보를 위해 1억7000만원을 대출 받고 토스뱅크에서 사업자금 5000만원을 추가 대출했다. 이를 통해 기존 대출 일부를 상환하면서 금리는 보다 낮아졌고 신용점수도 상승하는 효과를 봤다.토스뱅크 관계자는 “지난 1년간 삼중고로 긴급 사업자금이 필요했던 소상공인·자영업자들에게 실질적이고도 적시에 공급을 했다”며 “앞으로도 지속 지원이 이뤄지도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>모바일 강화한 ‘비즈플레이 4.0’, GS인증 1등급 획득</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005094931?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>디지털 경비지출관리 서비스 전문기업 비즈플레이(대표 김홍기)는 자사의 ‘비즈플레이 4.0’이 GS인증(Good Software, 소프트웨어 품질 인증) 1등급을 획득했다고 28일 밝혔다.GS인증은 국산 소프트웨어의 품질을 증명하는 국가 인증제도다. 한국정보통신기술협회와 한국산업기술시험원(KTL)에서 인증하며, ISO 국제 표준에 따라 소프트웨어의 기능성, 신뢰성, 성능 효율성, 사용성 등 9가지 항목을 평가해 인증을 부여한다. GS인증 솔루션은 행정 및 공공 정보화 사업 구축•운영 시 우선 도입 대상 제품으로 지정된다.비즈플레이는 버전 3.0에 이어  버전 4.0도 GS인증을 획득했다. PC와 모바일을 통한 클라우드 기반의 경비지출관리 솔루션 비즈플레이는 법적 증빙 효력을 갖는 전자 영수증으로 실물 종이 영수증 수집•보관 업무를 없애고 국내외 모든 ERP와 연계를 통해 업무 자동화를 지원한다.특히 국내 17개 전 카드사 EDI 연결, 글로벌 카드사 연계 및 전표 자동화로 전표 처리 업무를 70% 이상 절감한다.비즈플레이 4.0은 모바일 기능을 대폭 강화해 △실시간 사용 내역 확인 △한도 관리 △지출결의 작성 등의 기능을 모두 모바일로 구현했다. 또 출장 시 이용하는 교통 및 숙박, 또는 온라인몰 제휴 구매 시 거래 명세서를 자동으로 제공해 간편하고 투명한 경비처리를 돕는다.현재 비즈플레이는 △부서별/사용자별/용도별 현황보고서 △카드 취소 현황 보고서 △주중/주말 사용 보고서 △해외 사용내역 보고서 △분할 보고서 △미처리 영수증 사용자 보고서 등 50여 종의 경비현황 보고서를 제공한다.비즈플레이는 현재 △우리은행 △토스 △신세계아이앤씨 △한국관광공사 △한국수자원공사 등 2,800여 대기업 및 공공기관, 3만여 중소기업이 이용 중이며 390만 여 명의 사용자를 보유해 시장 점유율 1위를 자랑한다.김홍기 비즈플레이 대표는 “이번 비즈플레이 4.0 GS인증 획득으로 차세대 경비지출관리를 위한 비즈플레이의 품질과 서비스를 제고할 수 있었다”며 “앞으로도 지속적인 R&amp;D를 통해 디지털 전환 시대에 알맞은 디지털 경비지출관리 솔루션을 제공할 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>'블록체인 인프라' 구축하는 스타트업들…'밸리데이터'가 뛴다</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004815264?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>위임받은 블록 거래 검증·생성예치 물량 많을수록 보상 늘어이용자 대신해 거버넌스에 참여블록체인계 국회의원 역할 맡아해외에선 수천억 투자금 유치유니콘으로 성장 사례 이어져Getty Images Bank가상자산 시장은 많은 이들의 기대를 받는 동시에 논란 또한 끊이지 않는 분야다. 지난해 루나·테라 폭락, FTX 파산 등의 사태가 벌어진 데 이어 최근에는 미국 증권거래위원회(SEC)와 가상자산 해외송금 업체 리플이 토큰의 증권성 여부를 두고 치열한 소송전을 벌이고 있다.Getty Images Bank그럼에도 가상자산의 기반 기술인 블록체인의 가능성에는 다수가 동의하고 있다. 탈중앙·보안성을 강점으로 금융 및 유통의 혁신을 가져오고 다양한 산업에 유용하게 활용될 것이라는 관측이 지배적이다. 성장 잠재력 또한 상당한 것으로 평가받는다. 삼정KPMG경제연구원이 마케츠앤드마케츠 데이터를 분석한 결과 글로벌 블록체인 시장 규모는 2024년 235억달러(약 30조6910억원)에 달할 것으로 전망됐다.전문가들은 블록체인이 가져올 탈중앙화된 ‘웹 3.0’이 일상화되려면 기술과 인프라가 더욱 고도화되고, 관련 제도도 갖춰져야 한다고 지적한다. 이런 상황에서 ‘블록체인의 볼트와 너트’로 불리는 블록체인 인프라 구축을 위해 노력하는 스타트업들이 있다. 작년 5월 세워진 에이포원(A41)도 그중 하나다.○블록체인계 국회의원 ‘밸리데이터’“저희는 이 산업의 가능성을 믿고 있기 때문에, (산업과) 함께 성장할 수 있는 일을 하고 싶었어요.”박광성 A41 대표(사진)는 최근 한국경제신문과의 인터뷰에서 이같이 말했다. A41은 브랜드명으로 법인명은 에이포엑스다. 이 기업은 밸리데이터(검증인), 서비스형 거버넌스, 콘텐츠 제작 등의 사업을 하고 있다. 에이포엑스는 투자시장 경색에도 작년 말 150억원 규모의 시드(초기) 투자를 받으며 유망 블록체인 스타트업으로 떠올랐다. 이달 초 열린 앱토스 서울 해커톤에서는 ‘툴킷’ 부문에서 우승을 차지하기도 했다. 이 해커톤은 블록체인 앱토스(APT)가 서울에서 개최한 개발자 행사다.A41은 블록체인 밸리데이터 사업에 주력하고 있다. 밸리데이터는 지분증명(PoS) 방식의 블록체인 프로젝트에서 노드를 운영·관리하며 생태계를 유지하는 역할이다. 이 방식은 컴퓨팅 파워를 통한 연산 능력으로 블록을 생성하던 기존 작업증명(PoW)에 비해 에너지 효율과 확장성에 장점이 있다. 이 때문에 이더리움을 비롯한 다수의 블록체인 프로젝트가 이를 택하고 있다.밸리데이터는 가상자산 소유자에게 위임받은 만큼 블록에 담긴 거래를 검증하고 생성한다. 이용자를 대신해 거버넌스에 참여해 투표를 하기도 한다. 거버넌스에는 생태계 운영 방향성 등이 투표 안건으로 올라오는데, 이를 블록체인상에서 투표하는 것이다. 밸리데이터는 이처럼 블록 생성에 기여하는 대신 일정한 보상을 받는다. 위임받은 스테이킹(예치) 물량이 많을수록 보상이 늘고, 네트워크 내부에서 영향력이 커진다. A41은 현재 앱토스, 코스모스, 폴리곤, 오스모시스, 주노 등 8곳 이상의 네트워크에 밸리데이터로 참여하고 있다.○해커톤 통해 아이디어 검증거버넌스 사업도 A41이 집중하고 있는 분야다. 박 대표는 “매주 투표에 대한 내용을 분석하고 설명하는 자료를 내고 있다”며 “검증인으로서 목소리를 내고 정보를 전달하는 역할인 만큼 대의민주주의에서 국회의원의 역할과 비슷한 부분이 있다”고 설명했다.블록 생성을 제대로 하지 않거나, 규칙을 지키지 못한 경우 ‘슬래싱’이라는 페널티가 주어지기도 한다. 이들에게 위임한 이용자에게도 페널티가 적용되기 때문에 해당 밸리데이터에 대한 신뢰를 잃게 된다. 그럴 경우 밸리데이터는 위임받는 물량이 줄어들게 된다. 지지 세력이 줄어드는 셈이다. 이런 이유로 PoS 방식은 다수의 세력이 독식할 수 있다는 우려가 있지만, 이용자가 언제든 검증인을 바꿀 수 있어 자정 작용이 가능하다는 설명이다.A41은 상세한 리서치 자료를 제작해 공개하고 있다. 이 분야에 관심을 갖는 이들에게 도움을 주는 것 역시 생태계에 기여하는 일이라는 생각에서다. 디앱(DApp), 가상자산 대시보드, 응용프로그램 인터페이스(API) 서비스 등에 대한 상품 개발 역시 고려 중이다. 이를 위해 지난해 8월 코스모스 해커톤, 이달 앱토스 해커톤 등 글로벌 해커톤에 꾸준히 참여하고 있다. “상품에 대한 내부 아이디어를 검증해보자는 취지”라는 설명이다.박 대표는 “아직 뉴비(신참)인 만큼 우선 밸리데이터로 자리매김하는 것에 집중해 참여 중인 네트워크에서 더 강한 영향력을 확보할 것”이라며 “장기적으로는 기관, 단체 등이 스테이킹할 수 있는 인프라 서비스 등을 고려하고 있다”고 말했다.○해외선 이미 유니콘 속출해외 투자업계는 이미 몇 년 전부터 블록체인 인프라·서비스 구축에 투자해왔다. ‘빅 플레이어’로 성장한 해외 기업도 상당하다. 이들 기업은 다시 초기 블록체인 스타트업에 투자하며 생태계를 키워나가고 있다.블록체인 인프라 개발사 바이슨트레일은 2021년 세계 최대 가상자산 거래소인 코인베이스에 인수돼 코인베이스 클라우드로 통합됐다. 2018년 세워진 피그먼트 역시 밸리데이터 사업을 주력으로 한다. 이 기업은 2021년 말 1억1000만달러(약 1300억원) 규모의 투자금을 유치하며 기업가치 14억달러(약 1조6700억원)의 유니콘 기업으로 성장했다. 국내 기업인 미래에셋이 투자한 곳이기도 하다.같은 해 유니콘 기업에 오른 블록데먼은 보안성이 높은 기관급 블록체인 인프라가 강점으로 알려져 있다. 소프트뱅크의 투자를 받은 인프스톤스 역시 빠르게 몸집을 키우고 있다.업계에서는 가상자산 광풍이 꺼진 뒤에는 블록체인 인프라가 남아 새로운 거래 방식과 플랫폼을 만들어갈 것으로 보고 있다. 미국 벤처캐피털(VC) 앤드리슨호로위츠는 작년 상반기 보고서를 통해 “지금과 같은 트렌드가 이어진다면 2031년에는 웹 3.0 이용자가 10억 명을 돌파할 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.02.17.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>모빌리티 전쟁 본격화...은행, 생존 위한 몸부림</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002105592?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>이자수익만으론 안된다는 절박함디지털 금융 확산에 영역 파괴당국도 금산분리 완화 시도 무게배달서비스 ‘땡겨요’로 디지털금융혁신을 일으킨 신한은행이 카카오모빌리티에 투자를 검토하고 나선 것은, 최근 금융권이 마주한 현실을 그대로 드러낸다. 은행을 넘어 일상 생활을 공유하는 플랫폼, 즉 ‘인비저블 뱅크(Invisible Bank·보이지않는 은행)’로 변해야 살아남을 수 있다는 위기의식이다. 최근 정부가 이자장사·돈잔치로 연일 은행들의 이자수익 모델을 압박하고 있는 만큼 혁신을 통한 비이자수익을 키우려는 은행들의 몸부림은 더욱 거세질 전망이다.▶배달 이어 모빌리티 잡는 금융, 교육·부동산도...생활 속으로 진입= 17일 금융권에 따르면 각 은행들은 모빌리티를 시작으로 교육, 부동산, 페이, 금융플랫폼 등 분야별로 인수 및 투자 리스트를 정리해 사별로 접촉 중이다.윤석열 대통령이 ‘공공재적 성격’으로 명명했던 은행과 통신사 간 협업은 일찌감치부터 이뤄져 왔다. 신한은행은 KT와 지분교환을 통한 파트너십을 구축했다. 하나금융그룹은 SKT와 지분교환을 통한 파트너십을 구축했고, LG유플러스와 디지털 사업을 위한 전략적 업무협약을 체결했다.신한은행의 역작 중 하나로 꼽히는 배달앱 ‘땡겨요’는 1년새 가맹점수 6만을 돌파하며, 금융혁신의 대표 사례로 일컬어진다. 이 연장선상에서 신한은행은 카카오모빌리티와 투자 및 제휴 관련해 진일보한 논의를 하고 있다. 그보다 앞서 국민은행은 일찌감치 티맵모빌리티에 2000억원을 투자해 4대 주주에 올랐다. 2021년 10월 토스는 타다를 인수한 뒤, 최근에는 알뜰폰 사업에도 진출한 상태다.은행들이 모빌리티에 눈길을 돌린 것은 금융과의 시너지 연계성이 높기 때문이다. 생활에 가장 밀접한 분야인데다 고객들의 이용빈도도 압도적으로 높다. 모빌리티 플랫폼 사용자들의 소액대출 등 금융상품 개발이나 결제를 통한 신규 고객 유치는 물론이고, 지주 계열사의 보험상품 확대 혹은 캐피털의 자동차 금융 등 전방위적으로 사업을 넓힐 수 있는 이점도 있다.금융권 관계자는 “모빌리티의 밸류 체인 하에 금융을 심는다고 하면 카드 결제부터 보험, 모빌리티 소속 기사 대출 및 금융상품, 심지어 이용자들의 동선 등 마이데이터 사업에서 원했던 모든 정보가 나온다”며 “일반 사람들은 체감조차 못하겠지만, 하다못해 택시나 공항버스로 해외에 갈 때 환전을 해야하는데 환전서비스를 시작으로 여행객들을 대상으로 한 각종 부가서비스마저 노릴 수가 있다”고 말했다.▶이자장사 그만, 완전경쟁 체제 도입...‘본업’ 압박에 벽 허물기= 은행들이 이처럼 타 업권의 진입 시도를 하는 건 디지털 뱅킹이라는 거대한 물결과 더이상 이자수익만으로 영위해서는 안된다는 절박함이 중첩된 결과다.그간 금융당국 또한 ‘금산분리 완화’, ‘유니버설 뱅킹 도입’ 등을 통해 “산업 간 경계가 허물어진 ‘빅 블러’ 시대를 맞아 금융산업의 발목을 잡지 않도록 과감하게 디지털 시대에 맞지 않는 규제들을 걷어내겠다”고 누누이 밝혀왔다. 최근 지배구조 문제 등으로 관심사에서 밀리긴 했으나, 금융위원회는 올해 업무보고에도 금산분리 완화를 넣었을 정도로 이에 무게를 두고 있다.이미 미국이나 유럽 등의 경우 지분 소유제한이 없다보니 금융사들이 타 업권에 뛰어들며 영역을 넓히고 있다. 반면 우리나라의 경우 핀테크나 헬스케어업체 등 IT 혁신 기업에 15% 넘게 투자할 수 없어 투자협상이 지연되거나 결렬되는 등 산업 성장이 좌초되는 경우가 상당하다는 얘기다.5대 은행을 중심으로 한 과점체제에 대한 비판적 목소리도 타 업권의 진출을 앞당기게 하는 트리거가 되고 있다. 은행들이 이자장사를 하면서 수익을 낸 뒤 고액의 성과급, 퇴직금을 지급하면서 사회적 고통을 도외시한다는 비판 여론이 높아지고 있어서다.급기야 윤석열 대통령은 지난 15일 용산 대통령실 청사에서 제13차 비상경제민생회의를 열고 “과점 체제인 은행과 통신 산업의 실질적인 경쟁시스템 강화를 위한 특단의 조치를 마련하고 그 결과를 별도로 보고하라”고 지시하기도 했다. 이복현 금융감독원장 또한 “여수신 등 은행업무의 시장 경쟁을 촉진해 효율적인 시장가격으로 은행서비스가 금융소비자에게 제공될 수 있도록 하는 다양한 제도·방안에 대해 심도있게 검토해달라”고 주문했다.그 일환으로 당국은 라이선스 세분화, 인터넷전문은행 확대, 핀테크의 금융업 진출 도입 등을 다각도로 살펴보고 있다. 특히 기능별로 은행 라이센스를 쪼개는 일종의 ‘스몰라이선스’를 도입해 특화은행을 활성화한다면 전 분야에서 우월적 지위를 차지하는 과점 체제를 깰 수 있다는 판단이다. 이미 금투업은 자본시장법에 따라 금융투자업자 인가체계를 금융기관별에서 금융기능별 인가로 바뀐 바 있다. 은행권 관계자는 “그간 비이자수익을 늘려야한다는 의견이 있었지만, 더이상 사회적 분위기나 정책방향이 은행들이 이자수익을 통해서 벌어선 안된다는 공감대를 토대로 움직이고 있지 않느냐”며 “사회적 역할을 다하고, 글로벌 금융과 경쟁하기 위해 타 업권 진출을 꾀하는 은행들의 움직임이 이어질 것”이라고 말했다. 서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>“신용점수 올려드려요” 대출 이자 부담 늘자 신용관리 서비스 인기</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000881319?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>대출금리 오르며 고통 호소하는 이들 늘어핀테크 업계, 신용점수 올리는 서비스 잇달아 출시금리 인상 기조 여전해 관련 서비스 확대 가능성도개인 신용점수 조회 화면의 모습. /박소정 기자 회사원 이모(31)씨는 최근 친구들과 개인 신용점수를 함께 살펴보다가 깜짝 놀랐다. 당시 그의 친구들은 개인 신용평점이 800점대 중후반(NICE 기준)인 반면 자신의 신용평점은 720점으로 매우 낮았기 때문이다. 상담을 받아본 결과, 그의 낮은 점수는 저축은행과 캐피탈 등 제2금융권에서 여러 대출을 받았기 때문이라고 했다. 내년에 전세 계약 등으로 큰돈이 필요한 이씨는 신용점수를 높이지 못한다면 높은 금리 등 안 좋은 조건으로 대출을 받아야 하기에 고민이 크다. 신규 대출을 포기할까 그는 고민했지만 주변 추천으로 이씨는 피플펀드의 신용 관리 서비스인 크레딧플래닛을 접하게 됐다. 그는 크레딧플래닛을 통해 신용평점을 올리는 방법, 미리 받은 대출을 어떻게 정리할지 등을 조언받았다. 이 계획대로만 한다면 그는 신용점수가 896점으로 크게 오를 수 있었다. 이씨는 “내년에 전세 계약 등 개인 사정으로 꼭 대출이 필요했는데, 좋은 조건을 받을 수 있어 다행이다”라고 한숨을 돌렸다.최근 고금리 시대가 이어지며 높은 대출 금리에 부담을 느끼는 이용자들이 많아지자, 핀테크 기업들이 대출이자를 줄일 수 있도록 신용 점수 관리를 해주는 서비스 및 상품을 속속 내놓고 있다.28일 핀테크 업계에 따르면 피플펀드, 토스, 카카오페이 등 여러 핀테크 회사들은 신용점수를 올리기 위한 서비스를 운영 중이다. 이 업체들은 빚, 자산 현황 등 금융 정보뿐 아니라 비금융 정보를 활용해 신용점수를 올리는 데 도움을 주거나 본인신용관리업(마이데이터)을 활용해 개인별로 신용점수를 올릴 수 있는 방법을 제안하고 있다.온라인투자연계금융업(온투업·P2P) 회사 피플펀드는 자체 개발한 신규 애플리케이션(앱) ‘크레딧플래닛’에서 신용 진단 및 신용관리솔루션을 무료로 제공 중이다. 크레딧플래닛은 피플펀드가 독자적으로 개발한 인공지능(AI) 기반 알고리즘을 통해 신용점수를 올릴 수 있는 방법 등을 개인에 맞춰 제공하고 있다. 피플펀드에 따르면 서비스 출시 한 달 만에 4000명이 넘는 신청자들이 몰렸다고 한다. 피플펀드 관계자는 “단순히 신용카드 한도를 높이는 방법으로도 신용점수를 올릴 수 있다”며 “고금리 시대에 대출 이자 부담이 늘면서 서비스를 찾는 인원도 많아지고 있다”고 했다./피플펀드 제공        핀테크 기업들은 신용점수 가점 획득에 도움이 되는 비금융 정보를 제출해 신용점수를 올릴 수 있도록 돕는 간편제출서비스도 내놓고 있다. 토스·카카오페이·뱅크샐러드 등은 통신요금, 국민연금, 건강보험료 납부내역 등 신용점수를 높일 수 있는 비금융 정보를 신용평가사에 제출해 고객들의 신용점수를 높이고 있다.뱅크샐러드는 2018년부터 ‘신용점수 올리기’ 서비스를 시작했고, 지난해 7월 금융 마이데이터를 활용해 가장 먼저 고도화된 버전의 ‘신용점수 레벨업’ 서비스를 선보이기도 했다. 신용점수 올리기 서비스는 앱을 통해 신용평가에 반영되지 못했던 자산 정보를 마이데이터와 공공데이터를 통해 신용평가사에 제출하고 있다. 뱅크샐러드 앱에서 본인 인증과 은행과 증권, 카드 등의 자산 서비스를 연결한 다음 ‘신용점수 올리기’를 선택하면 이를 1분 안에 종합해 점수를 알려준다. 뱅크샐러드 관계자는 “주부, 학생 등 소득이 잘 잡히지 않는 이들도 신용점수를 올릴 수 있다”며 “고객들은 개선된 신용점수를 통해 보다 유리한 조건으로 대출을 받을 수 있다”고 했다.토스 역시 뱅크샐러드와 비슷한 ‘신용점수 올리기’ 등 여러 서비스를 운영 중이다. 토스에 따르면 현재까지 관련 서비스를 이용해 신용점수를 올린 사용자는 213만명이다. 이 서비스는 신용점수에 좋은 영향을 줄 수 있는 문서(국민연금납부내역, 건강보험납부내역, 소득금액증명서, 통신비납부내역 등)를 한국신용정보원에서 나이스평가정보(NICE), 코리아크레딧뷰로(KCB) 등 신용평가사로 전달해 준다. 토스 관계자는 “고금리 시대를 맞아 신용점수 관리에 관심을 갖는 고객이 늘고 있다”며 “토스 역시 이러한 점을 고려해 앞으로도 비슷한 상품을 출시하거나 확대 방법을 모색하고 있다”고 했다.업계에서는 이러한 움직임이 앞으로도 이어질 것으로 보고 있다. 한국은행이 지난 23일 기준금리를 3.50%로 동결하긴 했지만 추가 인상 여지를 남겨뒀기 때문이다. 또한 은행권이 기준금리에 신용도 등의 조건에 따라 덧붙이는 가산금리를 낮추지 않는다면 대출금리 또한 오를 수도 있다. 한 핀테크 업계 관계자는 “아직 금리 인상과 관련해 불확실성이 많은 만큼, 대출금리를 낮추기 위한 수요가 많을 것으로 판단된다”며 “이러한 수요를 충족하기 위해 핀테크 업계도 그 대응 방법을 모색할 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>韓 금융업 부가가치, 英 따라 역주행…"제조업만으로 성장할 수 없어"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042526?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>20일 국민의힘 정책위원회, 한국핀테크산업협회가 국회에서 개최한 정책토론회에서 윤창현 국민의힘 의원(사진 왼쪽에서 여섯 번째), 이승건 비바리퍼블리카 대표(사진 오른쪽에서 다섯 번째) 등 참석자들이 포즈를 취하고 있다.(사진=블로터 강승혁 기자)한국에서 창출된 부가가치 중 금융업이 차지하는 비중이 10년 전보다 되레 낮아지는 '역주행' 현상이 나타나고 있다. 이는 유럽연합(EU) 탈퇴로 금융업의 경쟁력이 낮아진 영국과 같은 흐름이다. 미국, 중국 등 강대국들이 고고한 성장세를 잇고 있는 것과는 대조된다.조재박 삼정KPMG 부대표(디지털본부장)는 20일 국민의힘 정책위원회, 한국핀테크산업협회가 국회에서 개최한 정책토론회에서 "우리나라에서 강한 제조업만으로 성장의 엔진을 가져가기는 어렵다"며 "5년 전만 해도 삼성전자와 애플의 시가총액이 3배밖에 차이가 안 났지만 2년 전에는 4.8배, 지금은 8배 차이가 난다"고 말했다.금융산업의 국가경제에 대한 기여도를 의미하는 OECD의 'Value added by Finance and Insurance' 지표를 보면 한국은 2010년 6.46%에서 2020년 6.24%로 0.22%포인트 하락했다. 같은 기간 영국도 8.71%에서 8.32%로 낮아졌다. 반면 중국은 6.24%에서 7.78%, 미국의 경우 6.79%에서 8.44%로 1%포인트 넘는 상승폭을 보였다.지난 2013년 박근혜 정부 당시 신제윤 금융위원장은 금융업이 창출하는 부가가치 비중을 10년 내 10% 수준까지 끌어올리겠다고 역설했다. 고용과 수익성 등 실제로 창출되는 부를 기준으로 전환해 한국 금융의 질적 내실화를 이루겠다고 했었는데, 실패한 셈이다. 최근 시중은행과 보험사, 카드사 등은 불어난 이자이익으로 '돈 잔치'를 한다는 비난을 받자 이날 일제히 2023년 채용 규모를 전년보다 늘리겠다고 발표했다.국제 카드사 마스터카드의 경우 시가총액이 약 450조원 수준으로 약 370조원 규모의 삼성전자를 뛰어넘고 있다. 마스터카드가 이처럼 글로벌 제조기업을 뛰어넘는 덩치를 가진 데는 자사에 없는 역량을 가진 핀테크사를 인수하는 외생성장(Inorganic growth) 전략이 주효했다. 온라인 상거래 및 사기방지기술은 에소카(Ethoca), 암호화폐 자금세탁 방지 서비스는 사이퍼트레이스(Ciphertrace) 등으로부터 수혈하는 식이다.그런데 한국에서는 금융사와 핀테크사의 조화가 정밀하게 이뤄지지 못하고 있다. 금융기관이 가진 고객 데이터를 활용해 맞춤형 서비스를 제공하는 '마이데이터' 서비스가 대표적이다. 비바리퍼블리카가 운영하는 앱 '토스'는 마이데이터 서비스를 운영 중인데 정보제공 실패율이 50% 이상으로 올라가는 금융기관 수가 하루 35곳 수준에 달한다.신중희 비바리퍼블리카 사업개발실장은 "마이데이터 제도는 정보를 획득할 수 있는 API가 금융기관과 1:1로 연결돼 있는 구조라 정보제공자의 서비스 중단은 모든 마이데이터 사업자 서비스의 정보제공 중단으로 이어진다"며 "그럼에도 불구하고 현재 정보제공자의 정보제공 성능에 대한 기준이 부재한 실정"이라고 지적했다.토스 앱 내 마이데이터 정보제공 기관의 서비스 중단 모습. 신중희 비바리퍼블리카 사업개발실장이 직접 제시했다.(사진=토스)국내에서도 금융사가 핀테크와 협업 및 투자를 통해 플랫폼 및 상품 경쟁력을 강화하고, 핀테크 기업은 금융사의 인프라와 오프라인 접점을 활용하는 '윈윈(Win-Win)' 효과 창출이 필요하다고 조 부대표는 제언했다. 글로벌 금융사는 핀테크 M&amp;A 및 조인트 벤처 설립에 적극적이다. 한국 금융사 역시 글로벌 진출 시 핀테크 기업과 동반 및 협업해 새로운 혁신과 도전을 이룰 수 있다는 논지다.특히 한국은 출산율 저하, 생산가능인구 감소 등 인구 구조 변화를 겪고 있는 만큼 미래 성장 엔진을 확보하기 위해서라도 금융 플랫폼 경쟁력의 제고가 필요하다는 인식이다. 조 부대표는 "금융은 플랫폼 이코노미에 있어 중추적인 산업으로 핀테크 활용을 통해 금융산업 발전, 국부 창출 및 소비자 편의 제고에 기여할 수 있다"고 강조했다.정부에는 규제 샌드박스 및 마이데이터 제도를 리모델링할 것을 주문했다. 핀테크 비즈니스를 본궤도에 올리고 스케일업을 장려하기 위해서다. 핀테크사의 글로벌 진출을 지원하는 동시에, 금융사가 핀테크에 투자 및 협업 시 인센티브를 지급하는 방안도 제시됐다. 핀테크 선진국으로 평가받는 싱가포르는 사업 모델을 고려한 심사 절차 간소화, 스케일업 지원, 명시적 기일 내 회신 등 샌드박스 제도의 고도화를 진행하고 있다.핀테크사는 글로벌 침체에 따른 기업가치 재평가로 인해 고객 유치 이후의 수익모델 및 철저한 비용 관리에 대해 고민할 필요가 있다는 지적이다. 차별화된 비즈니스 모델도 요구된다. 글로벌의 경우 디지털 기술과 데이터를 활용한 금융기관 및 기업용 소프트웨어, 금융과 비금융을 잇는 임베디드 서비스 제공 기업이 성장 중이다.이번 토론회를 주최한 윤창현 국민의힘 의원은 "기득권에 안주한 은행의 과점 체제가 기존 금융의 모습"이라며 "핀테크 분야는 산업의 구조를 바꿀 수 있는 역량을 10여년 축적해 온 만큼 산업을 바꾸는 마중물이 돼 새로운 시대를 마련할 수 있다"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘사장님대출’ 출시 1년…잔액 1조5000억 돌파</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000040296?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>중저신용자비중 49.8% 달해일평균 대출 1644건 신청토스뱅크의 사장님대출이 출시 1년을 맞았다. [사진 토스뱅크][이코노미스트 김윤주 기자] 토스뱅크가 인터넷전문은행 최초로 선보인 비대면 개인사업자 대출인 ‘토스뱅크 사장님 대출’이 출시 1년을 맞았다. 그 사이 개인사업자 대출 규모는 1조5000억원으로 성장했고, 이 가운데 중저신용자 대출 비중은 전체 대출 잔액의 49.8%에 달했다.20일 토스뱅크에 따르면 개인사업자 대출은 총 1조5000억원(잔액 기준)에 달한다. 지난해 2월 인터넷전문은행 최초로 비대면, 무보증 무담보 신용대출인 ‘토스뱅크 사장님 대출’을 선보인지 1년 만이다. 토스뱅크 사장님 대출은 올해 1월에만 공급 규모가 총 1830억원에 달한다. 개인사업자 대출을 운영 중인 전체 은행 가운데 4건 중 1건(25%)이 토스뱅크에서 이뤄졌다. 특히 전체 개인사업자 대출 가운데 49.8%는 ‘건전한 중저신용자’가 차지했다. 토스뱅크가 자체적으로 개발한 신용평가모형(TSS)를 통해 실질소득과 상환능력을 갖춘 중저신용자를 발굴한 덕분이다. 제1금융권에서 소외됐던 자영업자와 소상공인을 포용한 결과 저축은행·캐피탈사 등 제2, 제3 금융권에서의 이동도 두드러졌다.10년간 소규모 영어학원을 운영 중인 A고객은 제2금융권에서 사업자금 등 확보를 위해 1억7000만원의 대출을 받은 뒤 토스뱅크에서 5000만원의 사업자금을 추가로 대출했다. 기존 대출 일부를 상환하면서, 보다 낮아진 금리로 안정적으로 사업을 운영할 수 있게 됨은 물론 신용점수도 155점 가량 상승했다. 이른바 ‘크레딧 빌딩’ 효과를 누린 셈이다.‘토스뱅크 사장님 대출’은 대출 신청부터 실행까지 평균 3분 이내에 이뤄져 영업장을 비우고 은행에 가기 힘든 개인사업자들에게서 높은 호응을 받았다. 이 기간 고객들은 총 60만 건의 대출 심사를 받아, 일평균 약 1644건의 개인사업자 대출 상담이 이뤄진 것으로 나타났다.토스뱅크의 개인사업자 고객군을 분석한 결과 시중은행에서는 대출받기 어려웠던 고객들이 새롭게 기회를 얻는 것으로 나타났다. 그동안 소득 증빙이 어려워 제1금융권에서 대출받기 어려웠던 운수업 종사자를 비롯해, 창고업·광업·긱워커 등이 토스뱅크에선 고객이 됐다. 업종별로는 도소매업이 전체 고객의 3명 중 1명 꼴(32.4%)으로 가장 많았다. 주로 온라인 사업장을 운영하는 이른바 ‘비대면 개인사업자’였다. 음식점(13.3%) 제조업(6.7%)이 그 뒤를 이었다. 토스뱅크는 개인사업자들의 영업 지속성과 소득의 정기성에 주목한 덕분으로 이 같은 결과를 분석했다. 토스뱅크 신용평가모형(TSS)은 고객들이 비록 매출액이 크지 않더라도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 실질 상환능력이 뛰어나다고 판단했다. 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정했다. 3년 간 광업에 종사한 B고객은 최근 토스뱅크에서 4000만원을 빌릴 수 있었다. 고객의 신용점수는 KCB 기준 767점으로 중저신용자에 해당하지만, 건전한 소비 등 금융거래 기록과 꾸준히 매출을 올렸다는 점이 가점으로 인정됐다.토스뱅크 관계자는 “일평균 1644건의 대출 신청이 이뤄졌을 정도로 개인사업자 대출에 대한 고객들의 호응이 높았다”며 “지난 1년간 삼중고를 겪으며 긴급 사업 자금이 필요했던 소상공인, 자영업자들에게 실질적이고도 적시에 공급을 해왔고, 앞으로도 지속적인 지원이 이뤄질 수 있도록 노력해 나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[fn마켓워치]우리금융그룹, 다올인베스트먼트 2125억에 인수</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004974811?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 우리금융그룹이 다올인베스트먼트를 인수했다. 인수가격은 지분 52%에 약 2125억원 규모다. 우리금융으로선 이번 인수를 통해 비은행 포트폴리오를 확대하게 됐다.   27일 금융감독원 전자공시시스템에 따르면 다올투자증권은 다올인베스트먼트 지분 52% 전량을 2124억9020만원에 처분을 결정했다. 거래 상대방은 우리금융지주다.   최근 다올금융그룹은 사업구조 재편의 일환으로 다올인베스트먼트 매각을 진행했다. 불투명한 금융시장에 선제적으로 대응하고 선택과 집중을 통해 그룹의 안정적 성장을 지속해 나가기 위한 결정이다.   이번 거래가 종결되면 다올투자증권은 2125억원 규모의 유동성자금이 확보된다. 재무적 안정성이 향상될 뿐만 아니라 시장 대응력도 강화될 것으로 보인다.   다올금융그룹 관계자는 “상호 협력적 자세로 협상을 진행한 결과 양측이 만족하는 조건으로 조기에 본계약을 체결을 할 수 있었다”며 “매각을 통해 확보된 자금은 회사의 사업 안정성 강화와 신성장 동력 발굴을 위해 쓰여질 예정”이라고 말했다.   IB업계 관계자는 "우리금융은 완전 민영화 후 증권사, 보험사 등 비금융 포트폴리오 강화가 숙원사업"이라며 "5대 금융지주 가운데 유일하게 벤처캐피탈(VC) 계열사가 없었던 만큼 이번 인수전의 핵심 플레이어였다"고 덧붙였다.   앞서 다올인베스트먼트 매각에는 우리금융그룹을 비롯해 20개가 넘는 전략적투자자(SI), 재무적투자자(FI)들이 인수의향을 밝혔다.   다올인베스트먼트가 상장사인 점 등을 고려해 가격적 요소보다는 거래 종결성, 중장기적 성장전략 청사진과 사업적 시너지 등을 중점적으로 평가한 것으로 전해졌다.   다올인베스트먼트의 지난해 9월 말 연결기준(미국 다올벤처스 포함) 순자산 장부가액은 2865억원에 이른다. 본사 소재지인 판교테크노밸리 부동산의 실거래가 적용시 장부 대비 약 200억원의 평가이익을 반영하지 않았다. 순현금(무차입) 약 1100억원, 투자자산의 최근 펀딩 밸류 및 향후 매각차익 업사이드 등을 고려하면 거래 종결성에 비중을 높게 뒀다는 분석이다.   다올인베스트먼트는 1981년 정부가 설립한 한국기술개발(KTDC)이 전신인 국내 1세대 벤처캐피탈(VC)이다. 지난해 12월 현재 운용자산(AUM) 총 1조5000억원 규모의 21개 투자조합을 운용하고 있다.   그간 배달의민족, 토스(비바리퍼블리카), 해외 스타트업 등에 대한 트랙레코드(투자이력)를 보유하고 있다.   한편 다올투자증권은 다올인베스트먼트를 포함해 태국 소재 증권지주사인 다올 타일랜드 매각을 추진하고 있다. 다올신용정보는 메이슨캐피탈, 리드캐피탈매니지먼트에 130억원 수준에 매각할 것으로 알려졌다. #우리금융 #우리금융그룹 #다올인베스트먼트</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>“요즘도 해외 간다고 환전해요?” 여행족 필수품 된 ‘여행 특화 카드’</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000064164?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>스타트업 트래블월렛 vs 하나카드 트래블로그, 결제 수수료 최소화 및 편리한 환전으로 호평[비즈니스 포커스]하나카드의 해외여행 특화 카드 '트래블로그'.(사진=하나카드)일본을 다녀오면 동전 꾸러미가 남고 베트남에서 돌아오면 남은 지폐를 세는 게 ‘코로나19 이전’의 여행 풍경이었다. 크로스백 속 현금이 가득 든 봉투를 꺼내 하나둘 세던 해외여행객들의 모습이 차차 사라지고 있다. 최근 각종 여행·해외 거주 커뮤니티에는 ‘트래블월렛이 제가 가는 나라에서도 결제가 되나요’, ‘트래블로그 발급받았는데 현금도 조금은 필요한가요’라는 질문이 줄을 잇고 있다. 해외여행객들을 겨냥한 특화 카드 상품들이 여행족들의 ‘필수품’으로 떠오른 것이다. 이 상품들의 공통점은 해외 여행 시 따르는 여러 불편함을 없앴다는 것이다. 첫째로 해외 결제와 환전에 필연적으로 따르는 수수료를 최소화하면서 부담을 줄였다. 둘째로는 여행 이후 남은 외화도 손쉽게 반납할 수 있다. 별도로 환전해 가지 않아도 해외에서 현금자동입출금기(ATM)를 통해 현금 인출도 가능하다. ‘수수료 0’ 들고나온 여행객 특화 카드핀테크 스타트업 ‘트래블월렛’은 트래블월렛 애플리케이션(앱)을 통해 외화를 원하는 시점에 환전·충전하고 결제까지 할 수 있는 서비스로 외화 결제 시장에 돌풍을 일으켰다. 현재 전 세계 38개국의 통화를 제공하고 있다. 트래블월렛은 2020년부터 비자와 라이선스 계약을 채결해 2021년 2월 ‘트래블월렛’ 서비스를 제공했다. 지난해 7월 롯데카드와 제휴해 여행에 특화된 ‘트래블엔로카’를 출시했다. 강점은 역시 ‘수수료’다. 트래블월렛은 모든 외화 결제에 대해 ‘0%’의 결제 수수료를 제공하는데 이는 약 2.5%의 수수료를 절약할 수 있는 것이다.또 실시간으로 환율을 반영해 환전하고 싶은 시점에 바로 환전할 수 있다. 외화를 충전할 때 달러·유로·엔화는 환전 수수료가 무료이고 그 외 통화에 대해서는 0.5~2.5%의 수수료가 붙는다. 트래블월렛 관계자는 “기존 외화 구조는 결제 에이전트, 부가가치통신망사업자(VAN), 현지 에이전시 은행·가맹점을 모두 거치기 때문에 수수료가 상승할 수밖에 없다”며 “트래블월렛은 외환 환전과 결제를 위해 거쳐야 하는 기존 해외 결제 정산 구조를 효율화해 수수료 비용을 낮췄다”고 설명했다. 이러한 강점을 통해 트래블월렛은 해외여행객들에게 인지도를 높였고 2022년 1분기 2만5000장이었던 카드 발급량은 지난해 4분기 기준 40만 장까지 증가했다. 새로 계좌를 만들지 않고 기존에 사용하던 계좌를 사용할 수 있는 것도 편리하다. 해외에서 쓰고 남은 잔돈도 남김없이 환불할 수 있다.트래블월렛 앱으로 충전한 외화는 트래블페이 실물 카드 또는 모바일 카드로 사용할 수 있다. 만약 여행 중 현금이 필요하면 트래블페이 실물 카드로 충전한 외화를 해외 현지에서 출금할 수 있다.기존 금융권의 상품 중에서는 하나카드의 ‘트래블로그’가 좋은 반응을 얻고 있다. ‘트래블로그’는 하나머니 앱을 통해 충전한 외화 하나머니를 계좌 없이 트래블로그 체크카드로 바로 결제할 수 있는 서비스다. 지난해 7월 출시됐는데 6개월 만에 가입자 수가 60만 명에 달한다.트래블로그는 환전과 해외 수수료가 ‘제로’다. 원화를 하나머니 앱에서 환전할 때 수수료가 없다. 트래블로그 서비스가 지원하는 해외 통화는 엔화·달러·유로·파운드화 등 4종이었다. 여기에 2월 9일부터 위안화·싱가포르달러·캐나다달러·호주달러를 포함해 8종으로 늘어났다. 단 새로 추가된 통화 4종은 8월 31일까지만 무료로 환전할 수 있다.외화 하나머니로 보유할 수 있는 최대 한도는 원화 기준 200만원이다. 이렇게 충전한 외화 하나머니는 트래블로그 체크카드로 해외에서 결제할 때 해외 ATM에서 현금으로 인출할 때 수수료가 붙지 않는다. 단 지역에 따라 현지 ATM 운영 업체가 이용 수수료를 물리는 경우도 있다. 여행 상황에 맞춰 장단점 따져봐야  각종 여행 커뮤니티에는 트래블월렛과 트래블로그의 장단점을 묻는 질문으로 가득하다. 결론은 각 카드마다 혜택이 조금씩 다르므로 방문할 국가나 여행 스타일에 맞춰 적용해야 한다.트래블월렛의 장점은 모든 은행 계좌에서 연동할 수 있고 환전 가능 국가가 38개로 다양하다는 점이다. 단 환전은 달러·유로·엔화만 수수료가 무료이고 그 외 통화에는 수수료가 붙는다는 점을 파악해야 한다. 카드를 외화로 충전할 때 최소 환전 단위는 미화 50달러다. 결제 1회당 최대 한도는 카드 잔액을 포함해 원화는 180만원이다. 트래블로그는 최소 환전 단위가 1000원 정도로 작아 편리하며 영국 파운드의 환전 수수료가 무료라는 점을 기억해 둘 필요가 있다. 단 하나은행 계좌가 꼭 필요하다. 또 트래블로그에서 외화를 원화로 환급 시 송금받을 때(전신환 매입률)의 환율로 적용된 원화 환산 금액에서 환급 수수료가 차감된 후 입금된다. 현재 트래블로그는 환급 수수료를 5%에서 1%로 할인해 주는 이벤트를 진행 중이다.  해외여행 수요가 다시 정상화되면서 여행업계는 모처럼 웃음짓고 있다. 이러한 여행객들을 겨냥한 금융 상품의 수요는 더욱 다양해질 것으로 보인다. 특히 최근 출시된 카드들은 여행 특화 카드가 아니더라도 해외 결제를 유도하는 다양한 기능을 장착했다. 토스뱅크 체크카드는 해외 결제에 대한 무제한 캐시백으로 여행객들 사이에서 좋은 반응을 얻었다. 토스뱅크는 출범 초기부터 해외 결제 건에 대해 무제한 3% 캐시백을 제공해 왔다. 다만 오는 3월 1일부터 캐시백이 2%로 변경된다. 고객들은 해외 현지나 해외 온라인 쇼핑몰을 통해 결제할 때마다 2% 즉시 캐시백을 받을 수 있다. 해외 ATM 현금 인출 수수료 3달러도 면제된다. 해외 대상 금융 상품의 성패는 효율성에서 좌우된다. 그런데 페이먼트 서비스는 한 번 구축하면 개선하기가 쉽지 않다. 이에 따라 해외 특화 상품은 초기부터 서비스를 효율적으로 구축하는 것이 향후 성패를 좌우할 것으로 보인다. 업계 관계자는 “외환 시장의 인프라를 개척해 비효율을 효율로 바꿀 필요가 있다”며 “타사가 따라오기 힘든 독보적 기술과 네트워크, 높은 수준의 보안 요구가 성공을 좌우할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.02.24.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>수수료 갈등에 금융위 추진 혁신금융서비스 도입 '차일피일'</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000725348?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>온라인플랫폼 보험상품 비교·추천 서비스 금융위, 혁신금융 선정·작년 10월 출시 약속수수료율 보험업계 2%, 핀테크업계 10% 고수지난달 26일 오후 서울에서 자동차들이 주행 중인 모습. 뉴시스금융당국이 추진 중인 온라인플랫폼 내 보험상품 비교·추천 서비스 출시가 차일피일 미뤄지고 있다. 손해보험업계와 핀테크업계 간 주고받아야 할 자동차보험 판매 수수료율을 두고 입장 차를 좁히지 못하고 갈등하고 있기 때문이다.  24일 금융권에 따르면, 금융위원회는 최근 손해보험협회와 한국핀테크산업협회를 각각 불러 보험 비교·추천 서비스 도입과 관련한 의견을 청취했다. 보험 비교·추천 서비스는 네이버·카카오·토스 등에서 보험사별 보험료와 보장내용을 비교할 수 있는 서비스다. 금융당국은 지난해 보험사 간 경쟁을 촉진하고 이를 통해 보험료 인하와 보장 범위를 확대한다며 혁신금융서비스로 선정하고 10월 출시를 약속했다.  하지만 양측의 갈등의 골이 깊어지면서 서비스 출시는 마냥 지연되는 실정이다. 판매 수수료율을 둘러싼 이견이 핵심 쟁점이다. 신규 창구가 마련되는 만큼 온라인플랫폼을 통한 보험 판매 시 보험사가 핀테크업체에 어느 정도의 수수료를 줘야 하느냐로 반목하고 있다. 손해보험업계는 2%를, 핀테크업계는 10%를 각각 고수하면서 한 치의 진전도 없다.     핀테크업계는 보험사가 온라인플랫폼에 다이렉트 채널을 광고하고, 이를 통해 보험상품을 판매할 때마다 10% 정도를 광고 수수료로 지출하고 있다는 점을 근거로 들고 있다. 이에 반해 보험업계는 네이버 등 온라인플랫폼이 가전제품이나 생활용품 등 다른 제품을 검색할 경우 상품 비교 서비스를 제공하면서 받는 수수료가 2% 수준이기 때문에 보험 비교 서비스 역시 이 수준이어야 한다고 반박하고 있다. 핀테크업계 관계자는 "수수료 간극이 크다 보니 합의를 이루기가 쉽지 않다"며 "손해보험업계가 몽니를 부려 협상 테이블을 깨겠다는 의도가 아닌지 의심스럽다"고 밝혔다. 이에 대해 한 손보사 관계자는 "같은 비교 서비스인데 보험 판매 수수료율이 더 높아야 할 하등의 이유가 없다"고 목소리를 높였다. 혁신서비스 지연 도입에 금융당국도 골머리를 앓고 있다. 금융위 관계자는 "양측 주장에 모두  일리가 있어 협의를 더 거쳐 봐야 할 것 같다"며 "최대한 빨리 마무리짓고자 하지만 기한을 못 박진 않고 있다"고 귀띔했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>1월 가계대출 예대금리차, KB·농협·우리은행 순</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004971776?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>전체 1·2위 전북은행·토스뱅크중저신용 대출 많은 효과 [파이낸셜뉴스] 지난달 5대 은행 중에 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 KB국민은행으로 나타났다. 전체 은행 중에서는 중금리 대출 비중이 높은 전북은행이 제일 높았다.   20일 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 1월 정책 서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 KB국민은행의 가계 예대금리차(가계대출 금리-저축성수신금리)는 1.51%포인트(p)로 집계됐다.   금융당국은 은행권 '이자 장사'를 막자는 취지로 지난해 7월부터 19개 은행의 월별 예대금리차 공시를 시작했다. 예대금리차가 크다는 것은 산술적으로는 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.   하지만 작년 7월 첫 공시 이후 금리가 높은 저소득·저신용 서민 대상 정책금융상품을 많이 취급할수록 예대금리차가 커지는 왜곡 현상이 지적됐고, 같은 해 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.   KB국민은행에 이어 NH농협은행(1.44%p), 우리은행(1.07%p), 하나은행(1.03%p), 신한은행(0.84%p) 순으로 가계 예대금리차가 컸다.   인터넷 은행 중에서는 토스뱅크의 가계 예대금리차(4.72%p)가 가장 컸고, 케이뱅크(2.15%p)와 카카오뱅크(1.25%p)가 뒤를 이었다.   인터넷 은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%p)이었다.   기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 KB국민은행이 1.81%p로 가장 컸다. 2∼5위는 NH농협은행(1.69%p), 우리은행(1.59%p), 하나은행(1.44%p), 신한은행(1.33%p) 순이었다.   KB국민은행 관계자는 "지난해 12월 주택담보대출과 전세자금 대출의 금리를 낮췄지만, 부동산 경기 침체 등의 영향으로 신규 대출이 감소했지만, 신용대출은 늘어 가계대출 평균 금리가 상승했다. 주택담보대출 금리의 경우 지금도 5대 은행 가운데 가장 낮은 수준"이라며 "지난달 시행한 최대 1.30%p의 금리 인하는 26일부터 적용돼 2월 예대금리차에 반영될 예정"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>‘돈잔치’ 비판 은행권…1인당 복리후생비 538만원</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003784906?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>자녀학자금·의료비 등 지원…2022년 임단협에서도 조건 개선인터넷은행 평균 1인당 1823만원…유연근무제에 안식휴가도높은 금리에 서민들이 시름하는 사이 ‘돈잔치’를 벌여 눈총을 받고 있는 은행권에서 복리후생비도 지속적으로 늘어난 것으로 확인됐다. 주요 은행들은 금리 상승기 늘어난 이익을 기반으로 점심값 지급액을 높이고, 의료비 지원 한도를 늘리는 등 임직원 복리후생을 개선했다.     주요 은행들의 지난 2021년 기준 임직원 1인당 복리후생비는 전년 대비 증가했는데, 지난해에도 늘었을 것으로 예상된다. 특히 인터넷전문은행들의 경우 1인당 복리후생비가 5대 은행(KB국민·신한·하나·우리·NH농협)의 3배를 넘어서는 것으로 나타났다. 은행들이 금리 상승기 이자 수익을 기반으로 손쉽게 돈을 벌면서, 늘어난 이익을 공익에 환원하기보다 내부 임직원들의 상여금이나 복지를 늘리는 데 주력했다는 비판에서 벗어날 수 없는 이유다.     서울 한 거리의 주요 시중은행 ATM 앞으로 시민이 지나가고 있다. 뉴시스    19일 금융감독원 금융통계시스템에 따르면 5대 은행의 복리후생비 지급 규모는 지난 2021년 4036억원으로 전년(3699억원) 대비 9.1% 증가했다. 임직원 1인당 복리후생비 평균 역시 2020년 487만원에서 2021년 538만원으로 51만원 늘었다. 5대 은행은 이미 자녀학자금 지원, 휴가 숙박 지원, 가족 의료·건강지원비 혜택 등 임직원에게 다양한 복지 혜택을 주고 있다.     5대 은행은 올해에도 2022년 임단협을 통해 복리후생 제도 개선에 합의했다. 신한은행은 중식대를 기존 1만3000원에서 1만9600원으로 높였다. 국민은행은 장거리 출퇴근 직원을 위해 톨게이트 비용을 주기로 했다. 우리은행은 지난 2021년 임단협 당시 부모님 의료비 지원금 한도를 200만원에서 300만원으로 높였다. NH농협은행도 2021년 임단협에서 만 35세 배우자 검진을 격년에서 매년으로 늘렸다.     카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행의 1인당 복리후생비는 주요 은행의 3∼4배 수준이다. 인터넷은행 3사의 임직원 1인당 복리후생비 평균은 2021년 1823만원으로 2020년(토스뱅크 제외) 1493만원보다 330만원 늘었다. 2021년 기준 카카오뱅크가 1인당 2283만원으로 가장 많았고 토스뱅크(1667만원), 케이뱅크(1520만원) 순이었다.     인터넷은행들은 주요 복리후생 제도로 출·퇴근 시간을 자율적으로 정하는 유연근무제를 도입하고 있다. 휴가 제도도 다양하다. 카카오뱅크는 만 3년 근무 시 한 달의 안식휴가와 휴가비 200만원을 준다. 토스뱅크도 근속 3년마다 리프레시 유급휴가 1개월을 쓸 수 있다. 케이뱅크는 매년 3일의 유급 자기 계발 휴가를 준다. 이 외에도 카카오뱅크는 직원들에게 연 600만원 규모의 자기 주도 마일리지를 지급한다. 토스뱅크는 직원들의 주택담보대출 이자를 1억원 한도에서 지원한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>돈 잔치 비판에…금융권, 상반기 3500명 이상 뽑는다</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000033609?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>은행 2288명 작년비 48% 증가…보험·카드 등도 1232명 채용‘돈 잔치’ 비난에 휩싸인 금융권 기업들이 지난해보다 올해 채용을 늘리기로 했다. 공공재로서의 사회적 역할을 강화하는 차원으로 해석된다.은행연합회가 20일 공개한 ‘국내 은행 2023년 상반기 채용 계획’을 보면 20개 은행은 지난해 상반기보다 최소 48%(742명) 많은 2288명 이상을 신규 채용할 예정이다. 올해 연간 채용 규모도 3700명가량으로 지난해보다 약 600명 늘어난다.은행별로는 농협은행이 500명으로 가장 많다. 2월과 5월 두 차례에 걸쳐 신규 채용을 시행할 계획이다. 4대 은행인 KB국민·신한·하나·우리은행은 각각 250명을 채용할 방침이다. 이어 기업은행 168명, 카카오뱅크 148명, 산업은행 90명, 수협은행 85명, 토스뱅크 76명, 케이뱅크 67명, SC제일은행 35명, 부산은행 35명, 제주은행 32명, 대구·경남은행 각 20명, 광주·전북은행 각 10명을 채용한다.은행연합회는 “신규 채용 인원 증가는 최근 명예퇴직 등 인력 효율화에 따른 채용 여력 확대에 따른 것”이라며 “우수 인력의 조기 확보와 실업 문제 해소 등 공공적 차원에서 지속해서 고졸 인력 채용도 진행할 계획”이라고 밝혔다. 지난해는 은행권 전체 채용 인력의 약 2.9%가 고졸 인력이었다.저축은행업계도 상반기 중 151명의 정규직 신입 직원을 채용하기로 했다. 저축은행중앙회 관계자는 “올해 상반기는 금융 시장 변동성 확대로 채용 규모가 예년보다 줄었지만, 하반기에 경영 환경이 호전되면 전년 수준으로 확대할 것”이라며 “최근 3년간 신입의 약 10%를 고졸 직원으로 뽑았는데, 올해도 비슷한 수준으로 채용하겠다”고 말했다.보험, 여신금융업계도 올해 상반기 1232명을 채용하겠다고 밝혔다. 손해보험업계가 500명, 생명보험업계가 453명, 카드·리스·할부회사 등 여신금융업계가 279명을 각각 뽑을 예정이다. 여신금융협회 측은 “최근 여신금융회사의 경영 환경 불확실성 등으로 하반기 채용 계획은 구체적으로 확정되지 않았으나 신규 채용은 증가할 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>고금리 질타에 은행 '채용문' 활짝… 상반기 2288명 뽑는다</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000897165?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>은행권이 올해 채용 규모를 전년대비 600명 이상 늘린다. 사진은 국민은행 취업박람회 KB굿잡./사진=국민은행 제공 은행권이 올해 채용 규모를 전년 대비 600명 이상 늘린다고 20일 밝혔다. 금리인상기에 이자 장사 뭇매를 맞고 있는 은행권이 사회적 책임을 확대하는 방안으로 채용 계획을 확대한 것으로 풀이된다. 은행연합회는 이날 국내 20개 은행이 올해 상반기 중 2288명 이상 신규 채용한다고 밝혔다. 지난해 상반기 대비 약 742명(48%)이 증가한 수치다.상반기 채용 계획이 있는 은행별로 살펴보면 ▲산업은행(90명)▲농협은행(500명)▲신한은행(250명)▲우리은행(250명)▲SC제일은행(35명)▲하나은행(250명)▲기업은행(160명)▲KB국민은행(250명)▲수협은행(85명)▲대구은행(20명)▲부산은행(35명)▲광주은행(10명)▲제주은행(32명)▲전북은행(10명)▲경남은행(20명)▲케이뱅크(67명)▲카카오뱅크(148명)▲토스뱅크(76명) 등이다.은행들은 올해 연간으로 약 3700명 규모로 채용 계획을 수립하고 있다.고금리에 이자 이익으로 호실적을 기록한 은행들은 최근 직원들에게 기본급 300~400%에 달하는 성과급을 지급하고 1인당 최소 6억~7억원에 달하는 희망 퇴직금을 지급한 것으로 비판에 휩싸였다.은행연합회 관계자는 "국내은행은 우수인력을 조기 확보하고 고졸인력 실업문제 해소 등 공공적인 역할 이행을 위해 고졸 채용을 지속해 나갈 예정"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>미디어 분야 인재 영입해 글로벌 유통망 확장</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003341011?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>피프스시즌 제작 TV시리즈 ‘세브란스: 단절(Severance)’ 포스터. CJ ENM 제공CJ ENM의 미국 스튜디오 피프스시즌이 BBC와 아마존 스튜디오 등 글로벌 미디어 기업 출신 인재를 대거 영입하는 등 전 세계 1등 엔터기업으로 도약에 나섰다. 또 글로벌 유통 및 배급망 확충을 위해 사업 구조를 개편하고 있는 등 K-컬처의 전도사 역할을 수행하고 있다.CJ ENM이 지난해 인수한 피프스시즌은 장편 영화와 프리미엄 TV 시리즈를 만들고 유통하는 세계적인 콘텐츠 스튜디오다. 지난해 아카데미상 3개 부문 후보에 오른 영화 ‘로스트 도터(The Lost Daughter)’, 마이클 베이 감독의 영화 ‘앰뷸런스(Ambulance)’ 등을 제작했고 지난해 에미상 2관왕을 차지한 TV 시리즈 ‘세브란스: 단절(Severance)’을 비롯 ‘도쿄 바이스(Tokyo Vice)’, ‘울프 라이크 미(Wolf Like Me)’ 등 대중성과 작품성을 동시에 인정받은 작품들을 선보였다.엔터업계에 따르면 최근 피프스시즌은 제니퍼 에벨(Jennifer Ebell)을 EMEA(유럽·중동·아프리카) 세일즈 및 인수 담당 부사장으로 승진시킴으로써 EMEA지역 사업 강화에 본격 드라이브를 걸었다.이와 함께 BBC 스튜디오에서 드라마 광고 사업을 담당했던 아바 무스토스(Ava Mustos), 월트 디즈니와 폭스 네트워크 그룹, 소니 픽처스 텔레비전 등에서 콘텐츠 영업 파트를 이끌었던 마리아 그라지아 우르시노(Maria Grazia Ursino) 등이 피프스시즌에 합류했다.이번 인사를 통해 피프스시즌은 유럽뿐 아니라 중동과 아프리카 지역의 미디어 유통망을 늘리고 영업 조직의 시너지를 창출해 ‘글로벌 콘텐츠 기업’으로 한 층 더 도약할 것으로 전망된다.피프스시즌은 현재 미국 LA 본사뿐 아니라 뉴욕, 영국 런던, 스웨덴 스톡홀롬, 홍콩, 중국 베이징, 콜롬비아 등에 글로벌 거점을 운영하고 있다. 그간 탄탄한 유통 시스템을 통해 ‘킬링 이브(Killing Eve)’, ‘더 모닝 쇼(The Morning Show)’ 같은 히트 시리즈들의 글로벌 배급을 맡아왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>직장인 ‘다시 마통’...고신용자 몰린다</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002109642?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>인터넷은행, 낮은금리 제공직장인들에 인기상품으로#. 직장인 박모(30) 씨는 최근 해외여행을 떠나기 위해 마이너스통장 발급 계획을 세웠다. 지난해 말까지만 해도 치솟는 금리가 무서워 신용대출은 꿈도 못 꿨지만, 최근 이자율이 다시 내려가고 있어서다. 대출 이력이 없어 신용점수가 높은 박씨는 오히려 월급통장을 가지고 있는 시중은행보다 인터넷은행이 더 좋은 조건을 제시해 인터넷은행을 활용할 예정이다. ▶관련기사 13면마이너스통장에 대한 직장인들의 관심이 다시 커지고 있다. 국내 은행들이 당국의 압박 속에 대출금리 인하 행렬에 동참하면서다. 시중은행의 마이너스통장 금리가 지난해 말 대비 하락했지만, 여전히 인터넷은행이 고신용자에게 더 낮은 금리를 제공하는 것으로 나타났다.27일 금융권에 따르면 3대 인터넷은행(케이뱅크·카카오뱅크·토스뱅크)의 마이너스통장 금리(22일 기준)는 4.573~14.52%다. 이는 지난해 말 대비 금리 하단이 0.94%포인트, 상단이 0.48%포인트 하락한 수치다.일반 시중은행의 경우 하락폭이 조금 더 가파르다. 이날 국내 4대 시중은행(KB국민·하나·우리·신한)의 금리밴드는 5.45~7.25%다. 지난해 말 대비 금리 하단이 1.07%포인트, 상단이 0.7%포인트 내려갔다.언뜻 보면 인터넷은행의 마이너스통장 대출금리가 훨씬 높아보이지만 자세히 들여다보면 고신용자들에게는 인터넷은행이 더 유리한 금리를 제공하고 있다. 인터넷은행의 마이너스통장 금리 하단이 시중은행보다 더 낮다.카카오뱅크가 지난 21일 마이너스통장 대출금리를 최대 0.7%포인트 인하하면서 4%대로 내려앉았다. 그전까지 가장 낮은 금리를 제공하던 캐이뱅크 역시 금리 하단이 5.09%로, 4대 시중은행의 하단인 5.43%보다 34bp(1bp=0.01%포인트) 낮았다. 인터넷은행의 마이너스통장이 인기상품으로 떠오르고 있는 배경이다.이에 ‘적금 깨서 마통부터 갚자’던 분위기는 조금씩 사그라지고 있다. 특히 금리가 절정에 치솟았던 지난해 말에는 고신용자도 7%대 금리를 내야 해 잔액이 크게 감소했다. 하지만 이제 다시 내려가는 이자율에 수요가 꿈틀대고 있는 것이다.하지만, 중저신용자의 경우에는 얘기가 달라진다. 중저신용자는 인터넷은행에서 신용으로 대출을 받으려면 여전히 10%대 중반의 높은 금리를 감수해야 한다. 한 인터넷은행 관계자는 “금리 상단이 14%대까지 올라가는 이유는 중금리대출 영향이 있다”고 설명했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[도청도설] 앱테크 열풍</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000033836?sid=110</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>코로나19사태는 우리 삶에 큰 변화를 가져왔다. 잠시 폭락장을 겪었으나 이후 부동산 주식 코인 등 자산가치가 폭등하면서 젊은 세대를 중심으로 ‘파이어족’ 열풍이 불었다. 경제적 자립(Financial Independence)을 토대로 자발적 조기 은퇴(Retire Early)를 추진하는 사람을 일컫는 용어다. 2030세대는 영끌(영혼까지 끌어모으다)해서 부동산 주식 등에 투자해 자산을 모았다. 하지만 미국의 기준금리 인상과 우크라이나 전쟁 발발 등으로 세계 경제가 위축되자 자산시장이 얼어붙었다. 은행의 가계대출 금리는 2020년 12월 2.79%에서 지난해 12월 5.6%로 급등했다. 이 때문에 빚을 내 집을 산 영끌족은 이자폭탄을 맞고 신음하고 있다. 파이어족을 선언하며 직장을 그만 둔 30대 중 일부는 다시 직장으로 돌아왔다. 생활물가가 오르면서 돈을 최대한 쓰지 않고 버티는 무지출 챌린지가  젊은층 사이에 인기다. 난방비 인상으로 온열기구, 내복을 비롯해 수면양말까지 발 빠르게 구해 보일러를 틀지 않고 버티는 사람도 많다. 고물가·고금리에 따른 경기침체가 지속되자 스마트폰만 있으면 언제 어디서나 쉽게 할 수 있는 앱테크 인기가 높아지고 있다. 최근 서울 중구 시립미술관 앞 광장에는 점심시간이면 직장인들로 인산인해를 이룬다고 한다. 미술관 관람을 하는 게 아니라 모바일 금융플랫폼 ‘토스’가 출시한 ‘함께 토스 켜고 포인트 받기’ 서비스로 앱테크를 하는 것이다. 스마트폰 블루투스 기능과 토스 앱을 켜면, 주변에 같은 앱을 켠 다른 사용자가 모바일 화면에 아이콘으로 나타난다. 이를 클릭하면 10원을 받을 수 있다. 이 밖에 출석체크와 이벤트, 걷기 등 다양한 앱을 활용해 한 달에 수십만 원씩 버는 사람들이 생겼다. 참여 조건이 따로 없이 휴대전화만  있으면 되므로  앱테크를 하는 사람이 많다. 인크루트가 지난해 앱테크 참여도와 참여 이유를 알아보기 위해 성인남녀 1707명을 대상으로 설문조사를 한 결과, 응답자의 75%가 현재 앱테크를 하고 있다고 답했다.앱테크에 대한 부정적인 반응도 만만찮다. 큰 수익을 올리는 사람은 적은 반면 대다수 사람은 들이는 시간 대비 수익이 크지 않아 효율성이 낮다는 것이다. 10원을 벌기 위해 2030세대가 앱테크에 열중하는 것은 기특하기 보다는 안타까운 현실이다. 최대 연 10%대 이자를 주는 ‘청년희망적금’을 해지하는 청년들이 줄을 잇는다. 지금 삶이 너무 힘들어 미래를 생각하기 어렵다는 이들을 위한 대책이 필요하다.이은정 논설위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>'5대 은행 과점 해소하라' 당국 주문에…웃음 짓는 핀테크사</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004853018?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>금융당국이 5대 은행의 과점 체제를 해소하기 위해 핀테크(금융기술기업)를 은행업 등 기존 제도권 시장에 더 적극 진입시킨다는 구상을 내놓을 예정이다. 핀테크 업계의 기대감도 덩달아 높아지고 있다. 특히 계좌개설 가능성에 주목한다. 은행업 진입장벽이 낮아지면 핀테크사의 활동 영역이 넓어질 수 있어서다. 다만 막대한 비용을 우려하는 목소리도 적지 않다. 일각에선 5대 은행에 대적할 만한 경쟁력을 확보는 하지 못한 채 비용만 낭비하게 될 거라는 우려섞인 시선도 제기한다.19일 핀테크 업계에 따르면, 최근 정치권과 금융당국을 중심으로 논의되는 은행업 경쟁 촉진 논의에 핀테크 업권의 이목이 집중된다. 지난 15일 열린 민생경제회의에서 윤석렬 대통령은 5대 은행의 과점 체제를 해소하고 시장 경쟁을 촉진할 방안을 마련하라고 금융위원회와 금융감독원에 지시했다. 이에 금융위와 금감원은 이달 중 '은행권 경영·영업 관행 제도 개선 태스크포스(TF)'를 꾸려 핀테크사 등 신규 플레이어가 은행업에 진입할 수 있도록 하는 방안을 마련할 예정이다. 금융당국은 은행 인가 방식을 기능별로 쪼개 '스몰 라이선스'를 발급하는 방안 등을 구상하고 있는 것으로 알려졌다.핀테크 업계에선 스몰 라이선스 제도가 활성화되면 핀테크사의 활동 무대가 넓어질 수 있을 것으로 기대한다. 특히 자체적으로 계좌를 개설하고 발급할 권한이 주어지면 다양한 사업 가능성이 열리게 될 것이라는 예상도 나온다. 핀테크 업계 한 관계자는 "핀테크에 필요한 건 계좌 서비스 등 일부 기능일 뿐인데 금융업 라이선스를 취득하게 되면 모든 기능을 맡아서 해야 하기 때문에 그간 은행업에 발을 들이는 것조차 불가능했다"며 "앞으로 스몰 라이선스가 나오면 핀테크들이 각자 필요한 라이선스를 취득해 일부 서비스를 특화시켜나갈 수도 있게 될 것"이라고 말했다.서울 여의도 금융감독원 깃발이 휘날리는 모습./사진=뉴스1대형 핀테크 업체 관계자도 "핵심은 결국 계좌를 열 수 있는 권한"이라며 "카카오·토스 등 일부 회사를 제외한 핀테크사들은 대부분 결제 서비스만 도맡아 하기 때문에 은행망을 이용하고 수수료를 내는데, 계좌 서비스 권한이 생기면 핀테크사 내부에서 모든 과정을 처리해 수수료 비용을 절감할 수도 있을 것"이라고 했다.다만 은행업 진출로 얻을 수 있는게 없다는 입장을 밝히는 핀테크들도 적지 않다. 경쟁력 있는 금융상품을 그동안 만들어 왔던 시중은행을 핀테크가 스몰 라이선스만으로 따라가기는 어려울 수 있다는 지적이다. 이에 따라 앞으로도 지금처럼 데이터와 IT 기술을 기반으로 한 중개서비스에 치중해야 한다는 의견도 언급된다. 스몰 라이선스 정책에 부정적인 핀테크 한 관계자는 "우리 회사가 은행업에 뛰어든다고 해도 5대 은행만큼 경쟁력을 확보하긴 어려울 것이기 때문에 앞으로도 은행의 대출 상품을 중개하고 결제 서비스를 제공하는 방향으로 사업을 이어갈 것 같다"며 "스몰 라이선스라고 해도 이를 취득하려면 상당한 비용과 시간이 들기 때문에 원래 하던 업무에 집중하는 게 수익성 측면에서 더 낫다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>금융-비금융 장벽 허물기...'챌린저 뱅크' 도입 검토</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003079999?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>특정 업무 '스몰라이선스' 확대소매은행 활성화 英 벤치마킹진입장벽 완화...6월 결과 도출지속가능한 수익모델 마련 과제김소영 금융위원회 부위원장이 22일 오전 정부서울청사에서 열린 제1차 은행권 경영·영업관행·제도 개선 TF 회의를 주재하고 있다. 이동근 기자 foto@etnews.com지난 2018년 '금융 적폐' 청산을 위해 은행 진입규제 완화를 시도했던 금융당국이 올해 다시 금융권 진입장벽을 낮추고 금융·비금융간 영업 장벽을 허무는 시도에 나선다. 특히 예금·대출 등 일정 분야에 특화한 스몰 라이선스를 활성화하고 이 일환으로 기존 인터넷전문은행과 일부 차별화된 '챌린저 뱅크' 도입을 검토하고 있어 눈길을 끈다.22일 금융위원회와 금융감독원은 민간전문가, 전 금융업권 협회, 연구기관이 참석한 가운데 김소영 부위원장 주재로 '제1차 은행권 경영·영업 관행·제도 개선 태스크포스(TF)' 회의를 개최했다.금융당국은 6개 과제를 TF에서 중점 논의해 오는 6월까지 결과물을 도출하기로 했다. △챌린저 뱅크·스몰 라이선스 도입 등 은행·비은행간 경쟁 촉진 △금리체계 개선 △보수체계 개선과 주주환원정책 점검 △손실흡수능력 제고를 위한 스트레스 완충자본 도입과 경기대응완충자본 적립 논의 △금융사의 비금융업 영위 허용 확대 △사회공헌활동 강화를 위한 실적 공시를 논의하게 된다.금융위원회와 금융감독원은 22일 오전 서울 종로구 정부서울청사에서김소영 부위원장 주재로 제1차 은행권 경영·영업 관행·제도 개선 태스크포스(TF) 회의를 개최했다. 이동근 기자 foto@etnews.com특히 금융당국은 지난 25년여간 큰 변화없이 유지해온 금융업 진입규제를 다시 손보는 일환으로 '챌린저 뱅크' 도입을 검토하기로 했다. 2018년 당시 대통령이 '금융 적폐 청산'을 제기하고 금융산업 내 경쟁을 촉진하기 위해 진입규제 전반에 대한 개편방안을 모색했으나 여전히 개선점이 산적하다는 게 당국 평가다.금융당국은 기존 추진하고 있는 예금중개업 등 은행 일부 업무를 전문적으로 수행하는 '스몰 라이선스'를 확대하고 은행권 혁신 메기 역할을 하는 챌린저 뱅크 진입을 구체화할 방침이다.챌린저 뱅크는 일종의 스몰 라이선스 개념이다. 인터넷전문은행과 비슷하지만 개인·소상공인·기업영업에 특화했거나 대출·예금중개 등 특정 분야만 전문적으로 서비스한다. 은행과 경쟁하지만 틈새시장을 공략하는 효과가 있고 기존 금융권의 보수적이고 비효율적인 프로세스를 디지털로 효율화하는 등 금융시장 메기 역할을 할 수 있는 것이 특징이다.챌린저 뱅크가 가장 활성화한 국가는 영국이다. 글로벌 금융위기 이후 대형은행의 지배력 축소와 은행간 경쟁 촉진을 위해 챌린저 뱅크를 적극 도입했다. 작년 2월 기준 26개 챌린저 뱅크가 있다. 영국 3대 챌린저 뱅크로는 토스뱅크가 벤치마킹한 레볼루트(Revolut)를 비롯해 몬조(Monzo), 스탈링(Starling)이 있다.국내 금융당국은 영국 정책당국이 소매은행 시장 경쟁을 촉진하기 위해 새로운 인가체계를 적용한 점을 참고할 것으로 보인다. 영국은 사전 인가로 은행 설립 준비를 거쳐 본 인가를 통과해 은행업을 허가하는 방식, 사전 인가 후 본 인가에서 영업을 제한적으로 허용하고 최대 12개월 이내 시범운영 기간 동안 투자유치와 인프라 보완을 실시해 전체 은행업을 허가하는 방식 중 선택할 수 있도록 했다.다만 지속가능한 수익모델 마련은 풀어야 할 과제다.심수연 자본시장연구원 선임연구원은 “은행수나 이용고객수 면에서 챌린저 뱅크가 비약적으로 성장했지만 이익을 시현한 은행은 소수에 그친다”며 “지속가능성을 위한 수익모델 마련이 중요하다”고 말했다.주요 챌린저 뱅크 특징 (자료=자본시장연구원)금융당국은 금융사가 이자수익에 안주하지 않고 적극적으로 비이자 수익 확대에 나설 수 있도록 비금융업 영위 허용과 해외진출 확대 방안도 검토한다.김소영 금융위 부위원장은 “예금·대출 등에서 실질적 경쟁이 촉진될 수 있도록 보험, 증권, 저축은행 등 다른 금융업권의 적극적인 동참이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>외식업계, '애플페이 도입' 속도낼까…"MZ고객 확보 기대도"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011700144?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>기사내용 요약스타벅스·파리바게뜨·던킨 등 NFC 단말기 설치된 업체 바로 사용 가능빽다방·이디야·메가커피 등 단말기 교체 중…BBQ, 애플페이 도입시기 검토 [서울=뉴시스] 정병혁 기자 = 애플이 8일 이메일 공지를 통해 "한국에서 간편결제 서비스 애플페이를 출시할 예정"이라고 발표했다. 사진은 8일 오후 서울 중구 애플스토어 명동점의 모습. 2023.02.08. jhope@newsis.com[서울=뉴시스] 김동현 기자 = 외식 업계의 애플페이 도입이 가속화할 조짐이다. MZ세대(밀레니얼+Z세대)를 중심으로 아이폰 사용률이 높아 장기적인 관점에서 볼 때 애플페이 도입이 충성 고객 확보에 도움을 줄 수 있다는 전망이 나오면서다.일부 업체는 선제적으로 애플페이 조기 도입을 선언했다. 애플페이 도입으로 다양한 결제 수단을 갖춤으로써 고객의 이용 편의성을 높이고 록인(Lock-in) 효과에 따른 충성 고객을 확보한다는 구상이다.  20일 관련 업계에 따르면 애플은 다음달 국내에서 애플페이를 출시한다는 계획이다. 애플페이는 애플 아이폰에 내장된 결제칩을 통해 실물카드 없이도 결제를 할 수 있는 간편결제 서비스다.아이폰 사용자들은 근거리 무선 통신(NFC) 카드 단말기를 보유한 매장에서 애플페이를 사용할 수 있게 된다. 애플페이는 결제를 위해 앱에 들어가 QR을 가동할 필요 없이 아이폰을 가져다 대면 결제가 이뤄진다. 스타벅스를 비롯해 파리바게뜨, 던킨, 배스킨라빈스 등 NFC 단말기가 설치돼 있는 외식업체에서는 애플페이가 도입된 직후부터 간편결제 서비스를 이용할 수 있다. 일부 기업들은 애플페이 도입을 서두르고 있다. 빽다방은 올해 1분기 애플페이 도입을 목표로 준비 작업에 박차를 가하고 있다. 빽다방은 판매시점 정보관리 시스템(POS) 프로그램 개발 및 결제 테스트와 애플페이 도입에 필요한 무인단말기(키오스크·Kiosk) 리더기 교체 작업을 진행 중이다.본사 차원에서는 애플페이 결제 시스템 조기 도입에 필요한 무인단말기 리더기 교체 비용을 기존 매장에 한해 전액 지원하며 애플페이 도입을 서두르는 모습이다. 이디야·메가커피 등도 애플페이 도입을 위한 작업을 한창 진행 중이다. 이디야커피는 지난해부터 전국 3000여개 매장을 대상으로 NFC 단말기 교체 작업을 진행하고 있다. 단말기 교체 비용은 전액 본사가 부담하기로 했다. 메가커피도 지난해 NFC단말기를 전 매장에 공급하는 비용을 본사가 지원한다는 계획을 밝혔다. 이외에도 BBQ 등이 NFC 단말기 교체를 위한 시기 등을 검토하고 있는 것으로 알려졌다. 애플페이 도입 효과에 대해서는 의견이 엇갈린다. 애플페이를 조기에 도입해야 한다는 측은 젊은 층 고객의 이용률을 높이고 인 효과로 인해 충성고객이 늘어나는 등 장기적인 관점에서 브랜드에 도움이 될 수 있다고 의견을 내놓고 있다. 한 업체 관계자는 "모든 가맹점을 대상으로 MST(마그네틱 보안 전송) 단말기를 NFC로 교체하는 비용이 적지는 않지만 소비자들의 편의성 개선을 비롯해 브랜드 이미지에도 긍정적일 것으로 판단돼 애플페이 도입을 서두르고 있다"고 전했다. 반대 의견도 있다. 네이버페이·카카오페이·토스·NHN페이코 등 앱을 기반으로 한 간편결제와 삼성페이·LG페이 등 다양한 결제수단이 있는 만큼 애플페이 사용률을 지켜본 뒤 도입을 결정해도 늦지 않다는 입장이다. 업계 관계자는 "아이폰을 많이 사용하는 연령층이 10대에서 20대가 주를 이루는 데다 현대카드를 사용하는 고객들이 애플페이를 사용할 수 있다는 점을 고려할 때 애플페이 결제액 규모가 생각보다 크지 않을 수 있다"면서 " 상황을 지켜보면서 대응하는 것이 더 바람직하다고 판단한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>'등 떠밀린' 금융권, 상반기 4700여명 채용 큰장 연다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000014012?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>은행서만 2288명, 금투·보험도 각 1천명 안팎금융권이 올해 상반기 5000명에 가까운 신규 채용 계획을 내놨다. 시중은행을 비롯한 금융권 전반이 '이자장사', '돈잔치' 지적을 받으며 윤석열 정부와 여론의 눈 밖에 난 상황에서 금융당국이 일자리 확대를 당부하자 예년보다 늘린 채용 규모로 응답했다.20일 금융권에 따르면 은행연합회와 생명·손해보험협회, 금융투자협회, 여신금융협회, 저축은행중앙회 등 금융권 6개 협회 회원사의 올해 상반기 신규채용 예정 인원은 총 4719명(올 들어 이미 채용한 인원 포함)으로 집계됐다. 2023년 상반기 금융권 신규채용 계획/그래픽=비즈니스워치각 협회는 이날 오전 금융위원회와 '금융권 청년 일자리 간담회'를 가진 뒤 업권별로 채용계획을 공개했다. 간담회에서도 각 금융권 채용현황과 계획 등이 논의됐다.▷관련기사: '금융권 압박' 나선 정부, "일자리 창출도 나서라"(2월20일)우선 은행연합회가 20개 은행이 올해 상반기 2288명 이상을 신규채용할 전망이라고 밝혔다. 이는 금융권 채용계획의 절반에 가까운(48.5%) 것으로 작년 상반기보다 742명(48%) 늘어난 규모다.은행권은 올해 연간 약 3700명 규모로 채용 계획 수립 중이며 이는 전년 대비 약 600명 늘어난 것이라고 설명했다. 특히 은행연합회는 이렇게 신규채용 인원을 늘릴 수 있는 것이 "최근 명예퇴직 실시 등 인력 효율화로 신규채용 여력이 확대된 때문"이라고 배경을 덧붙였다.은행별로 NH농협은행이 2월과 5월 2차례에 걸쳐 가장 많은 500명을 뽑겠다는 계획을 내놨다. KB국민·신한·우리·하나은행 등 4대 시중은행은 똑같이 250명씩의 채용 계획을 밝혔다. 국책은행인 IBK기업은행과 KDB산업은행은 각각 160명, 90명을 뽑기로 했다. 외국계·지방·인터넷전문은행들·가운데서는 카카오뱅크가 148명으로 가장 많은 계획을 냈다. 토스뱅크·케이뱅크는 60~70명대, 지방은행들은 10~30명대 채용계획을 공개했다. 전체 은행 중 수출입은행, 씨티은행은 상반기 채용계획이 없었다.금융투자협회는 총 65개 회원사가 상반기 1035명을 채용할 계획이라고 밝혔다. 이는 작년 상반기 1770명의 58% 수준에 그치지만 최근 자본시장 침체에 따른 수익성 악화 탓에 불가피하다는 설명이다. 금융투자업계는 올해 전체로는 2112명의 채용을 예정했다.상반기 채용 예정인원은 증권사 가운데선 한국투자증권이 120명으로 가장 많고, 이어 삼성증권 95명, 미래에셋증권 90명, 한양증권 72명 순이었다. 자산운용사는 현대자산운용이 24명으로 가장 많았다. 손해보험협회와 생명보험협회는 각각 513명, 453명의 채용 계획을 보탰다. 손보업계에서는 △DB손보 87명 △삼성화재 59명 △롯데손보 55명 △캐롯손보 54명 순으로 채용계획 인원이 많았다. 생보업계에선 교보생명(140명)과 한화생명(126명)만 세 자릿수 채용계획을 내놨다. 삼성생명을 포함한 나머지는 30명 이하거나 상반기 채용계획이 없었다. 이밖에 여신금융협회는 279명, 저축은행중앙회는 151명의 상반기 채용 계획을 밝혔다. 여신금융업계에서는 △신한카드 41명 △롯데카드 27명 △현대카드 34명 △현대캐피탈 20명 △NH농협캐피탈 20명 등 순이었다.한편 각 협회는 청년 일자리 확대를 위해 고교졸업 학력 인원이 필요한 직무를 발굴하고, 수시 채용 등을 통해 고졸 채용을 확대키로 했다. 각 협회는 회원사들에 올해 8월말 열릴 '금융권 공동채용 박람회' 참여도 독려할 예정이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>"대감집 머슴 부럽네"… 성과급도 양극화, 중소기업 종사자 '한숨'</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000898957?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[머니S리포트 - 재계 덮친 성과급 후폭풍] ② 대기업 대비 열악한 처우에 부정적 인식 확산 우려[편집자주]재계의 성과급이 뜨거운 감자로 떠올랐다. 글로벌 경기 침체 속에서도 일부 대기업들이 천문학적 규모의 성과급을 지급하면서 예상치 못한 후폭풍이 덮쳤기 때문이다. 기업 내부에선 부서별로 성과급이 극과 극으로 엇갈리며 노노갈등으로 비화하는 양상이다. 일부 대기업의 과도한 성과급이 중소기업과의 임금 양극화를 심화시킨다는 우려도 나온다. 급기야 정치권에선 일부 기업들의 성과급에 직접적인 비판의 목소리를 높이고 있다. 갈등의 도화선이 된 성과급 이슈를 짚어봤다.서울 광화문 사거리에서 직장인들이 출근하고 있다. / 사진=뉴시스 고승민 기자 ▶기사 게재 순서①"같은 회사 맞나요?"… 부서에 따라 '극과 극' 성과급에 불만 터졌다②"대감집 머슴 부럽네"… 성과급도 양극화, 중소기업 한숨③물가 급등에 허리 휘는 서민들… 성과급으로 돈 잔치하는 기업들"CJ올리브영 초과이익분배금(PS) 연봉의 160% 지급. 월급의 160% 아니고 머천다이저(MD) 부문은 연봉의 80~160%, 기타 사업부 20~40%. 이제 올리브영도 네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스(네카라쿠배당토), 삼성전자 반도체(DS), SK하이닉스, 현대차에 비벼본다고요!"지난 1월 말 직장인 커뮤니티 '블라인드'를 달군 CJ올리브영 재직자의 글이다. 팬데믹(세계적 감염병 대유행)과 글로벌 경기침체 속에서도 지난해 뛰어난 성과를 낸 임직원에 회사가 두둑한 성과급을 지급했다는 내용이 담겼다. 또 다른 글에선 올리브영 재직자라고 주장한 인물이 통장에 성과급으로 9000만원이 입금된 내역을 공개했다. 이 글은 순식간에 여러 온라인 커뮤니티로 퍼져나가며 화제가 됐다.올리브영 외에도 주요 대기업들의 연봉, 혹은 기본급 대비 수백~수천%에 달하는 성과급 인증글이 올라오면서 반응은 더욱 뜨거워졌다. 대기업의 천문학적인 성과급을 부러워하면서도 한편으론 상대적으로 열악한 중소기업의 현실을 한탄하는 댓글이 줄을 지었다. '역시 대감집 노비를 해야 한다'는 식의 부러움과 함께 처우가 열악한 중소기업을 욕설에 빗대 'X소기업'이라고 폄하하는 자조까지 등장했다. 대기업의 '그들만의 성과급 잔치'가 중소기업과의 양극화 문제를 극명하게 부각시킨 셈이다.━대기업 성과급 잔치… 양극화 부각━최근 사람인 HR연구소가 기업 341개사를 대상으로 '2022년 귀속 성과급 지급 현황'을 설문한 결과 성과급을 지급하는 기업은 대·중견기업(67.2%)이 중소·스타트업(54%)보다 13.2%포인트 높아 기업 규모별 양극화가 일정 부분 있는 것으로 나타났다.성과급은 대기업과 중소기업의 임금 불균형을 확대시키는 요인이 된다. 한국경영자총협회가 기업 규모 및 업종별 임금인상 현황을 분석한 결과 지난해 상반기 기준 상용근로자의 월 평균 임금 총액은 전년 같은 기간(362만8000원)보다 6.1% 오른 384만8000원으로 집계됐다. 규모별로는 300인 미만 사업장이 328만원에서 343만7000원으로 인상률이 4.8%인데 비해 300인 이상 대기업은 525만4000원에서 576만8000원으로 9.8% 올랐다. 대기업 임금 인상률이 두 배가량 높은 원인은 성과급 등 특별급여의 차이 때문이다. 300인 미만 사업장의 정액 급여 인상률은 평균 4.1%로 300인 이상 대기업 인상률(4.3%)과 큰 차이가 없었지만 특별급여 인상률은 300인 미만이 평균 12.1%인데 반해 300인 이상은 26.2%로 두 배 이상 높았다.하상우 경총 경제조사본부장은 "성과급을 비롯한 특별급여 격차가 규모별로 매우 크다"며 "좋은 실적을 거둔 기업이 근로자들에게 성과 보상을 하는 것은 원칙적으로 문제가 없으나 일부 업종과 기업을 중심으로 한 고액의 성과급이 그렇지 못한 기업의 근로자에게 상대적 박탈감을 주고 사회적 격차를 한층 심화시킬 수 있는 만큼 합리적 수준에서 조정·관리할 필요가 있다"고 밝혔다.문제는 대기업과 중소기업의 성과급 차이가 임금 양극화를 심화시켜 여러 부작용을 낳을 수 있다는 점이다. 이은실 중소벤처기업연구원 선임연구원은 '중소기업-근로자간 성과공유제 현황과 발전과제' 보고서에서 "청년 및 구직자의 중소기업 취업 기피는 낮은 임금이 주요 원인으로, 특히 성과급 등 특별급여 차이가 대·중소기업 간 임금격차를 확대시키는 가장 큰 요인"이라며 "대기업과 중소기업 간 임금격차로 인해 청년 구직자의 중소기업 취업 기피현상을 심화시키고 중소기업 성장정체와 보상 여력 부족의 악순환이 반복될 것"이라고 지적했다.━중소기업, 만성 인력부족 심화 우려━무엇보다 중소기업의 고질병인 만성 인력부족을 심화시킬 것이란 우려도 있다. 중소기업중앙회가 지난해 중소기업 1000개사를 대상으로 채용동향 조사를 실시한 결과 응답 기업의 70.7%가 필요인원보다 적은 수의 인력으로 기업을 경영하고 있었으며 재직인원 비중은 필요 인원의 82.9% 수준이었다. 기업 과반(57.0%)은 '인력부족' 상태라고 응답했다. 이는 전년 조사와 비교해 13.6%포인트 증가한 것이다.최근 고용노동부 통계에서도 지난해 기준 직원이 300인 미만인 기업의 '빈 일자리' 비율은 월평균 1.4%로 300인 이상인 기업 0.3%의 4.5배에 달했다. 300인 미만의 빈 일자리 비율은 전년 대비 0.3%포인트 늘어난 반면 300인 이상은 변함이 없었다. 이직자 수도 지난해 300인 미만은 79만7000명(5.5%)인데 비해 300인 이상은 11만명(3.5%)으로 규모가 작을수록 이직 비율이 더 높았다. 사업주 입장에서도 성과급이나 임금 불균형에 대한 부담이 높다. 서울 영등포구에서 10인 미만 규모의 스테인리스 공장을 운영하는 A씨는 "우리도 대기업처럼 두둑한 성과급을 주고 싶지만 대출금리를 비롯해 인건비 등 고정비가 많이 증가했고 경기상황도 어려워 현상을 유지하는 것도 어려운 상황"이라며 "대기업이 수백%씩 성과급을 준다는 기사가 나올 때마다 직원들 눈치도 보이고 가뜩이나 사람도 잘 안 뽑히는데 나가겠다는 사람이 생길까봐 걱정"이라고 토로했다.중소기업계는 대기업이 경제위기 상황과 사회적인 분위기 등을 고려해 지나친 성과급 인상을 자제할 필요가 있다고 말한다. 추문갑 중소기업중앙회 경제정책본부장은 "중소기업과 대기업은 이미 기본임금에서부터 두 배가량 차이가 나는데 과도한 성과급은 위화감과 상대적인 박탈감, 양극화를 심화시키는 요인이 되고 있다"며 "대기업들이 사회적 책임을 고려해 경쟁적인 성과급 인상보단 미래투자 재원 등으로 활용해야 우리 사회의 양극화와 갈등이 줄어들게 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>금융권, 상반기 4700명 신규 채용</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003747442?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>20개銀 2288명, 작년보다 48%↑지난해 8월 24일 오후 서울 중구 동대문디자인플라자(DDP)에서 열린 2022 금융권 공동채용 박람회 현장. /뉴스1										금융권이 올 상반기에 4700여 명을 신규 채용한다. 은행연합회·생명보험협회·손해보험협회·금융투자협회 등 금융업권별 협회는 20일 정부서울청사에서 김소영 금융위원회 부위원장이 주재한 ‘금융권 청년 일자리 간담회’ 후 올해 상반기 채용 계획을 발표했다.20개 은행은 상반기에 2288명을 채용한다. 지난해 상반기 채용 인원보다 742명(48%) 늘었다. 은행별로는 농협은행이 500명으로 가장 많고 신한·국민·하나·우리은행은 250명씩을 뽑을 예정이다. 국책은행 중에서는 기업은행과 산업은행이 각각 160명과 90명을 채용하기로 했다. 인터넷 전문은행의 경우 카카오뱅크 148명, 토스뱅크 76명, 케이뱅크 67명 순이다.증권사 등 금융투자업체 65곳은 상반기에 1035명을 채용하기로 했다. 지난해 상반기(1770명)보다 약 30% 채용 규모가 줄었다. 금융투자협회 관계자는 “세계적인 물가와 금리 상승으로 지난해 3분기까지 증권사의 당기순이익이 전년보다 40% 감소해서 채용 규모를 줄일 수밖에 없다”고 했다.손해보험사 17곳은 상반기에 513명, 생명보험사 15곳은 453명을 뽑을 계획이다. 여신금융권(신용카드사·리스 할부사·신기술금융사) 31개사는 279명, 저축은행 79곳은 약 151명을 채용할 예정이라고 밝혔다.김 부위원장은 이날 간담회에서 “금융 사고로 인한 금융 소비자 피해를 예방하기 위한 금융 보안, 자금세탁 방지, 내부 통제 등 관련 인력을 조속히 확충해야 할 것”이라며 “금융회사가 금융 사고 가능성을 사전에 차단할 경우 신뢰 하락 등 막대한 손실을 막을 수 있다는 점에서 관련 부문의 인력 확충을 비용이 아니라 투자로 인식해야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>금융사發 마이데이터 장애 하루 35개사 이상…“성능 기준 마련해야”</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003079544?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>20일 국회 의원회관에서 한국핀테크산업협회 주최로 2023 힘내라 핀테크 자율과 혁신으로 토론회가 열렸다.주요 핀테크 기업들은 현행 마이데이터 사업이 운영 안정성, 소외계층에 대한 지원 한계, 잠정 비용 체계 등에 대한 개선이 필요하다고 지적했다. 특히 정보제공자의 '정보제공성능(Service Level Agreement)' 기준이 없어 정보제공 실패가 잦고, 이로 인한 소비자 불편이 크다는 점을 강조했다.신중희 비바리퍼블리카(토스) 사업개발실장은 20일 국회 의원회관에서 열린 '2023 힘내라 핀테크 자율과 혁신으로 점프업' 토론회에서 “마이데이터 서비스는 금융데이터를 다루고 있어 사용자들의 민감도가 매우 높고, 정보제공자의 API 운영 안정성이 신뢰와 직결된다”며 “마이데이터 API 제공 성능에 대한 기준 마련이 필요하다”고 말했다.토스에 따르면 마이데이터 정보제공 실패율이 50% 이상으로 올라가는 금융기관이 일 평균 35개 이상으로 집계됐다. 토스는 정보제공 실패 발생 시 해당 기관을 '임시점검처리'하는 방식으로 대응하고 있으나 한계가 있다는 입장이다.마이데이터 사업은 앱프로그래밍터페이스(API)를 통해 정보제공 사업자(금융기관)와 마이데이터 사업자가 일대일로 연결된 구조다. 이 때문에 한 금융기관에서 문제가 발생하면 API를 통해 정보를 받는 모든 마이데이터 사업자가 서비스 장애를 겪게 된다.올해 말 최종안이 확정될 마이데이터 과금체계에 대해서도 우려가 이어졌다. 만약 기본조회기능(정기적전송)에 비용이 부과될 경우, 사업자가 비용 절감 차원에서 정보 최신화를 꺼릴 수 있다는 문제다. 이는 서비스 품질 저하로 이어지고 산업 전체의 질적 역성장을 초래할 수 있다.신중희 실장은 “산업 안정화를 위한 비용구조 마련은 필요하지만, 장기적으로 안정적인 구조 구축이 우선”이라며 “기본 기능이 아닌 부가 기능에 대한 과금 고려를 하는 것이 바람직할 것”이라고 설명했다.뱅크샐러드는 마이데이터 사업자가 소비자에게 금융상품을 추천할 때 불합리한 광고 심의 문제가 발생한다는 점을 지적했다.마이데이터 사업자는 이용자 금융 데이터를 분석하고, 이를 토대로 여러 금융사의 상품을 비교해 추천할 수 있다. 하지만 이용자를 직접 유치할 수 있는 '상품 중개'가 아니라 소개만 하는 '상품 광고' 형태로 추천이 이뤄지기 때문에 금융 상품 광고에 대한 규제가 적용된다.이 때문에 뱅크샐러드가 이용자에게 상품 추천을 하려면 해당 내용에 대해 상품을 만든 금융사에 사전 심의를 받아야 하는 딜레마가 발생할 수 있다.이정운 뱅크샐러드 법무이사는 “만약 금융회사가 원하지 않는 정보를 사용자에게 전달하려고 한다면 금융사들은 이를 광고심의라는 명분으로 거부하는 문제가 발생할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>유비벨록스, 토스뱅크 모임통장의 모임카드 공급 계약 체결</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004158813?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[서울경제] 유비벨록스(089850)가 토스뱅크와 모임통장의 모임카드 공급 계약을 체결했다고 20일 밝혔다.토스뱅크는 지난 1일 가족, 친구, 동아리 등 각종 모임의 비용을 함께 관리할 수 있는 토스뱅크 모임통장과 모임에 특화된 혜택을 제공하는 모임카드를 출시했다.유비벨록스 관계자는 “토스뱅크 고객 수가 지난해 6월 대비 160% 증가한 570만명을 기록하는 등 가입자가 지속적으로 증가하고 있으며, 토스뱅크의 공급사인 유비벨록스 또한 가입자의 증가에 맞춰 공급물량이 증가하고 있다. 특히, 이번 모임 통장은 계좌 하나에 여러 장의 체크카드를 발급할 수 있어 신규 서비스 이용객이 증가하면 당사의 카드 공급량 역시 확대될 것으로 기대한다.”고 밝혔다.토스뱅크의 모임카드는 음식점, 주점, 노래방, 대형마트, 골프장 등 체육시설 이용 시 캐시백 혜택도 제공하는 실용성이 높은 체크카드이며, 모임통장에 참여한 누구나 구성원의 동의를 받아 발급 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>‘불황에 돈잔치’ 5대 시중銀 과점 깰 묘안 있나…전문은행 추가 인가 등 효과는 미지수</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003784041?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>다양한 특수목적 은행 인가, 핀테크 업체 금융업 진출 확대 등 거론은행권 뒤늦게 3년간 10조 이상 사회공헌 프로젝트 추진한다고 발표     연합뉴스       최근 은행의 역대급 실적에 따른 '돈 잔치' 논란을 계기로 금융감독원이 5대 시중은행의 과점 체제에 메스를 들이대는 방안을 검토하고 있어 금융권에 '초대형 태풍'이 예상된다.     5대 은행을 초대형 은행으로 몸집을 키워 글로벌 경쟁력을 높이려는 '메가뱅크'가 아닌 다양한 형태의 특수목적 은행 등을 만들어 금융 소비자들이 낮은 가격 부담으로 은행을 이용할 수 있게 하자는 복안이기 때문이다.     하지만 과거 카카오뱅크 설립처럼 시장의 판도는 흔들지는 못하고 중금리 대출 등 한정된 분야만 경쟁할 수밖에 없어 '5대 은행만의 리그'를 깰 수 있을지 의문이라는 시각도 있다.     15일 연합뉴스와 금융권 등에 따르면 우리은행, 신한은행, 하나은행, KB국민은행, NH농협은행 등 5대 은행의 예금, 대출 시장 독식 문제는 예전부터 끊임없이 지적돼왔다.     이들 5대 은행의 국내 예금, 대출 시장의 점유율이 60~70%에 달하기 때문이다.     2008년 리먼 사태 후 은행 등 국내 금융회사의 해외 진출 중요성 등이 거론되면서 우리나라에서도 '메가뱅크' 조성이 필요하다는 의견이 제기됐다.     이런 가운데 2015년 9월 하나은행이 외환은행을 통합하며 '메가뱅크'가 현실화했고 이후 5대 은행은 저마다 '세계 일류 금융 그룹으로 도약하겠다'며 몸집 불리기에 노력해왔다.     하지만 이런 5대 은행 체제는 금융 소비자에 대한 배려보다 수익 극대화에 치중하는 게 아니냐는 우려가 제기되면서 그 대안으로 인터넷 전문은행이 떠올랐다.     2015년 인터넷 전문은행인 카카오뱅크가 영업을 개시했고 케이뱅크도 추가 인가를 받으면서 인터넷 은행을 중심으로 소비자 금융시장 재편이 주목받았다.     카카오뱅크가 출범 초창기 간편 송금 등 혁신적인 서비스를 내놓으며 돌풍을 일으키자 5대 은행들도 따라가면서 일종의 '메기 효과'를 냈다.     하지만 5대 은행은 카카오뱅크의 저금리 대출 등의 방식을 받아들이면서 다시 시장 점유율을 높여 인터넷 은행이 5대 은행 과점의 판도를 바꾸지는 못했다.     최근엔 고금리와 경기 침체로 서민의 어려움이 가중되는 가운데 최근 5대 은행이 역대급 실적으로 고액의 성과급을 지급한다는 사실이 알려지면서 윤석열 대통령까지 은행의 '돈 잔치'를 경고해 5대 은행 중심의 과점을 바꿔야 한다는 분위기가 조성되기 시작했다.     윤 대통령은 15일 비상경제민생회의에서 "통신·금융 분야는 공공재적 성격이 강하고 과점 형태를 유지하는 정부의 특허 사업"이라고 공개적으로 과점을 언급해 금융당국도 5대 은행의 과점 체제 완화를 본격적으로 검토하는 상황이 됐다.     금감원은 5대 은행 중심의 과점 체제를 경쟁 체제를 바꾸는 게 국민의 편익에 근거해 도움이 될 수 있다고 판단하고 가능한 방안을 모색 중이다.     가장 현실적인 방안은 은행의 인가를 용도나 목적에 따라 세분하는 것이다.     현재 은행업은 단일 인가 형태지만 인가 단위를 다양하게 할 경우 소상공인 전문 은행이나 중소기업 전문 은행이 나와 이들에게 특화된 대출 상품 등을 판매할 수 있을 것으로 보인다.     아니면 초창기에 '메기 효과'를 불러일으켰던 인터넷 전문은행을 추가로 허용할 수도 있다.     현재 카카오뱅크와 케이뱅크, 토스뱅크가 대출 틈새시장을 공략하고 있지만 중금리 대출 등에 특화된 부분도 있어 인터넷 전문은행들이 추가로 진입할 경우 5대 은행을 긴장시킬 수도 있다.     아울러 금융위원회 등 금융당국이 혁신 금융정책으로 추진 중인 핀테크 업체의 금융업 진출 확대 등도 고려될 수 있다.     금융권 관계자는 "5대 은행의 과점 체제를 깨뜨리려면 새롭게 인가받은 특화은행들이 많이 나와서 경쟁을 통해 시장 마진을 최대한 낮추도록 해야 한다"고 말했다.     연합뉴스에 따르면 난감한 상황에 부닥친 은행권은 사회적 책임을 이행한다며 3년간 10조원 이상의 사회공헌 프로젝트를 추진한다며 뒤늦게 진화 작업에 나섰으나 정부와 여론의 분위기가 냉랭하다는데 고민이 커지고 있다.     5대 은행은 수익의 일부를 사회 공헌에 배정하며 나름대로 성의를 보였다고 생각했는데 성과급 논란에 이어 과점 체제를 깰 수 있다는 금융당국의 압력까지 들어오자 내심 당혹한 분위기다.     이들 은행은 당분간 저소득·저신용자 등 취약계층에 대한 금융 지원, 취약한 중소기업의 특례 보증 지원, 서민금융상품 공급 확대 등을 통해 사회적 책임을 다하는 금융회사라는 점을 보여주는데 주력할 것으로 예상된다.     한 시중은행 관계자는 "대형은행이 5곳이나 치열한 경쟁을 하는데 과연 지금 은행 시장을 과점이라고 말하면 좀 억울한 면이 있다"면서 "하지만 은행의 사회적 역할이 강조되는 만큼 다양한 사회적 공헌을 강화하자는 은행권이 뜻을 같이하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>금투협, 자격시험센터 홈페이지 전면 개편</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004812373?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>금투협 자료사진. 사진=연합뉴스금융투자협회는 회원사 등의 수요를 반영해 이용자의 접근성과 편의성을 높이는 방향으로 금융투자협회 자격시험센터 홈페이지를 전면 개편, 서비스를 개시했다고 20일 밝혔다.개편된 자격시험센터 홈페이지에서는 이용자 환경(PC·모바일)에 맞는 웹 페이지를 제공해 모바일에서의 홈페이지 접속이 편리해졌다. 네이버페이와 카카오페이, 토스페이 등 간편결제 기능을 탑재해 응시자의 결제 편의성을 높인 점도 특징이다.또 이용자의 시험합격 현황과 이에 따른 전문인력 등록현황, 필수교육(보수교육 등) 이수현황 등을 한 화면에서 한 번에 조회 가능한 'MY자격정보' 메뉴를 새로 추가했다.  개편한 홈페이지는 오는 3월 26일 시행되는 제17회 증권투자권유대행인 자격시험 접수부터 본격 활용될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.02.24.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스뱅크, 올해도 입사 1년차에 '스톡옵션' 당근책</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000324372?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[앵커] 토스뱅크는 이런 가운데 모임통장 등 새 상품을 내놓으며 몸집 키우기에 열중하고 있습니다. 빠른 성장 속에 올해도 임직원들에게 주식매수선택권, '스톡옵션'을 통한 성과 보상에 나섰습니다. 김성훈 기자, 임직원들에게 주어지는 스톡옵션 규모는 어느 정도인가요? [기자] 토스뱅크는 어제(24일) 서울 역삼동 본사에서 임시 주주총회를 열고, 임직원 38명에게 스톡옵션을 주기로 결정했습니다. 1주당 액면가는 5000원으로, 모두 47만 4000주 규모입니다. 오는 28일 지급돼 3년 뒤인 2025년부터 2030년까지 5년 간 행사할 수 있습니다. 토스뱅크는 "입사 1주년을 맞은 임직원이 대상이며, 사업 성장의 과실을 나누는 취지"라고 설명했습니다. 토스뱅크는 재작년 출범을 준비하면서부터 여러 차례 스톡옵션을 부여했는데요. 핵심 인재를 확보하고, 인재 유출을 막기 위한 인센티브 수단으로 활용해 왔습니다. 이번까지 모두 7번의 스톡옵션 지급 결정으로, 전체 임직원의 70%에 가까운 242명이 보상을 받았습니다. [앵커] 출범한 지 1년이 넘었는데 성과 지표인 실적은 어떤가요? [기자] 지난해 3분기까지 누적 순손실 1719억 원을 나타냈습니다. 매분기 적자폭을 줄여나가고는 있지만, 지난해 4분기 역시 마이너스가 예상되고 있습니다. 이 때문인지 이번 스톡옵션 지급 안건을 두고 주주의 10%는 반대표를 던지기도 했습니다. 다만 홍민택 대표는 최근 기자간담회에서 "신생은행으로서 규모의 경제를 통해 이익을 내야 할 시기"라고 말했습니다. 그러면서 금리 경쟁력 등을 두고 "수익 악화보다는 규모의 경제를 키우기 위한 전략"이라고 밝혔습니다. 다음 달 말 토스뱅크는 전세대출 계획 등을 포함해 지난해 실적을 발표할 예정입니다. SBS Biz 김성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>앱토스, '월드투어 서울 해커톤' 우승자 발표…상금 6억 주인공은</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004811136?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>레이어-1블록체인 앱토스(APT)가 월드투어 해커톤의 첫 행사인 '앱토스 서울 해커톤'을 성황리에 마쳤다고 16일 밝혔다.앱토스 재단, 해시드, SK네트웍스, 점프(Jump), 엔픽셀(NPIXEL), 하이브(HYBE), 아이언그레이(IRONGREY) 등의 지원으로 개최된 이번 앱토스 서울 해커톤은 지난 2월 1일부터 2월 3일까지 2박3일간 드림플러스와 해시드 라운지에서 진행됐다.총 50만달러(약 6억원)규모의 상금을 놓고 열린 이번 대회는 400명 이상의 지원자가 몰리는 등 뜨거운 관심을 받았다. 이들 지원자 중 180명 가량의 개발자들이 해커톤에 직접 참여했으며 이 중 15팀이 우승팀으로 선정됐다.앱토스 서울 해커톤 우승자들은 △게이밍(Gaming) △소셜/NFT(Social/NFTs) △디파이(Defi) △툴킷(Toolkit) △앱토스 개발 언어 무브 언어(Move Language)등 다섯 가지 트랙 별로 선정됐다.게이밍 부문의 우승자는 앱토스 네트워크 위에서 개발자들이 손 쉽게 게임을 개발할 수 있도록 해주는 앱토플레이(Aptoplay)프로젝트가 선정됐다. 소셜/NFT부문은 유저들이 스스로 이루고 싶은 목표들을 설정 후 이를 공유해 보상을 얻는 라이프마이닝(Life Mining)프로젝트가 우성을 거머줬다. 디파이 부문에서는 탈중앙화선물거래소(DEX) 프로젝트 머클 트리(Merkle Tree), 툴킷 부문에서는 검색 허브 역할을 하는 무브 허브(Move Hub), 무브 언어 부문에서는NFT게임 웨어울프와 마녀(Werewolf and Witch) 프로젝트가 각각 우승팀으로 뽑혔다. 앱토스 관계자는 “한국에 있는 블록체인 개발 팀들을 뛰어난 역량을 확인했다”며 “대회에 참여해준 모든 지원자들에게 감사하고 앞으로도 업계의 많은 분들과 협업할 수 있는 기회를 찾을 계획”이라고 말했다.앱토스는 앞서 코리아블록체인위크(KBW2022)등을 통해 지속적으로 한국 커뮤니티 행사에 참여하고 있으며,이번 서울 해커톤을 시작으로 남은 월드투어 해커톤 일정도 계속해서 이어나갈 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>‘이자 장사’ 눈총에도... 시중은행 예대금리차 더 벌어졌다</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000724494?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>국민·농협·우리·하나·신한 순전체 1위는 6.4%p 전북은행6일 한 시민이 서울 시내에 설치된 주요 은행 ATM 앞을 지나고 있다. 연합뉴스5대 시중은행의 수신금리와 여신금리 격차가 올해 들어 더 벌어진 것으로 나타났다. 예금금리가 빠르게 큰 폭으로 떨어지는 동안 대출금리는 상대적으로 더디게 내린 결과다. 20일 은행연합회 소비자포털에 공시된 ‘예대금리차 비교’에 따르면, 지난달 5대 은행(KB국민・신한・하나・우리・NH농협)의 가계 예대금리차(가계대출금리-저축성 수신금리)는 전월 대비 모두 확대됐다. 예대금리차가 크다는 건 그만큼 마진이 많이 남는다는 뜻으로, 금융당국은 이를 ‘이자 장사’로 비판해 왔다.5대 은행 중 가계 예대금리차가 가장 큰 곳은 KB국민은행(1.56%포인트)이었다. 왜곡을 최소화하기 위해 정책서민금융(햇살론뱅크・햇살론15・안전망대출)을 뺀 가계 예대금리차도 국민은행이 1.51%포인트로 가장 컸고, NH농협은행(1.44%포인트), 우리은행(1.07%포인트), 하나은행(1.03%포인트), 신한은행(0.84%포인트) 순이었다.   국민은행은 “일시적 현상”이라고 설명했다. 은행 관계자는 “주택담보대출(주담대) 금리의 경우 5대 은행 가운데 가장 낮은 수준”이라며 “부동산 경기 침체 영향으로 주담대 신규 대출이 감소한 반면,  금리가 높은 신용대출 취급이 증가하면서 가계대출 평균 금리가 상승했다”고 말했다. 그러면서 “1월 말 시행된 가계대출 금리 인하효과는 2월 예대금리차 공시에 반영될 것”이라고 덧붙였다.인터넷은행 중에선 토스뱅크의 정책서민금융 제외 가계 예대금리차가 4.72%포인트로 가장 컸다. 케이뱅크는 2.15%포인트, 카카오뱅크는 1.25%포인트였다. 이날 공시에 참여한 19개 은행 가운데 최대 예대금리차는 전북은행으로 6.40%포인트에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>토스, '알뜰폰' 가입 전국으로 확대… 유심 배송 '평균 17분'</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000897913?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>사진=토스 토스의 통신 자회사 '토스모바일'이 통신 요금제 가입을 전국 단위로 선보인다고 22일 밝혔다. 토스 사용자라면 누구나 통신 서비스에 가입할 수 있다.지난 1월30일 가입을 개시한 '토스모바일'은 사전신청자를 대상으로 시범 서비스를 운영해왔다. 토스모바일이 지난 3주간 가입자들을 분석한 결과 요금제 탐색부터 유심배송 신청까지 평균 3분이 소요된 것으로 조사됐다. 퀵 배송지역(수도권·광역시 일부지역)에서는 유심 수령까지 평균 17분이 걸렸다. 토스모바일은 유심도 무료로 제공하고 있다.사전가입자들은 총 4개 요금제 중 ▲데이터 7GB 기본, 데이터/통화/문자 무제한(월 1만4800원/정가 2만4800원) 요금제에 가장 많은 관심을 보였다. 전체 가입자의 33.2%가 해당 요금제를 택했다.이어 ▲데이터 71GB 기본, 데이터/통화/문자 무제한(프로모션가 3만4800원/정가 5만4800원) 27.8% ▲100GB 데이터 기본, 데이터/통화/문자 무제한(프로모션 가격 월 3만9800원) 26.9% 순으로 나타났다.토스모바일 관계자는 "기존 알뜰폰 요금제에서 찾아볼 수 없던 미사용 잔여 데이터 캐시백과 토스페이 전 가맹점 10% 캐시백 혜택이 포함된 요금제에 많은 사용자들의 관심이 몰렸다"며 "편리한 가입 경험과 직관적인 셀프케어 등 장점을 더욱 극대화 해 좀 더 많은 토스 유저가 만족할만한 서비스를 만들어 가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>토스모바일, 요금제 가입 전면 오픈…인기 요금제는?</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002142927?sid=105</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[디지털데일리 강소현 기자] 토스의 통신 자회사 ‘토스모바일’은 통신 요금제 가입을 전국 단위로 오픈했다고 22일 밝혔다.지난달 30일 처음으로 가입을 개시한 ‘토스모바일’은 그동안 사전신청자를 대상으로 시범 서비스를 운영해왔다. 이날부턴 토스 사용자라면 전국 어디에서나 편리하고 빠르게 통신 서비스에 가입할 수 있다.토스모바일이 지난 3주간 가입자들을 분석한 결과 요금제 탐색부터 유심배송 신청까지 평균 3분이 소요된 것으로 조사됐다.또 퀵 배송지역(수도권 및 광역시 일부지역)의 경우 유심 수령까지 평균 17분이 걸렸다. 실제 토스모바일이 사전가입자를 대상으로 한 만족도 조사(816명 응답)에서 토스모바일의 강점으로 편리한 가입, 개통 과정이 꼽혔다. 토스는 비대면 알뜰폰 가입시 절차가 번거롭고 오래 걸린다는 고정관념을 깨고 직관적인 가입 경험을 제공하기 위해 특히 노력을 기울였다는 설명이다.총 4개 요금제 가운데 전체 가입자의 33.2%가 ▲데이터 7GB 기본, 데이터·통화·문자 무제한 (월 1만4800원·정가 2만4800원) 요금제를 택했다. 이어 ▲데이터 71GB 기본, 데이터·통화·문자 무제한(프로모션가 3만4800원·정가 5만4800원) 27.8% ▲100GB 데이터 기본, 데이터·통화·문자 무제한(프로모션 가격 월 3만9800원) 26.9% 순이었다.사전가입자의 71%는 기존 이동통신사업자(MNO) 사용자였으며, 29%가 가상이동통신망사업자(MVNO)로 집계됐다.토스모바일 관계자는 “기존 알뜰폰 요금제에서 찾아볼 수 없던 미사용 잔여 데이터 캐시백과 토스페이 전 가맹점 10% 캐시백 혜택이 포함된 요금제에 많은 사용자들의 관심이 몰렸다"며 “편리한 가입 경험과 직관적인 셀프케어 등 장점을 더욱 극대화 해 좀 더 많은 토스 유저가 만족할만한 서비스를 만들어 가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>경영 보폭 넓히는 최성환 SK네트웍스 사장, 투자설명회 데뷔전</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002685965?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>글로벌 투자 관계자 네트워크 강화 위한 투자사업 설명회 첫 개최美 투자법인 중심 20여 건 2100억원 투자 집행…성과 '쏠쏠'최성환 SK네트웍스 사업총괄 사장이 21일 서울 광진구 워커힐 호텔앤리조트에서 열린 투자사업 설명회 ‘AGM(Global Annual General Meeting)’에서 환영사를 하고 있다. ⓒSK네트웍스[데일리안 = 박영국 기자] 최신원 전 SK네트웍스 회장의 장남인 최성환 사업총괄 사장이 국내외 투자 파트너사들 앞에서 성공적인 데뷔전을 치렀다. 지난해 사장 승진과 함께 사업총괄의 중책을 맡은 데 이어 회사의 ‘얼굴’ 역할을 하며 순조로운 경영승계 절차를 밟는 모습이다.22일 SK네트웍스에 따르면 최 사장은 전날 서울 광진구 워커힐 호텔앤리조트에서 열린 투자사업 설명회 ‘AGM(Global Annual General Meeting)’에서 회사를 대표해 참석자들 앞에서 환영사를 통해 SK네트웍스의 미래 투자사업 전략을 소개했다.그는 환영사에서 “SK네트웍스가 미국 실리콘밸리에서 성공적으로 수행한 투자 경험을 바탕으로 ‘글로벌 혁신의 게이트 키퍼’ 역할을 수행하겠다”면서 “일상을 좀 더 편하게 하는 것에 만족하는 혁신에 그치지 않고, 세계에 존재하는 다양한 종류의 사회적·경제적 불평등들을 해소하는데 저희의 영향력을 활용할 것”이라고 밝혔다.이번 투자사업 설명회는 SK네트웍스의 글로벌 투자사업 내역과 성과를 소개하고 이해관계자들과의 소통을 강화하기 위해 기획한 행사로, 올해 처음으로 시행됐다.이 자리에는 최 사장을 비롯해 이호정 총괄사장, 크레이그 루프 사반토 창업자 겸 대표, 매트 스컬린 마이코웍스 대표, 스티브 장 킨드레드벤처스 대표 등 글로벌 시장에서 SK네트웍스와 협력의 폭을 넓혀가고 있는 파트너사 등 국내·외 150여 명의 투자업계 관계자들이 참석했다.최 사장의 환영사 이후 영상을 통해 실리콘밸리 유수의 유니콘을 배출한 'Y 콤비네이터(Y Combinator)’ 대표 게리 탄, 퍼블릭 블록체인 프로젝트 ‘앱토스(APT)’의 공동 창업자이자 대표인 모하마드 샤이크의 축사가 소개됐다. 게리 탄은 ‘챗GPT’ 개발사인 오픈AI를 공동 설립한 샘 알트만에 이어 Y 콤비네이터 수장에 오른 인물로, 이날 현장 청중들의 이목을 집중시켰다.이후 무대에 선 정한종 SK네트웍스 신성장추진본부장은 사업형 투자회사로의 전환을 향한 SK네트웍스의 여정과 글로벌 투자 현황, 향후 방향성을 설명했다.글로벌 투자 네트워크 '하이코시스템' 기반 20여건 2100억원대 투자SK네트웍스는 2018년 초기단계(Early Stage: 창업 후 초기 투자가 필요한 상태) 기업 투자를 시작했다. 이듬해 최성환 사장이 합류해 투자 역량 확보 및 실행력 강화에 본격적으로 나서며 ‘사업형 투자회사’란 회사의 진화 방향성을 잡았다.SK네트웍스의 사업형 투자회사 모델은 성장성 높은 영역에 투자를 집행하는 동시에 해당 기술을 활용해 기존 사업 모델을 업그레이드하고, 필요 시 회사의 주력사업으로 편입하는 등 ‘투자를 중심으로 지속적으로 기업가치를 높이는 회사’를 의미한다. 성장성과 지속 가능성을 제고할 신성장 동력을 발굴하기 위해 SK네트웍스는 국내뿐만 아니라 글로벌 혁신의 심장이라 불리는 실리콘밸리 지역을 투자 대상으로 삼았다.21일 서울 광진구 워커힐 호텔앤리조트에서 열린 투자사업 설명회 ‘AGM(Global Annual General Meeting)’ 현장 모습. ⓒSK네트웍스SK네트웍스는 ‘초기기업 투자는 전문가 집단을 통해 이뤄진다’는 점에 착안, 자체적인 네트워크 형성에 나섰다. 한 명 한 명씩과의 만남으로 시작된 네트워크는 점점 확대돼 창업자, 투자자, 기술·경제·법률 전문가 등 220여명으로 구성된 ‘하이코시스템(Hicosystem)’이 구축됐다.이 과정에서 최 사업총괄 사장은 SK㈜ 재임 시절 그룹의 첫 미국 스타트업 투자를 담당했던 경험과 전략적 인사이트, 해외 사업 전문성을 바탕으로 하이코시스템 구축 및 SK네트웍스의 내부 역량 확보에 주도적인 역할을 한 것으로 알려졌다.글로벌 투자 네트워크 형성 이후 SK네트웍스는 2020년 미국 실리콘밸리에 현지 법인 ‘하이코캐피탈(Hico Capital)’을 설립하고 본격적인 투자 행보를 이어왔다. 현재 집행 중인 투자 내역을 종합하면 펀드투자 및 직접투자를 합쳐 20여건 2100억원 규모에 달한다.정한종 본부장은 “미국 투자 초기에는 딜 소싱과 투자 검증 채널 활용을 위해 글로벌 Top-tier 펀드에 대한 투자를 주로 했고, 이를 직접 투자로 연결시키기도 했다”며 “현재는 투자 관리 체계가 갖춰짐에 따라 직접 투자를 늘려나가는 상황”이라고 밝혔다.SK네트웍스의 직접 투자는 기술 진화에 맞춰 ▲디지털 전환(Digital Transformation) ▲웹3(Web3) ▲지속가능성(Sustainability)에 초점을 두고 진행하고 있다. 이 같은 방향성 아래서 SK네트웍스는 AI 기반의 무인 결제 시스템 개발사인 ‘스탠더드 코그니션’과 트랙터 자율주행 솔루션 업체 ‘사반토’, 버섯균사체로 친환경 대체 가죽을 생산하는 ‘마이코웍스’ 등에 투자를 집행했다.정 본부장은 “미래 기술은 인류에게 최상의 편리함을 제공하는 동시에 사람 사이의 연결성을 더욱 강조하는 방향으로 변화하고 있으며, 환경 가치를 살리는 시장 또한 폭발적으로 확대될 것”이라고 SK네트웍스의 투자 영역 설정 배경을 설명했다.현재 기준 SK네트웍스의 초기기업 투자 내부수익률(IRR)은 일반적인 글로벌 펀드보다 높은 수준을 기록하고 있다. 이 같은 성과 창출은 SK네트웍스 내부의 심층적인 3단계 투자 심의 프로세스와 사후 관리를 통해 가능했다는 분석이다.SK네트웍스는 지속적으로 투자 관리 체계를 업그레이드하는 한편, 내재화된 역량을 활용해 국내 이해관계자들에게 미국 시장을 소개하는 역할도 추진할 예정이다.정 본부장은 “투자 네트워크와 관리 시스템을 바탕으로 포트폴리오를 확대해 글로벌 혁신 가속화에 기여하고 주주가치 제고로 이어지게 할 것”이라며 “하이코캐피탈이 미국 초기기업 투자에 관심 있는 이들과 미래 비전 및 투자 성과를 나누는 방안을 모색하는 등 글로벌 투자 공동체를 확대해 나가겠다”고 강조했다.이호정 총괄사장 "다양한 투자 포트폴리오 활용, 사업형 투자회사 진화할 것"SK네트웍스가 투자한 기업 중 세 곳의 대표도 이날 행사 무대에 섰다. 마이코웍스, 사반토, 마이뮤직테이스트의 대표는 단상에 올라 각 회사의 비전과 현황, 계획을 소개하고 현장 참석자들과 질의 시간을 가졌다.스티브 장 킨드레드벤처스 대표와 김사무엘 SK네트웍스 하이코캐피탈 법인장이 AI 산업, 웹3 생태계 관련 시사점을 이야기하는 순서도 마련됐다.이 자리에서 스티브 장 대표는 “챗GPT가 인간과 커뮤니케이션한다는 측면에서 각광받고 있는 것처럼 AI의 궁극적인 활용 목적은 인간을 지원하는 것“이라며 “웹3 창업자와 팀 또한 미래 고객에게 필요한 것이 무엇인지를 예측하고 실제로 개발해 서비스할 수 있느냐가 중요하다”고 말했다.이호정 SK네트웍스 총괄사장이 21일 서울 광진구 워커힐 호텔앤리조트에서 열린 투자사업 설명회 ‘AGM(Global Annual General Meeting)’에서 클로징 메시지를 전하고 있다. ⓒSK네트웍스또한 ‘거시경제와 기업 활동의 변화’를 주제로 한 패널 토크도 진행됐다. 이준표 소프트뱅크벤처스 대표, 김서준 해시드 대표 등 벤처업계를 선도하는 인물들과 함께 최성환 SK네트웍스 사업총괄 사장이 패널로 참여했다.이준표 대표는 “경기 침체와 유동성 위기 속에서 AI와 리셀 영역에 대한 관심이 커지고 있다”며 “기술을 통해 비용을 줄이고 퀄리티를 높이는 기업 투자가 증가할 것”이라고 말했다.김서준 대표는 “블록체인과 크립토는 자본 시장의 미래를 담는 그릇”이라며 “계정 추상화 기술처럼 생활 곳곳에 블록체인 기반 애플리케이션이 늘고 있는 상황에서 관련 기술을 더 과감하게 활용해야 한다”고 강조했다.글로벌 투자사업 설명회의 마지막 순서는 이호정 SK네트웍스 총괄사장이 맡았다. 이 총괄사장은 회사의 경영 전략 가운데 투자가 가지는 의미를 다시 한 번 강조했다. 또한 글로벌 혁신의 게이트키퍼로서의 역할 강화하는 것은 물론, 투자를 기반으로 보유 사업의 혁신과 추가 성장 동력을 확보해 사업형 투자회사로 진화해 나가겠다고 밝혔다.이 총괄사장은 “투자는 모든 기업이 지속가능성을 유지하기 위해 필수적으로 가져야 할 기능으로, SK네트웍스의 글로벌 투자사업은 보유 사업과 미래 사업을 연결시키고, 회사의 가치를 키우는 매우 중요한 역할을 할 것”이라며 “SK네트웍스, 하이코캐피탈이 투자하는 다양한 포트폴리오를 활용해 사업형 투자회사로 진화하는 성장 스토리에 많은 관심으로 함께 해달라”고 당부했다.한편 SK네트웍스의 행사가 진행된 곳은 워커힐 지하에 위치한 예술 전시 공간 ‘빛의 시어터’로, 총면적 3400㎡, 최대 높이 21m의 메인 전시장 공간에 SK네트웍스 투자 사례, 성과 등을 종합한 파사드 영상이 구현돼 압도적인 몰입감을 선사했다.입체적으로 구성된 글로벌 경제·금융 시장 업계 리더들의 축사 영상 또한 눈길을 끌었으며, ‘미래를 이롭게 할 기술을 통해 더 나아가는 인류의 삶’을 담은 오프닝 영상 속 인물이 암전을 뚫고 나와 최성환 SK네트웍스 사업총괄 사장으로 변화하는 모습에선 박수가 쏟아지기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>[리더스칼럼] 금융산업의 두 번째 유니콘</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002109591?sid=110</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>중소벤처기업부가 발표한 자료에 따르면 2022년 말 기준 기업가치 1조원 이상의 비상장기업인 국내 유니콘기업은 총 22개사다. 여기에는 토스를 서비스하는 비바리퍼블리카 등 3개의 핀테크기업이 포함돼 있다. 우리 금융산업의 첫 번째 ‘유니콘’은 이와 같이 금융시장의 신규 스타플레이어로서 활약하는 핀테크 스타트업들이다.두 번째 ‘유니콘’은 유니콘이라는 이름의 오래된 신화처럼 환상 속의 존재들이다. 뿔이 하나 달린 흰색 말에 대한 유니콘 신화처럼 실제로 존재하는지와는 무관하게 대중의 관념 속에 존재하는, 소위 ‘빅테크’라는 이름의 신화가 있다.일반적으로 미국의 MAGA(Meta·Amazon, Google, Apple) 등 금융 서비스를 제공하는 기술 기반의 초거대 IT기업을 지칭할 때 빅테크라는 정의를 사용하지만 금융안정위원회(FSB)의 2019년 보고서에 인용된 신조어일 뿐이다. 특히 유럽에서 자국 시장을 보호하기 위한 디지털보호주의 정책에 기반해 경계 대상인 미국의 거대 기술플랫폼들을 부정적 의미로 지칭할 때 ‘빅테크’라는 표현을 사용하면서 널리 회자되게 됐다.그런데 우리나라에서는 거대한 글로벌 IT기업들과 비교하기 어려운 규모이자 국내에서 자생적으로 성장해 온 주요 플랫폼기업들이 빅테크로 통칭된다. 문제는 이들이 금융시장 혁신과 소비자 편익증진 등에 기여한 순기능은 가려지고 근거가 미약한 부정적인 이미지만 확대되고 재생산된다는 점이다. 화자의 의도가 신화를 만들고 각색하는 것처럼 빅테크라는 단어를 사용하는 주체의 주관적 의견이나 내면의 의도가 가장 큰 영향을 미치는 것은 자명하다.우리의 경우를 살펴보면, 기술기업의 금융업 진출은 우리 금융산업의 고질적인 문제인 과점시장에서의 공급자 중심 금융을 점차 소비자 중심 금융으로 바꿔가고 있으며 이는 우리 금융사에서 매우 중요한 의미를 지니고 있다.엄격한 전업주의하에서 금융회사는 자발적으로 혁신하기 어려운 구조를 가지고 있었으나 핀테크 플랫폼이라는 외부 경쟁자의 등장으로 자기파괴적 혁신을 시도하지 않을 수 없게 됐다. 금융혁신의 과정에서도 슘페터가 말한 것처럼 오랜 관행을 해체하고 파괴하는 아픈 과정이 수반될 수밖에 없는 것이다. 갑자기 등장한 경쟁자에 대한 반발이 발생하는 것은 어찌 보면 당연하다.하지만 앞으로 다양한 비금융기업들이 고객 데이터에 기반한 맞춤형 금융 서비스를 내재화해 제공하는 임베디드 금융이 확산될 것이다. 금융과 비금융은 초기 단계의 혼란을 넘어 광범위한 협력과 협업의 시대를 준비하는 것이 현명한 길이다.다만 핀테크 서비스의 규모가 커지고 핀테크기업들의 금융업 진출이 확대될수록 금융시장 안정과 소비자 보호에 대한 논의는 선제적으로 이뤄져야 하고, 핀테크기업들도 이에 적극 화답해야 한다.아울러 성공궤도에 오른 선배 핀테크기업들이 핀테크 생태계의 후배 스타트업 육성에도 힘을 써서 수많은 진짜 유니콘을 키워내는 역할을 해줬으면 하는 바람이 있다. 그렇게 되면 빅테크라는 유니콘들이 지금까지 이룬 성과가 더 빛나게 될 것이다.신화 속에서 유니콘은 일반적인 이미지와 달리 극도로 난폭한 존재라고 한다. 금융산업의 경쟁 촉진과 금융혁신을 위한 창조적 파괴의 과정에서 빅테크라는 유니콘의 고삐를 풀어주고 조금 날뛰게 하자.장성원 한국핀테크산업협회 사무처장</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>고금리 고비에 ‘햇살론’ 있었다…서민금융 10조원 공급 ‘최대’</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002628082?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>한국금융연구원 보고서&lt;한겨레&gt; 자료사진지난해 정책서민금융 공급규모가 10조에 육박해 역대 최대를 기록한 것으로 나타났다. 정책서민금융 상품은 근로자햇살론, 햇살론15, 햇살론 유스 등 금융소외 계층의 금융 접근성을 높여주기 위해 정부 및 금융기관이 출시한 여러 대출·보증 상품들이다.19일 박준태 한국금융연구원 연구위원은 ‘고금리 시기 서민금융 정책현황 및 역할’ 보고서를 내어 지난해 정책서민금융 공급규모는 9조8천억원(감정)으로 역대 최대 수준을 기록했다고 밝혔다. 2019년 8조원, 2020년 8조9천억, 2021년 8조7천억원 규모로 8조원대에 머물던 정책서민금융 공급규모가 지난해 10조원에 육박했다. 박 연구위원은 “지난해 하반기부터 고금리 시기가 도래해 저소득·저신용 계층의 금융접근성이 저하됐을 거라는 우려가 제기됐으나 정책서민금융상품과 민간서민금융 공급은 늘어난 서민층의 자금수용에 대응해 확대된 것으로 나타났다”고 밝혔다. 민간에서도 지난해 인터넷전문은행 중·저신용자 대출, 중금리대출이 증가하면서 중·저신용자에 대한 자금공급이 늘어난 것으로 나타났다. 2021년 5월 금융위원회는 케이뱅크와 카카오뱅크, 토스뱅크 등 인터넷전문은행의 중·저신용자 신용대출을 단계적으로 확대하겠다고 밝힌 바 있다. 지난해 3사 모두 단계적 목표치인 25% 이상을 달성한 데 이어, 올해 말까지 30% 이상을 목표로 공급을 확대할 계획이다. 중금리 대출은 업권별로 부여된 금리상한 등 일정 조건을 만족하는 대출을 중금리대출로 인정하고 금융기관에 인센티브를 제공해 서민층 대출의 금리하락을 유도하는 제도다. 다만, 박 연구위원은 서민금융 공급규모를 늘리는 데 그치지 않고 질적 개선도 이뤄야 한다고 제언했다. 그는 “서민금융상품이 정책 본연의 목적을 달성하기 위해서는 지속가능한 재원을 마련하고, 다양한 상품의 지원대상이나 방법을 정비하는 등 질적 개선을 병행해야 한다”고 밝혔다. 서민금융진흥원이 진행하는 보증지원 사업의 경우, 한시적으로 마련된 재원에 기대고 있어 대위변제율을 일정 수준 아래로 유지해야만 지속가능하다는 설명이다. 이 경우 공급 목표를 유지하기 위해서는 상대적으로 상환 가능성이 높은 차주에게 자금 지원을 하려는 경향이 생긴다. 박 연구위원은 “궁극적으로 차주가 제 1·2금융권으로 흡수될 수 있도록 정책서민금융 제공 시 자금 용도파악, 사후관리, 성실상환자에 대한 인센티브 제공 등이 요구된다”고 짚었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>1월 예대금리차 가장 큰 곳 '전북은행'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003258448?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>4대 금융지주 본사. 각사지난 1월 은행 가운데 예대금리차(대출금리-예금금리)가 가장 큰 곳은 전북은행이었다. 5대 은행 중에선 KB국민은행이었던 것으로 나타났다.20일 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 1월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 KB국민은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.51%포인트(p)로 집계됐다.KB국민은행에 이어 NH농협은행(1.44%p), 우리은행(1.07%p), 하나은행(1.03%p), 신한은행(0.84%p) 순으로 가계 예대금리차가 컸다.인터넷은행 중에서는 토스뱅크가 4.72%p로 가장 컸고, 케이뱅크 2.15%p,  카카오뱅크 1.25%p 순이었다.인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%p)이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 KB국민은행이 1.81%p로 가장 컸다.2∼5위는 NH농협은행(1.69%p), 우리은행(1.59%p), 하나은행(1.44%p), 신한은행(1.33%p) 순이었다.이와 관련 KB국민은행 관계자는 “1월 들어 법인고객의 단기성 예금 비중이 늘면서 평균 예금금리는 낮아진 반면, 주택담보대출 대비 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 확대됐다”며 “현재도 주택담보대출의 경우도 가장 낮은 수준이며, 1월 말 시행된 가계대출금리 최대 1.3%포인트 인하효과는 2월 예대금리차 공시에 반영될 것이다“고 밝혔다.권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>은행권 관행·제도 개선 TF 출범…보험·카드업계도 참여</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011432479?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>윤석열 대통령이 은행의 과점 문제를 지적하면서 금융당국이 은행권 관행 및 제도를 개선하기 위한 태스크포스(TF)를 본격적으로 가동합니다. 이 TF는 5대 은행 중심의 과점 문제뿐만 아니라 최근 사회적 논란이 된 금융회사의 '성과급 잔치' 등 현안을 모두 다룰 것으로 보여 금융권의 대대적인 개편이 예상됩니다. 금융권 등에 따르면 금융위원회는 22일 금융감독원, 은행들과 함께 '은행권 경영·영업 관행·제도 개선 TF' 첫 회의를 열어 향후 은행의 영업·경영의 개편 방향과 절차 등을 논의할 예정입니다. 이날 회의에는 생명보험협회, 손해보험협회, 여신금융협회, 금융투자협회 등 다른 업권의 협회 관계자들도 참석해 성과 보수 체계 등 공통 사안에 대해 의견을 개진할 예정입니다. 이번 회의는 지난 15일 윤 대통령이 주재한 제13차 비상경제민생안전회의의 후속 조치입니다. 윤 대통령은 당시 회의에서 "우리 은행 산업에 과점 폐해가 크다"며 김주현 금융위원장과 이복현 금감원장에게 실질적인 경쟁 시스템 강화 방안을 마련하라고 지시한 바 있습니다. 이에 따라 새로 출범하는 TF는 은행권 경쟁 촉진, 금융회사의 성과급·퇴직금 등 보수 체계, 금리 체계 개선, 사회공헌 활성화, 비이자이익 비중 확대, 손실흡수 능력 제고 등 6개 과제를 중점적으로 다룰 예정입니다. 5대 시중은행의 과점 문제가 핵심 사안이어서 카카오뱅크, 케이뱅크, 토스뱅크에 이은 네 번째 인터넷전문은행 신규 허가가 추진될지도 관심입니다. 아울러 은행을 포함한 카드, 보험사 등 금융회사들의 과도한 성과급 지급에 따른 성과 보수 체계 개편, 금리 인하 요구권과 예대금리차 개선, 사외이사 기능 활성화를 통한 금융회사 최고경영자의 독주 예방 등이 집중적으로 논의될 것으로 보입니다. TF는 김소영 금융위 부위원장을 중심으로 금융위원회, 금감원, 금융권, 학계, 법조계, 소비자 전문가 등의 논의를 거쳐 오는 6월 말까지 개선 방안을 도출할 계획입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>KB페이, 소비자가 꼽은 ‘금융 앱’ 순위 4계단 상승…고객확보 1위는 토스</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000798921?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>컨슈머인사이트 제공지난 연말 '오픈페이'가 서비스를 시작하고, 내달 애플페이의 국내 상륙이 예정되면서 지급결제 시장의 경쟁이 더욱 달아오를 조짐이다. 이런 상황에서 KB국민카드의 자체 플랫폼 KB페이가 이용고객 확대에 주력하는 모양새다.시장 조사업체 컨슈머인사이트에 따르면 KB페이는 올해 1월 확보 고객 비율이 19.3%로 금융 앱 중 7위를 기록했다. 순위로 보며 앞서 있는 경쟁 플랫폼이 많지만 상승세는 가파르다. 전달 11위에서 4계단 상승했으며, 6개월 전과 비교하면 10계단이나 올랐다.확보고객 비율은 금융소비자의 행동 특성을 반영해 개발한 지표로 '정기적으로 이용하거나 생활하는데 필수적으로 이용한다'는 응답 비율을 뜻한다. 일반적으로 활용하는 월간 활성이용자수(MAU)와 구분되는 인식적 지표로 진성 이용자를 파악할 수 있다.확보고객 비율 1위는 토스(34.6%)였다. 그 뒤를 ▷KB국민은행 스타뱅킹(32.0%) ▷카카오뱅크(26.8%) ▷신한 쏠(SOL)(22.3%) ▷신한플레이(22.1%) 등이 추격했다. 이들 '톱5'는 전달과 순위 변동을 보이지 않으며 공고한 위상을 보여줬다.6위는 전달보다 한 계단 오른 카카오페이(19.6%)였으며 ▷페이북/ISP(18.1%) ▷NH스마트뱅킹(17.6%) ▷삼성카드(17.6%) 등이 '톱10'에 이름을 올렸다.컨슈머인사이트 관계자는 "기존 앱에서 전환하지 않은 이용자가 아직 많고 핀테크, 빅테크와의 서비스 경쟁도 더욱 치열해질 것이어서 향후 확보 고객 경쟁의 향방이 주목된다"고 했다.이번 조사는 전국 만 20~69세 성인 2천607명을 대상으로 진행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>5대 은행 금리인하 수용률 평균 40.8%… NH농협·우리·KB국민·신한·하나 순</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000881384?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>인터넷은행선 토스뱅크가 가장 낮아서울 시내의 한 은행 대출창구에 금리인하요구권 안내 배너가 설치돼 있다. /연합뉴스        KB국민·신한·하나·우리·NH농협 등 5대 은행 중 대출자의 금리 인하 요구를 받아들이는 비율이 가장 낮은 곳은 하나은행으로 나타났다. 전체 국내 은행의 수용률 평균은 30.6%로 직전 반기 대비 상승한 것으로 파악됐다.금리인하요구권은 대출 등을 이용하는 소비자가 본인의 신용상태가 재산 증가, 신용평점 상승 등으로 개선된 경우 은행 등 금융사에 금리 인하를 요구할 수 있는 권리다.28일 은행연합회가 비교 공시한 지난해 하반기 기준 은행별 금리인하요구권 운영실적 현황에 따르면, 하나은행의 수용률(신청건수 대비 수용건수)은 26.9%로 5대 은행 가운데 가장 낮았다. 이어 ▲신한은행(33.0%) ▲KB국민은행(36.9%) ▲우리은행(37.9%) ▲NH농협은행(69.3%) 순이었다.가계 대출 수용률로 봐도 순서는 같았다. 하나은행이 26.6%로 가장 낮았고, ▲신한은행(30.4%) ▲KB국민은행(36.9%) ▲우리은행(37.8%) ▲NH농협은행(70.2%) 등이 뒤를 이었다.하나은행 관계자는 “자동심사 도입 등으로 가계대출 금리 인하 요구 신청 건수가 2021년 4천400여 건에서 지난해 5만3천500여 건으로 급증했고, 이미 대출금리가 최저 수준인 경우가 많았기 때문”이라며 “하반기 기준 금리 인하 요구 수용에 따른 평균 인하 폭이나 건당 감면액은 업계 최고 수준”이라고 해명했다.공시에 참여한 19개 은행 전체 중에서는 KDB산업은행의 수용률이 97.6%로 가장 높았고, 제주은행이 10.2%로 최저였다. 다만 가계 대출 수용률을 보면 제주은행이 8.7%로 가장 낮았고, NH농협은행이 가장 높았다.지방은행을 보면 제주은행에 이어 ▲BNK경남은행 19.3% ▲DGB대구은행 35.3% ▲광주은행 44.3% ▲BNK부산은행 58.2% ▲전북은행 52.4% 순으로 수용률이 낮았다.인터넷전문은행 중에서는 토스뱅크(19.5%)의 수용률이 가장 낮았다. 이어 카카오뱅크(23.4%)와 케이뱅크(35.7%) 순으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>가격 인하 압박·알뜰폰 공세에… 이통3사 ‘요금제 다이어트’</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002558237?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>정부, TF 꾸려 이통사 전면 점검상반기 내 ‘중간 요금제’ 선봬야정부가 국민 생활비에 부담을 주는 요인 중 하나로 ‘통신비’를 지목한 데 이어 대형 금융 플랫폼 토스(비바리퍼블리카)도 알뜰폰 사업을 전격 확대하자 이동통신 3사의 고심이 깊어지고 있다. 통신사들은 반발하면서도 울며 겨자 먹기로 올해 상반기 중 ‘중간 요금제’를 출시해야 하는 상황에 놓였다.23일 통신업계에 따르면 과학기술정보통신부는 통신비를 깎겠다는 목표로 ‘통신시장 경쟁촉진 정책방안 태스크포스(TF)’를 꾸려 이통사 요금제 설계부터 약관 구성, 제4 이통사 진입, 스마트폰 단말기 유통 구조까지 대대적인 점검에 나섰다. 과기부는 이통 3사에 대해 “5세대(G) 월 데이터 40~100GB(기가바이트)의 중간 요금제가 아예 없다”며 올 상반기 중 이를 새로 만들어야 한다는 점을 강조하고 있다.토스까지 알뜰폰 사업을 대폭 키우는 중이다. 전날 토스모바일은 정가 기준 최저 2만 원대(월 데이터 7GB), 최고 5만 원대(월 데이터 100GB)의 요금제 가입을 전면 개시한다고 밝혔다. 이통 3사의 긴장 강도는 높아지고 있다. 한 이통사 관계자는 “금융, 정유를 비롯해 통신업은 대표적 규제 산업으로 이번과 같은 조치는 과거 정부에서도 반복돼왔다”며 “이번 조치가 당장 이통사 실적엔 큰 영향은 없겠지만 주가가 요동쳐 장기적으로 투자자들에게 좋지 않은 메시지로 다가서고 있다”고 말했다. 상반기 내로 이통 3사는 중간요금제 출시 등 개편안을 내놔야 하는 처지다. LG유플러스는 온라인 다이렉트 요금제 3종을 새로 출시했다고 전날 밝혔다. KT도 다음 달 새로운 온라인 요금제를 내놓을 것으로 알려졌다. 지난해 12월 온라인 요금제 개편안을 내놓은 SK텔레콤도 새 요금제 출시를 검토하고 있는 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>운전이력·도서구매까지 살피는 인터넷銀 속사정</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005223380?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>카뱅 작년 말 0.49%…케뱅·토뱅도 증가세토뱅, 원리금 상환 부담 줄여줘대안정보 추가 등 CSS 고도화지난해 중·저신용자 대출 비중이 늘며 부실 우려가 커진 인터넷전문은행들이 건전성 관리에 나섰다.27일 금융권에 따르면 토스뱅크는 올해 1월 말 기준 중저신용자 대출 비중이 41%를 넘어서며 인터넷은행 3개사(카카오뱅크·케이뱅크·토스뱅크) 가운데 가장 높게 나타났다. 케이뱅크는 지난해 말 기준 전체 신용대출의 39.5%가 중저신용자 대출로 공급액만 2조265억원에 달했다. 카카오뱅크 역시 지난해 중저신용자 대출 비중 목표치인 25%를 달성하며 취약차주들을 끌어안았다. 지난해 카카오뱅크·케이뱅크·토스뱅크의 중저신용자 대출 비중 목표치는 각각 25%, 25%, 42%였는데, 올해는 그보다 2~7%씩 늘어난 30%, 32%, 44%로 정해졌다.문제는 중저신용자 대출이 늘면서 연체율도 덩달아 높아졌다는 점이다. 카카오뱅크의 지난해 말 기준 연체율은 0.49%로 전 분기 대비 0.13%포인트 상승했다. 1년 전인 2021년 말(0.22%)과 비교하면 2배 이상으로 뛰어올랐다. 케이뱅크와 토스뱅크의 연체율도 지난해 3분기 기준 각각 0.67%, 0.34%로 직전 분기보다 0.15%포인트, 0.19%포인트씩 올랐다. 아직 4분기 연체율은 발표되지 않았으나 지난해 말 경기 침체와 함께 취약차주들의 재무 상태가 더 악화한 점을 고려하면 증가폭은 더 커질 것으로 예상된다. KB국민·신한·하나·우리은행 등 4대 시중은행의 지난해 연체율인 0.16~0.22%와 비교해 높은 수준이다.이에 각 인터넷은행들은 연체율 관리, 신용평가모형(CSS) 고도화 등 건전성 강화에 안간힘을 쓰고 있다. 대표적으로 토스뱅크는 ‘매달 내는 돈 낮추기’를 통해 원리금균등상환 대출에 대해 만기를 최대 10년(최초 만기 포함)까지 늘려주고 있다. 매달 상환해야 하는 원리금을 줄여줘 차주들의 연체 가능성을 줄이겠다는 취지다. 지난해 10월 출시된 이래 지금까지 총 1만5000계좌가 사용 중인데, 그중 66%가 중저신용자로 나타났다.케이뱅크와 카카오뱅크는 CSS 고도화로 대응하고 있다. 상환능력이 있는 차주를 선별해내 연체율을 낮추겠다는 것이다. 케이뱅크는 사용하는 대안정보로 통신, 쇼핑 데이터 외에 전자책 등 도서구매 데이터, 운전이력 데이터 등을 추가한다는 계획이다. 카카오뱅크 역시 새로운 대안정보와 마이데이터 정보를 활용해 모형을 개선할 예정이다. 카카오뱅크는 이미 자체 개발한 신용평가모형인 '카카오뱅크 스코어'를 통해 기존에 대출이 거절된 중저신용자 10%를 추가 선별해 대출을 공급하는 성과도 거뒀다.업계 관계자는 “리스크 관리 차원에서 차주들의 연체 악순환을 선제적으로 막기 위해 다양한 방법을 고민 중이다”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>국내 20개 은행, 상반기 2288명 이상 신규 채용</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001198907?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>부산은행 35명, 지역은행 최고문현금융단지 부산은행 본점.부산일보DB은행권이 올해 상반기 2300여 명에 달하는 신규 인력을 채용한다. 지역은행 가운데에서는 BNK부산은행이 35명으로 가장 많은 인원을 신규로 충원한다는 방침이다.은행연합회는 20일 국내 20개 은행이 올 상반기 중 2288명 이상을 신규채용할 전망이라고 밝혔다. 이는 지난해 같은 기간(1546명) 대비 48%(742명)가량 증가한 규모다.은행별로 살펴보면 NH농협은행이 2월과 5월 두 차례에 걸쳐 약 500여 명을 채용해 가장 많았다. 이어 KB국민·신한·하나·우리 등 4대 은행이 각각 250명 씩으로 뒤를 이었다.이 밖에 △IBK기업은행 160명 △카카오뱅크 148명 △산업은행 90명 △수협은행 85명 △토스뱅크 76명 △케이뱅크 67명 △SC제일은행 35명 순으로 나타났다.지역은행 중에서는 BNK부산은행이 35명으로 가장 많았다. 이어 △제주은행 32명 △BNK경남은행 20명 △DGB대구은행 20명 △광주은행 10명 △전북은행 10명 등이었다.올해 전체 은행권의 연간 채용 계획은 약 3700명 규모로 전년 대비 약 600명 증가할 것으로 예상된다. 은행권 신규 채용 구모가 늘어난 이유는 최근 명예퇴직 실시 등 인력 효율화로 채용 여력이 확대됐기 때문으로 해석된다.아울러 국내은행은 우수 인력 조기 확보와 고졸 인력 실업 문제 해소 등 공공적인 역할 이행을 위해 고졸 채용을 지속할 예정이다. 전년도 고졸채용 수준인 전체 채용인력의 2.9% 내외에 해당하는 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>금융권 "올 상반기 4700여명 신규 채용"…은행 2288명 뽑는다</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003973366?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>금융권이 올 상반기 총 4700여 명에 달하는 대규모 채용 계획을 내놨다.6개 금융협회는 20일 서울 종로구 정부서울청사에서 열린 '금융권 청년 일자리 간담회'에 참석해 채용 계획을 발표했다. 먼저 국내 20개 은행은 올 상반기 중 전년 동기 대비 약 742명 증가한 2288명을 채용할 예정이다. 은행별로는 농협은행이 500명으로 가장 많았다. 신한·국민·하나·우리은행은 250명씩을 뽑을 계획이다. 인터넷은행은 카카오뱅크 148명, 토스 76명, 케이뱅크 67명 순이다.은행연합회 관계자는 "최근 명예퇴직 실시 등 인력 효율화에 따라 신규 채용 여력이 늘어났기 대문에 채용 인원을 늘리고 있는 것으로 보인다"고 설명했다. 보험업계는 올 상반기에 1000명에 가까운 인원을 신규 채용한다. 생명보험업계는 총 15개 생보사가 453명을 신규 채용할 계획이라고 밝혔다. 교보생명과 한화생명이 각각 140명, 126명을 채용하며 청년 일자리 창출에 앞장선다. 삼성생명과 농협생명 등은 하반기 신규 인원을 채용한다는 계획이다.손해보험업계는 상반기에 17개 손보사가 총 513명을 뽑을 예정이라고 밝혔다. 채용 예정 인원은 DB손해보험이 87명으로 가장 많았다. 삼성화재(59명), 메리츠화재(45명) 등도 채용에 나선다.이밖에 금융투자회사는 1035명을, 여신금융회사는 279명을, 저축은행업계는 151명을 신규 채용할 계획이다.한편 김소영 금융위원회 부위원장은 이날 간담회에서 "금융권이 경제에서 상당한 비중을 차지하고 있는 만큼 청년 일자리 활성화에 적극적으로 동참해달라"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>와이프 몰래 빌린 신용대출이 불안하다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000324194?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>인뱅·저축銀·대부업 '부실' 뇌관 되나코로나19 대출 만기 연장으로 은행 연체율이 일종의 착시효과 속에 낮게 유지되고 있지만, 가계 신용대출의 흐름은 심상치 않습니다. 특히 인터넷전문은행과 저축은행, 대부업체 등 주로 저신용자에게 대출을 내주는 금융권의 연체율이 상승하면서 정부도 부실 연착륙을 위한 준비에 나서고 있습니다. 가계 신용대출 연체율 6년 새 '최고'…곳곳 '경고음' 23일 금융감독원에 따르면, 지난해 말 국내은행의 가계 신용대출 연체율은 1년 전보다 0.17%p 상승한 0.46%로 나타났습니다. 분기말 기준으로 지난 2016년 9월 말 0.46% 이후 6년여 만에 가장 높았습니다. 대출 부문별 연체율을 살펴봐도 중소법인(0.36%), 개인사업자(0.26%), 가계 주택담보대출(0.15%), 대기업(0.05%) 등과 비교해 높았습니다. 여기에 특히 신용점수가 낮은 취약차주들을 대상으로 대출을 많이 내주는 인터넷전문은행과 저축은행, 대부업의 연체율이 크게 오르고 있어 부실 우려가 커지고 있습니다. 카카오뱅크의 대출 연체율은 지난해 말 0.49%로, 3분기에 비해 0.13%p 높아졌습니다. 아직 실적발표를 하지 않은 케이뱅크와 토스뱅크 연체율도 지난해 3분기 기준 각각 0.67%, 0.34%로, 0.15%p씩 올랐습니다. 두 인터넷은행이 공격적으로 중저신용자 대출 공급을 해 온 만큼, 연말 기준 연체율은 더 상승했을 것으로 관측됩니다. 저축은행권의 연체율도 이미 급등했습니다.예금보험공사에 따르면, 지난해 3분기 말 기준 79개 저축은행의 평균 연체율은 3%로, 전분기보다 0.4%p 상승했습니다. 예보는 보고서를 통해 "중저신용자와 다중채무자 비중이 상대적으로 높은 저축은행 업권 특성상 금리 상승에 따른 채무상환부담 증가 등으로 취약 차주 중심의 대출 부실이 증가할 수 있다"고 지적했습니다. 대부업계 연체율 역시 높은 수준을 이어가고 있습니다. 한국대부금융협회가 국회 정무위 소속 오기형 의원실에 제출한 자료에 따르면, 대형 대부업체 25곳의 신용대출 연체율은 지난해 1월 말 9.4%에서 12월 말 10%까지 치솟았습니다. 지난해 11월에 이어 두달 연속으로 10%대를 나타냈습니다. 연체 취약차주 원금 30% 탕감…자영업자는 저금리 갈아타기 [자영업자 저금리 대환 프로그램 신청 홈페이지 화면. (출처=신용보증기금)]고금리와 경기 침체 속 취약 차주를 중심으로 대출 상환 능력에 '경고등'이 켜지자, 금융당국도 부실 연착륙 유도에 나서고 있습니다. 우선 당장 다음 달부터는 연체자를 대상으로 이자와 원금을 감면해주는 채무조정 지원을 확대합니다. 신용회복위원회가 청년층에게 지원 중인 '신속채무조정 특례 프로그램'을 전 연령층으로 확대해 운영합니다. 연체 기간이 30일 이하이거나 아직 연체가 발생하지 않았지만 연체 우려가 있는 차주에게 10년 이내에서 상환 기간을 연장하거나 최장 3년 상환을 유예해 줍니다. 또 약정 이자를 기존보다 30~50% 낮춰줍니다. 여기에 기초생활보장 수급자나 중증 장애인 등 객관적으로 상환 여력이 크게 부족한 경우에는 연체가 30일 이상 발생한 경우 이자 전액과 함께 원금의 최대 30%를 감면해줍니다. 올 하반기에는 현재 자영업자의 고금리 개인사업자 대출을 연 6.5% 아래로 바꿔주는 '저금리 대환 프로그램'을 가계 신용대출까지 확대해 지원할 예정입니다. 코로나19 피해를 입은 자영업자에 한해 일정 한도의 가계신용대출도 대환해 주는 내용입니다. 잠재 부실폭탄의 또 다른 뇌관으로 지목되는 자영업자들이 개인사업자 대출 외에도 고금리의 가계대출로 운영비 등을 조달하고 있는 상황을 감안한 대응책입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>코너 몰린 은행권, 신규 채용 늘린다…전년 대비 48%↑</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000052753?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>"명퇴 등 인력 효율화에 따른 채용 여력 확대에 따른 것"지난해 8월24일 서울 동대문디자인플라자에서 개막한 ‘2022 금융권 공동채용 박람회’를 찾은 구직자와 방문객들이 현장 면접을 위해 차례를 기다리고 있다. ⓒ연합뉴스'돈 잔치' 비판에 직면한 은행권이 올해 신규 채용 규모를 확대한다. 고금리 속 막대한 이자 수익을 벌어들인 은행권이 공익 활동에는 미흡하다는 비판 여론이 고조되자 내린 결정으로 해석된다. 은행연합회가 20일 공개한 '국내은행 2023년 상반기 채용계획'에 따르면, 20개 은행은 올 상반기 2288명 이상 신규 채용할 예정이다. 지난해 상반기보다 약 48%(742명) 증가한 수치다. 올해 연간 채용도 지난해보다 약 600명 늘어난 3700명 규모로 계획 중이다.은행연합회는 "신규채용 인원 증가는 최근 명예퇴직 실시 등 인력 효율화에 따른 채용 여력 확대에 따른 것"이라며 "우수인력의 조기 확보와 고졸 인력 실업문제 해소 등 공공적 역할 차원에서 지속적으로 고졸 인력 채용도 진행할 계획"이라고 밝혔다.상반기 채용 규모별로 보면, NH농협은행이 500명으로 가장 많고, 신한·우리·하나·KB국민은행 등이 각각 250명씩 모집할 예정이다. 이밖에 기업은행은 160명, 산업은행은 90명 등을 채용한다. 인터넷은행은 카카오뱅크, 토스뱅크는 각각 148명, 76명을 뽑는다. 케이뱅크는 67명을 채용할 예정이다. 채용 인원과 시기는 변동 가능하므로 향후 은행 홈페이지를 통해 확인이 필요하다.저축은행업계도 상반기 중 약 151명의 정규직 신입직원을 채용할 계획이다. 이미 채용한 인원을 합한 규모로, 예년 대비 감소했지만 하반기 중 경영환경이 호전될 경우 전년 수준으로 채용규모를 확대할 예정이다.한편 이날 '금융권 청년 일자리 간담회'를 개최한 김소영 금융위원회 부위원장은 "금융권이 경제에서 상당한 비중을 차지하고 있는 만큼 청년 일자리 활성화에 적극적으로 동참해달라"며 "당국도 청년 일자리 관련 현장의 건의 사항을 적극 청취하고, 관계부처 및 기관과 협의하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>은행 과점 체제에 금감원장 "인뱅·핀테크, 책임 있는 '혁신촉진자' 돼 달라"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000324669?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[이복현 금융감독원장. (자료=금융감독원]소수 은행 중심의 과점체제 개선 논의 속에 이복현 금융감독원장이 인터넷전문은행과 핀테크 기업 CEO들을 만나 "책임 있는 금융 혁신의 '혁신촉진자'로 자리매김 해달라"고 당부했습니다. 이복현 금감원장은 오늘(27일) 오전 경기도 판교 테크노밸리 카카오뱅크에서 윤호영 대표와 서호성 케이뱅크 대표, 홍민택 토스뱅크 대표, 박상진 네이버파이낸셜 대표, 이혜민 핀다 대표, 김태훈 뱅크샐러드 대표 등과 간담회를 가졌습니다. 이복현 원장은 "핀테크 기업들이 주도하고 있는 기술 융합 혁신적인 금융 서비스가 지금 상품의 효율적 가격 결정으로 이어지고 기존 은행권과의 건전한 경쟁을 통해 변화 촉진의 원동력이 될 것이라고 기대하고 확신한다"고 말했습니다.그러면서 "기존 은행과의 경쟁을 통해 금융소비자 편익으로 귀결되기 위해선 책임 있는 금융 혁신의 중요성을 강조하지 않을 수 없다"고 덧붙였습니다.그러면서 내부통제에 대해서도 강조했습니다.이 원장은 "IT 보안 강화 등 시스템 안정성과 금융 소비자 보호를 위한 노력도 병행할 필요가 있다"며 "양적 성장과 비즈니스 영역 확대에 걸맞는 적정한 시스템 구축과 내부 통제 마련 등 인프라 구축이 반드시 수반돼야 할 것"이라고 말했습니다.  이어 금감원도 인터넷은행과 핀테크가 우리나라 은행산업의 경쟁을 촉진하는 '혁신 엑셀러레이터(accelerator)'로 자리 잡을 수 있도록 다각적 노력을 지속하겠다고 전했습니다. 이 원장은 간담회 이후에는 기자들과 만나 시중은행의 점포 폐쇄에 대해서도 언급했습니다.이 원장은 "비용절감도 중요하지만 점포 폐쇄 과정에서의 다른 어떤 발생 가능한 문제점, 금융 소비자들의 저변 확보 측면에서 볼 때 좀 더 고려할 부분이 있지 않았나 생각이 든다"며 "지나치게 빠른 점포 폐쇄로 인한 소비자 불편이 없는지 등을 (은행이) 아마 고려할 것으로 이해한다"고 전했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>금감원장 "인터넷은행의 중금리 대출 의무 개선 적극 검토"</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013781620?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>"다른 업권이 은행업 진출한다면 건전성 규제에 동참해야"이복현 금감원장[촬영 오주현]    (서울=연합뉴스) 오주현 기자 = 중·저신용자 대상 대출을 늘린 인터넷 은행의 연체율이 상승 추세를 보이는 가운데 이복현 금융감독원장이 인터넷 은행의 중금리 대출 비중 등에 대한 개선책을 적극적으로 검토할 소지가 있다고 밝혔다.    이 원장은 27일 판교 카카오뱅크 본사를 방문해 인터넷 전문은행 및 핀테크 기업 최고경영자(CEO)들로부터 혁신 서비스 사례를 청취한 뒤 기자들과 만나 이같이 말했다.    이 원장은 최근 인터넷 은행 3사의 연체율 등 건전성 지표가 악화하는 가운데 인터넷 은행의 중금리 대출 공급 의무를 완화하는 방안을 검토하냐는 질문에 "합리적인 근거를 바탕으로 그 부분에 대한 개선책이 나온다면 지금은 적극적으로 검토할 소지가 있다"고 답했다.    다만 "모든 가능성을 열어두고 검토한다는 측면의 답변이고 내부적으로 결정이 된 사안은 아니다"고 밝혔다.    이 원장은 "신파일러(금융거래이력부족자)에 대한 신용 공급이라는 인터넷 은행 출범 취지에 비추어 지켜야 할 정책적 지향점은 명백히 있다"면서도 "산업 경쟁 환경 강화와 더불어 고려해야 할 필요가 있다는 인식은 있다"고 부연했다.    지난해 말 인터넷 은행 3사(카카오·케이·토스뱅크)가 취급한 중·저신용자 대출 연체액은 지난해 1분기 말보다 3배가량 급증한 2천916억원으로 나타났다.    인터넷 은행 3사의 중 저신용자 대출 취급 의무 비중이 올해 더 높아지는 만큼, 인터넷 은행의 건전성에 대한 우려도 더욱 커지는 상황이다.     인터넷 은행의 기업 대출 취급 허용 가능성과 관련해서는 은행 산업 경쟁 환경 조성을 위해 모든 가능성을 열어뒀다면서도 신중한 입장을 밝혔다.    이 원장은 "은행 산업 내 경쟁 환경 조성을 위해 소위 5대 금융지주 기반의 은행권 입장과 은행연합회, 인터넷 전문은행, 보험, 증권 등 여러 입장을 듣는 중이기에 어떤 부분도 배제하지 않는다"고 말했다.    그는 "인터넷 은행의 기업 여신 및 기업 영업 확대 등은 전체 틀이 먼저 정해진 다음에 논의할 수 있을 것"이라고 덧붙였다.    이복현 원장은 은행업의 경쟁 촉진을 위해 새로운 플레이어의 시장 신규 진입을 허용하는 것만이 유일한 해법은 아니라고 강조했다.    이 원장은 "우선순위로 따지면 지금 시장 내 금융사 간의 경쟁 제한적 요소나 지대추구적 환경이 있다면 그것을 일단 잘 정리하는 것이 먼저다"라며 "그 과정에서 전체 판을 흔드는 것은 아니더라도 분야별 특성화 은행의 진입을 허용함으로써 경쟁이 촉진될 수 있다는 일부 입장도 있다는 것을 경청하고 있다"고 설명했다.    다만 은행업의 규제 완화를 검토하면서도 핵심 가치인 건전성에 대한 기준은 변함없이 중요하다고 밝혔다.    이 원장은 "은행업은 금융산업의 근간이 되는 핵심적인 산업이기에 은행의 건전성은 중심이 되는 가치"라며 "그런 기준이 있다는 전제하에 여러 가지를 방안을 모두 논의할 수 있다고 생각한다"고 말했다.    그는 "타 업권이 은행업의 영역에 들어와서 그 역할을 한다고 하면 적어도 기존 은행들이 받는 적절한 건전성 규제의 틀에 대해 동참해야 할 것"이라고 강조했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>尹 질책에 엎드린 금융사…'대출금리 인하' 경쟁 시작됐다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005089694?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>당국 금리비교 플랫폼 도입…신한銀도 6월부터 동참은행·카드등 금융사 50곳최고·최저 금리 한눈에 비교클릭 한번으로 대출 이전금리 비교 플랫폼 많아지면수수료 인하경쟁도 뜨거울듯◆ 은행∙통신 과점 논란 ◆대통령실과 금융당국이 5대 은행 과점 체제의 가장 큰 폐해로 과도한 예대마진(예금 금리와 대출 금리 차이)을 꼽은 가운데 대출 중개 플랫폼과 온라인 예금 중개 플랫폼 도입이 속도를 내고 있다. 이런 플랫폼이 생기면 금융 소비자가 전 금융사의 예금과 대출 금리를 한눈에 비교할 수 있고, 비대면 원스톱으로 갈아탈 수 있다. 은행 간 경쟁 구도가 만들어지기 때문에 고객들이 체감하는 대출 금리는 낮아지고 예금 금리는 높아지는 효과를 볼 수 있다. 현재 5대 은행이 80% 이상을 과점하고 있는 여·수신 체계를 뒤바꿀 '게임 체인저'로 급부상하는 모양새다.16일 신한은행은 국내 주요 은행 중 최초로 오는 6월 대출 중개 플랫폼을 출시할 예정이라고 밝혔다. 금융위원회가 5월 운영을 시작하는 대환대출 플랫폼과 연계하겠다는 포석이다. 신한은행은 지난해 11월 온라인 예금 중개 플랫폼 혁신금융서비스 사업자로 지정된 바 있다. 최근 정부 기조를 감안해 예금은 물론 대출 상품 비교 중개 서비스도 동시에 내놓겠다는 복안이다. 신한은행이 먼저 포문을 열면서 다른 시중은행들도 플랫폼 출시를 고민하고 있는 것으로 알려졌다.대출 중개 플랫폼을 필두로 '5대 은행 카르텔'을 흔들 수 있는 다양한 대책이 나올 전망이다. 윤석열 대통령이 '돈 잔치'로 눈총받는 금융과 통신의 과점 체제를 깰 강도 높은 대책을 주문했기 때문이다. 이날 대통령실에 따르면 윤 대통령은 전날 열렸던 비상경제민생회의가 비공개로 전환된 후 "국민이 살기 어렵다. 지금은 민심을 무서워할 줄 알아야 한다"면서 "기득권과 이권 카르텔을 깨는 데서 변화와 혁신이 시작된다. 장관들이 확실한 권한을 갖고 국민 부담을 실질적으로 줄일 수 있는 방안을 만들라"고 지시했다.대출 중개 플랫폼이 성공하려면 최대한 많은 금융사가 참여해야 한다. 현재 분위기로만 보면 대출 금리 정보를 제공하려는 금융사가 50~60곳에 달해 '완전경쟁시장'에 준하는 대출이자 경쟁이 벌어질 전망이다. 여기에 기존 핀테크 기업만 수행하던 대출 중개 플랫폼 시장에 금융사들이 신규 진입하면서 최대 1.8%였던 대출 중개수수료가 낮아지는 효과가 있을 것으로 당국은 보고 있다. 오화세 금융위 중소금융 과장은 "대환대출 플랫폼에 대출 상품을 제공하겠다는 의향을 밝힌 금융사만 50~60곳에 달한다"며 "은행, 저축은행, 카드, 캐피털 등 주요 금융사들이 대출 상품을 제공하는 만큼 자연스러운 시장 경쟁이 이뤄지는 효과가 기대된다"고 설명했다. 대환대출 플랫폼은 우선 대출 조건이 표준화된 신용대출부터 시작해 다른 상품으로 영역을 넓혀갈 예정이다.대환대출을 포함한 대출 중개 플랫폼 제공 기업 숫자 역시 늘어날 전망이다. 현재 대출 중개 플랫폼 시장은 토스, 네이버파이낸셜, 카카오페이 등 이른바 '빅3' 빅테크 기업이 주도하고 있다. 하지만 올 상반기부터 신한은행 등 기존 금융사들이 속속 참여하며 20여 곳에서 대출 중개 플랫폼을 제공하게 된다. 자연스럽게 경쟁 구도가 만들어지면서 플랫폼 간 수수료 인하 압력이 커질 수 있다. 오 과장은 "마이데이터 서비스 기업이라면 모두 플랫폼 출시를 허용할 방침"이라며 "플랫폼 간 수수료 인하 경쟁이 자연스레 이뤄져 소비자가 부담할 최종 대출 비용 역시 낮아질 것으로 기대한다"고 설명했다.금융위는 올 상반기에 온라인 예금 중개 플랫폼 시범사업도 실시한다. 앞서 지난해 11월 금융위 정례회의에서 네이버파이낸셜, 신한은행 등 8개 사업자를 혁신금융서비스 사업자로 지정해 온라인 플랫폼에서 예금 상품 비교·추천 서비스를 출시할 수 있도록 했다. 다만 금융사 간 급격한 예금 쏠림 부작용을 막기 위해 중개 계약에 따른 신규 모집액 한도는 제한해둔 상태다.다른 금융권도 긴장하고 있다. 16일 보험업계에 따르면 금융감독원은 손해보험사 임원들과 긴급회동을 열어 의견을 교환했다. 업계는 '돈 잔치'라는 비난의 화살이 보험업계에까지 넘어오는 것은 아닌지 긴장하는 모양새다. 인터넷은행과 저축은행권도 '제4인터넷은행 허가'와 '전문 강소뱅크 육성' 설을 예의 주시하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>금감원장 "인뱅·핀테크기업이 은행 경쟁 촉진하도록 노력할것"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001256470?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>이복현 금감원장 [자료 사진 제공 : 연합뉴스]이복현 금융감독원장이 인터넷 전문은행과 핀테크 기업이 우리나라의 은행 산업의 경쟁을 촉진할 수 있도록 다각적인 노력을 기울이겠다고 밝혔습니다.이복현 원장은 이날 판교 테크노밸리의 카카오뱅크를 방문해 인터넷 전문은행 및 핀테크 기업의 금융상품 및 서비스 혁신 사례 등을 들으면서 이렇게 말했습니다.이 원장은 "금감원은 인터넷 전문은행과 핀테크 기업이 우리나라 은행 산업의 경쟁을 촉진하는 '혁신 액셀러레이터'로 자리 잡을 수 있도록 다각적 노력을 지속하겠다"고 강조했습니다.이날 행사에는 윤호영 카카오뱅크 대표와 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표, 박상진 네이버파이낸셜 대표, 이혜민 핀다 대표 등이 참석했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>“핀테크 이제 MAU로 기업가치 인정 어려워”…금융위, 핀테크 새 시대 연다</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002106205?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=홍승희 기자] 금융위원회가 국내 핀테크의 ‘확산·고도화기’의 끝을 맺고 새로운 핀테크의 시대를 연다. 단순히 월간이용자수(MAU)를 유치하는 수준이 아니라 그 이후의 수익모델 및 철저한 비용 관리에 대한 고민이 필요한 시점이라는 지적이다. 금융위는 이같은 핀테크의 질적 성장을 위해 반기에 한 번씩 투자설명회(IR)를 개최하는 등 적극 지원하겠다는 방침이다.20일 이동엽 금융위 금융혁신과장은 성일종·윤창현 국민의힘 의원이 개최한 ‘2023년 힘내라 핀테크 자율과 혁신으로’ 정책토론회에서 “핀테크 혁신펀드 규모를 1조원 확충하고 정책금융기관의 대출·보증공급을 연간 2000억원 이상으로 확대하겠다”며 이같이 밝혔다.[이동엽 금융위 금융혁신과장 발표자료 갈무리]그는 “2013~2015년에 핀테크 출범의 토대를 마련하는 태동기, 2015~2017년에는 금융업과 핀테크의 동반성장을 꿰한 형성기, 그리고 2017~2019년에는 디지털 조직·예산·제도 틀을 구축한 성장기를 거쳤다”며 “지난 2019~2022년 핀테크의 규모확대를 지원하고 새로운 플레이어의 성장기반을 조성한 확산·고도화기를 지나고 새로운 시대가 열릴 것”이라고 말했다.그러면서 금융위가 지난 16일 발표한 ‘핀테크 성장지원 강화 방안’을 강조했다. 그는 “‘핀테크 지원협의체’를 운영해 공용 데이터베이스(DB)를 구축하고 반기에 1회씩 핀테크특화투자설명회(IR)를 개최하겠다”며 “국내 핀테크 산업을 주도할 대표기업 30개사를 선정해 성장 지원하겠다”고 덧붙였다.이에 데이터 인프라를 개선하고 금융보안 관련 규제를 선진화하겠다고 밝혔다. 특히 금융당국의 보안 관리·감독방식을 ‘자율원칙’으로 전환하는 것이 핵심이다. 금융보안 전문기관을 통해 금융회사 등의 자율보안 체계검증 및 이행 컨설팅 기능을 강화하겠다는 방침이다.[조재박 삼정KPMG 디지털 본부장 발표자료 갈무리]한편 국내 핀테크 기업들의 평균 매출액은 배 이상 증가 추세를 보인 것으로 나타났다. 지난 2021년 국내 핀테크 기업의 평균 매출액은 179억원으로 전년(85억원) 대비 111.5% 증가했다. 여기에 지난 2021년 국내 핀테크의 평균 투자유치액 역시 전년(2111억원) 대비 28% 증가한 2721억원을 기록했다.발제를 맡은 조재박 삼정KPMG 디지털 본부장은 “글로벌 침체에 따른 밸류에이션 재평가로 인해 고객 유치 이후의 수익모델 및 철저한 비용 관리에 대한 고민이 필요한 시점”이라며 “MAU만으로는 높은 기업가치를 인정받기 어려우며 수익으로 연결을 위한 본원적 고민이 필요하다”고 강조했다.마이데이터 산업의 질적 성장을 위한 업계의 요청도 이어졌다. 신중희 비바리퍼블리카(토스) 사업개발실장은 “현재 상황에서 금융소비자 편의성을 확대하기 위한 환경이 제한적”이라며 “‘내 손안의 금융비서’의 금융정보 조회=금융상품 가입/변경으로 이어지는 경험의 완결성을 갖추기 위한 서비스 개방이 필요하다”고 강조했다.그러면서 “한 가지 제안으로 금융결제원에서 제공하는 어카운트 인포 기능 중 은행 자동이체, 카드 자동결제 변경 기능을 마이데이터 사업자에게 제공한다면 유저들의 편의성이 중대될 수 있을 것으로 기대한다”고 말했다.이어 청소년 서비스 제공의 필요성도 피력했다. 신 실장은 “여전히 소외계층에 대한 마이데이터 지원이 되지 않는 부분이 존재한다”며 “민감도가 높은 금융정보인 점을 고려할 때 법정대리인 동의 절차를 통해 서비스를 제공해 청소년 서비스 제공에 대한 확대 검토가 필요하다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>[머니S포토] 금감원 이복현 "인터넷은행·핀테크기업, 변화 촉진자 역할로 비중 늘어나"</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000899116?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장(가운데) 및 인사들이 27일 경기 성남시 분당구 백현동 카카오뱅크 판교오피스에서 열린 은행산업 경쟁촉진 및 금융소비자 편익제고를 위한 현장방문 간담회에서 발언하고 있다.이날 이 원장은 인터넷전문은행 및 핀테크 기업에 "국내 인터넷전문은행·핀테크 기업도 금융서비스 접근성, 소비자 선택권 확대 등 변화 촉진자 역할과 비중이 늘어나고 있다"며 "책임있는 금융혁신을 통해 은행업의 건전한 경쟁과 금융소비자 편익 제고를 위해 혁신 촉진자로 자리매김해달라"고 전했다.간담회에는 이 원장을 비롯해 윤호영 카카오뱅크 대표, 서호성 케이뱅크 대표, 박상진 네이버파이낸셜 대표, 홍민택 토스뱅크 대표, 이혜민 핀다 대표, 김태훈 뱅크샐러드 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'알짜카드'도 줄줄이 혜택 축소…어떻게 바뀌었나 봤더니 [송영찬의 핀테크 짠테크]</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004812899?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크연회비가 없는 체크카드인데도 할인·적립률이 높아 젊은 층에서 큰 인기를 끈 ‘토스뱅크 카드’와 ‘010페이 카드’가 다음달 1일부터 혜택 변경을 예고했습니다. 카드 기본 혜택이 바뀌면 결제 때 캐시백해주는 브랜드 수나 특별 적립률이 적용되는 날이 늘어나는 반면 인기의 원인이었던 해외 결제 캐시백 비율이나 기본 적립률은 크게 떨어지게 됩니다.  세 번째 혜택 축소토스뱅크는 지난 14일에 '토스뱅크 체크카드 에피소드 4'라는 이름의 새로운 카드 혜택을 공개했습니다. 사실 기존의 '에피소드 3'라는 이름의 현재 혜택은 지난해 말까지만 적용될 예정이었는데 오는 28일까지로 연장된 바 있죠. 한 번 더 연장되진 않을까 하는 기대를 가졌지만 결국 다음달 1일부로 적용되는 '에피소드 4'가 등장했습니다.토스뱅크 카드의 '에피소드 4' 혜택은 기본적으로 '에피소드 3'과 큰 틀에서는 비슷합니다. 이 카드는 각 할인 영역에서 하루 한 번씩 캐시백이 주어지는데, 1만원 미만 결제하면 100원, 1만원 이상 결제하면 500원을 캐시백해줍니다. 단 할인영역은 하나 늘어났습니다. 기존에는 △커피전문점 △편의점 △패스트푸드 △영화 △디저트 △택시 △대중교통 등 7개 영역에서 하루 한번씩 캐시백해줬는데, 여기에 '구독서비스' 영역이 하나 추가돼 이제 할인 영역이 8개로 늘었습니다. 구독서비스 영역엔 넷플릭스, 디즈니플러스, 쿠팡와우, 네이버플러스가 포함됐는데요. 문제는 실질적인 혜택 규모입니다. 대부분의 구독서비스는 주로 월 1회 결제합니다. 그런데 토스뱅크카드의 가장 큰 장점은 각 영역에서 일 1회 캐시백을 제공해준다는 점이죠. 다시 말해 네 개의 구독서비스를 모두 구독하는데, 결제일이 각각 다른 날로 지정돼있는 경우에야 한 달에 최대 네 번 캐시백을 받을 수 있다는 뜻입니다.게다가 네이버플러스멤버십은 월 4900원, 넷플릭스는 최저가 상품인 '광고형베이식 플랜'이 월 5500원, 디즈니플러스가 월 9900원, 쿠팡와우가 월 4900원입니다. 모두 월구독료가 1만원 미만이기 때문에 네 개 서비스를 모두 이용하고 결제일이 각각 달라도 구독서비스로 받을 수 있는 캐시백은 월 최대 400원에 불과합니다.물론 받는 혜택이 적긴 하지만 캐시백 받을 수 있는 영역이 늘어난 점만 놓고 보면 '개악'이라고까지 부르긴 어렵습니다. 하지만 결정적으로 변경되는 혜택은 해외이용 캐시백입니다. 토스뱅크 카드는 출범 때부터 해외 결제건에 대해 무제한 3% 캐시백을 제공해왔는데, 이번에 캐시백 비율이 2%로 줄었습니다.토스뱅크 카드는 해외에서 결제하면 결제 건당 0.5달러의 해외 이용 수수료와 결제액의 1%가 국제 카드브랜드 수수료로 부과됩니다. 그래서 해외 결제 수수료 총합보다 캐시백으로 받는 돈이 클 때에만 사용하는 게 유리했습니다. 그런데 캐시백 비율이 대폭 축소되면서 결제액 기준도 크게 높아진 것입니다.예를 들어보겠습니다.기존에는 해외에서 결제할 때 미화 기준 대략 30달러부터는 토스뱅크 카드로 결제하는 게 유리했습니다. 30달러를 결제하면 1%의 국제카드브랜드 수수료로 0.3달러, 건당 수수료로 0.5달러로 총 0.8달러가 나가는 반면 캐시백으로 결제액의 3%인 0.9달러가 들어오니 수수료 내도 0.1달러를 더 받는 셈이었죠.그런데 혜택이 변경되면 캐시백으로 들어오는 돈은 0.9달러에서 0.6달러로 크게 줄어듭니다. 당연히 수수료로 내는 돈(0.8달러)이 캐시백되는 금액(0.6달러)보다 커졌습니다.예전에 토스뱅크 카드를 썼을 때 이득인 금액 구간이 30달러 이상에서 이젠 최소 50달러를 넘는 금액을 쓸때만 유리하게 바뀐 것입니다. 50달러를 결제한다고 가정해볼까요.50달러를 결제하면 1%의 국제 카드브랜드 수수료로 0.5달러, 건당 수수료 0.5달러로 총 1달러가 수수료로 나가는 반면 캐시백으로는 결제액의 2%인 1달러가 들어옵니다. 50달러를 낼 때 수수료와 캐시백되는 금액이 같습니다. 캐시백으로 이득을 보려면 50달러보다 훨씬 더 써야한단 뜻입니다.물론 이번 혜택 변경으로 반길 만한 점도 있습니다. 우선 기존 할인 영역들에서도 캐시백을 받을 수 있는 브랜드가 추가됐습니다. 커피전문점 영역에는 빽다방과 공차가 추가됐고, 패스트푸드 영역에도 써브웨이와 파파이스가 추가됐습니다. 응카 혜택도 대폭 '칼질'010페이 체크카드./ 사진=010페이토스뱅크 카드와 함께 최근 젊은 세대 '짠테크족(族)' 사이에서 나름 큰 인기를 끌었던 체크카드가 있습니다. 소위 '응카'라고도 불리는 010페이 체크카드입니다.이 상품은 핀테크 업체 헥토파이낸셜과 우리카드가 협업해서 내놓은 상품인데, 연회비 없는 체크카드 치고 혜택이 나름 파격적이라는 평가를 받아왔습니다. 다음달 전까지 유지되는 기존 혜택부터 살펴보겠습니다. 기존에 '응카'는 결제액의 최대 10%를 적립해줬습니다. 적립해주는 방식이 재밌었는데요. 결제행운상자라고 해서 1.2%의 확률로 10%, 또 1.2%의 확률로 2%, 나머지 97.6%의 확률로는 0.2~1%를 적립해주는 방식이었습니다. 사실상 10%를 적립받는 건 로또였지만 대부분 0.2~1%를 적립해주는 방식이었죠.그런데 다음달부터 최대 10%의 적립률은 사라집니다. 결제 리워드는 무조건 평일엔 0.2%, 주말엔 0.4% 받는 걸로 바뀌게 됩니다.'응카데이'라는 이름으로 매달 10일 5000원 이상 결제할 경우 하루 1만원 한도로 건당 1000원씩 10%를 적립해주던 기존 혜택도 크게 바뀝니다. 응카데이에 받을 수 있는 특별 적립률은 '10% 적립'에서 '3.3% 추가 적립'으로 바뀝니다. 기본 적립률이 평일 0.2%, 주말 0.4%니 응카데이가 평일이면 총 3.5%, 주말이면 3.7%가 적립되는 방식입니다. 적립 한도도 1만원에서 3000원으로 대폭 줄었죠. 물론 '응카데이'가 월 1회(매달 10일)에서 월 3회(매달 10,20,30)일로 이틀 늘긴 했습니다.대중교통 리워드가 사라진 점도 뼈 아픕니다. 기존에는 이 카드로 대중교통을 이용하면 월 1만5000원 이상 대중교통을 이용할 경우 10%씩, 최대 2000원을 적립해줬습니다. 다시 말해서 한 달에 대중교통을 2만원까지 이용하면 실적과 상관없이 2000원을 돌려받을 수 있다는 걸 의미했습니다. 그런데 이같은 대중교통 적립 혜택은 아예 사라집니다.결제하지 않아도 매일 한번씩 최대 1만원이 당첨될 수 있는 행운상자를 지급하던 혜택도 사라집니다. 다른 카드 혜택도 줄줄이 개악될 가능성토스뱅크 카드하고 010페이카드만 언급했지만 앞으로가 더 걱정입니다. 사실 두 상품의 경우 연회비가 없는 체크카드 상품이기 때문에 신용카드에 비해 혜택 축소가 용이한 면도 있습니다. 문제는 신용카드입니다. 이미 올 들어 많은 카드사들은 6개월 이상 장기 무이자 할부 서비스를 중단했습니다. 원래 새해를 맞아 쏟아지기 마련인 각종 국세, 지방세 납부 무이자 할부 혜택도 자취를 감췄습니다. 많은 카드사들이 '소비자 혜택을 축소하지 말라'는 금융당국의 경고에 부랴부랴 "조달금리로 인한 유동성 문제가 해소됐다"며 장기 무이자 할부 서비스를 재개했지만 여전히 자금조달 금리가 기존에 비해 높은 상황이란 점에서 언제까지 지속될 수 있을지도 의문입니다.애플과 현대카드가 애플사의 비접촉식 간편결제 시스템인 애플페이의 국내 출시 계획을 공식적으로 밝힌 지난 8일 경기도 성남시 애플페이 도입을 준비 중인 식당 키오스크에 관련 안내가 붙어 있다.  /연합뉴스다른 변수도 있습니다. 애플페이의 국내 출시가 확정된 상황에서 애플페이에 지급해야 하는 별도의 수수료 때문에 이미 계약을 맺은 현대카드를 비롯해 추후 애플페이와 계약을 맺는 카드사들이 알짜 카드를 단종시키거나 혜택을 대폭 축소할 가능성도 배제할 수 없습니다. 현재 카드사들은 국내 가맹점으로부터 받는 0.5%의 수수료도 적다고 아우성인데 이 중 일부를 애플페이에 떼어줘야 한다면 카드사 입장에선 '혜택 축소' 카드부터 만지작거릴 수 있겠죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>[이코노 브리핑] 온라인복권 신규 판매인 1715명 모집 외</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003785359?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>온라인복권 신규 판매인 1715명 모집     기획재정부 복권위원회는 복권 수탁사업자인 ㈜동행복권을 통해 온라인복권(로또 6/45) 신규판매인 1715명을 모집한다고 20일 밝혔다. 모집 대상은 장애인, 국가유공자 등 복권 및 복권기금법 제30조에 따른 신청 대상자와 국민기초생활보장법 제2조 제10호에 따른 차상위계층이다. 희망자들은 다음달 6일부터 4월18일까지 동행복권 홈페이지에서 신청하면 된다. 판매인 선정 방식은 시·군·구별 무작위 추첨이다.    토뱅, 1년간 사장님대출 1.5조 공급     토스뱅크는 비대면 개인사업자 대출인 ‘토스뱅크 사장님 대출’ 출시 후 1년간 잔액 기준 1조5000억원을 시장에 공급했다고 20일 밝혔다. 토스뱅크는 “전체 개인사업자 대출 가운데 49.8%는 ‘건전한 중저신용자’가 차지했다”며 “자체적으로 개발한 신용평가모형(TSS)을 통해 실질소득과 상환능력을 갖춘 중저신용자를 발굴한 덕분”이라고 설명했다. 지난 1월 한 달간 토스뱅크 사장님 대출 공급 규모는 1830억원으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.02.17.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>5대 은행 과점 깨라는데…'인뱅發 중저신용자 리스크' 부메랑 어쩌나</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006636036?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>카카오뱅크 지난해 연체율 0.49%…전년비 0.27%p↑중저신용자 비중 늘린 탓…올해 '건전성 관리' 방점(각사 제공)(서울=뉴스1) 김정은 기자 = 윤석열 대통령이 "과점 체제를 깨라"고 지시한 데 따라 유력한 방안으로 떠오른 제4 인터넷 은행 출범 가능성이 거론되는 가운데, 최근 인터넷 은행들의 건전성에 경고음이 커지고 있어 우려를 낳고 있다. 지난해 중저신용자(KCB 기준 하위 50%) 대출 취급 비중을 늘린 탓에 연체율 상승세가 시중은행보다 두드러지면서다. 올해 역시 높은 금리 수준이 유지되고 경기 둔화 가능성이 커진 만큼, 인터넷 은행들에겐 '리스크 관리'가 주요 과제로 남을 전망이다.17일 금융권에 따르면 카카오뱅크의 지난해 말 기준 연체율은 0.49%로 전년 대비 0.27%포인트(p) 올랐다. 카카오뱅크의 연체율은 2021년 4분기 0.22%에서 지난해 2분기 0.33%를 넘어서는 등 꾸준히 상승했다. 지난해 말에는 전 분기 대비 연체율이 0.13%p 오르며 상승 폭을 키웠다.대출금 중 연체 기간이 3개월 이상인 고정이하여신(NPL) 비율도 지난 2021년 4분기 0.22%에서 지난해 말 0.36%까지 올랐다. 고정이하여신 규모도 지난해 3분기 809억원에서 4분기 1010억원으로, 처음으로 1000억원을 넘어섰다.아직 실적 발표를 하지 않은 케이뱅크와 토스뱅크의 연체율도 빠르게 상승하고 있다. 케이뱅크는 지난해 3분기 기준으로도 연체율이 타행 대비 높다. 케이뱅크의 같은 기간 연체율은 0.67%로, 전년과 비교해 0.26%p 올랐다. 직전 분기와 비교하면 상승폭은 0.29%p로 더 크다. 케이뱅크의 지난해 3분기 고정이하여신 비율은 0.76%로, 전년도 대비 0.27%p 올랐다.토스뱅크의 지난해 3분기 연체율은 0.30%로 전 분기와 비교해 2배가 뛰었다. 같은 기간 토스뱅크의 고정이하여신 비율은 0.23%로, 0.10%p 상승한 것으로 나타났다. 주요 시중은행의 평균 가계대출 연체율이 12월 말 기준 0.19% 수준임을 감안하면 인터넷 은행 3사의 연체율은 두드러진다.지난해 본격적인 금리 상승기를 맞아 인터넷 은행의 주 이용자층인 중저신용자에 잠재된 부실이 점차 현실화하고 있다. 인터넷 은행들은 금융당국에 제출한 중저신용자 신용대출 비중 계획을 맞추는 데 집중해왔다. 이에 지난해 말 기준 카카오뱅크와 케이뱅크는 중저신용자 대출 비중 25%를, 토스뱅크는 목표치인 42%에는 못 미쳤지만 40.4%를 달성했다.올해는 인터넷 은행의 중저신용자 대출 비중 목표가 더욱 높아진다는 점도 우려를 키우는 대목이다. 계획에 따르면 카카오뱅크는 전체 가계 신용대출 중 중저신용자 대출 비중을 30%로 맞춰야 한다. 케이뱅크와 토스뱅크의 목표치는 각각 32%, 44%다. 지난해 대비 2~7%p 상향됐다. 고금리 속 차주들의 상환 능력이 급격히 떨어지고 있어 연체율 상승이 불가피할 전망이다.이에 인터넷 은행들은 올해 초 금융당국에 중저신용자 대출 비중 목표를 낮춰달라고 요청하기도 했다. 하지만 인터넷 은행 설립 취지가 '중저신용자 대출 공급 확대'인 만큼, 금융당국은 아직 보수적인 입장을 견지하고 있다. 금융 취약계층인 중저신용자에 대출을 늘리게 되면 그만큼 상환 리스크는 커지는 부메랑 우려가 있다. 상황이 이렇다 보니 최근 윤석열 대통령이 과점 구조 개선 언급에 따라 유력한 방안으로 떠오른 제4 인터넷 은행 출범의 실효성을 우려하는 목소리가 크다. 현재 인터넷은행 3사가 은행권에 '메기 효과'를 불러올 것이란 당초 기대에 미치지 못한 데다, 고금리 속 연체율 상승 등 마주한 현실이 녹록지 않다는 이유에서다. 업계 관계자는 "제2의 '저축은행 사태' 등 부실 위험이 재현될 수 있다는 우려도 나온다"며 "완전 경쟁으로 도태되는 은행이 생겨나면 수익성, 건전성 등 국가적으로 혼란이 발생할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>[주간VC동향] '미스터아빠' 70억원 규모 프리A 투자 유치 등</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004971190?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 온·오프라인 식자재 리테일 푸드테크 기업 '미스터아빠'와 알뜰폰 비교·추천·개통 플랫폼 운영 기업 '모요'가 나란히 투자유치에 성공했다.   19일 벤처캐피탈(VC) 업계에 따르면 미스터아빠는 최근 70억원 규모의 프리시리즈A(본격적인 시장 진출 전 받는 투자인 시리즈A 전 단계) 투자를 유치했다. 이번 투자엔 씨엔티테크와 부울경 지역 특화 액셀러레이터 시리즈벤처스가 참여했다.   미스터아빠는 경남 지역을 중심으로 농축수산물 '산지직송 새벽배송' 서비스를 운영하고 있는 기업이다. 신석식품을 원산지에서 직접 검수하고 조달해 창고 보관 없이 직배송으로 소비자에게 전달해 품질을 높였다. 또 유통단계를 획기적으로 줄였고 온·오프라인 매장을 운영해 폐기율을 감소시켰다.   미스터아빠는 신선식품 유통과 물류프로세스 구축에 대한 전문성을 창업 2년 만에 매출 130억원을 달성했다. 최근엔 중소벤처기업부의 '아기유니콘200 육성사업'에 선정되기도 했다. 회사는 이번 투자를 바탕으로 지역 확장과 스마트 물류시스템 및 IT통합플랫폼 구축 고도화에 힘쓸 계획이다.   알뜰폰 요금제를 비교, 검색, 추천, 개통해주는 플랫폼 '모요'도 최근 30억원 규모의 프리시리즈A 투자를 유치했다. 이번 투자에는 베이스인베스트먼트와 카카오벤처스가 참여했다.   모요는 지난 2021년 토스의 안동건 대표를 비롯해 쿠팡이츠, 여기어때, 리멤버 등 플랫폼 전문가들이 모여 설립한 기업이다. 사용자들이 알뜰폰 요금제를 쉽게 검색, 비교, 개통할 수 있도록 지원하는 원스톱 플랫폼을 운영하고 있다.   최근 불경기와 자급제폰의 활성화 등으로 알뜰폰 요금제 가입자가 늘어나면서 모요 역시 빠르게 성장했다. 모요는 월간 요금제 개통수가 전년 대비 800% 이상 증가했으며, 알뜰폰 번호이동 가입자의 약 10%가 모요를 통해 개통했다. 이와 함께 현재 7000개 이상의 알뜰폰 요금제 리뷰를 확보했다.   회사는 이번 투자를 바탕으로 인재 확보에 박차를 한다는 계획이다.   안동건 모요 대표는 "이번 투자 유치를 밑거름으로 훌륭한 인재 확보를 통해 성장을 더욱 가속화할 것"이라며 "알뜰폰 요금제를 시작으로 휴대폰과 인터넷, 다양한 통신 상품을 맞춤으로 추천받는 통신 슈퍼앱이 될 수 있게 성장하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>[2023, 혁신 스마트금융]토스모바일 '100% 비대면 알뜰폰' 시장 파란 예고</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003081116?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>100% 비대면 가입을 무기로 알뜰폰 사업을 개시한 '토스모바일'이 시장에 긴장감을 불러 일으키고 있다.통신 요금제 가입, 개통부터 사후관리까지 토스 애플리케이션(앱) 내에서 편리하게 수행할 수 있다는 차별점이 주목받는다. 일명 '오프라인 성지' 혹은 통신사 대리점에서 가입했던 사용자 경험을 벗어나 통신서비스의 온라인화에 앞장섰다는 평가다.이달 토스의 통신 자회사 토스모바일은 토스 유저라면 누구나 가입할 수 있는 요금제 4종 서비스를 전면 오픈하고 전국 단위 서비스를 개시했다. 토스앱 전체탭에서 '토스모바일 휴대폰 요금제' 진입 후 가입절차를 진행하면 된다.앞서 사전신청자들을 대상으로 진행한 시범 서비스 기간 동안, 가입자들은 요금제 탐색부터 유심배송 신청까지 평균 3분이 걸린 것으로 나타났다. 유심 퀵 배송(수도권 및 광역시 일부 지역 한정)에는 17분이 소요됐다. 번호이동을 위한 안내 절차도 ARS가 아닌 앱 내의 고지문을 통해 이뤄진다는 점에서 압도적 '통신환승' 경험을 제공하고 있다.토스모바일의 24시간 고객센터 운영 역시 강점으로 꼽힌다. 현재 휴대폰 번호이동이 가능한 시간은 10~20시, 신규 개통 가입시간은 8~20시인데, 대부분 알뜰폰 사업자는 개통가능 시간에만 상담업무를 제공한다.반면 토스는 계열사 '토스씨엑스'에 비대면 전문 상담인원을 약 250명 두고 있다. 토스 및 토스뱅크, 토스증권과 더불어 토스모바일 역시 토스씨엑스 내 전담 상담팀을 별도 운영한다. 대부분 문의는 챗봇과 채팅 상담을 통해 해결할 수 있으며, 전화 상담 역시 24시간 연결을 지원한다.가입 후에는 토스 앱 내에서 '셀프케어'가 가능하다. 별도의 토스모바일 앱 다운로드 없이도 실시간으로 사용 데이터를 확인할 수 있으며 자주 묻는 질문을 확인할 수 있다. 요금제 변경도 가능하며 고객센터와의 연결 창구도 확인할 수 있다.토스모바일 관계자는 “토스를 통해 간편하고 편리한 통신 서비스를 누릴 수 있도록 100% 비대면화 서비스를 구현했다”며 “단순히 저렴하기만 한 서비스가 아닌 고객들이 만족할 수 있는 서비스를 만들어 갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.02.18.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>베트남·인도네시아 등 동남아에 ‘K-카드’ 바람</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000044298?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>동남아시아에선 최근 ‘K-카드’의 바람이 거세지고 있다. 국내 카드사들이 베트남, 인도네시아 등 동남아시아에 진출하면서 ‘외연 확장’에 적극 나서고 있기 때문이다. 국내 시장에서 더는 미래 먹거리를 기대하기 어렵다는 판단에서다.      인도네시아, 태국, 캄보디아에 진출해 있는 KB국민카드는 지난달 캄보디아 리스사 ‘아이파이낸스리싱(IFL)’을 인수했다. 기존 할부금융업 위주에서 리스사업으로 확장할 전략이다. 우리카드도 지난해 9월 인도네시아의 할부금융사를 인수했고, 지난해 말 미얀마 법인은 소액 대출업에서 할부금융업까지 사업 범위를 넓혔다. 최다 해외법인을 보유한 신한카드 역시 지난해 ‘베트남 쿠팡’이라 불리는 이커머스기업 ‘티키(Tiki)’에 지분투자를 하고, 금융솔루션을 선보였다.      그래픽=양유정 기자 yang.yujeong@joongang.co.kr           카드사가 해외 진출 카드를 꺼내든 건 국내에서 ‘성장’의 한계가 뚜렷해서다. 이혁준 나이스신용평가 금융평가본부 본부장은 “지급결제 부분에선 핀테크기업 등 비금융회사가 시장을 잠식하고 있고, 카드사는 현재 점유시장 마저 공격받고 있다”고 말했다. 업계 관계자는 “최근 기준금리 인상으로 인한 조달 금리 상승, 비용 증가로 국내 영업만으론 버거워 해외로 눈을 돌리고 있다”며 “게다가 현 가맹점 수수료로는 수익 창출이 어렵고, 국내 카드론이나 현금서비스(단기카드대출), 리볼빙(일부결제금액이월약정) 사업은 이미 포화상태”라고 말했다.      ‘OO페이’라 불리는 간편결제 시장에서 빅테크 기업의 덩치가 커진 탓도 있다. 지난해 상반기 기준 간편결제 시장 이용액 7232억원 중 절반 정도인 50.4%(3641억원)를 네이버페이, 카카오페이 등 빅테크 기업이 차지했다. 반면, 카드사 등 금융회사 비중은 26.1%(1887억원)에 불과했다. 카드사들이 한 카드사 앱에 타사 카드도 등록해 사용할 수 있는 ‘오픈페이’를 대응책으로 내놨지만, 최근 애플페이까지 가세할 것으로 예고되면서 고민은 더 커졌다. 서지용 한국카드학회 회장(상명대 경영학부 교수)은 “간편결제가 모바일에 연동하는 결제방식이다보니 카드사 입장에선 제휴사를 찾아야 하는 부담과 수익 배분이 고민일 것”이라며 “소비자들이 제휴사 쪽의 유사 금융업으로 이탈하는 건 아닌지 우려도 있을 것”이라고 말했다.      카드사들이 ‘미래 먹거리’를 찾으러 몰린 곳은 동남아시아, 그중 인도네시아와 베트남이다. 이들 국가는 국내총생산 성장률이 5~8%대 고성장세를 보일 뿐 아니라 중국의 대체 생산기지로서 역할이 기대된다. 반면 경제 급성장세를 뒷받침해줄 금융 인프라는 취약하다. 전문가들은 해외진출에 본격 착수한 카드사의 성장 돌파구는 ‘수익 다각화’에 있다고 강조한다. 토스나 카카오페이 등 핀테크사들도 이미 동남아시아, 일본 등 해외사업 확장에 속도를 내고 있기 때문이다. 서 학회장은 “국내 카드사간 경쟁이 심화될 동남아시아 외에 카자흐스탄 등 중앙아시아나 신흥국가 위주로 발굴하는 게 필요하다”며 “오픈페이를 적극 살려 간편결제 시장에서의 경쟁력도 확보해야 할 것”이라고 말했다. 이 본부장은 “카드사의 강점인 데이터 사업에 지금부터 주력하는 것이 주요 성장 전략이 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>한화투자증권, 美주식 ‘주간 거래 서비스’ 개시</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004161004?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>주간 거래 오전 10시~오후 5시 20분'서학개미 모시기' 경쟁 치열해질 전망[서울경제] 한화투자증권(003530)이 27일 미국주식 주간거래 서비스를 시행한다고 밝혔다. 삼성증권(016360)이 독점해왔던 미 증시 주간거래가 개방되면서 증권사간 ‘서학개미 모시기’ 경쟁이 한층 치열해질 전망이다.한화투자증권은 이날 미국주식 거래(서머타임 미적용)가 주간거래서비스(10:00~17:20)를 시작으로 프리마켓(18:00~23:30), 정규 거래시장(23:30~익일 06:00), 애프터마켓(06:00~07:00)까지 총 20시간 20분 동안 가능해진다고 알렸다. 미국 주식 주간거래서비스는 미국의 대체거래소(ATS)를 통해 정규 거래 시장 이전에도 매매가 가능하도록 한 서비스다.거래 가능 종목은 미국 나스닥과 뉴욕증권거래소 상위 약 1000개 종목이며, 실시간 시세 조회도 가능하다. 미국 주식 주간거래는 한화투자증권 홈트레이딩시스템(HTS)인 '스마트원(SmartOne)'과 모바일트레이딩시스템(MTS)인 '스마트엠(SmartM)'과 '스텝스(STEPS)'에서 가능하다. 전국 영업점·스마트 자산관리팀을 통해 유선으로도 할 수 있다.성기송 한화투자증권 영업전략실 상무는 “미국 주식 주간거래서비스 시행으로 시차로 인해 미국주식 거래를 망설였던 고객들도 자유롭게 매매할 수 있으며 정규 거래시장 후에도 시장 대응이 가능해졌다”며 “앞으로도 신속하고 편리하게 미국주식을 거래할 수 있도록 서비스를 개선해 나가겠다”고 말했다.앞서 삼성증권과 ATS간 독점 계약 서비스가 7일 만료돼 다른 증권사들도 소액 투자자들이 미국 주식을 낮에 사고팔 수 있도록 하는 서비스를 앞다퉈 내놓기 시작했다.한국투자증권도 이날 오전 10시부터 오후 4시까지 거래 서비스를 제공한다고 밝혔다. 키움증권(039490), 미래에셋증권(006800), NH투자증권(005940), 토스증권, 교보증권(030610), 메리츠증권(008560)도 서비스를 개시했다. 이로써 미국 주식 주간거래를 지원하는 국내 증권사는 9곳으로 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>“비교해보고 골라 쓰세요”… 인터넷은행 ‘모임통장’ 차별화 경쟁 [마이머니]</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003784998?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>도전장 꺼낸 토스뱅크‘독박 총무’ 없앤 공동모임장 계좌 선봬출시 2주 만에 15만 계좌 넘어서 돌풍거래 한도 정해 피해 최소화하게 설계3월 1인 최대 1만원 지급 이벤트 진행아성 지키기 나선 카뱅406만 계좌에 이용자수 1400만명 넘어카톡으로 간편하게 모임원 초대 가능회비 지급·해지 권한 모임주에만 있어1월 생활비·회비 관리 기능 추가해모임회비 조회·관리 등의 기능을 담은 ‘모임통장’에 대한 소비자들의 관심이 커지면서 인터넷 전문은행들이 고객 확보를 두고 각축전을 펼치고 있다. 후발주자인 토스뱅크가 지난 1일 ‘공동모임장’(공동명의자)이라는 새로운 개념을 담은 모임통장을 출시해 카카오뱅크에 도전장을 내밀면서 경쟁이 본격화했다. 카카오톡 연계 이용을 밑바탕으로 성장해온 카카오뱅크도 ‘생활비 관리 기능’ 등 신규 서비스를 추가하며 고객 사수에 나섰다. 케이뱅크 역시 올해 상반기 모임통장 출시를 앞두고 있어 어떤 통장이 금융소비자의 마음을 사로잡을지 관심이 쏠린다.     토스뱅크 사옥 내부 모습. 토스뱅크 제공    ◆‘공동모임장’ 내세운 토뱅… 2주 만에 15만 계좌 돌파  19일 토스뱅크에 따르면, 출시 일주일 만에 7만 계좌를 넘긴 토스뱅크 모임통장은 출시 2주 차인 지난 16일 기준 계좌 개설 수 15만3350좌를 기록했다.  토스뱅크는 통장 명의자인 모임장 1명만 독점적으로 출금·결제 권한을 가졌던 기존 상품과 달리 모임원이라면 누구나 출금 및 이체가 가능하도록 만들었다. 모임장의 동의를 얻고, 실명확인 절차를 완료한 모임원이 이른바 공동모임장이 돼 본인 명의의 모임카드 발급 및 결제·출금을 할 수 있도록 하는 식이다. 공동모임장이 되기 위해서는 본인 명의 토스뱅크 계좌를 보유해야 한다.  모임장과 앞서 지정된 공동모임장들의 동의를 얻으면 언제든 새로운 공동모임장을 추가할 수 있다. 토스뱅크 관계자는 “(공동모임장이) 본인 명의로 발급한 모임카드로 결제할 경우, 그에 따른 소득공제 혜택도 본인이 가져가게 된다”고 설명했다.     각 공동명의자가 다른 공동명의자의 동의 없이 거래할 수 있는 한도는 1일 100만원으로 제한된다. 이를 넘는 거래를 하기 위해선 공동명의자 전원의 동의가 필요하다. 만에 하나 사고가 발생하더라도 이 같은 안전장치를 통해 피해를 최소화할 수 있도록 설계했다는 것이 토스뱅크의 설명이다. 토스뱅크 모임통장에서 거래할 수 있는 최대한도는 1일 1000만원으로, 각 공동명의자의 거래 한도를 포함한 한도다.    모임원 가입 인원 제한을 없애고, 하루를 맡겨도 연 2.3%(세전) 금리를 적용한다는 것도 토스뱅크 모임통장의 특징이다. 모임원은 토스 애플리케이션(앱)을 설치하고 토스뱅크에 회원가입을 한 고객으로, 모임 초대를 받고 모임통장 서비스 참여에 동의한 경우 해당된다. 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 가며, 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달된다.  토스뱅크 모임카드는 모임 활동이 많은 영역을 대상으로 캐시백 혜택을 제공한다. 토스뱅크는 다음달 말까지 모임원 1인당 최대 1만원의 모임지원금을 제공하는 ‘모임지원금 이벤트’를 진행한다.     ◆400만 계좌 넘긴 카뱅… ‘생활비·회비 관리 기능’ 추가  토스뱅크 모임통장이 떠오르는 샛별이라면, 2018년 12월 인터넷은행 중 처음으로 모임통장을 도입한 카카오뱅크는 전통 강호다. 카카오뱅크 모임통장은 지난해 말 기준 계좌 수 406만좌, 이용자 수 1356만명(여러 모임통장에 함께 참여하고 있는 중복 이용자 포함)에 달한다. 1월 말 기준 이용자 수는 약 1400만명이다.  카카오톡으로 간편하게 친구들을 모임통장으로 초대할 수 있으며, 카카오뱅크 계좌가 없어도 모임원이 될 수 있는 점(카카오뱅크 앱 설치와 회원가입은 필요) 및 모임원들이 회비 현황을 실시간으로 확인할 수 있도록 한 점 등을 무기로 인기를 끌었다.     카카오뱅크 사옥 내부 모습. 카카오뱅크 제공    지난달 말부터는 ‘생활비 관리 기능’과 ‘회비 관리 기능’도 추가했다. 생활비 관리 기능은 한 달 목표 생활비를 설정하면 예산 대비 지출 현황을 실시간으로 제공해주는 기능이다. 이 기능은 모임태그를 ‘가족/생활비’로 선택한 모임통장에서만 사용 가능하며, 지출에 포함하고 싶지 않은 내용은 ‘on·off 스위치’를 통해 내역에서 제외할 수 있다. 생활비 지출 현황 항목에선 올해 월평균 생활비 및 누적 생활비 등의 정보를 그래프로 제공한다.  회비 관리 기능은 회비규칙을 설정해 모임원들에게 알림을 보내는 기능이다. 모임주가 회비 금액과 회비 내는 날을 설정하면, 모임원이 회비 입금을 잊지 않도록 해당일에 맞춰 자동으로 알림이 간다. 누가 회비를 입금하지 않았는지 확인할 수 있으며, 해당 모임원들을 선택해 한 번에 입금 요청 메시지카드를 보낼 수 있다.     카카오뱅크 모임통장은 모임주 개인 명의의 통장으로, 모임원들이 납입한 회비의 지급 및 해지 권한은 모임주에게 있다. 카카오뱅크 관계자는 “은행 업무라는 것은 (금융사고 등을 막기 위해) 보수성도 필요하다”며 “편리성뿐만 아니라 보수성도 중요한 가치 중 하나인 만큼, 신뢰할 수 있는 모임주만 출금을 할 수 있도록 하고 있다”고 설명했다.  카카오뱅크 모임통장 1개당 참여 가능 모임원은 최대 100명으로 한정된다. 금리는 연 0.1%(세전)가 기본으로 제공되고, 카카오뱅크 파킹통장인 ‘세이프박스’와 연결할 경우 연 2.6%를 받을 수 있다.  국내 1호 인터넷은행인 케이뱅크도 올해 상반기 모임통장 출시를 예고해 앞으로 고객 확보 경쟁은 더욱 치열해질 전망이다. 케이뱅크 관계자는 “현재 준비 중인 상황으로, 어떤 서비스가 들어간다 안 들어간다를 말하기엔 조금 더 시간이 필요할 것 같다”며 “(모임통장에) 경쟁력 있는 차별화 요소를 포함해 내놓긴 해야 할 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>"설마 고객정보 해킹당하겠어?"…방심하던 스타트업 '발칵' [긱스]</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004811219?sid=105</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>"개인정보 보호 무시했다간 큰일 나"보안 강화하는 스타트업들이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.사진=게티이미지뱅크#1. 피트니스 스타트업 다노는 최근 개인정보보호위원회로부터 과태료 300만원을 부과받았다. 운동 상담 내역을 요청한 이용자를 대상으로 파일을 잘못 첨부해 보내는 바람에 51명의 개인정보가 유출됐기 때문이다. 문의 답변 파일을 별도로 분리하지 않고 같은 폴더에 저장한 탓에 생긴 실수다. #2. 명함관리 앱 리멤버를 운영하는 드라마앤컴퍼니에서도 최근 소동이 벌어졌다. 연봉 1억원 이상 채용 서비스를 표방한 '리멤버 블랙' 가입 방법을 문의한 365명에게 단체 이메일을 보내면서 이들의 이메일 주소가 그대로 노출된 것이다.이용자의 개인정보 보호 문제는 플랫폼 스타트업에 예민한 이슈다. 제품 개발이나 마케팅처럼 시급한 투자가 필요하다고 여겨지는 영역은 아니지만, 한번 문제가 발생하면 이용자 이탈이 일어나는 리스크 요인이 될 수 있기 때문이다. 주요 플랫폼 스타트업들은 대부분 한 차례 이상의 개인정보 유출 사태를 겪었다. 스타트업에서 일어난 개인정보 유출 사례와 대응 방식, 한계 등을 한경 긱스(Geeks)가 살펴봤다.  "개인정보 보호 이렇게나 신경 쓰는데"채용관리 솔루션 스타트업 두들린은 정보보호 관리체계 인증(ISMS)을 획득했다고 지난달 25일 밝혔다. 한국인터넷진흥원(KISA)이 운영하는 ISMS 인증은 기업이 정보보호 관리 절차와 대책을 체계적으로 수립하고, 이를 지속적으로 운영 관리하는지를 평가해 인증하는 제도다.@게티이미지두들린은 지난해 쿠팡과 홈플러스 등을 거친 보안 전문가 정일권 최고정보보호책임자(CISO·Chief Information Security Officer)를 영입해 주목받은 곳이다. 두들린은 CISO를 별도로 지정하고 신고할 의무가 없는 스타트업인데도 정보 보안 경력 15년의 정 CISO를 선택했다. 정 CISO는 "두들린이 운영하는 '그리팅'은 실시간으로 각 회사의 인사담당자와 실무자의 지원자 평가가 이루어지는 서비스"라며 "여러 명의 평가자가 수많은 입사지원자의 개인정보가 담긴 이력서를 공유하고 있기 때문에 정보 보호가 중요하다"고 말했다. 그는 "고객사 중 대기업, 중견기업의 수요가 급증했기 때문에 이들 기업의 기준에 맞춰 정보보호 체계를 더욱 강화할 것"이라고 했다. 토스를 운영하는 비바리퍼블리카는 토스의 개인정보 보호 활동을 한눈에 확인할 수 있는 개인정보 보호 홈페이지를 신설했다. 토스는 앞서 '개인정보 안심리포트' 서비스도 출시했다. 고객이 제공에 동의한 개인정보가 언제, 왜, 누구에게 제공됐는지 확인할 수 있는 서비스다. 고객이 '필수동의' '선택동의' 등의 과정을 거치고 있지만 실제 서비스 과정에서 개인정보의 흐름이 어떻게 이루어지고 있는지 구체적으로 보여주는 제품이 그동안 시장에 없었다는 점에 착안했다. 토스는 고객 개인정보를 보험설계사 등에 팔아 매출을 올리는 방식으로 논란이 된 적 있다. @데이터보호 준법 자문위원회 출범한 토스이승건 토스 대표는 “토스가 사랑받는 서비스로 자리매김하려면 더 높은 수준의 신뢰를 얻는 것이 필수적”이라며 “이렇게 투명하게 공개할 수 있는 것까지가 혁신의 영역”이라고 말했다. 그는 “사용자가 개인정보 이용 내역을 직접 확인함으로 얻을 수 있는 신뢰의 가치가 크다”고 강조했다. 야놀자는 개인정보 유무 판단을 위한 표준 기준을 정립해놓고 있다. 숙박 플랫폼 특성상 데이터가 유출되는 경우 2차 피해가 커질 수 있다. 야놀자는 주요 개인정보의 경우 암호화를 통해 직접 식별이 불가능하도록 조치했다. 야놀자 역시 2021년 클라우드 서비스 사용 과정에서 개인정보가 유출돼 개인정보보호법 위반으로 제재 처분을 받은 적 있다. "무시했다간 큰일 나"그동안 스타트업들은 개인정보 보호엔 상대적으로 신경을 덜 쓰는 경우가 많았다. 투자금은 대부분 제품 및 서비스를 위한 개발자 채용이나 마케팅 비용으로 쓰는 게 일반적이었다. 정보보호 시스템 구축이나 관련 인력 채용은 당장 눈에 보이는 위협이 아니기에 후순위로 밀려나기 일쑤였다. '설마 우리 회사가 해킹을 당하겠어?'라는 안일한 인식도 한몫했다.  단기간에 성장을 이루다 보니 규모가 커진 후에 회사 상황에 맞는 보안체계를 구축하지 못하는 경우도 적지 않다. 한 스타트업 관계자는 "회사 내 보안 전문가 없이 최고개발책임자(CTO)가 개인정보 보호 영역까지 책임지는 경우가 대다수"라고 했다. 뒤늦게 보안을 강화하려고 하면 직원들이 번거로운 일로 여기기도 했다. 문제는 개인정보 유출 사고 건수가 적지 않을뿐더러 유출 시 이용자들은 물론 기업의 피해가 심각하다는 점이다. 명품 쇼핑 플랫폼 발란은 지난해 4월 고객 개인정보가 유출돼 이 사실을 KISA에 신고했다. 유출된 개인정보는 이름, 닉네임, 이메일, 휴대폰 번호, 생년월일 등이었다. 지난해 4월 59만608명 수준이었던 발란의 월 이용자 수는 8개월 뒤인 12월에는 31만3119명으로 쪼그라들었다. 발란 개인정보 유출 당시 안내화면.지난해 부동산 커뮤니티와 투자자들이 모인 단체 카카오톡방 등에서 한바탕 소동이 벌어지기도 했다. 세무회계 플랫폼 삼쩜삼을 성토하는 글이 잇따라 게재되면서다. 일부 이용자들은 "세금 조회 한번 하려고 한 건데 삼쩜삼이 고객들의 국세청 세무대리인으로 자사의 협력사들을 무작위로 등록하고 동의 없이 개인정보를 활용했다”고 주장했다. 탈퇴 인증 글도 올라왔다. 삼쩜삼은 "세무회계 절차를 위해 당연한 일"이라고 했지만 개인정보에 민감한 소비자들은 플랫폼에서 이탈했다.  규모가 커진 스타트업들이 앞다퉈 개인정보 보호에 투자하는 이유다. 개인정보 보호에 국민들의 의식도 달라졌기 때문이다. 스타트업 업계 관계자는 "회사 성장 속도에 맞춰 그 상황에 맞는 보안 시스템을 구축하는 게 중요하다"고 말했다.  "개인정보 보호에 인센티브 적용해야"개인정보보호법 등 국내 법 체계가 업계에 그대로 적용하기엔 어렵다는 지적도 나온다. 규제와 현장이 동떨어져있다는 것이다. 최근 국내에서 인공지능(AI) 윤리 원칙이 중요해지면서 관련 연구와 적용에 한계가 있다는 분석도 있다. 현행법을 다 지키면서 경영을 이어가기에 업무량 부분에서 현실적으로 이행하기 힘들다는 지적도 적지 않다. 한 핀테크 스타트업 관계자는 "인원 10명인 작은 회사인데 개인정보 보호 업무를 하느라 1년에 한 달은 쓰는 것 같다"고 했다. 보호를 소홀히 한 기업에 대한 사후처벌은 강화하더라도 적극적으로 개인정보 보호에 투자한 스타트업엔 인센티브를 주는 방식으로 제도를 바꿔야 한다는 제언도 있다. @게티이미지새로운 기술 개발이 끊임없이 이뤄지는 데이터 분야는 발전 속도와 방향을 예측하는 것이 어렵기 때문에 감독기구가 일률적인 규제 방식을 정하는 것은 사실 쉽지 않다. 규제 방향을 잘못 잡으면 유용한 기술의 개발을 저해하는 결과를 가져올 수도 있다. 고학수 개인정보위 위원장은 "빠르게 변화하는 시장 상황을 고려할 때 프라이버시 침해를 예방하기 위해 단순하고 명확한 규정을 정하는 것보다는 시장 변화에 따른 규제의 원칙과 가이드라인을 만들고 업데이트해 나가는 것이 중요하다"고 했다. 참, 한가지 더 개인정보보호위원회는 온라인플랫폼 분야 개인정보 보호 ‘민관협력 자율규제 계획’을 확정했다. 민관이 함께 개인정보 보호 강화에 나서는 온라인플랫폼 분야는 △열린장터(오픈마켓) △주문배달 △이동수단(모빌리티) △구인·구직 △병·의원 예약 접수 △부동산 △숙박 등 총 7개의 국민생활 밀접 분야다.민관협력 자율규제는 산업계 스스로 고객의 개인정보를 보호하는 방안을 마련해 이를 개인정보위가 승인·점검하는 방식으로 운영된다.업계는 자율규약에 대한 개인정보의 승인을 거친 뒤 이 규약을 토대로 개인정보 보호에 나선다. 개인정보위는 우수 기업에는 포상 등 인센티브를 제공하고, 규약을 준수하지 못한 기업은 개선 조치를 하도록 유도할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.02.18.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>"너도, 총무할 수 있어!"…모임통장 경쟁에 독박총무 끝?</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000323396?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>'파킹통장' 이어 '모임통장' 전쟁...토스뱅크, 보름만에 15만 계좌토스뱅크가 모임통장을 출시한 지 보름만에 15만개 이상의 신규 계좌가 개설됐습니다. 선두주자인 카카오뱅크뿐만 아니라 다른 은행들도 모임통장을 출시하면서 경쟁이 가열해지고 있습니다.오늘(17일) 토스뱅크에 따르면 지난 16일 기준 모임통장 계좌는 약 15만 3천좌로 집계됐습니다. 앞서 토스뱅크는 지난 1일 모임통장을 출시하면서 하루만 맡겨도 연 2.3% 금리를 제공하기로 했습니다.기존에 다른 모임통장은 모임장이 1명으로 제한돼 있지만 토스뱅크는 '공동 모임장' 기능을 만들어 모임원 누구나 출금과 카드 발급이 가능하도록 했습니다.실시간으로 결제까지 가능한데다 사용처까지 확인할 수 있어 소비자의 관심이 쏠리는 이유입니다. 특히 20대와 30대가 가입자 중 절반 이상을 차지했습니다.15만 계좌 토스뱅크 vs 400만 계좌 카카오뱅크카카오뱅크도 모임통장의 기본 금리는 연 0.1% 수준이지만, 모임통장을 세이프박스에 연결할 경우 연 2.6% 금리를 제공하는 등 경쟁에 불을 붙이고 있습니다.카카오뱅크는 한 명만 모임장이 가능하다는 점에서 토스뱅크보다 불편하다는 지적도 있습니다. 모임원 수도 100명으로 제한됩니다.카드도 하나의 계좌 당 한 개만 발급 가능하다보니 명의자인 모임장만 출금과 결제 권한을 독점하기도 했습니다.그럼에도 카카오뱅크에서도 지난해 1년만에 모임통장이 100만좌 넘게 늘어나는 등 인기는 시들지 않고 있습니다.카카오뱅크의 모임통장 누적 계좌수는 지난해 말 400만좌를 넘어 이용 고객만 1350만명 이상입니다.이렇게 인기가 높아지면서 또 다른 인터넷 은행인 케이뱅크도 올해 상반기 모임통장 출시를 예고했습니다.'모임통장'으로 옮겨 붙은 경쟁에 소비자 혜택도 '쑥'경쟁이 치열해지면서 혜택과 기능도 늘고 있습니다.토스뱅크는 모임 지원금을 주는데 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 지원됩니다.함께 발급 받을 수 있는 모임카드로 모임의 주요 활동인 회식(음식점·주점), 놀이(노래방·볼링장 등), 장보기(이마트·농협하나로마트) 영역에서 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시 건당 100원의 환급 혜택이 적용됩니다.카카오뱅크는 최근 모임통장에 '생활비 관리' 기능을 추가했습니다. 생활비 관리 기능은 한 달 목표 생활비를 설정하면 예산 대비 지출 현황을 한 눈에 확인할 수 있습니다.앞서 카카오뱅크는 이달 14일까지 신규 모임통장을 만드는 고객에게 추첨을 통해 최대 100만원을 지급하는 이벤트를 진행하기도 했습니다.수신이자 뚝 '파킹통장' 경쟁은 이제 그만? 특히 인터넷 은행권은 그동안 힘 쏟던 파킹통장 금리 경쟁을 서서히 멈추는 모습입니다.파킹통장 금리가 가장 높은 곳은 토스뱅크로 연 4% 수준의 이자를 줍니다. 5000만원 미만은 연 2.3%가 적용되지만, 5000만원이 넘는 금액은 연 4%의 금리 혜택을 받을 수 있습니다.그 다음으로 금리가 높은 곳은 케이뱅크로 지난해 말 플러스 박스 금리를 연 2.7%에서 3%로 올린 바 있습니다. 하지만 이달 들어 다시 연 2.7%로 0.3%포인트 하향 조정했습니다.마지막으로 카카오뱅크는 파킹통장에 최대 1억원까지 연 2.6% 금리를 제공하고 있습니다.은행마다 파킹통장 금리가 한 때 치열했지만 충분히 수신이 확보된 뒤에 다시 비용 절감에 나선 것으로 해석됩니다.한 은행권 관계자는 "저원가성 예금을 위해 파킹통장뿐만 아니라 모임통장 개설에 나서는 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>토스모바일, 요금제 가입 전국 단위로 오픈한다</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000040464?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>3분이면 요금제 선택부터 유심신청까지사전가입자 3분의 1은 7GB 요금제 선택토스모바일, 요금제 가입 전면 오픈. [사진 토스][이코노미스트 윤형준 기자] 토스의 통신 자회사 토스모바일이 통신 요금제 가입을 전국 단위로 열었다고 22일 밝혔다. 이날부터 토스 사용자라면 전국 어디에서나 빠르게 통신 서비스에 가입할 수 있다. 지난달 30일 처음으로 가입을 개시한 토스모바일은 그동안 사전신청자를 대상으로 시범 서비스를 운영해왔다.토스모바일이 지난 3주간 가입자들을 분석한 결과, 요금제 탐색부터 유심배송 신청까지 평균 3분이 소요된 것으로 집계됐다. 또 퀵 배송지역(수도권 및 광역시 일부 지역)에서는 유심 수령까지 평균 17분이 걸렸다. 토스모바일은 유심을 무료로 제공하고 있다.실제 토스모바일이 사전가입자를 대상으로 한 만족도 조사(816명 응답)에서 토스모바일의 강점으로 편리한 가입과 개통 과정이 꼽혔다.한 사전가입자는 “유심 배송이 10분만에 와서 놀라웠다"며 “요금제 구성 또한 심플해서 큰 고민이 필요없었다"고 말했다.다른 가입자도 “앱 내에서 기존 통신사 해지 과정과 유심 신청 등 가입 과정을 간편하게 진행할 수 있었다”며  “평소 자주 사용하는 토스 앱에서 모바일 서비스를 관리할 수 있다는 점도 매력적”이라고 평가했다. 또 사전가입자들은 총 4개 요금제 중 ▲데이터 7GB 요금제에 가장 많은 관심을 보였다. 전체 가입자의 33.2%가 해당 요금제를 택했다. 이어 ▲데이터 71GB 27.8% ▲데이터 100GB 26.9% 순이었다.가입자의 71%는 기존 이동통신사업자(MNO) 사용자였으며, 29%만이 가상이동통신망사업자(MVNO)로 집계됐다. 토스모바일 관계자는 “기존 알뜰폰 요금제에서 찾아볼 수 없던 미사용 잔여 데이터 캐시백과 토스페이 전 가맹점 10% 캐시백 혜택이 포함된 요금제에 많은 사용자들의 관심이 몰렸다"며 “편리한 가입 경험과 직관적인 셀프케어 등 장점을 더욱 극대화 해 좀 더 많은 토스 유저가 만족할만한 서비스를 만들어 가겠다"고 말했다. 한편, 토스모바일 요금제는 미사용 데이터 캐시백을 시작으로 24시간 고객센터 운영 등 업계에서 새롭게 선보이는 혜택을 갖고 있다. 토스 앱에서 빠른 개통이 가능하며 잔여 데이터 확인도 손쉽게 가능하다. 또한 토스페이 결제시 10% 캐시백 혜택도 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>대환대출플랫폼 등장에 "중개 수수료 낮아질까" vs "영향 없다"</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004855729?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>/사진=뉴스1저축은행 업계가 대환대출플랫폼이 출시되는 5월을 기다리고 있다. 대환대출플랫폼이 대거 등장하면 대출 중개 플랫폼 간 경쟁이 촉진돼 중개 수수료가 낮아질 수 있다고 기대하고 있어서다. 반면 이미 대출 플랫폼 시장이 '네카토'(네이버·카카오·토스)가 주도하고 있기 때문에 대환대출플랫폼 출현이 수수료 인하에 영향을 주지 못할 것이란 반박도 나온다. 26일 저축은행 업계에 따르면 오는 5월 대환대출플랫폼이 가동되면 저축은행이 플랫폼에 지급하는 수수료가 낮아질 것으로 기대하고 있다. 앞서 금융위원회는 5월을 목표로 대환대출플랫폼 인프라를 구축하기로 했다. 인프라 구축이 완료되면 대출 플랫폼 시장이 활기를 띨 전망이다. 기존에 대출 비교 플랫폼을 운영하던 토스·카카오페이·네이버파이낸셜·핀다 등 13개 업체 외에도 다양한 금융사가 대환대출 플랫폼 시장에 뛰어들 예정이다. 신한은행·카카오뱅크·신한카드·KB국민카드·현대카드·하나카드·현대캐피탈·BC카드·웰컴저축은행·키움증권 등 10개 금융사가 신규 사업자로 꼽힌다. 저축은행들은 신규 사업자가 대출 시장 중개 수수료를 끌어내리는 역할을 할 것으로 보고 있다. 현재 저축은행 79개 중 30여개가 대출 플랫폼에 입점해 있는데, 입점사들은 수수료율이 높다고 불만을 나타내고 있다. 일부 플랫폼이 시중은행에는 0.4~0.5%의 수수료율을 적용하면서 저축은행에는 1.7~1.8%의 높은 수수료율을 적용하고 있어서다. 신규 사업자가 들어오면 입점사에 유리한 환경이 조성될 수 있다. 특히 신한은행과 대형 카드사들이 '네카토'의 대항마 역할을 할 것으로 예상된다. 업계 관계자는 "더 많은 플랫폼이 시장에 생기면 저축은행을 유치하려고 플랫폼끼리 중개 수수료 경쟁을 벌일 수 있을 것"이라며 "저축은행은 플랫폼 의존도가 높기 때문에 중개 수수료가 낮아지길 기대하고 있다"라고 밝혔다.반면 새로운 플랫폼의 등장이 중개 수수료에 영향을 미치지 않을 것이라는 예상도 나온다. '네카토'가 대환대출 영역에서도 압도적인 경쟁력으로 신규 사업자를 밀어낼 수 있다고 봐서다.대형 저축은행 관계자는 "저축은행 입장에선 플랫폼에 얼마나 많은 고객이 모여 있는지가 중요하다"며 "대환대출플랫폼이 늘어난다고 해도 빅3 플랫폼의 점유율이 깨지지 않는다면 저축은행도 입점을 포기할 수 없기 때문에 지금과 비슷한 수준으로 중개 수수료가 형성될 것 같다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>[단독] 토스, 대규모 개발팀 개편…권고사직 '칼바람' 논란도</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004160755?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>지난해 3분기 누적손실 38%↑투자금 회수 난항·상장도 지연대내외 악재 속 조직 개편 나서구성원 "상시 사직 권유" 토로[서울경제] 실적 악화 등 악재에 시달리고 있는 토스(비바리퍼블리카)가 조직 개편에 나선 가운데 내부에서 권고사직에 대한 우려가 커지고 있다. 26일 금융권에 따르면 토스는 최근 총 45명으로 구성된 사내 개발팀 ‘인터널 트라이브’ 조직을 개편하면서 인원을 감축했다. 인터널 트라이브는 토스 팀원을 대상으로 구성원이 필요로 하는 툴(too)이나 서비스를 만들어 공급하는 역할을 해왔다. 인터널 트라이브 조직 개편 과정에서는 약 10명이 타 부서로 배치되거나 퇴사한 것으로 알려졌다. 이 같은 조직 개편 바람 속 일부 구성원들 사이에서는 “권고사직이 횡행하고 있다”는 주장이 제기됐다. 토스에 재직 중인 한 개발자는 “현재 이슈가 되고 있는 직무는 내부 그룹웨어를 만드는 ‘파이썬’ 서버 개발자들”이라며 “그 외에도 특정할 수 없을 만큼 다양한 직무 수행자들에게 상시적으로 권고사직이 권유되고 있다”고 토로했다.토스의 한 팀장급 관계자는 “늘 권고사직이 만연했다”면서 “권고사직을 받은 사람들에게는 일정 금액의 위로금을 주고 이와 관련해 발설하지 않겠다는 합의서를 쓰게 한다”고 말했다. 현재 서울지방노동위원회에는 토스를 상대로 한 부당 해고 구제 신청 등도 제기된 상태다.사내에 인사 평가 시스템이 갖춰져 있지 않은 것도 문제점으로 지적됐다. 토스의 한 개발 직군 관계자는 “제대로 된 성과 측정 시스템이 없고 모두 팀 리더나 인사팀의 판단 및 정성 평가에 기반한다”고 지적했다. 리더 직급의 한 관계자는 “팀 내부에서 문제가 있어도 리더가 알아서 해결해야 하는 경우가 많다”며 “권고사직이 전혀 없지는 않았다”고 밝혔다. 이에 대해 토스 관계자는 “권고사직은 없었다”고 반박하면서도 “개인 고과 평가 시스템이 없는 것은 맞다”고 말했다.한편 토스는 국내외 투자 시장 환경 악화로 투자금 회수에 난항을 겪고 있는 상태다. 지난해 1조 원 규모의 상장 전 투자 유치(프리IPO)를 추진한 토스는 당초 계획에 못 미치는 7000억 원의 자금을 수혈했다. 이르면 올해로 예정했던 상장 일정도 2~3년 뒤로 미루기로 했다. 지난해 3분기까지 토스의 2022년 누적 영업손실은 총 1672억 원으로 전년 동기 대비 38.4% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>작년 아태지역 핀테크 투자 505억 달러 ‘사상 최대’”</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005092231?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>KPMG ‘2022 핀테크 동향 보고서’ 발간작년 글로벌 핀테크 투자, 전년 대비 31% 감소“기존 금융사와 핀테크 기업간 협업 강화해야”글로벌 경제의 불확실성 확대와 IPO(기업공개) 시장의 급랭으로 글로벌 핀테크 투자가 위축되는 상황에서도 지난해 아시아태평양 지역의 핀테크 투자가 사상 최대치를 기록한 것으로 나타났다.글로벌 회계•컨설팅 기업 KPMG가 22일 발간한 ‘2022 핀테크 동향 보고서’에 따르면, 아시아태평양 지역 핀테크 투자는 2021년 502억 달러에서 2022년 505억 달러로 소폭 증가했다. 그렇지만 이 수치는 사상 최대 기록이다.특히 아시아태평양 지역에서 핀테크 관련 M&amp;A(인수합병)는 2021년 233억 달러에서 2022년 339억 달러로 45.5% 증가했으며, 블록(Block)이 호주 최대 선구매·후지불(BNPL·Buy Now Pay Later) 업체인 애프터페이(Afterpay)를 279억 달러에 인수한 메가 딜이 주효한 것으로 집계됐다.아시아태평양 지역 내 주요 벤처캐피털(VC) 투자로는 한국의 금융 핀테크 기업 토스가 4억500만 달러, 인도네시아 젠딧(Xendit), 싱가포르의 앰버(Amber)와 볼트테크(Bolttech)가 각각 3억 달러를 조달에 성공했다.한편 2022년 M&amp;A, 사모펀드(PE), VC에 걸친 글로벌 핀테크 투자는 1641억 달러(6006건)로, 사상 최대였던 전년의 2389억 달러(7321건) 대비 건수와 규모 모두 다소 감소했다. 그러나 PE투자(97억 달러)와 VC 투자(805억 달러)는 사상 최대치인 2021년에 이어 두번째로 강세를 보였다. 글로벌 핀테크 관련 M&amp;A는 2021년 1051억 달러에서 2022년 739억 달러로 떨어졌다.지역별로는 미주 지역이 2021년 사상 최고치(1089억 달러) 대비 약 40% 감소한 686억 달러의 핀테크 투자를 유치하고, 유럽·중동·아프리카 지역(EMEA)도 전년(790억 달러) 대비 약 43% 감소한 449억 달러 조달에 그쳤다. 그러나 미국, 영국과 같은 기존 금융 허브 외 한국, 이탈리아, 말레이시아, UAE 등 다양한 신 금융허브 내 핀테크에 대한 투자도 고루 이뤄졌다.레그테크(Regtech)에 대한 투자는 2021년 118억 달러에서 2022년 186억 달러로 57.6% 급증하며 지난해 가장 뜨거운 관심 분야였다. 보고서는 “기업들이 점점 더 복잡해지는 컴플라이언스 의무를 준수하며 비용 절감 등을 모색하면서 레그테크에 대한 투자가 급증하고 있다”고 분석했다.지급결제 분야는 2021년 571억 달러에서 2022년 531억 달러의 투자금을 모았다. 암호화폐와 블록체인에 대한 투자는 2021년 300억 달러에서 2022년 231억 달러로 23% 가량 줄었는데, 특히 작년 하반기에 루나 사태와 FTX 파산 영향으로 하락폭이 두드러졌다.올해 글로벌 핀테크 투자는 2022년과 비교해 상대적으로 저조할 것으로 내다봤다. M&amp;A 활동은 회복이 예상되지만 투자자들이 후기 단계 스타트업에 대한 평가가 안정되기를 기다리면서 거래 규모는 훨씬 적을 것으로 전망했다.다만 전세계적으로 금융 서비스의 급속한 변화와 금융과 비금융 서비스의 결합이 활성화되는 추세를 볼 때 핀테크 투자에 대한 장기적인 전망은 상당히 긍정적으로 기대했다.현금이 많은 기업이나 사모펀드 경우에는 밸류에이션이 안정화되면 기술력과 비즈니스 모델이 있는 핀테크 기업을 좋은 가격에 인수할 수 있는 기회를 모색하면서 전반적으로 M&amp;A 활동이 늘어날 것으로 분석했다.AI 기반 핀테크 기술은 투자자들로부터 더 많은 관심을 받을 것으로 전망하며, 특히 AI 기반 데이터 분석, 실시간 위험 평가, 고객 참여와 같은 분야에서 AI 기반 핀테크 솔루션에 대한 관심이 커질 것으로 봤다.조재박 삼정KPMG 핀테크 리더(부대표)는 “글로벌 경기침체에 따라 작년 전반적으로 핀테크 투자가 감소했지만, 아시아태평양 지역 핀테크 투자 비중은 2010년 글로벌 전체의 3% 미만에서 2022년 30% 이상으로 증가함에 따라, 한국을 포함한 아시아 지역이 주무대로 등장하고 있다”며 “핀테크 시장 현황과 투자 동향을 봤을 때 향후 핀테크 기업은 B2B 및 B2B2C, 비금융 융합 관점의 임베디드금융(Embedded Finance), ESG 등 차별적 사업모델 발굴과 수익성에 대한 고민이 필요하다”고 덧붙였다. &lt;아시아태평양 지역 핀테크 투자&gt; &lt;글로벌 핀테크 투자&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토스모바일, 토스 이용자 전체 대상 알뜰폰 서비스 확대</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013771840?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>토스모바일, 요금제 가입 전면 오픈[토스모바일 제공. 재판매 및 DB 금지](서울=연합뉴스) 오규진 기자 = 비바리퍼블리카의 통신 자회사 '토스모바일'은 모바일 금융 플랫폼 '토스' 이용자 전체를 대상으로 알뜰폰 서비스를 확대한다고 22일 밝혔다.    요금제들이 제공하는 기본 데이터는 7GB, 15GB, 71GB, 100GB로 정가는 각각 2만4천800원, 2만5천800원, 5만4천800원, 5만9천800원이라고 토스모바일은 전했다.    사용하지 않은 데이터는 최대 1만 원까지 토스포인트로 환급하며, 모든 토스페이 가맹점에서 결제금액 10％를 돌려주는 멤버십 혜택도 내걸었다.    가입 신청부터 유심 배송까지 모든 절차는 토스 애플리케이션을 통해 진행되고, 24시간 고객센터도 운영한다.    토스모바일은 지난달 말부터 사전신청자 17만여 명을 대상으로 서비스를 운영했는데, 기존 이동통신사업자(MNO) 이용자가 전체 가입자의 71％에 달하는 것으로 집계됐다.    요금제 선택과 유심 배송 신청까지 평균 3분, 퀵서비스로 유심을 배송받기까지 평균 17분이 걸린 것으로 나타났다. 사전가입자 816명을 대상으로 시행한 만족도 조사에서도 편리한 가입, 개통 과정이 토스모바일의 강점으로 꼽혔다.    요금제 선호도는 7GB(33.2％), 71GB(27.8％), 100GB(26.9％) 순이었다.    토스모바일 관계자는 "미사용 잔여 데이터 캐시백, 토스페이 가맹점 10％ 캐시백 혜택 등으로 많은 사용자들의 관심이 몰렸다"며 "편리한 가입 경험과 직관적인 셀프 케어 등을 키워 더 많은 이용자들이 만족하는 서비스를 만들겠다"고 말했다.    acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.02.17.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>신용대출 은행 안 가도 갈아탄다…5월부터 시작</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011430859?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[앵커] 일거리 찾기 어려운 사람들도 문제지만 급격한 금리 상승으로 대출이자 부담이 늘어난 사람들도 근심이 많습니다. 이런 부담 덜어주기 위해 신용대출의 경우 은행을 찾지 않아도  저금리로 갈아탈 수 있는 길이 열리게 됩니다. 보도에 정재우 기자입니다. [리포트] 은행권 신용대출 최고금리가 8%에 육박하는 요즘, 대출자들 관심은  이자율 낮추는 데 쏠려 있습니다. [김하령/서울시 영등포구 : "낮은 금리로 은행에서 되면은 당연히 갈아타야죠."] 지금도 대출비교 앱에  개인 금융정보를 입력하면  금리나 한도를 알 순 있지만 실제로 대출을 갈아타려면 은행을 직접 찾아야 합니다. 또 은행별로  금리 차가 크지 않다는 점도  이용을 주저하게 만듭니다. [성주현/서울시 영등포구 : "금리가 많이 차이가 나지 않고 번거롭기도 하고 그래서 안 한다는 사람들이 많이 있는 거 같아요."] 이런 점을 보완하기 위해 정부가 5월부터  신용대출에 한해 비대면 대환대출 시스템을 도입합니다. 금융사들끼리  대출자의 대출 상황이나 중도상환 수수료율 같은 정보를  주고 받을 수 있게 하겠다는 건데, 이렇게 되면 고객들은  은행을 방문하지 않고도 스마트폰으로  대출을 갈아탈 수 있습니다. 결국 저금리로 갈아타려는  고객들을 잡기 위한  금융사 간 경쟁이 치열해지면서 소비자 부담도 줄 거라는 게  당국의 판단입니다. [최락현/토스 사업개발실장 : "(은행들이) 새로운 고객을 확보하거나 기존 고객의 이탈을 막기 위해서 대환대출 전용 상품을 출시하고 대출금리도 인하하는 환경이 조성될 것으로..."] 다만 플랫폼 사업자와  금융사 간 쟁점이었던  대환대출 수수료 문제는  여전히 평행선을 달리고 있습니다. 그러나 대환대출 시스템을 도입하려는 금융당국의 의지가  워낙 강한 만큼 조만간 양측 간 합의가 이뤄질 거란 전망이 우세합니다. KBS 뉴스 정재우입니다.촬영기자:김재현/영상편집:김선영/그래픽:노경일</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>인터넷은행 중·저신용 대출 비율 토스뱅크가 가장 높아</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000731493?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>토스 40.37%·카뱅 24.5%·케이 25.1%인터넷은행 중에서 토스뱅크가 가장 많은 중·저신용 대출을 공급했다. 다만, 금융당국이 제출한 목표치에는 미달했다.28일 은행연합회 공시에 따르면 지난해 12월 말 기준 인터넷은행의 중·저신용 대출 비중(잔액 준)은 토스뱅크 40.37%, 카카오뱅크 25.4%, 케이뱅크 25.1%를 기록했다. 토스뱅크는 연말 목표치였던 42%에는 소폭 못 미쳤고, 카카오뱅크와 케이뱅크는 목표치였던 25%를 넘겼다.카카오뱅크, 토스뱅크. 케이뱅크 로고. [사진=박은경기자]지난해 카카오뱅크는 2조5천975억원, 케이뱅크는 2조265억원의 중·저신용 대출을 공급했으며 토스뱅크는 지난 2021년 10월 출범 이후 3조9천억원의 대출을 공급했다.앞서 금융당국은 지난 2021년 인터넷전문은행에 중·저신용 대출 비중을 30%까지 확대할 것을 주문했다. 또 금융당국은 이 기본 30%에 각 사별로 중·저신용 대출 비중 목표를 받아 다르게 관리하고 있는데 카카오뱅크는 올해 말까지 32%, 케이뱅크는 30%, 토스뱅크는 44%다.토스뱅크 관계자는 "녹록지 않은 경제 환경에서도 은행의 건전성과 건전한 중·저신용자를 위한 금융 지원이 균형적으로 이뤄질 수 있도록 최선을 다하고 있다"며 "이달에는 41.2%를 돌파하며 올해 목표인 44%를 달성하기 위해 최선의 노력을 다하는 중"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>5대 은행 1인당 복리후생비 538만원…인터넷은행은 1823만원</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002784888?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>주요 은행들이 최근 몇 년간 임직원 복리후생을 크게 늘린 것으로 나타났다. 그러나 후발주자인 인터넷은행과 비교하면 3분의 1 수준에 그치고 있다.19일 금융감독원 금융통계시스템에 따르면 5대 은행의 복리후생비 지급 규모는 지난 2021년 4036억원으로 전년(3699억원) 대비 9.1% 증가했다.임직원 1인당 복리후생비 평균 역시 2020년 487만원에서 2021년 538만원으로 51만원 늘었다.5대 은행은 자녀 학자금 지원, 휴가 숙박 지원, 가족 의료·건강지원비 혜택 등 임직원에게 다양한 복지혜택을 주고 있다.5대 은행은 올해에도 2022년 임단협을 통해 복리후생 제도 개선에 합의했다. 신한은행은 점심값을 기존 1만3000원에서 1만9600원으로 높였다. 국민은행은 장거리 출퇴근 직원을 위해 톨게이트 비용을 주기로 했다. 우리은행은 지난 2021년 임단협 당시 부모님 의료비 지원금 한도를 200만원에서 300만원으로 높였다. NH농협은행도 2021년 임단협에서 만 35세 배우자 검진을 격년에서 매년으로 늘렸다.주요 시중은행들이 복리후생비를 늘리고 있지만 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사에는 못 미친다.인터넷은행 3사의 임직원 1인당 복리후생비 평균은 2021년 1823만원으로 2020년(토스뱅크 제외) 1493만원보다 330만원 늘었다.2021년 기준 카카오뱅크가 1인당 2283만원으로 가장 많았고 토스뱅크(1667만원), 케이뱅크(1520만원) 순이었다.인터넷은행들은 주요 복리후생 제도로 출·퇴근 시간을 자율적으로 정하는 유연근무제를 도입하고 있다. 휴가 제도도 다양하다. 카카오뱅크는 만 3년 근무 시 한 달의 안식휴가와 휴가비 200만원을 준다. 토스뱅크도 근속 3년마다 리프레시 유급휴가 1개월을 쓸 수 있다. 케이뱅크는 매년 3일의 유급 자기 계발 휴가를 준다.이 외에도 카카오뱅크는 직원들에게 연 600만원 규모의 자기 주도 마일리지를 지급한다. 토스뱅크는 직원들의 주택담보대출 이자를 1억원 한도에서 지원한다.금융권의 디지털 전환에 따라 인력 이동이 빈번한 상황에서 인터넷은행들이 복리후생으로 차별화를 시도하며 인재를 끌어들이고 있다는 평가다.  ●style charspace="-2"/&gt; ●?暉仄袖299사진=연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>[뉴스외전 경제 '쏙'] 은행 '뒷북' 금리 인하‥"미리 했으면 좋았을 것"</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001255338?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[뉴스외전]출연: 박연미 경제평론가'이자 장사' 비판 속 5대 은행 예대금리차 확대"KB국민은행, 시중은행 중 1.51%p로 예대금리차 가장 커"은행 '뒷북' 금리인하‥KB·우리·카뱅 최대 0.7%p↓"옆구리 찔러 금리 인하 할 거면 미리 했으면 좋았을 것‥여력 있었다는 소리 아닌가?"중소기업 고금리 대출 비중, 3%→28.8% '폭증'‥"레고랜드 사태 이후 돈 빌리기 더 힘들어져"내일 은행권 개선 TF 출범‥ "실질적 금리인하 방안, 성과급 등 보수체계 개편 논의"금융위, 다음 달 취약계층 위한 '긴급금융구조' 시행대한항공, 마일리지 개편안 시행 '보류'계약 당시와 집행 조건이 다르다는 건 '꼼수'◀ 앵커 ▶경제 쏙, 박연미 경제평론가와 경제관련 이슈 살펴보겠습니다. 어서 오세요.◀ 박연미/경제평론가 ▶안녕하세요?◀ 앵커 ▶은행의 이른바 이자 장사 이야기가 계속 나오고 있는데요. 앞선 리포트에서 보신 것처럼 예대 금리차 때문인데 더 커지는 거다. 예대 금리차 때문에 이렇게 말씀을 하셨었잖아요, 지난번에도. 그런데 예대 금리차가 지난달에 더 벌어진 것으로 나타났습니다. ◀ 박연미/경제평론가 ▶이게 12월하고 비교해서 한 달 사이에 예대 금리차가 더 커졌다는 건데 예대 금리차라는 말은 단순하게 예금 금리와 대출 금리의 차이, 이게 커지면 커질수록 싸게 고객들의 돈을 수신하고 비싸게 빌려주면 당연히 은행들은 마진이 높아지겠죠. 그래서 예대 마진이 지나치면 안 된다라는 이야기가 나온 건데 이번 달 들어서 대통령실에서 본격적으로 예대 금리차에 대한 언급이 잦아졌고 1월은 아직 구체적으로 여기에 대한 언급이 많지 않아서인지 예대 금리차가 12월보다 1월에 더 벌어진 것으로 나타났습니다. 국내 은행 19곳 가운데 15곳이 종전보다 한 달 사이에 예대 금리차가 더 확대된 것으로 조사됐고요. 은행별로 보면 KB국민은행, 주요 은행 가운데에는 국민은행의 예대 금리차가 가장 컸습니다. 예대 금리차 평균치가 1.51%p, 그다음에 NH가 1.44%p, 우리은행이 1.07%p, 그리고 신한은행이 0.84 정도 되는데 다른 은행들이 워낙 높아서 신한은행이 상대적으로 적은 것처럼 보이는 상황이죠. 이게 5대 주요 은행 말고 전체 은행권으로 따져보면 예대 금리차가 상당히 큰 곳들이 많았습니다. 전북은행의 경우에는 6.4%p. 그러니까 예금과 대출 사이의 금리차가 이 정도 난다는 이야기고요. 토스뱅크도 4.72%p의 차이가 있었습니다. 광주은행도 4.12%p 정도 차이가 났는데 이렇게 마진을 극대화해서 사실상 고객보다 은행이 굉장히 유리한 위치에 있는 은행들도 있었지만 주택담보대출의 경우에는 평균 금리가 가장 낮은 곳, 산업은행으로 조사됐고요. 국책은행이죠. 예금 금리를 가장 후하게 얹어주는 것은 인터넷은행인 케이뱅크였습니다.◀ 앵커 ▶알겠습니다. 예대 금리차가 차이만 1.51%p, 6.4%p라고 하면 1억 빌려줬다고 하면 그냥 가만히 앉아서 150만 원.◀ 박연미/경제평론가 ▶그렇죠.◀ 앵커 ▶1억 중에 640만 원 번다는 이야기잖아요. 굉장히 크다는 생각은 드는데 그래서 이렇게 어쨌든 정부 쪽에서 이야기가 나오니까 비판이 계속되니까 대출 금리 자진 인하에 나서고 있다는 소식을 리포트에서도 보셨는데 어느 정도로 낮춘다고 하는 건가요?◀ 박연미/경제평론가 ▶옆구리 찌른 다음 인하하는 게 자진 인하인지는 일단 잘 모르겠습니다. 실질적으로 어느 정도 반영되고 있느냐. KB의 경우에는 앞서 말씀드린 것처럼 예대 금리차가 주요 은행 가운데 가장 크다고 말씀을 드렸잖아요. KB가 28일부터 주택담보대출은 최대 0.35%p. 전세대출의 경우에는 최대 하면 0.55%p까지 금리를 좀 낮춰주겠다고 하는데 이 옆구리를 찔린 이후에 낮출 수 있으면 사전에도 낮출 수 있었다는 이야기거든요. 그러니까 남는 거 없이 장사한다, 이건 기본적으로 통용될 수 없는 표현이기 때문에 진작에 이렇게 고통 분담의 모습을 스스로 보여줬으면 좋지 않았을까 이런 생각이 들기도 하고 KB의 설명은 이렇습니다. 석 달째, 석 달 동안 벌써 세 번째 내린다. 석 달 동안 세 번째 내려서 최고 금리하고 최저 금리 사이 차이를 보면 우리가 벌써 1%p 이상 깎아줬다고 하는데 이 설명을 들은 소비자들은 또 생각을 하시겠죠. 그럼 1%p 진작 깎아줄 수도 있었다는 그 정도 여력이 있었다는 이야기 아닌가. 은행하고 소비자 입장은 갈리고요. 카카오뱅크 대표적인 인터넷은행인데요. 당장 21일부터 신용대출의 경우에는 한도도 늘리고 마이너스 통장도 역시 한도 늘리고요. 각각 최고 0.7%p씩 금리를 낮추겠다. 0.7을 한 번에 내릴 수 있었으면 사전에 이거보다 폭이 적더라도 한참 고금리 때문에 다들 힘들어할 때 조금씩 나눠서 내려줄 수 있지 않았을까, 좀 아쉬운 부분이 있습니다.◀ 앵커 ▶0.7%p에 해당하는 이자는 지금까지는 어쨌든 수입으로 벌어들였던 건데.◀ 박연미/경제평론가 ▶그렇죠. 우리은행은 방식이 다른데요. 이쪽은 직접적으로 가산 금리를 내린다고 했던 은행들이고 우리은행은 우대 금리를 얹어주는 방식으로 역시 최종적으로 금리 인하 효과를 볼 수 있도록 하겠다. 우리금융지주는 금융위원장 출신인 임종용 회장이 지금 내정된 상태고요. 다음 달에 주총 이후 취임하게 되는데 아마 취임 일성으로 기대해 볼 수 있는 게 은행권의 거듭남. 성과에 따른 보수 체계. 이런 것들이 아닐까 예상해 봅니다.◀ 앵커 ▶알겠습니다. 중소기업도 고금리 대출 비중이 크게 늘었다면서요.◀ 박연미/경제평론가 ▶금리가 올라가니까 작년에 돈을 빌린 중소기업들은 대기업에 비해서 어쨌든 불리한 위치에서 대출을 하게 되는 데다가. 시중 금리 자체가 올라갔고 작년 상황 생각해 보시면 레고랜드 사태 이후에 회사채 시장이 급격히 얼어붙으면서 중소기업은 정말 돈 꾸기 힘들었거든요. 통계로 잡히는데 금리 5% 이상인 대출을 우리가 편의상 고금리 대출이다. 이렇게 나눈다면.◀ 앵커 ▶5% 이상.◀ 박연미/경제평론가 ▶작년에 중소기업 가운데 금리 5% 이상의 대출을 받은 곳들, 28.8%였습니다. 은행권에서만 그렇다는 거고요. 그렇다면 은행권에서 대출받은 중소기업 중에는 10곳 중 3곳은 거의 5% 이상이 고금리로 돈을 꿨다는 건데 사실 우리가 가계 대출도 금리가 많이 올랐기 때문에 그 5%가 대수냐 하실 수 있어요. 그런데 종전하고 비교해 보면 2021년 그러니까 작년하고 딱 1년 사이에 종전에는 금리 5% 이상 대출받은 중소기업이 전체의 3%밖에 안 됐습니다. 이게 2021년 상황이고요. 작년으로 불과 1년 사이에 30% 가까이 늘었으니까 이게 10배 정도 된다는 이야기잖아요.◀ 앵커 ▶10배.◀ 박연미/경제평론가 ▶실제로 중소기업들이 현장에서 자금난, 운전자금 이런 거 대출받고 융통하기가 참 쉽지 않았구나 이걸 체감해 볼 수 있는 숫자입니다.◀ 앵커 ▶그러니까 이자가 그렇게 높은데도 불구하고 빌릴 수밖에 없다는 상황이라는 거잖아요.◀ 박연미/경제평론가 ▶그렇죠. 그 부분이 중요한데요. 중소기업 가운데 대출 잔액이 급격하게 늘어나는 걸 보면 회사채 발행도 쉽지 않고 돈을 융통하기도 마땅치 않아서 결국은 이자가 비싸도 소액을 은행에서 빌릴 수밖에 없었다. 결론이 그렇게 이어지는데 2019년에 중소기업들이 은행권에 진 빚의 잔액이 716조 7천억 원 정도 됐습니다. 그런데 3년 뒤인 2022년에는 953조 원을 넘어서거든요. 그러니까 이게 단위가 앞자리가 두 번 바뀌었고 실제로 중소기업들이 느끼는 자금난이 어느 정도인지 체감해 볼 수 있습니다.◀ 앵커 ▶걱정이네요. 그런데 은행권의 영업 관행, 그리고 제도를 개선하기 위한 금융당국의 TF가 내일 출범한다고 하는데 가장 중점적으로 추진하는 부분이 뭘까요?◀ 박연미/경제평론가 ▶일단 큰 틀에서 두 가지로 볼 수 있는데요. 하나는 실질적인 금리의 인하 방안입니다. 가산 금리를 줄이든 아니면 우대 금리를 늘리든 어떤 방식으로든 은행이 과도하게 폭리를 취한다, 이 부분에 대해서 개선 방안을 내놓을 것으로 보이고 다른 한 가지는 보수 체계를 바꾸는 작업입니다. 성과급, 보수 체계, 이런 것들이 성과와 무관한 성과급이다, 이런 표현들이 나오거든요. 시중 은행이 예대 마진을 늘리는 방식으로 이거 공격적으로 가서 경쟁해서 따오는 돈이 아니라 그냥 고금리식의 은행이 있으면 급여가 올라가는 게 정당하냐, 이건 잠시 뒤에 말씀드릴 마일리지 논란하고도 비슷한데요. 결국은 라이센스를 통해서 정부가 사업권을 보장하는 몇 군데 사업들이 땅 짚고 헤엄치는 구조가 맞느냐. 이걸 근본적으로 건드리게 될 텐데 오늘 국회 정무위가 있었습니다. 전체 회의에서 금융위 업무 보고가 있었는데 현장에서 나온 여야 의원들의 제안 사안을 보면 예컨대 이런 것들이 있더라고요. 단위 기간의 이자 총액에 따라서 연체율을 계산하자. 말이 어려운데요. 석 달을 만약에 돈을 꾸기로 하고 돈을 빌렸다. 그런데 그중의 두 달은 제때 갚고 한 달은 연체를 했다. 그럼 이 한 달은 연체한 것으로 하지 말고 석 달 내내 잘 갚았으니 전체 평균으로 보자 이런 뜻입니다. 해서 이걸 성실상환 금리인하제하고도 연결하자는 거예요. 그러니까 기업 대출의 경우에는 성실하게 대출을 갚았던 기업들의 경우에 나중에 이자를 좀 깎아줍니다. 이게 일종의 페이백, 우리가 가지고 있는 캐시백의 형태이기도 하고 그런데 이게 소비자들에게는 이런 방식의 영업 형태가 없거든요. 여기에 따른 인센티브를 주는 방식으로 처음에 돈을 떼일까 봐 이자를 두둑하게 받아간다면 안 떼였으니까 돌려주는 것도 있어야 하지 않느냐. 이런 아이디어가 하나 제시됐고요.◀ 앵커 ▶합리적인 아이디어네요.◀ 박연미/경제평론가 ▶그렇죠. 그리고 인터넷은행을 업역별로 나눠서 중소기업 대출 전문, 소액 대출 전문, 고신용 전문, 중신용 전문 해서 경쟁을 붙일 수 있도록 이 시장을 조금 더 개방하자는 주장도 있었고 주택담보대출의 경우에는 아마 대부분 잘 모르실 텐데 본인의 신용이 좋다고 해서 굉장히 우대받지 않습니다. 왜냐하면 신용등급이 주택담보대출 전체에서 금리를 정할 때 차지하는 비중이 크지 않거든요.◀ 앵커 ▶담보가 있어서 그렇겠죠.◀ 박연미/경제평론가 ▶그렇죠. 그런데 신용대출 마이너스 통장은 안 그렇잖아요. 주택담보대출 받을 때도 이 사람이 잘 갚고 믿을 만한 사람이면 충분히 신용등급 반영하자는 주장도 있어서 이게 TF를 통해 어떻게 반영될 거냐, 흘러가는 과정은 계속 업데이트해야겠습니다.◀ 앵커 ▶알겠습니다. 또 다음 달부터는 금융 당국이 취약계층의 원리금 감면을 확대하는 긴급 금융 구조라고 하는데. 이것에 나서기로 했던데 어떤 대책이 나오는 거죠?◀ 박연미/경제평론가 ▶이게 좀 항상 논란이 되는 부분이에요. 도덕적 해이가 있다. 기존에 열심히 갚았던 사람이 손해를 본다. 이런 주장도 있습니다만 극도로 적은, 소액을 장기간 연체했거나 아니면 딱 이 고비만 넘기면 경제 활동 참가 인구로 제대로 들어올 수 있는 분들을 핀셋 지원하자 이런 주장인데요. 예컨대 저신용의 청년층을 대상으로 하던 신속 채무 조정 특례 프로그램, 이런 것들이 있습니다. 이건 기존의 빚을 상환 기간이 있지만 10년 안에 갚아라, 상환 기간을 늘려주거나 아니면 3년 동안은 일단 상환 안 해도 된다. 3년 동안 여력을 갖추고 그다음에 갚아라, 이런 방식으로 빚을 갚을 수 있는 출구를 마련해주는 정책이거든요. 이걸 전체 계층으로 확대한다. 그러니까 모든 사람은 아니지만 전 계층 가운데 빚 갚기가 단기적으로 어려워진 분들에게 문호를 개방하겠다는 계획을 가지고 있고 일부 기초생활수급자나 중증장애인의 경우에는 채무 상환 능력이 현저히 떨어질 수 있으니까.◀ 앵커 ▶그렇죠.◀ 박연미/경제평론가 ▶이런 분들이 소액을 장기연체했다라면 이 부분은 원리금을 함께 탕감하는 방안을 고민하자. 원금의 최대한 30%까지는 탕감하는 방안을 1,000만 원 미만 500만 원 미만, 기준을 정해서 한 번 추진해 보자, 이게 정부의 구상입니다.◀ 앵커 ▶알겠습니다. 상환 기간을 늘려주거나 상환을 미뤄주거나 아니면 탕감까지 고려하는 방식으로요. 아까 잠깐 말씀하셨는데 대한항공이 오는 4월부터 거리 기준으로서 변경하기로 한 마일리지 개편안 시행을 밝혔는데 이걸 잠정 보류했습니다.◀ 박연미/경제평론가 ▶하려다 말았죠. 이게 왜 그러느냐 결론부터 말씀드리면 대한항공이 원하는 방향으로 마일리지 공제를 개편한다라면 예컨대 이렇게 됩니다. 종전에 인천에서 뉴욕 갔을 때 이코노미를 탄다. 마일리지가 3만 5천마일리지가 삭감됐는데 이제는 4만 5천마일리지, 이 안대로 됐더라면요. 만약에 인천-뉴욕을 나는 비즈니스로 나는 가고 싶다. 마일리지로 끊는다면 종전에는 편도가 6만 5천520마일리지면 됐는데 이제는 9만 마일리지가 필요한 거예요. 즉, 마일리지로 끊는 표의 값이 2-30% 올랐다와 같은 내용입니다. 소비자에게 부당하게 불리하다고 해서 국토부, 여당 정책위 의장들이 순서대로 지적한 이후에 대한항공이 이거 일단 좀 미루겠다. 일단은 이렇게 안 하겠다는 건데 근본적인 문제는 마일리지 쌓을 때 이렇게 하겠다고 약속하고 쌓은 게 아니잖아요. 계약할 때 하고 계약이 집행될 때 계약 조건이 불리하게 바뀐다는 건데 이 부분은 분명히 항공사가 자성할 부분이 있다고 봅니다.◀ 앵커 ▶그동안 3만 5천 마일리지 쌓아서.◀ 박연미/경제평론가 ▶가야지 할 때쯤.◀ 앵커 ▶할 때쯤.◀ 박연미/경제평론가 ▶조금 더 모아오세요 한다는 거죠. 물론 항공사는 단거리는 더 깎아준다. 마일리지를 덜 써도 갈 수 있다고 하는데 단거리는 주로 대한항공 말고 저비용 항공사 많이 사용하시니까 이러나저러나 꼼수라는 비판 피해가기 어려울 것 같습니다.◀ 앵커 ▶그렇죠. 알겠습니다. 마일리지 개편안 시행 보류까지 이야기 들었습니다. 잘 들었습니다. 박연미 경제평론가였습니다.기사 본문의 인터뷰 내용을 인용할 경우, [MBC 뉴스외전]과의 인터뷰라고 밝혀주시기 바랍니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>소상공인·도소매 전문은행 나온다…은행업 '완전 경쟁' 유도</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001722932?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>【 앵커멘트 】  윤석열 대통령은 또 5대 시중은행에 대해 과점 폐해가 크다며 경쟁 시스템을 만들라고 지시했습니다.  이에 따라 금융감독원은 소상공인과 도소매업에 특화한 전문은행을 허용하고, 인터넷 은행과 핀테크 업체의 금융업 진출도 강화하는 방안을 검토 중입니다.  박규원 기자가 보도합니다.【 기자 】  지난해 막대한 이자수익으로 역대 최고 실적을 낸 5대 시중은행.  이들 은행의 예금 점유율은 77%, 대출금 점유율은 67%에 달합니다.  대출과 예금 모두에서 과점 체제인 셈입니다.  윤석열 대통령은 이런 과점체제로 은행들이 막대한 수익을 거두고 있다며 개선을 지시했습니다. ▶ 인터뷰 : 최상목 / 대통령실 경제수석- "윤석열 대통령은 우리 은행산업의 과점의 폐해가 크다고 지적하면서, 실질적인 경쟁시스템 강화방안을 마련할 것을 금융위원장과 금감원장에게 지시하였습니다."  '완전 경쟁' 체재로 유도해 은행권의 예대마진을 축소하고, 취약계층의 금융 부담을 완화하겠다는 취지입니다.  이에 따라 금융감독원은 이달 중 TF를 꾸려 은행업 인가를 세분화하거나 인터넷 전문은행을 확대하는 등의 방안을 검토하고 있는 것으로 알려졌습니다.  은행업을 세분화하면 소상공인 전문은행과 도소매 전문은행, 중소기업 전문은행 등이 추가로 나올 수 있습니다.  아울러 카카오뱅크와 K뱅크에 이어 또 다른 인터넷 은행이 등장할 수 있고, 토스와 같은 핀테크 업체들이 추가로 나올 수 있습니다.▶ 인터뷰(☎) : 석병훈 / 이화여자대학교 경제학과 교수- "은행들 간에서도 고객들의 예금을 유치하기 위한 경쟁이 생겨서 예대 마진이 줄어드는 그래서 국민들의 불만을 줄여주는 효과가 있는 것입니다."  하지만, 외국계 글로벌 은행과의 경쟁을 위해 은행 대형화를 추진했던 정책이 갑자기 바뀌면서 오히려 경쟁력 약화를 가져올 수 있고,  비슷한 기능의 은행업이 중복됨으로써 사회경제적 비용이 낭비될 수 있다는 지적도 나오고 있습니다.   MBN뉴스 박규원입니다. 영상편집 : 오혜진#MBN #시중은행 #과점 #완전경쟁 #금감원 #박규원기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>더 벌어진 예대금리차… 5대 은행中 국민은행 1위</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000879077?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>서울 시내 시중은행 ATM기기의 모습. /정민하 기자        올해 들어 은행권의 수신금리와 여신금리 차이(예대금리차)가 더 벌어진 것으로 나타났다. 5대 시중은행 중에선 KB국민은행이 지난달 신규 취급한 가계대출과 예금의 금리 차이가 가장 큰 것으로 파악됐다.20일 은행연합회 공시에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행 가운데 KB국민은행의 지난달 신규 취급액 기준 가계 예대금리차는 1.56%포인트(p)로 5대 시중은행 중 가장 컸다. 이어 ▲농협은행 1.49%포인트 ▲우리은행 1.34%포인트 ▲하나은행 1.13%포인트 ▲신한은행 1.01%포인트로 집계됐다.특히 5대 시중은행이 지난달 신규 취급한 예대금리차는 전월보다 모두 확대됐다. 가계대출금리에서 저축성수신금리를 뺀 가계예대금리차는 ▲국민은행 0.65→1.56%포인트 ▲농협은행 1.00→1.49%포인트 ▲우리 1.30→1.34%포인트 ▲하나은행 0.85→1.13%포인트 ▲신한은행 0.91→1.01%포인트로 올라갔다.기업대출을 포함한 예대금리차는 지난해 12월에서 올해 1월 ▲국민 1.10→1.81%포인트 ▲농협 1.15→1.69%포인트 ▲우리 1.38→1.59%포인트 ▲하나 1.01→1.44%포인트 ▲신한 1.19→1.33%포인트로 각각 상승했다.인터넷전문은행 중에서는 토스뱅크가 4.72%포인트로 가장 컸다. 케이뱅크는 2.15%포인트, 카카오뱅크는 1.33%포인트다.지방은행과 외국계 은행을 포함해 공시 대상 19개 은행 중 가계 예대금리차 가장 큰 곳은 전북은행으로 7.18%포인트로 나타났다. 가장 작은 곳은 KDB산업은행으로 0.20%포인트다.5대 시중은행 중 정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출 Ⅱ, 최저신용자 특례보증)을 제외한 가계 예대금리차가 가장 큰 은행 역시 KB국민은행으로 1.51%포인트였다. 이어 ▲농협은행 1.44%포인트, 우리은행 1.07%포인트, 하나은행 1.03%포인트, 신한은행 0.84%포인트 순이다.국민은행 관계자는 “지난달 법인고객의 단기성 예금 비중이 늘면서 평균 예금금리는 낮아진 반면 주택담보대출에 비해 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 확대됐다”며 “지난달 말 시행된 가계대출 금리 인하 효과는 2월 예대금리차 공시에 반영될 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>롯데멤버스, 5년만에 PG 사업 철수</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003079913?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>롯데멤버스 CI롯데멤버스가 전자지급결제대행(PG) 사업을 종료한다. 그룹 멤버십인 엘포인트와 디지털 광고 등 주력 사업에 역량을 집중하기 위해서다. 이번 PG사업 철수에 따라 롯데멤버스에 외주를 맡겨 왔던 롯데온 등 그룹 관계사들도 외부 업체와 새로운 PG 계약을 맺게 됐다.21일 업계에 따르면 롯데멤버스는 오는 4월 30일부로 PG 서비스를 중단한다. 2018년 서비스 도입 이후 5년 만이다. 회사 측은 “엘포인트 서비스 강화, 디지털 광고 사업 확대 등 올 한해 주력 사업에 역량을 집중하기 위해 그간 제휴사 활용도가 다소 낮았던 PG 사업 철수를 결정하게 됐다”고 말했다.롯데멤버스는 2017년 금융당국으로부터 PG 사업 자격을 취득했다. 기존 간편결제 사업과 포인트 적립에 더해 결제대행 서비스를 추가해 사업 효율을 극대화한다는 계산이었다. 롯데그룹 계열사와 전자결제 시스템 도입으로 시너지를 꾀할 수도 있었다. 다만 외부 제휴사 확대에 어려움을 겪으면서 경영 효율화 차원에서 사업 철수를 결정했다.이에 따라 롯데쇼핑 e커머스사업부 등 그룹 관계사 PG 계약에도 변동이 생겼다. 롯데온은 롯데오너스 정기결제 서비스 업체를 롯데멤버스에서 KG이니시스로 변경했다. 롯데마트·슈퍼도 정기배송 자동결제 PG사를 롯데멤버스에서 토스페이먼츠로 바꾼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스뱅크, 사장님 대출 출시 1년만에 1.5조 공급… 절반이 중·저신용자</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000897023?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크  토스뱅크가 비대면 개인사업자 대출인 '토스뱅크 사장님 대출'을 출시한 지 1년을 맞은 가운데  개인사업자 대출 규모가 1조5000억원으로 성장했다고 20일 밝혔다. 이 가운데 중·저신용자 대출 비중은 전체 대출 잔액의 49.8%에 달했다. 앞서 토스뱅크는 지난해 2월 인터넷전문은행 처음으로 비대면, 무보증 무담보 신용대출인 '토스뱅크 사장님 대출'을 선보인 바 있다.올 1월 토스뱅크 사장님 대출 공급 규모는 총 1830억원에 달하며 개인사업자 대출을 운영 중인 전체 은행 가운데 4건 중 1건(25%)이 토스뱅크에서 이뤄졌다. 특히 전체 개인사업자 대출 가운데 49.8%는 '건전한 중·저신용자'가 차지했다. 토스뱅크가 자체적으로 개발한 신용평가모형(TSS)를 통해 실질소득과 상환능력을 갖춘 중·저신용자를 발굴한 영향이라는 게 토스뱅크 측 설명이다.토스뱅크 관계자는 "제1금융권에서 소외됐던 자영업자와 소상공인을 포용한 결과, 저축은행·캐피탈사 등 제2, 제3 금융권에서의 이동도 두드러졌다"고 설명했다.실제로 10년간 소규모 영어학원을 운영 중인 A고객은 제2금융권에서 사업자금 등 확보를 위해 1억7000만원의 대출을 받은 뒤 토스뱅크에서 5000만원의 사업자금을 추가로 대출했다. 기존 대출 일부를 상환하면서 보다 낮아진 금리로 안정적으로 사업을 운영할 수 있게 된 동시에 신용점수도 155점 가량 상승했다.'토스뱅크 사장님 대출'은 대출 신청부터 실행까지 평균 3분 이내에 이뤄져 영업장을 비우고 은행에 가기 힘든 개인사업자들에게 호응을 얻었다. 이 기간 고객들은 총 60만 건의 대출 심사를 받아 일평균 약 1644건의 개인사업자 대출 상담이 이뤄진 것으로 나타났다.토스뱅크의 개인사업자 고객군을 분석한 결과 소득즉빙이 어려워 시중은행에서 대출받기 어려웠던 고객들인 것으로 나타났다. 운수업 종사자를 비롯해, 창고업·광업·긱워커 등이 토스뱅크에선 고객(4.2%)이 됐다. 업종별로는 도소매업이 전체 고객의 3명 중 1명 꼴(32.4%)으로 가장 많았다. 주로 온라인 사업장을 운영하는 이른바 '비대면 개인사업자'였다. 음식점(13.3%) 제조업(6.7%)이 그 뒤를 이었다. 토스뱅크 관계자는 "당행 신용평가모형(TSS)은 고객들이 비록 매출액이 크지 않더라도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 실질 상환능력이 뛰어나다고 판단, 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정했다"고 말했다.3년 간 광업에 종사한 B 고객은 최근 토스뱅크에서 4000만원을 빌릴 수 있었다. 고객의 신용점수는 KCB 기준 767점으로 중·저신용자에 해당하지, 건전한 소비 등 금융거래 기록과 꾸준히 매출을 올렸다는 점이 가점으로 인정됐다.토스뱅크 관계자는 "일평균 1644건의 대출 신청이 이뤄졌을 정도로 개인사업자 대출에 대한 고객들의 호응이 높았다"며 "지난 1년간 삼중고를 겪으며 긴급 사업 자금이 필요했던 소상공인, 자영업자들에게 실질적이고도 적시에 공급을 해왔고 앞으로도 지속적인 지원이 이뤄질 수 있도록 노력해 나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>지난해 아태지역 핀테크 투자 505억달러 '사상 최대'</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011704505?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>기사내용 요약KPMG '2022 핀테크 동향 보고서' 발간[서울=뉴시스]우연수 기자 = 지난해 아시아태평양 지역의 핀테크 투자가 사상 최대치를 기록한 것으로 나타났다.글로벌 회계·컨설팅 기업 KPMG가 22일 발간한 보고서(Pulse of Fintech H2'22)에 따르면, 아시아태평양 지역 핀테크 투자는 2021년 502억달러에서 2022년 505억달러로 소폭 증가하며 전년도 사상 최대 기록을 갈아치웠다.아시아태평양 지역 핀테크 투자. (사진=삼정KPMG 제공) *재판매 및 DB 금지특히 아시아태평양 지역에서 핀테크 관련 인수합병(M&amp;A)은 2021년 233억달러에서 2022년 339억달러로 45.5% 증가했으며, 블록(Block)이 호주 최대 선구매·후지불(BNPL·Buy Now Pay Later) 업체인 애프터페이(Afterpay)를 279억달러에 인수한 메가 딜이 주효한 것으로 집계됐다.아시아태평양 지역 내 주요 벤처캐피털(VC) 투자로는 한국의 금융 핀테크 기업 토스가 4억500만달러, 인도네시아 젠딧(Xendit), 싱가포르의 앰버(Amber)와 볼트테크(Bolttech)가 각각 3억달러를 조달에 성공했다.한편, 2022년 M&amp;A, 사모펀드(PE), VC에 걸친 글로벌 핀테크 투자는 6006건 1641억달러로, 사상 최대였던 전년(7321건, 2389억 달러) 대비 건수와 규모에서 다소 감소했다. 그러나 PE투자(97억달러)와 VC 투자(805억달러)는 사상 최대치인 2021년에 이어 두번째로 강세를 보였다. 글로벌 핀테크 관련 M&amp;A는 2021년 1051억달러에서 2022년 739억달러로 떨어졌다.지역별로는 미주 지역이 2021년 사상 최고치(1089억달러) 대비 약 40% 감소한 686억달러의 핀테크 투자를 유치하고, 유럽·중동·아프리카 지역(EMEA)도 전년(790억달러) 대비 약 43% 감소한 449억달러 조달에 그쳤다. 그러나 미국, 영국과 같은 기존 금융 허브 외 한국, 이탈리아, 말레이시아, UAE 등 다양한 신 금융허브 내 핀테크에 대한 투자도 고루 이뤄졌다.레그테크(Regtech)에 대한 투자는 2021년 118억달러에서 2022년 186억달러로 57.6% 급증하며 지난해 가장 뜨거운 관심 분야였다. 보고서는 “기업들이 점점 더 복잡해지는 컴플라이언스 의무를 준수하며 비용 절감 등을 모색하면서 레그테크에 대한 투자가 급증하고 있다”고 분석했다.지급결제 분야는 2021년 571억달러에서 지난해 531억달러의 투자금을 모았다. 암호화폐와 블록체인에 대한 투자는 2021년 300억달러에서 지난해 231억달러로 23% 가량 줄었는데, 특히 작년 하반기에 루나 사태와 FTX 파산 영향으로 하락폭이 두드러졌다.올해 글로벌 핀테크 투자는 지난해와 비교해 상대적으로 저조할 것으로 내다봤다. M&amp;A 활동은 회복이 예상되지만 투자자들이 후기 단계 스타트업에 대한 평가가 안정되기를 기다리면서 거래 규모는 훨씬 적을 것으로 전망했다.다만, 전세계적으로 금융 서비스의 급속한 변화와 금융과 비금융 서비스의 결합이 활성화되는 추세를 볼 때 핀테크 투자에 대한 장기적인 전망은 상당히 긍정적으로 기대했다.삼정KPMG 핀테크 리더 조재박 부대표는 "글로벌 경기 부진에 따라 작년 전반적으로 핀테크 투자가 감소했지만, 아시아태평양 지역 핀테크 투자 비중은 2010년 글로벌 전체의 3% 미만에서 2022년 30% 이상으로 증가함에 따라, 한국을 포함한 아시아 지역이 주무대로 등장하고 있다"면서 "핀테크 시장 현황과 투자 동향을 봤을 때 향후 핀테크 기업은 B2B 및 B2B2C, 비금융 융합 관점의 임베디드금융, ESG(환경·사회·지배구조) 등 차별적 사업모델 발굴과 수익성에 대한 고민이 필요하며, 핀테크 스케일업과 투자 및 협업을 촉진하기 위한 지속적인 관심과 정책 지원도 중요하다"고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>[아테네 이야기] 무죄라며 사형, 위법이라며 무죄</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000396215?sid=100</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>파르테논을 배경으로 멋진 사진을 찍고 싶다면 아크로폴리스로 올라갈 일이 아니다. 맞은편 필로파포스 언덕이 파르테논의 전경을 잘 감상할 수 있는 명당이다. 관광객들이 필로파포스 언덕에 가는 목적은 파르테논을 배경으로 사진을 찍는 것말고 또 하나가 있다. 소크라테스가 갇혀 있던 감옥이라고 알려진 곳이 있기 때문이다.소크라테스의 감옥. 딱 보기에도 감옥의 이미지가 강렬해서 관광객들에게 뭔가 생각거리를 제공하기도 하지만, 실제로 소크라테스가 갇혔던 곳은 아고라 주변에 있었을 가능성이 더 크다.고대 아테네에는 징역형이 없었다. 사형 아니면 추방형이었다. 아마도 죄수들을 먹이는 비용이 더 들기 때문이 아니었을까 싶다. 감옥은 죄수들이 사형수들이 집행을 기다리는 임시 장소였다. 소크라테스의 경우에는 이례적으로 기간이 좀 길었다. 건국 영웅 테세우스를 기념해 델로스에 보내는 사절단이 돌아오기까지는 사형을 집행하지 않았기 때문이다. 그 덕분에 우리는 소크라테스가 최후의 순간까지 제자들과 나눴던 지적인 대화를 볼 수 있게 됐다. 플라톤이 전한 이 대화에는 소크라테스의 재판 기록도 포함돼 있다. 물론 피고인 소크라테스의 발언만 전하기는 하지만.델로스섬. 아폴론 신이 태어난 장소로 알려져 있다. 한때 아테네가 해상제국을 운영할 수 있었던 힘 델로스동맹의 금고가 보관되던 곳이기도 하다. 현재의 델로스섬은 사람이 살지 않아 황량하기 이루 말할 수 없는 곳이다. 섬에 들어갈 수는 있지만 해지기 전에 나와야 한다.소크라테스는 서기전 399년 고발당해 법정에 섰다. 죄목은 불경죄였다. 아테네의 신을 숭배하지 않고 새로운 신을 들였다는 이유였다. 올림포스 신이 열둘인데서 알 수 있듯, 다신교인 그리스에서 새로운 신의 출현은 그리 대단한 일이 아니었다. 나중에는 올림포스 신의 반열에 오르지만 디오니소스만 하더라도 수입된 신이었다. 소크라테스가 살던 시기에도 새로운 신이 수입됐고, 시민들이 축제를 벌이며 환영하기도 했다. 물론 소크라테스의 경우 기존의 종교를 부인하는 '이성'을 내세웠기 때문에, 단지 새로운 신을 수입한 경우와는 달랐다. 하지만 당대에 이성적인 사고가 이미 만연해 있던 터에 굳이 소크라테스만 처벌할 일은 아니었다.또 하나의 죄목은 소크라테스가 젊은이들을 타락시켰다는 것이었다. 소크라테스는 살아 생전에도, 2,500년이 지난 지금에도, 산파술이라고 불리는 특유의 대화법으로 유명하다. 상대가 스스로 자신의 무지를 깨닫도록 하는 게 목적이다. 소크라테스의 입장에서는 진리를 추구하는 방법이지만, 상대 입장에서는 사람 바보 만드는 수법이다. 문제는 이 대화법을 젊은이들이 기성세대를 상대로 따라 했다는 점이다. 기성세대에게 당연한 일을 젊은이들이 당연하게 여기지 않고, 의문을 제기하고, 나아가 따지는 것이었다. 젊은이들의 문제 제기에 어른들은 말문이 막혔고 '이게 다 소크라테스 때문이야'를 외치게 되었다.죄목이 또 하나 있다. 플라톤이 전하는 대화록에는 없고, 또다른 소크라테스의 제자인 크세노폰의 저작에 등장하는 고발자의 말이다. "소크라테스는 존경받는 법제도를 친구들이 비웃게 했습니다. 도시의 통치자를 제비뽑기로 정하는 것은 어리석은 일이라고 말하면서요. 제비뽑기로 정한 선장이나 건설업자, 플루트 연주자, 장인을 고용하고 싶은 사람은 없을 것이라고 말했다지요." 당시 아테네는 제비뽑기로 공무원을 뽑았다. 누구나 공평한 1표를 갖고, 누구나 공평하게 공직 취임의 기회를 갖는다는 취지였다. 바로 아테네인들이 자랑스럽게 여기는 민주주의의 핵심이었다. 소크라테스 자신도 제비뽑기로 공직을 역임한 적이 있다. 하지만 소크라테스는 능력이 아닌 운수로 공직을 맡는 제도가 웃긴다고 말했다. 민주주의라는 제도가 웃긴다는 말이나 다름없었다. 플라톤이 언급하지 않은 이 이유가 소크라테스를 죽음에 이르게 했다.당시는 스파르타와 27년동안 벌인 펠로폰네소스 전쟁에 패배한 직후였다. 전쟁 후 아테네는 스파르타의 후원을 받은 30명의 참주가 정권을 잡았다. 30인 참주정은 공포를 앞세운 독재정치를 자행했다. 한달에 100명의 사람들이 죽어나갔다. 30인 참주의 정적들도 있지만, 개인적인 원한으로 죽인 사람들도 많았고, 재산을 빼앗기 위해 죽인 사람도 많았다. 그 참주정의 지도자는 크리티아스라는 인물이었는데, 소크라테스의 제자였다. 성욕이 강해 소크라테스가 '발정난 돼지'라고 욕했던 인물이지만, 그런 건 중요하지 않았다. 사람들에게 소크라테스는 그저 독재자와 한통속일 뿐이었다.(왼쪽) 플라톤. 소크라테스의 제자로 원래 정치에 뜻을 뒀지만, 소크라테스의 죽음을 보고 민주정치에 환멸을 느낀다. 소크라테스를 민주주의의 적으로 인식되게 한 크리티아스의 친척이었기에 당대 분위기에선 정치 참여는 꿈도 꿀 수 없었다. (오른쪽) 클레로테리온. 제비뽑기 기계. 고대 아테네인들에게 제비뽑기는 단순한 운수 소관이 아니었다. 신의 선택을 받는 일이었다. 소크라테스가 고발된 때는 민주정치가 복원된지 3년 후였다. 고발자는 멜레토스, 아니토스, 리콘 세 명으로 전해진다. 고발장은 멜레토스가 썼던 듯한데, 실제 중요한 고발자는 아니토스였다. 아니토스는 민주정치가 회복된 뒤 대사면령에도 불구하고 과두파 살육을 감행했던 인물이다. 민주파라고 자임하지만, 자신과 생각이 다른 사람들과 함께 살아가는 법을 모르는, 민주주의와 가장 거리가 먼 사람이기도 했다.고대 아테네의 재판에는 검사도 없었고, 변호사도 없었다. 고발자가 검사였고, 피고인 자신이 변호사가 되어야 했다. 판사도 없었다. 시민들로 구성된 배심원단이 고발자와 피고인의 입장을 듣고 유죄인지 무죄인지를 투표로 판결했다. 양측의 변론을 듣자마자 곧장 판결을 내렸다. 심사숙고할 시간 따위는 없었다. 잠깐만 배심원들을 현혹한다면, 죄를 짓고도 무죄 방면될 수 있었다. 그래서 대부분은 직업적인 변론가가 써준 원고를 읽었다. 하지만 소크라테스는 달랐다.평생 시장(아고라)에서 사람들과 대화를 하며 깨달음을 주려 애썼던 소크라테스는 자신의 목숨이 걸린 재판을, 한꺼번에 많은 사람들에게 깨달음을 줄 수 있는 기회로 여겼다. 어쩌면 사람들을 만날 마지막 기회일 수도 있다. 재판에서 이기면 되지만, 소크라테스는 처음부터 이길 생각을 하지 않았다. “사형을 결정하는 재판을 하루가 아니라 여러 날 진행한다면 제가 여러분을 설득할 수 있을 테지만, 이 엄청난 비방을 짧은 시간에 몰아내기란 쉽지 않습니다.”소크라테스는 배심원들에게 무죄를 호소하기보다는 철학을 강의했다. 배심원단이 듣고 싶어하는 말을 들려주는 대신 자신이 하고 싶은 말을 했다. 마치 교수가 학생들을 대하듯, 오만하기 짝이 없는 태도였다. “신에게 저보다 더 지혜로운 사람이 있는지 물었습니다. 그러자 신이 대답하기를, 아무도 없다고 했습니다.” 플라톤은 배심원석에서 터져 나오는 야유와 고성을 적는 대신 “아테네 시민 여러분 제가 뽐내는 것처럼 보이더라도 제 말을 끊지 마십시오”, “제 말에 소동을 일으키지 마십시오” 같은 소크라테스의 말을 옮겨 적어 법정의 분위기가 어땠는지 전해준다.마침내 배심원단의 1차 판결이 나왔다. 유죄 280표, 무죄 220표였다. 큰 차이로 보이지만, 유죄를 선택한 사람들 30명의 마음을 무죄로 돌렸다면, 소크라테스가 재판의 규칙대로 승소를 위해 노력했더라면 무죄가 나올 수도 있었던 결과였다. 아테네의 법정은 진실이 아닌 아첨을 요구했다. 소크라테스는 배심원단에게 아첨하기보다는 끝없는 잔소리를 퍼부어댔다. 유죄 판결은 소크라테스가 자초한 일이었다.아테네의 법정은 먼저 유무죄를 가린 뒤, 유죄 판결이 나면 형량을 정하는 절차를 한 번 더 거친다. 고발자들은 사형을 형량으로 제시했다. 소크라테스의 제안은 프리타네이온에서의 식사였다. 프리타네이온은 아테네의 시민회관이자 영빈관이었다. 제비뽑기로 공직에 취임한 사람들이 국가가 제공하는 식사를 하는 곳이자, 아테네를 찾은 외빈에게 식사를 대접하는 곳이기도 했다. 처벌의 수위를 정하는 자리에서 영예를 달라고 요구한 셈이다. 배심원단들로서는 우롱당하는 느낌을 받을만한 상황이었다.고대 아고라. 비교적 멀쩡하게 생긴 건물이 헤파이스토스 신전이다. 중세에 교회당으로 쓰인 덕분에 건물 모양을 유지한 채 살아남았다. 아테네인들은 이 신전을 오랫동안 테세이온(테세우스 신전)이라고 불렀고, 현재 이곳 근처 지하철역 이름도 테세이온역이다. 고대 아고라는 테세이온을 중심으로 형성돼 있었고, 프리타네이온도 그 언저리에 자리잡고 있었을 것이다.농락당한다고 느낀 배심원들이 마구 흥분했을 때 소크라테스는 새로운 처벌을 제안했다. 벌금 30미나였다. 30미나라면 0.5 탈란트였다. 거액이었다. 보통 사람이 한푼도 쓰지 않고 10년을 꼬박 모아야 쥘 수 있는 돈이었다. 차라리 처음부터 이 정도 금액을 진지하게 제시했다면 소크라테스에 대한 판결은 달라졌을지도 모른다. 이미 처벌 대신 영예를 달라는 말에 빈정이 상할 대로 상한 배심원단의 귀에 상당한 벌금액수를 제시한 진지한 제안은 들리지 않았다.마침내 최종 판결이 나왔다. 340대 160으로 사형을 선고했다. 유무죄 판결 당시 유죄 280 대 무죄 220이었다. 소크라테스가 무죄라고 판단했던 60명이 소크라테스에게 사형을 내려야 한다고 판단한 셈이다. 무죄라고 생각하면서도 기분 나쁘다고 사형을 선고한 셈이다. 사람 목숨을 다루는 법률 판단의 무게가 가볍기 그지없다. 소크라테스의 거만함이 자초한 일이라 하더라도, 배심원단은 최소한의 일관성마저 상실했다.2,500년 전 최소한의 법률 지식도 없이 아테네 시민이라는 자격만 갖추고 재판을 했던 배심원들이야 제 기분에 따라 판결을 했다 치자. 법률가가 최고의 지식인 대접을 받는 현대에도 소크라테스 재판 못지않게 황당한 판결이 있다. 김학의 전 법무부 차관의 출국을 불법으로 막고 관련 수사를 무마한 혐의로 기소된 이광철 전 청와대 민정비서관과 이성윤 전 서울고검장, 차규근 전 법무연수원 연구위원 등에 대한 무죄 판결이다. 재판부는 “김 전 차관 긴급 출금은 위법했다”면서도 “출국 용인 시 김 전 차관 재수사가 난항에 빠져 과거사에 대한 국민 의혹을 해소하기 불가능했다”고 무죄 판결 이유를 설명했다. 위법을 저질렀는데 무죄라니! 쉬운 말로 하면 ‘김학의는 나쁜 놈이기 때문에, 나쁜 놈한테는 위법 좀 저질러도 된다’는 뜻이다. 정치인이 하더라도 욕먹어 마땅한 말을 판사가 판결문에 버젓이 적어놓는 모습은 황당을 넘어 뻔뻔스럽다.영화나 드라마에서도 자주 보지만 형사가 범인을 체포할 때 "변호사를(변호인을) 선임할 수 있으며, 변명의 기회가 있고, 불리한 진술을 거부할 수 있으며, 체포적부심을 법원에 신청할 수 있다"며 피의자의 권리를 읊어준다. 이걸 미란다 원칙이라고 부르는 건 상식인데, 어쩌다 이런 이름이 붙었는지는 널리 알려져 있지 않다.1963년 미국에서 에르네스토 미란다가 8달러를 강도질하다 붙잡혔다. 조사 과정에서 18세 소녀를 강간한 사실도 자백했다. 하지만, 미란다는 자신의 법적 권리를 고지받지 못한 채 이뤄진 자백이라며 증거능력을 부인했다. 미국 연방대법원은 미란다의 말이 맞다고 인정했다. 강간범 미란다는, 미란다 원칙을 지키지 않은 수사팀 덕분에 무죄가 됐다. 일반인의 관념으로는 정의와 거리가 멀지만, 법적 정의란 이렇게 절차 하나하나의 합법성을 따지는 일이다. 부당한 방법을 썼다면, 그 결과가 정당한 일이 될 수 없다.소크라테스의 재판으로 되돌아가면, 무죄라고 판단하고도 사형을 선고한 60명의 배심원도 웃기지만, 배심원단 전체를 바보 취급한 소크라테스의 태도 역시 결코 바람직하지 못했다. 철학자로서는 위대한 선택이었을지 몰라도, 피고인으로서는 멍청하기 짝이 없는 행동이었다. 피고나 변호인이 재판에 불성실하게 임하면 충분히 무죄를 받을 수 있는 사안으로도 사형 판결을 받을 수 있다. 반대로 고발자나 검찰이 재판에 불성실하게 임하면 누가 봐도 범죄자인데 멀쩡하게 무죄 판결을 받고 당당하게 걸어 다니기도 한다. 곽상도 전 의원이 그렇고, 윤미향 의원이 그렇다.소크라테스에게 사형 판결을 내린 아테네 법정은 단심제였다. 단 하루동안의 심리로, 심리 당일 판결을 내리고, 항소 절차도 없었다. 다행히 2023년의 대한민국은 3심제를 선택하고 있다. 1심 판결이 혹시 잘못되었더라도 바로 잡을 기회가 있다. 상급심이 판사의 잘못을 바로 잡을 수도 있고, 검사가 공소장을 뒷받침할 증거를 더 보강할 수도 있다. 아직 정의를 되찾을 기회는 남아 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>복리후생비 확대하는 은행권…성과급·임금인상률도↑</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003972857?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>최근 은행들이 금리 상승기에 늘어난 이익을 바탕으로 지급한 성과급 등이 논란이 된 가운데, 의료비 지원 확대 등 임직원 복리후생도 개선한 것으로 나타났다.특히 인터넷전문은행들의 경우 1인당 복리후생비가 5대 은행(KB국민·신한·하나·우리·NH농협)의 3배를 넘어섰다.19일 금융감독원 금융통계시스템에 따르면 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행의 1인당 복리후생비는 주요 은행의 3∼4배 수준이다. 인터넷은행 3사의 임직원 1인당 복리후생비 평균은 지난 2021년 1823만원으로 2020년(토스뱅크 제외) 1493만원보다 330만원 늘었다.2021년 기준 카카오뱅크가 1인당 2283만원으로 가장 많았고 토스뱅크(1667만원), 케이뱅크(1520만원) 순이었다.인터넷은행들은 주요 복리후생 제도로 출·퇴근 시간을 자율적으로 정할 수 있는 유연근무제와 다양한 유급 휴가제를 도입하고 있다.이 밖에도 카카오뱅크는 만 3년 근무할 경우 1개월의 안식휴가와 휴가비 200만원을 지원한다. 연 600만원 규모의 자기 주도 마일리지도 지급한다.케이뱅크는 해마다 3일의 유급 자기 계발 휴가를 준다.토스뱅크는 근속 3년마다 리프레시 유급휴가 1개월이 주어진다. 직원들에게 주택담보대출 이자를 1억원 한도에서 지원하기도 한다.5대 은행의 복리후생비도 늘었다.5대 은행의 복리후생비 지급 규모는 2021년 4036억원으로 전년(3699억원)보다 9.1% 증가했다. 임직원 1인당 복리후생비 평균도 2021년 538만원으로 2020년(487만원)보다 51만원 늘었다.5대 은행은 자녀 학자금 지원, 가족 의료·건강지원비 혜택, 휴가 숙박 지원 등의 복지혜택을 임직원에게 제공하고 있다.올해도 2022년 임단협을 통해 복리후생 제도 개선에 합의한 상태다. 신한은행은 중식대를 기존 1만3000원에서 1만9600원으로 높였다. NH농협은행은 2021년 임단협에서 만 35세 배우자 검진을 격년에서 매년으로 확대했다.주요 은행들은 최근 임금인상률과 성과급 지급률 폭도 확대한 것으로 나타났다. 5대 은행의 임금인상률은 기본급 기준 올해 3%로 지난해(2.4%)보다 높아졌다. 신한은행의 임금인상률은 일반직이 2.4%에서 3%로, 리테일 서비스·사무직이 3.6%에서 4%로 높아졌다. 농협은행의 임금인상률도 올해 3%로 지난해(2.4%)보다 커졌다. 경영성과급으로는 신한은행은 기본급 361%(현금 300%·우리사주 61%)를, NH농협은행은 기본급 400%를 각각 책정했다.금융감독원이 국회 정무위원회 소속 황운하 의원(더불어민주당)에게 제출한 자료에 따르면 지난해 5대 시중은행의 성과급은 총 1조3823억원으로 파악됐다.올해 성과급 지급이 확대될 것으로 예상되면서 총규모는 1조4000억원을 넘을 것으로 추정된다.5대 은행의 성과급은 2017년 1조78억원, 2018년 1조1095억원, 2019년 1조755억원, 2020년 1조564억원, 2021년 1조709억원, 2022년 1조3823억원으로 꾸준히 1조원을 넘었다.한편, 최근 은행들이 금리 상승기 이자수익을 바탕으로 '돈 잔치'를 벌이면서 이를 바라보는 여론의 시선은 곱지 않다. 금리 상승기 국민들의 부담은 커지고 있지만, 은행권은 늘어난 이익을 공익에 환원하기보다 임직원의 상여금과 복지를 확대하는 등 '제 식구 배 불리기'에만 주력했다는 점에서 비판 받을 수 있다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.02.24.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>뉴시스 2023 대한민국 일자리 대상</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011709788?sid=102</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 조성우 기자 = 24일 오후 서울 중구 롯데호텔에서 뉴시스 주최로 열린 제5회 대한민국 일자리 대상에서 김형기 뉴시스 대표이사와 이정식 고용노동부 장관 및 수상자들이 기념촬영을 하고 있다. (앞줄 왼쪽부터 반시계방향) 남무흠 CJ제일제당 인사팀장, 권영범 영림원소프트랩 대표이사, 이정식 고용노동부 장관, 홍민택 토스뱅크 대표이사, 정영태 GS리테일 전무, 윤제현 포커스미디어코리아 대표이사, 한범선 비즈플레이 상무, 김형기 뉴시스 대표이사, 강호병 뉴시스 부사장, 최두진 제너시스 BBQ 전무, 이동규 롯데홈쇼핑 커뮤니케이션부문장. 2023.02.24. xconfind@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>이복현 금감원장 "인터넷은행·핀테크, 책임있는 혁신 필요"</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011712737?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김선웅 기자 = 이복현 금융감독원장이 23일 서울 중구 하나은행 본점에서 열린 상생금융 확대를 위한 금융소비자 및 전문가 현장 간담회에서 모두발언을 하고 있다. 2023.02.23. mangusta@newsis.com[서울=뉴시스]최홍 기자 = 이복현 금융감독원장이 인터넷은행과 핀테크 대표들을 만나 "금융혁신이 새로운 성장모델로 안정화되고 금융소비자 편익 증진으로 귀결되기 위해 책임있는 금융혁신이 전제돼야 한다"고 말했다.이 원장은 27일 판교 테크노밸리에 위치한 카카오뱅크에서 열린 '은행산업 경쟁촉진과 금융소비자 편익제고 위한 현장 간담회'를 열고 이같이 밝혔다.이날 간담회는 인터넷전문은행 및 핀테크 기업의 금융상품 및 서비스 혁신사례와 실제 사업추진 과정상 애로사항 등을 직접 청취하기 위해 마련됐다.카카오뱅크, 토스뱅크, 케이뱅크, 네이버파이낸셜, 핀다, 뱅크샐러드 대표가 참석했다.이 원장은 "혁신과 창의의 상징인 테크노밸리 현장에서 디지털 금융혁신을 주도해온 인터넷전문은행과 핀테크 기업들의 경험담과 고민을 청취하고 금융산업의 미래에 대한 아이디어를 함께 고민할 수 있게 돼 뜻깊게 생각한다"고 전했다.그러면서 "바젤은행감독위원회(BCBS)는 기술 주도 금융혁신이 은행산업의 모습에 근본적 변화를 가져올 것으로 전망한 바 있다"며 "디지털 은행의 출범, 플랫폼 기반의 금융서비스 제공, 핀테크 기업의 금융업 진출 등 전 세계적으로 점차 현실화되고 있다"고 설명했다.이어 "국내 인터넷전문은행·핀테크 기업도 금융서비스 접근성 및 소비자 선택권 확대 등 변화 촉진자로서의 역할과 비중이 늘어나고 있다"며 "기술 주도 금융혁신이 새로운 성장모델로 안정화되고 금융소비자 편익 증진으로 귀결되기 위해 책임있는 금융혁신이 전제돼야 한다"고 강조했다.이 원장은 "디지털 소외 계층에 대한 포용, 사이버·보안리스크 관리 등 양적 성장에 걸맞는 내부통제 및 인프라 구축에 힘써 줄 것을 당부드린다"며 "금감원도 인터넷전문은행·핀테크 기업이 우리나라 은행산업의 경쟁을 촉진하는 혁신 엑셀러레이터로 자리 잡을 수 있도록 다각적 노력을 지속하겠다"고 부연했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>"3건 중 1건"…은행권 금리 인하 수용률 '제자리걸음'</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004815749?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>지난해 하반기 국내 17개 은행(산업‧한국씨티은행) 중 가계대출 금리인하요구권 수용률이 가장 높은 곳은 농협은행으로 나타났다. 전체 은행의 평균 금리 인하 수용률은 상반기 대비 소폭 상승했다. 금리인하요구권은 대출 시점보다 상환 능력이 개선된 차주가 금융사에 금리 인하를 요구할 수 있는 권리다. ‘농협’ 5대 은행 수용률 1위28일 은행연합회가 공시한 ‘2022년 하반기 금리인하요구권 운영실적 현황’에 따르면 농협은행의 가계대출 금리인하 수용률은 70.2%로 집계돼 17개 은행 중 1위를 차지했다. 상반기(57.9%)보다 12.3%포인트 증가했다.5대 은행의 가계대출 금리 인하 요구 수용률 실적은 농협(70.2%) 우리(37.8%) 국민(36.9%) 신한(30.4%) 하나(26.6%) 순으로 높았다. 하나은행 관계자는 “자동심사 도입 등으로 가계대출금리 인하 요구 신청 건수가 지난해 약 5만3500건 수준으로 급증했다”며 “이 가운데 이미 최저 수준의 대출금리를 제공받고 있는 경우가 많아 수용률이 상대적으로 낮아보이는 착시가 발생한 것”이라고 했다.이들 은행의 평균 수용률은 40.4%로 전년 상반기(41.1%)보다 0.7%포인트 감소했다. 전체 은행 평균 수용률은 35.6%을 기록해 같은 기간(31.4%) 대비 4.2%포인트 올랐다.5대 은행 가운데 금리 인하 신청 건당 이자감면액은 하나은행이 19만4427원으로 가장 많았다. 인하된 금리로 1년간 대출을 이용할 시 이자가 약 19만원 감면된다는 뜻이다. 다음으로 신한(11만8112원) 농협(8만7477원) 국민(6만7892원) 우리(4만8952원) 순이었다. 가계대출 전체 이자감면액 규모는 신한은행이 38억3500만원으로 가장 컸다. 지방‧인터넷은행 中 ‘전북‧케이뱅크’ 선두지방은행 가운데서는 전북은행(47.8%)이 선두를 달렸다. 이어 부산(45.9%) 광주(39.6%) 대구(35.5%) 경남(19.3%) 제주(8.7%) 순이었다. 제주은행의 경우 신청 건수가 598건에 불과한 점이 낮은 수용률에 영향을 미쳤다.인터넷은행 중에선 케이뱅크가 35.7%로 수용률이 가장 높았다. 상반기(24.6%) 대비 11.1%포인트 증가했다. 하반기 수용 건수가 4만736건으로 상반기(2만7661건)보다 늘어 수용률이 높아졌다. 부채 감소 등 금리 인하 요구 수용 조건에 실질적으로 부합하는 고객 신청이 증가한 결과라고 은행 측은 보고 있다. 작년 하반기 케이뱅크의 전체 이자감면액은 62억6900만원으로 은행권에서 가장 많았다.케이뱅크 다음으로 카카오뱅크(23.4%)와 토스뱅크(19.5%)가 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>이복현 금감원장 "책임있는 혁신 위해 내부통제 강화 필요"</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003081079?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장이 27일 판교 카카오뱅크 본사에서 열린 은행산업 경쟁 촉진과 금융소비자 편익 제고 현장방문에 참석했다. (사진 왼쪽부터) 핀다 이혜민 대표, 토스뱅크 홍민택 대표, 윤호영 카카오뱅크 대표, 이복현 금융감독원장, 케이뱅크 서호성 대표, 네이버파이낸셜 박상진 대표, 뱅크샐러드 김태훈 대표, 금융감독원 김영주 부원장보가 기념사진을 촬영했다. (사진=금융감독원)이복현 금융감독원장이 인터넷전문은행과 핀테크 기업에 내부통제 강화를 주문했다.이복현 금감원장은 27일 판교에 위치한 카카오뱅크 본사를 방문해 인터넷전문은행 3사와 주요 핀테크 기업과 간담회를 갖고 이같은 의견을 전달했다.이복현 원장은 “인터넷전문은행과 핀테크 기업이 '책임있는 금융혁신'을 실현해 은행 산업의 건전한 경쟁과 금융소비자 편익 제고를 위한 혁신 촉진자(accelerator)로 자리매김해달라”고 당부했다.또 “디지털 소외 계층에 대한 포용, 사이버·보안리스크 관리 등 양적 성장에 걸맞는 내부통제와 인프라 구축에 힘써달라”고 강조했다.이날 행사에는 카카오뱅크, 케이뱅크, 토스뱅크, 네이버파이낸셜, 핀다, 뱅크샐러드 대표가 참석했다.행사 후 이 원장은 기자들과 만나 인터넷전문은행의 중저신용자 대출 비중 규제 완화에 대해 “인터넷은행 설립 취지와 정책 지향점 등 전체 틀에 대해 고민하고 있다”며 “합리적 근거를 바탕으로 개선방안이 나온다면 적극 검토할 의지가 있다”고 말했다.또 인터넷전문은행의 기업대출 취급 허용에 대해서는 “전체 틀이 정해진 후에 논의할 수 있을 것”이라고 부연했다.이복현 금융감독원장이 27일 판교 카카오뱅크 본사에서 열린 은행산업 경쟁 촉진과 금융소비자 편익 제고 현장방문에서 발언하고 있다. (사진=금융감독원)</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>금융위가 만든다는 '챌린저뱅크'는 무엇...해외 사례 살펴보니</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011705170?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 배훈식 기자 = 김소영 금융위원회 부위원장이 22일 오전 서울 종로구 정부서울청사에서 열린 제1차 은행권 경영·영업 관행·제도 개선 태스크포스 회의에 참석해 발언하고 있다. 2023.02.22. dahora83@newsis.com[서울=뉴시스] 정옥주 기자 = 금융당국이 은행 과점 체제 해소 방안으로 은행 인허가를 세분화하는 '스몰라이선스'와 영국식 '챌린저 뱅크'를 도입하겠다고 밝혀 관심이 쏠린다. 금융당국은 새로운 '메기'를 투입해 은행권 경쟁을 촉진하는 동시에, 임원이 업무 관련 손실을 냈을 경우 성과급 등을 환수하는 방안도 도입하겠다고 밝혔다.김소영 금융위원회 부위원장은 22일 서울 종로구 정부서울청사에서 제1차 '은행권 경영·영업 관행·제도 개선 태스크포스(TF) 회의를 열고 "은행권 경쟁 촉진을 위해 기존 은행권 내 경쟁  뿐만 아니라 은행권과 비은행권간 경쟁, 스몰라이선스·챌린저 뱅크 등 은행권 진입정책, 금융과 IT간 영업장벽을 허물어 실질적인 경쟁을 촉진하는 방안 등 다양한 경쟁촉진 방안을 고민하겠다"고 말했다.스몰라이선스란 소규모·특화 금융회사 신설이 용이해지도록 개별 금융업의 인·허가단위를 세분화하고 진입요건도 완화하는 것을 말한다. 금융업의 인허가 단위를 쪼개 핀테크 기업 등에 필요한 업무만 빠르고 쉽게 인허가를 내줄 수 있게 되는 것으로, 지난해 금융당국이 실생활 밀착형 소액 간단보험만을 전문적으로 취급하는 '소액단기보험회사'를 도입한 것이 대표적이다. 이를 은행권에도 확대 적용하는 것이다. 현재 미국과 스위스는 핀테크 기업 등에게 제한적 범위의 은행업 라이선스를 부여하고 있으며, 단 예금자보호를 적용하지 않거나 예금 업무는 허용하지 않고 있다.금융당국이 스몰라이선스를 통해 고민하고 있는 모델은 영국식 '챌린저 뱅크'다. 영국은 지난 2009년 글로벌 금융위기 이후 기존 금융기관 중심의 구조에 대한 문제의식이 대두되면서, 기존 대형 은행 중심의 과점 체재를 해소하기 위해 '챌린저 뱅크'를 도입했다. 지난해 2월 기준 영국 내 26개의 챌린저 뱅크가 있으며, 영국 성인의 4분의 1인 1400만명이 챌린저 뱅크 계좌를 보유하고 있을 정도로 빠르게 성장했다. 챌린저 뱅크는 디지털 기술을 활용하는 측면에서는 기존 은행의 인터넷 뱅킹, 인터넷 전문은행과 유사하지만, 기존 금융서비스의 보수적인 운영 방식에서 벗어나 효율적인 프로세스를 추구하고 개인영업, 기업영업, 주택담보대출 등 특정 서비스에 특화돼 있다는 점에서 차이가 있다. 지점과 인력에 드는 비용을 절감해 고객 중심의 단순한 상품과 저렴한 수수료를 제공하고 디지털 환경에 최적화된 시스템을 통해 간편 대출, 소상공인 대출 등 특정 분야의 틈새시장을 공략하는 것이 특징이다.영국의 '3대 챌린저 뱅크'는 레볼루트·몬조·스탈링 등을 꼽을 수 있는데, 이 중 하나인 레볼루트는 '유럽 최초의 위챗'이라고도 불릴 정도로 영국에서 최대의 기업 가치를 자랑한다. 환전과 송금 서비스로 사업을 시작했으나 은행, 보험, 주식, 가상자산, 여행 등으로 서비스 영역을 확장해 젊은 세대에게 커다란 인기를 얻고 있다.국내 토스뱅크의 롤모델이기도 한 레볼루트는 숙박 예약 서비스인 '스테이(Stays)'를 출시, 여행비 결제 서비스에 진출하고 미국과 인도 진출에 집중할 계획을 발표하는 등 글로벌 슈퍼앱으로 자리 잡고 있다는 평가를 받는다.최희재 하나금융경영연구소 연구원은 '챌린저 뱅크의 부상과 비즈니스 모델' 보고서를 통해 "챌린저 뱅크들이 기존 은행을 대체할 수 있을 지에 대한 답을 내리기는 이르지만 금융시장의 '메기'인 챌린저 뱅크들로 인해 금융시장에 새로운 패러다임이 열리고 있다는 점은 확실하다"며 "초기 챌린저 뱅크가 기존 은행을 위협했듯 새로운 참가자에 의해 기존 챌린저 뱅크들도 위협을 받을 것으로 예상, 은행업은 디지털 전환으로 무장한 전통적인 은행과 기존 챌린저 뱅크, 새롭게 진입하는 챌린저 뱅크 등의 3차전이 예상된다"고 말했다.주주들이 직접 경영진의 보수 감시…손실 내면 성과급 환수도이와 함께 금융당국은 안전한 이자수익에만 안주하는 지나치게 보수적인 영업행태 등 그간 은행권에 대해 제기된 다양한 문제점들을 개선하기 위해 세이온페이(Say-On-Pay), 클로백(Claw-back) 강화 등도 검토하기로 했다.김 부위원장은 "가계부채 질적 구조개선과 예대금리차 공시제도 개편 등 금리체계 개선 방안을 검토하겠다"며 "보수체계를 개선하기 위해 세이온페이 도입 여부, 클로백 강화 등을 살펴보고 배당·자사주 매입 등 주주 환원정책도 점검하겠다"고 말했다.경영진 보수에 대한 주주투표권인 '세이온페이'는 경영진의 보수에 대해 주주들이 의견을 표시할 수 있도록 하는 제도로 미국과 영국 등에서 시행되고 있다. 미국은 2008년 글로벌 금융위기를 계기로 만든 도드-프랭크법에 따라 상장사가 최소 3년에 한 번은 경영진의 급여에 대해 심의받도록 하고 있다. 애플 CEO인 팀 쿡이 주주 찬성률이 하락하자 올해 연봉을 40% 자진 삭감한 바 있다. 영국도 회사법을 통해 상장사들이 경영진 급여 지급 현황을 주주총회에 상정해 심의받도록 했다.금융당국은 주주들에 경영진 보수를 견제하는 것에 더해 성과급을 환수할 수 있도록 한 제도적 장치인 '클로백'도 강화한다. '클로백'은 임원이 기업에 손실을 입히거나 비윤리적인 행동을 할 경우 성과급을 환수·유보하게 하는 제도다.지금도 금융회사 지배구조 감독규정(제9조 3항)에 '이연지급 기간 중 담당 업무와 관련해 금융회사에 손실이 발생한 경우 이연지급 예정인 성과보수를 실현된 손실규모를 반영해 재산정된다'고 돼 있지만, 대부분의 금융사들이 이를 내부규범 등에 명시하지 않고 있는 실정이다.금융당국 관계자는 "클로백은 짐승들이 발톱으로 할퀴듯이 해서 다시 당겨오는 것을 뜻하는데 글로벌 금융위기 이후 선진국들에서 운영되고 있다"며 "경영진 등에 성과급을 장기 이연하고 스톡옵션(주식매수선택권) 보다 실질적인 성과에 대해 바로 보상하는 스톡그랜트(성과연동주식 무상지급권) 위주로 지급하고, 장기적으로 성과가 안 좋아지거나 부정행위 등이 발각되면 지급된 성과급을 다시 회수하는 방식"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>“못갚겠다 아내에게 자수할까”…이런 신용대출자 늘었다는데</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005092480?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>대기업 연체율은 되레 하락취약차주 중심 연체율 ‘경고등’인터넷銀·저축銀·대부업, 연체 관리 ‘고심’ [사진=연합뉴스]가계 신용대출을 중심으로 국내 금융권 연체율이 가파르게 상승하고 있다. 특히 은행의 가계 신용대출 연체율은 2016년 9월 이후 사상 최고를 기록했다. 다만 대기업 연체율은 연일 사상 최저치 행진을 기록하며 대조적인 모습이다. 금융권은 향후 가계 신용대출 리스크 관리를 강화하는 한편, 부동산 시장 동향도 예의주시중이다.22일 금융감독원은 지난해 말 국내은행 원화대출 연체율(1개월 이상 원리금 연체기준)이 0.25%로, 전년 동월말 0.21% 대비 0.04%포인트 올랐다고 밝혔다.전체 은행 대출 연체율이 오름세를 보인 것도 문제지만, 가장 큰 문제는 가계 신용대출 부문이다. 지난해말 가계신용대출 연체율은 전년 말 대비 0.17%포인트 급등한 0.46%를 기록했다. 분기말 기준으로 지난 2016년 9월말 0.46% 이후 6년여만에 가장 높은 숫자다.특히 주목할만한 점은 ‘신규 연체율’ 상승 속도다. 금감원 관계자는 “전월 대출잔액 대비 이달 신규연체 발생액을 뜻하는 신규연체율이 지난해 12월 0.07%로 전년 동기 0.04% 대비 점진적으로 상승하는 추세”라고 설명했다. 은행권은 연체 채권에 대해 매 분기말에 집중적으로 채무조정, 채권상각 등을 통해 정리에 나서 연체 채권을 줄여 연체율을 낮춘다. 하지만 연체 채권 정리 속도를 넘어서는 신규 연체 발생 추세가 뚜렷해지고 있어 향후 연체율 추가 상승을 예고하고 있다.한 은행 관계자는 “내부적으로 가계 취약차주 신용대출 위험관리를 독려하는 분위기”라며 “최근 은행권이 취약계층 금융지원에 적극 나서는 것 역시 취약 차주의 신용 위험을 낮추려는 노력의 일환”이라고 설명했다.대출 부문별로 보면 가계 신용대출(연체율 0.46%), 중소법인(0.36%), 개인사업자(0.26%), 가계 주택담보대출(0.15%), 대기업(0.05%) 순으로 연체율이 높다. 대기업 연체율은 전년 동기 대비 0.19%포인트나 급감하면서 가계 신용대출과 정반대 행보를 보여 대출 시장에서 양극화 현상이 엿보인다. 우량 대기업을 중심으로 은행대출을 늘렸기 때문인 것으로 풀이된다.취약 가계 대출자가 많은 인터넷은행, 저축은행, 대부업은 이같은 가계대출 ‘경보’ 직격탄을 맞고 있는 형국이다.인터넷은행의 경우 중저신용자 대출 비중이 시중은행보다 높아 연체율 상승폭이 더 크다. 카카오뱅크의 대출 연체율은 지난해 말 0.49%로 직전 분기에 비해 0.13%포인트 높아졌다. 케이뱅크와 토스뱅크 연체율도 지난해 3분기 기준 각각 0.67%, 0.34%로, 모두 직전 분기 대비 상승했다. 4분기 연체율은 아직 발표되지 않았지만 경기악화로 인해 상승폭이 3분기보다 더욱 클 것으로 예상된다.게다가 금융당국의 주문에 따라 인터넷은행들은 올해 말까지 중저신용자 취급 비중을 더 올려야 한다. 케이뱅크는 목표치를 32%로 발표하면서 지난해에 비해 신용대출 중 중저신용자 비중을 7%포인트 높여야 하는 상황이다. 인터넷은행 관계자는 “금리인상기여서 상대적으로 상환능력이 취약한 중저신용자 대출 연체율이 올라갈 수밖에 없다”며 “신용평가모형을 지속적으로 고도화하고 담보대출 비중을 차차 늘리며 여신건전성을 관리하고 있다”고 말했다.다중채무자와 중저신용자 차주가 많은 저축은행권에서도 연체율은 급격히 오르고 있다. 예금보험공사에 따르면, 지난해 3분기 기준 전국 79개 저축은행의 대출 연체율은 3%로 직전분기에 비해 0.5%포인트 상승했다. 같은 기간 연체액은 4000억원 늘어났다. 소액대출 연체 추이까지 나타내는 신용대출 잠재부실률은 지난해 10월 말 8.95%에 달했다. 저축은행 관계자는 “최대한 우량한 차주를 발굴함과 동시에 리스크가 적은 담보대출 위주로 여신 포트폴리오를 꾸려 부실에 대응하고 있다”고 설명했다.금융권은 추후 주택 가격 하락세가 이어질 지 여부도 주목하고 있다. 아직까지 은행 주담대 연체율은 현저히 낮지만, 주택 가격이 추가로 하락할 경우 ‘영끌족’을 중심으로 빚을 견디지 못한 대출자들이 나타날 위험이 잠재돼 있기 때문이다.이같은 분위기는 대부업 담보대출에서 미리 감지되고 있다. 오기형 더불어민주당 의원이 한국대부금융협회에서 제출받은 자료에 따르면 지난해 말 대형 대부업체 25개사가 취급한 담보대출 연체율은 10.2%로, 지난해 1월 4.8% 대비 두 배 이상 늘었다. 대부업계는 통상 은행 담보대출을 보유한 차주를 대상으로 후순위 대출을 내주기 때문에 담보물 가격 하락에 즉각적으로 영향을 받은 탓이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[개척자 비긴즈] ‘주님 위해 일하는 정규직 사역자’가 소망이던 부목사 1년차 시절…</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001588566?sid=103</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>‘온전한 일꾼’을 꿈꾸지만   현실은 ‘비정규직 사역자’교회는 부목사를 채용해 ‘사역’이란 이름의 업무에 투입한다. 대부분 2년 계약직이다. 길면 3년, 잘하면 그 이상도 가능하다. 하지만 그 본질은 안정보다 불안정에 가깝다. 세상 속 일터와 사역 현장을 비교하는 건 은혜와 감사보다는 자괴감과 실망으로 귀결되기 마련이다. 하지만 사역 현장에 있는 누구나 마찬가지일 것이다. 지금 이 순간, 소명이라 생각하며 임하는 일에 멈춤이 없이 ‘하나님을 위해 일하는 정규직 사역자’가 되고 싶다는 사실 말이다.부목사로 사역하던 1년 차 교역자 회의 때 일이다. 담임목사님께서 내 이름을 꺼내시며 말씀을 이어가셨다. ‘왜 슬픈 예감은 틀린 적이 없나.’ 혼났다. 단호한 어조였다.“Y목사는 전임 목사처럼 1년 뭉개지 말고 2년 차 되면 10월에 목양실 와서 어떻게 할지 얘기해!”‘목사 둥절’했다. ‘뭉개다니? 전임 목사님이 무엇을? 아니면 내가? 그것도 이렇게 공개적인 자리에서 앞뒤 설명도 없이?’ 이런 상황에서 1년 차 부목사가 할 수 있는 건 많지 않다. 그동안 사역해 온 돌다리를 두드려가며 스스로 수정과 보정을 거치며 묵묵히 할 일을 하는 것뿐이다.2년 차 10월이 되었다. 목양실에 찾아갈 날만을 기다렸다. 10월의 어느 날. 담임목사님께서 부목사들을 불렀다. 그러고는 먼저 물어보셨다.“Y목사는 앞으로 어떻게 할 건가.” 목사님께 내 대답을 토스했다. “목사님께서 결정해주시는 대로 따르겠습니다.” ‘예의’라는 이름의 포장지로 감싼 거짓말이었다. 실은 다른 교회에서 사역해보고 싶었다. 정말 그랬다. 그런데…(※전체 내용은 더미션 홈페이지(themission.co.kr)와 페이스북, 인스타그램을 통해 확인할 수 있습니다)</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[단독]신한은행·키움증권 등 10개 금융사, 대출 중개 플랫폼 구축한다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006638507?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·카카오페이·토스 등 13개 핀테크 기업까지 총 23개 참여尹 '과점 체제' 지적에 미온적이었던 금융권, 중개 플랫폼 도입에 속도ⓒ News1 DB(서울=뉴스1) 서상혁 기자 = 윤석열 대통령과 금융당국이 '돈 잔치'를 연일 질타하며 '과점체제 타파'까지 언급하면서 압박 수위를 높이자 금융권에서 금리 비교가 가능한 대출 중개 플랫폼 도입에 속도를 내고 있다. 19일 업계에 따르면 신한은행·카카오뱅크·신한카드·KB국민카드·현대카드·하나카드·현대캐피탈·BC카드·웰컴저축은행·키움증권 등 10개 금융회사가 금융당국에 '대환대출 인프라'와 연계할 대출 중개 플랫폼을 구축하겠다는 의사를 전달한 것으로 확인됐다. 네이버파이낸셜·카카오페이·토스·핀다 등 13개 핀테크 기업까지 포함해 총 23개 업체가 지난 16일 대환대출 인프라 구축을 위한 실무 회의를 진행했다.  5대 은행 중에 신한은행이 가장 먼저 나섰고(▶본지 2월16일자 [단독]신한은행, 대출 중개 플랫폼 출시한다…5대 은행 '최초') 4대 은행도 플랫폼 운영을 위한 내부 검토에 착수했다. 증권업계 중에서는 키움증권이 최초다. 그간 금융권은 빅테크 종속을 우려해 대환대출 인프라 도입에 소극적이었지만 윤 대통령이 '은행 과점'을 깰 강도높은 대책을 주문하자 전향적 자세를 보이고 있는 모습이다.  ◇2분기 출범 예정 '대환대출 인프라'…금융사 대거 참여대환대출 인프라는 은행과 저축은행 등 금융권의 대출 상품을 모바일 애플리케이션을 통해 비교해 보고 더 낮은 금리를 제공하는 대출로 갈아탈 수 있도록 하는 서비스를 말한다. 금리상승기 금융소비자의 편익을 확대하기 위해 금융당국 주도로 추진 중인 사업으로, 5월부터 신용대출에 한해 시범 서비스가 시작될 예정이다.대환대출 인프라는 비대면으로 기존 대출금 상환·신규 대출 실행이 이뤄지도록 하는 금융결제원의 '대출 이동 시스템'과 금융회사의 대출 상품을 한데 모아 비교할 수 있도록 도와주는 '대출 중개 플랫폼'이 합쳐진 형태다. 금융결제원 대출 이동 시스템에는 은행·카드·저축은행 등 53개 금융회사가 참여하기로 했는데, '대출 중개 플랫폼'을 운영 중인 핀테크 업체가 이들 금융회사와 개별적으로 제휴를 맺어 대환 서비스를 제공하도록 하는 게 금융당국의 구상이다.금융당국은 지난해 11월 대환대출 인프라 구축방안을 발표하며 핀테크 업체뿐 아니라 은행 등 금융업권도 자체적으로 플랫폼을 만들어 중개 서비스를 제공할 수 있도록 허용한 바 있다.금융회사의 '플랫폼 운영사 참여 여부'는 대환대출 인프라 흥행을 가늠할 바로미터다. 플랫폼 운영사가 다양해지면 금융회사가 플랫폼에 내야 할 수수료가 낮아질 수 있는 데다, 금융회사가 운영사로 참여한 만큼, 자신들의 금융상품을 플랫폼에 적극적으로 입점시킬 가능성이 높기 때문이다. 결과적으로 금융소비자의 편익이 늘어나는 셈이다.업계 관계자는 "금융결제원 대출 이동 시스템은 거의 모든 금융회사가 참여하지만, 플랫폼에 대출 상품을 입점시키는 건 자율적으로 결정할 사안"이라며 "아무래도 플랫폼이 많아지면 수요와 공급 원리에 따라 수수료가 낮아질 테니, 금융회사들이 적극적으로 제휴를 맺을 유인이 생길 것"이라고 말했다. 또 다른 관계자는 "주력 상품을 플랫폼에 올렸다간 빅테크 종속이 가속화될 수 있으니 새희망홀씨 등 일부 대출 상품만 입점시키겠다는 게 그간 금융권의 분위기"라며 "자체적으로 플랫폼을 만들겠다고 나선 건 자신들의 상품도 플랫폼에 적극적으로 입점시키겠다는 의지로 보면 된다"고 설명했다.금융권과 핀테크 업계는 플랫폼에 제공할 정보의 범위에 대해서도 얼추 합의를 마쳤다. 금융회사는 입점 제휴를 맺는 플랫폼에 중도상환수수료 정보와 상환 가능 여부를 판별할 정보를 제공하기로 했다. 금융권은 상환이 불가능한 대출의 범위도 정했다. 압류 중이거나 연체 중인 대출 등은 비대면 대환 대상에서 제외키로 한 것으로 전해졌다. 이를 통해 금융소비자는 대출을 갈아타면 이자 비용을 얼마나 아낄 수 있는지 한 번에 알아볼 수 있게 된다. A은행 신용대출을 보유한 대출차주가 플랫폼에서 B은행의 신용대출로 갈아타는 경우를 예로 들면, 플랫폼엔 "B은행 대출로 갈아타면 연간 40만원의 이자 비용을 아낄 수 있습니다", "현재 A은행 대출이 연체 중이라 대출 갈아타기가 제한됩니다"라는 안내가 나오게 된다. 이외에도 마이데이터를 통해 다양한 정보를 가져올 수 있는 만큼, 플랫폼마다 특색있는 비교·추천 서비스가 나올 것으로 보인다.플랫폼 구축 의사를 밝힌 23개 업체는 이르면 다음 달 금융회사와 연동 테스트를 거쳐 5월부터 시범 서비스를 시작할 예정이다. 업계 관계자는 "전산 테스트 일정 등을 감안하면 2분기 서비스 시작에 맞춰 플랫폼을 가동할 수 있는 업체는 이들 23개사"라며 "다만 금융회사와 개별적으로 제휴 계약을 맺어야 하는 만큼, 서비스 개시 시기는 각각 다를 수 있다"고 말했다.◇"경쟁 강화하라" 尹 불호령에 미적거리던 금융회사도 검토 착수주요 금융회사가 플랫폼 운영 의사를 밝힌 만큼, 나머지 업체들도 속속 합류할 전망이다. 4대 은행인 KB국민·하나·우리은행은 현재 내부적으로 검토에 착수했으며 우리카드를 비롯한 일부 카드사들도 검토 중이다. 마이데이터 라이선스를 취득한 금융회사·핀테크라면 플랫폼 운영을 허용한다는 게 금융당국의 기본 방침이다. 모 은행 관계자는 "대형 은행이 플랫폼을 운영하겠다고 밝혔으니 나머지 은행들도 속속 따라갈 수밖에 없게 됐다"며 "현재 긍정적으로 검토 중"이라고 전했다. 지금까지 금융권은 대환대출 인프라가 출시되면 빅테크를 위한 '금융상품 제조사'로 전락할 것이라며 부정적인 자세였다. 하지만 윤 대통령에 이어 이복현 금융감독원장까지 은행의 영업방식이 '약탈적'이라고 지적하자 압박감이 상당히 커졌다.대환대출 인프라가 구축되면 소비자는 언제 어디서든 자유롭게 대출을 갈아탈 수 있게 되는 만큼, 금융회사가 고객을 확보하기 위해선 끊임 없이 금리 경쟁에 나서야만 한다. 이 때문에 금융당국은 '대환대출 인프라'를 금융권 경쟁을 활성화할 대안 중 하나로 보고 있다. 다만 아직 풀어야 할 문제도 남았다. 금융권과 플랫폼 업계는 수수료 체계에 대해 뚜렷한 합의를 보지 못한 것으로 전해졌다. 플랫폼 운영사들이 대출 상품을 공정하게 상품을 진열하고 비교·추천할 수 있을지에 대해서도 금융권은 우려하고 있다. 금융당국 관계자는 "공정한 비교·추천이 이뤄지도록 플랫폼 상품 추천 알고리즘을 교차 검증하는 방안을 마련해뒀다"며 "금융회사가 만든 플랫폼일지라도 자신들의 대출 상품 위주로 진열되지는 않을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.02.17.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>13년 동안 실패한 제4 이통사, '한국판 라쿠텐' 실현될까…정부는 '기업 순회 만남' 준비</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000723986?sid=105</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>쿠팡·롯데·신세계 등 유통 기업들 후보로 언급기존 사업과 시너지·튼튼한 자본력 핵심日 제4 통신사 라쿠텐 모바일 사례 주목정부, 기업 순회 미팅 및 주파수 가격 인하 검토정부가 제4 이동통신사 시장 진입을 위한 정책 지원에 나서면서 유통, 스포츠, 금융사 등 다양한 후보군이 거론되고 있다. 사진은 10일 서울 시내 한 휴대전화 대리점. 뉴시스윤석열 대통령이 국민들의 생활비 부담 주범으로 '통신비'를 지목하면서 정부의 제4 이동통신사 유치에 관심이 쏠리고 있다. 윤 대통령은 15일 용산 대통령실에서 주재한 제13차 비상경제민생회의에서 "통신 시장 과점 해소와 경쟁 촉진을 위한 특단의 대책을 마련하라"고 주문했다. 사실상 제4 이통사를 시장에 진입시켜 SK텔레콤과 KT, LG유플러스의 시장 지배력을 깨뜨리라는 지시다. 과학기술정보통신부 등 관계 부처들은 제4 통신사 진입 가능성이 있는 기업들을 순회하며 '일대일 세일즈'에 나설 계획인 것으로 알려졌다. 특히 정부와 업계는 제4 이통사 사례로 일본의 라쿠텐 모바일을 주목하고 있다. 라쿠텐 모바일은 일본 인터넷 기업 라쿠텐이 세운 통신 자회사다. 네이버, 카카오, 롯데, 신세계 등 국내 대표 기업들이 제4 이통사 후보로 떠오르는 상황에서 '한국판 라쿠텐 모바일' 모델이 주목받는 이유는 무엇일까."일본 제4 이통사 라쿠텐 모바일 모델 주목"일본 제4 이동통신사 라쿠텐 모바일 홍보물. 정부와 통신업계는 국내 제4 통신사 진입 모델로 라쿠텐 모바일을 주목하고 있다. 라쿠텐 모바일 홈페이지 캡처16일 통신업계에 따르면 라쿠텐 모바일 모델의 핵심은 ①통신 서비스와 기존 사업과 시너지 ②튼튼한 자본력이다. 우선 라쿠텐 모바일의 설립 과정을 살펴보자. 이 회사는 일본의 인터넷 유통회사 중 한 곳인 라쿠텐이 2018년에 세웠다. 일본은 한국과 비슷하게 오랫동안 통신3사가 독과점적 시장 지배력을 유지했지만 라쿠텐이 뛰어들면서 4자 구도가 만들어졌다. 라쿠텐은 도쿄 등 대도시를 중심으로 사업을 했지만 현재는 일본 전역에서 서비스할 수 있는 수준까지 커졌다. 라쿠텐이 독과점적 통신시장에서 지금처럼 자리 잡은 배경은 기존 유통 사업에 통신서비스 결합이 쉬웠고, 투자 비용을 감당할 수 있는 자본력이 뒷받침됐기 때문이다. 송병호 동국대 경제학과 교수는 "한국 통신시장 같은 과점 시장에선 서비스 가격은 비싸지고 질은 떨어진다"며 "기업 간 경쟁을 활발하게 만들어야 한다"고 강조했다. 김주호 참여연대 경제금융센터 팀장은 "통신시장을 흔들 방책으로 메기를 풀 필요가 있다"고 힘을 보탰다. 정부 사정에 밝은 한 통신업계 전문가는 "제4 이통사는 기존에 영위하던 사업과 얼마나 잘 융합할 수 있을지와 자금력이 관건"이라며 "정부도 라쿠텐 모바일 모델을 제4 이통사의 좋은 사례로 보고 있다"고 전했다. "대기업 유통·금융사 주목"신세계는 야구단 SSG 랜더스 홈구장에 5G 28㎓ 주파수를 적용할 수 있을 것으로 분석된다. 지난해 5월 5일 어린이날 인천 SSG 랜더스필드에서 열린 프로야구 경기. 연합뉴스 제공쿠팡, 신세계, 롯데와 같은 유통기업과 금융사들이 제4 이통사로 주목받는 이유 역시 라쿠텐 모바일처럼 기존 사업과 시너지 효과를 낼 수 있어서다. ①쿠팡은 물건을 쌓아 놓는 '물류창고(풀필먼트)' 데이터 관리와 전산처리에 5G 28기가헤르츠(㎓) 주파수를 적용할 수 있다. 또 쿠팡플레이 같은 온라인동영상서비스(OTT) 사업도 하는 만큼 고화질 영상 전송에 해당 주파수를 쓸 수 있다.②신세계는 백화점, 온라인 쇼핑몰과 함께 야구단 SSG 랜더스가 통신시장에 들어갈 수 있을 만한 이유로 꼽힌다. 이 구단은 신세계그룹 계열사 이마트가 보유하고 있는데 홈구장 '인천 SSG 랜더스필드'는 2만7,500명을 수용할 수 있다. 수만 명 관중이 모인 곳에서 28㎓ 주파수를 적용하면 경기 보면서 무리 없이 통신 서비스를 이용할 수 있다. 한 업계 관계자는 "28㎓ 초기 사업 모델은 야구장이나 공연장, 도서관같이 특정 장소 안에서 쓰는 것"이라고 설명했다.③롯데는 최근 롯데정보통신을 중심으로 '아이돌 메타버스 콘서트' 등 메타버스 사업을 강화하고 있어 통신시장 진입 가능성이 점쳐지고 있다. 주요 금융사들은 방대한 고객데이터 관리에 28㎓ 주파수 활용도가 높다. 특히 최근 KB국민은행과 토스가 각각 리브엠과 토스 모바일이라는 브랜드로 알뜰폰 시장에 들어간 만큼 관련 사업과 연계성도 크다. 다만 아직까지 제4 이통사 후보로 이름이 나오는 기업들은 모두 사업 진출 가능성을 부인하고 있다.제4 이통사의 자본력도 중요하다. 정부가 초기 시장 진입 비용을 낮추기 위해 정책금융 기관을 통해 초기 투자 비용 4,000억 원을 돕는 등 당근책을 마련했지만, 서비스 고도화를 위해선 장기적으로도 큰돈이 필요하다. 라쿠텐 모바일도 라쿠텐이라는 뒷배경을 발판 삼아 독과점 시장을 뚫고 들어갔다.13년 동안 실패한 제4 이통사…정부 '기업 순회'홍진배 과학기술정보통신부 네트워크정책실장이 1월 31일 오후 서울 종로구 세종대로 정부서울청사에서 5G 28㎓ 주파수 신규사업자 진입 지원 방안 관련 브리핑을 하고 있다. 뉴스1 제공정부는 제4 이통사 유치 총력전을 준비하고 있다. 제4 이통사 논의는 2010년으로 거슬러 올라간다. 2010년 11월 한국모바일인터넷(KMI)이 도전했지만 방송통신위원회로부터 부적격 판정을 받았다. KMI는 2011년 2월에도 신청서를 냈지만 역시 허가를 얻지 못했다. 같은 해 12월에는 인터넷스페이스타임(IST)도 KMI와 유치전에 뛰어들었지만 모두 불승인 결정을 받았다.2014년 2월 KMI와 IST의 주파수 할당 포기 이후 차갑게 식었던 제4 이통사 논의는 퀀텀모바일과 세종모바일, K모바일 등이 경쟁에 뛰어들며 다시 불붙었다. 하지만 이 역시 2016년 1월 미래창조과학부가 부적격 판정을 내리면서 없던 일이 됐다. 정부는 13년 동안 이어져 온 제4 이통사 논의를 이번만큼은 성공시키겠단 의지를 보이고 있다. 최우선적으로 준비되는 방안은 대기업들을 대상으로 한 '일대일 미팅'과 '그룹별 미팅'이다. 과기정통부를 중심으로 제4 이통사 진입 가능성이 있는 기업들을 직접 찾아가 관련 정책 순회 설명회를 준비 중이다. 앞서 과기정통부는 특정 사업장이나 소규모 지역에서 자체적으로 5G 통신망을 구축해 사용하는 '이음5G 서비스'를 내놓을 때도 20여 개 기업을 직접 찾아다니며 사업을 설명했다. 현재는 네이버클라우드와 LG CNS, SK네트웍스서비스, CJ올리브네트웍스 등이 이음5G 사업을 운용 중이다.정부는 이 외에도 제4 이통사에 할당할 주파수 가격을 파격적으로 낮추는 방안을 검토하고 있다. 28㎓ 주파수 대역 3년 독점 이용권과 통신설비 지원책도 마련해뒀다. 정부는 제4 이통사 진출을 바라는 기업이 등장하기까진 1년～1년 반 정도 걸릴 것으로 보고 있다. 다만 제4 이통사 유치 정책이 실제 효과가 있을지 의문은 계속되고 있다. 안형택 동국대 교수는 "통신시장은 초기 투자 비용과 서비스의 특수성 때문에 정부가 인위적으로 사업자를 유치할 수 있는 곳이 아니다"라며 "몇 차례 제4 이통사 유치를 위한 당근책이 나왔음에도 제대로 성과를 내지 못한 이유"라고 강조했다. 그는 이어 "제4 이통사 유치보다는 정부가 통신사 요금제 설계에 대한 관리 감독을 강화하는 것이 낫다"고 덧붙였다. 또 일부에선 제4 이통사 후보군이 모두 대기업인 만큼 자칫 통신시장 지형 변화가 대기업의 시장 지배력만 키울 수 있다는 우려도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>유비벨록스, 토스뱅크 모임통장 모임카드 공급 계약 체결</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000729901?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>모임에 특화된 혜택 제공유비벨록스는 토스뱅크와 모임통장의 모임카드 공급 계약을 체결했다고 21일 밝혔다. 유비벨록스는 토스뱅크와 모임통장의 모임카드 공급 계약을 체결했다고 21일 밝혔다. 사진은 유비벨록스 CI. [사진=유비벨록스]앞서 토스뱅크는 지난 1일 가족, 친구, 동아리 등 각종 모임의 비용을 함께 관리할 수 있는 토스뱅크 모임통장과 모임에 특화된 혜택을 제공하는 모임카드를 출시했다.유비벨록스 관계자는 "토스뱅크 고객 수가 지난해 6월 대비 160% 증가한 570만명을 기록하는 등 가입자가 지속적으로 증가하고 있으며, 토스뱅크의 공급사인 유비벨록스 또한 가입자의 증가에 맞춰 공급물량이 증가하고 있다"며 "이번 모임 통장은 계좌 하나에 여러 장의 체크카드를 발급할 수 있어 신규 서비스 이용객이 증가하면 당사의 카드 공급량 역시 확대될 것으로 기대한다"고 밝혔다.토스뱅크의 모임카드는 음식점, 주점, 노래방, 대형마트, 골프장 등 체육시설 이용 시 캐시백 혜택도 제공하는 실용성이 높은 체크카드다. 모임통장에 참여한 누구나 구성원의 동의를 받아 발급 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>이복현 "인터넷銀·핀테크, 은행 경쟁 촉매제 돼달라"(종합)</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011713521?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약금감원장, 주요 인터넷·핀테크 기업과 현장 간담회"소비자 편익 증진 위해 책임있는 혁신 필요""타 업권이 은행업에 진입할 시 적절한 규제받아야""인터넷 규제완화, 설립 취지 벗어나지 않는 한에서 검토""제4 인터넷은행 등 신규 진입만이 유일한 해법 아냐"[서울=뉴시스] 이복현 금융감독원장이 27일 판교 판교 테크노밸리에 위치한 카카오뱅크에서 열린 '은행산업 경쟁촉진과 금융소비자 편익 제고를 위한 현장 간담회'에서 모두발언을 하고 있다. (사진=금융감독원) photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 최홍 이주혜 기자 = 이복현 금융감독원장이 인터넷은행과 주요 핀테크 기업들을 만나 혁신금융 사례를 청취하고 책임있는 금융혁신을 강조하면서 은행 산업 경쟁에 대한 촉매제가 돼달라고 당부했다."소비자 편익 증진 위해 책임있는 혁신 필요"이 원장은 27일 판교 테크노밸리에 위치한 카카오뱅크에서 열린 '은행산업 경쟁촉진과 금융소비자 편익 제고를 위한 현장 간담회'를 열고 이같이 밝혔다.이날 간담회는 인터넷전문은행 및 핀테크 기업의 금융상품 및 서비스 혁신사례와 실제 사업추진 과정상 애로사항 등을 직접 청취하기 위해 마련됐다. 홍민택 토스뱅크 대표, 윤호영 카카오뱅크 대표, 서호성 케이뱅크 은행장, 이혜민 핀다 대표, 박상진 네이버파이낸셜 대표, 김태훈 뱅크샐러드 대표 등이 참석했다.이 원장은 모두 발언에서 "바젤은행감독위원회(BCBS)는 기술 주도 금융혁신이 은행업의 모습에 근본적 변화를 가져올 것으로 전망한 바 있다"며 "디지털 은행의 출범, 플랫폼 기반의 금융서비스 제공, 핀테크 기업의 금융업 진출 등 전 세계적으로 점차 현실화하고 있다"고 설명했다.그러면서 "국내 인터넷전문은행·핀테크 기업도 금융서비스 접근성 및 소비자 선택권 확대 등 변화 촉진자로서의 역할과 비중이 늘어나고 있다"며 "기술 주도 금융혁신이 새로운 성장모델로 안정화되고 금융소비자 편익 증진으로 귀결되기 위해 책임있는 금융혁신이 전제돼야 한다"고 강조했다.또 "디지털 소외 계층에 대한 포용, 사이버· 관리 등 양적 성장에 걸맞은 내부통제 및 인프라 구축에 힘써 줄 것을 당부드린다"며 "금감원도 인터넷전문은행·핀테크 기업이 우리나라 은행업의 경쟁을 촉진하는 혁신 액셀러레이터로 자리 잡을 수 있도록 다각적 노력을 지속하겠다"고 부연했다．한편 이날 간담회에서는 인터넷은행과 핀테크 기업들의 혁신금융 사례가 소개됐다. 인공지능(AI)과 빅데이터를 활용한 고객들의 금융서비스 부담을 낮춘 사례들이 중점적으로 논의됐다.이 원장은 "금융 혁신 노력과 성과를 현장에서 직접 확인하면서 은행업의 경쟁 촉진, 금융소비자의 편익 증진이라는 국내 인터넷 전문은행 도입 취지 및 샌드박스 취지에 대해 다시 한번 생각해보는 좋은 자리였다"며 "앞으로도 더욱 창의적인 혁신을 주도하고 은행 산업 내에서 건전한 경쟁 촉진 및 성장을 위한 촉매제가 돼 주셨으면 한다"고 당부했다. "타 업권, 은행 진입시 규제받아야"이 원장은 이날 간담회를 마치고 기자들과 만나 금융 현안에 대한 질의응답 시간을 가졌다.그는 타 업권이 은행업으로 들어와 경쟁을 촉진하는 방안에 대해 "타업권이 은행업의 영역에 들어와서 그 역할을 한다면 적어도 은행 쪽에서 받는 적절한 건전성 규제의 틀 안에서 동참해야 한다"며 "반대로 은행 업권이 타업권으로 진입할시 마찬가지로 타업권에서 가진 소비자 보호의 어떤 정신이 구현될 수 있는 어떤 적절한 틀 안에서 논의가 돼야한다"고 말했다.이 원장은 인터넷 뱅크의 중금리 대출 비중 등과 관련해서는 "최초 인가 시 인터넷 뱅크 신파일러에 대한 신용 공급이라는 취지로 봤을 때 저희가 지켜봐야 할 정책적 지향점은 명백하다"며 "논의 과정에서 합리적인 어떤 근거를 바탕으로 개선책에 대한 의견이 나온다면 적극적으로 검토할 여지가 있다"고 설명했다.그러면서 "인터넷 은행의 최초 설립 취지에 비춰 계속 지속됐던 환경 등을 무시할 수 없다"며 "기업여신이라든가 기업 영업 확대 등에 대해서는 전체 그림에 대한 틀이 먼저 정해진 다음 논의할 수 있다"고 재차 강조했다.신규 인터넷은행 진입을 위한 자본금 요건 완화에 대해서는 "새로운 플레이어들의 신규 진입만이 유일한 해법은 아니다"라며 "은행업은 국민 경제를 떠받치는 금융산업의 근간이 되는 어떤 핵심적인 산업"이라며 "우리는 외환위기라든가 금융위기 이후를 겪으면서 은행의 건전성이 상당히 중심이 되는 가치를 갖고 있다"고 말했다.이어 "은행의 건전성이 근본적으로 훼손될 수 있는 방안에 대해서는 저희는 신중한 입장"이라고 덧붙였다.또 일각에서 제기되는 핀테크 수수료율이 높다는 지적에 대해선 "정보 비대칭을 해소할 방안을 고민하고 있다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>알뜰폰으로 5G 만끽…모바일 판 바꿀 제4이통사 온다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005090561?sid=105</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>알뜰하게 누리는 신세계과기부 7전8기 성공할까【게티이미지뱅크】# 월 8만원 이상인 고가의 5G 요금제를 쓰던 A씨는 최근 '알뜰폰+5G 28㎓'가 지원되는 월 4만~5만원대의 새로운 요금제로 갈아탔다. 평소엔 알뜰폰 요금제를 통해 유튜브, 온라인동영상서비스(OTT) 등을 불편 없이 즐길 수 있고, 주말이나 공휴일에 가는 전시관·공연장에선 '20배 빠른 5G'가 구현된 최신 기능을 체험할 수 있기 때문이다. 이를테면 농구 경기장에 가서 A씨는 휴대폰을 클로즈업해 해당 선수가 프로 데뷔 몇 년 차인지를 바로 증강현실(AR) 화면으로 볼 수 있다. 심지어 선수 티셔츠에 내장된 센서 덕분에 선수 시점에서 경기를 관람할 수도 있다. 이것은 과학기술정보통신부가 그리는 미래의 모습이다."모든 가용 자원을 동원해 신규 사업자의 통신시장 진출을 독려하겠다."SK텔레콤, KT, LG유플러스 등 통신3사가 장악한 통신시장에 역대급 지각변동이 예고되고 있다. 최근 윤석열 대통령까지 직접 나서서 기존 통신3사가 장악한 통신시장 과점 체제를 지적하면서 제4이통사를 시장에 진출시키려는 정부의 움직임이 발 빠르게 전개되고 있기 때문이다.정부는 그간 통신회사들이 보다 강력한 경쟁 환경에서 다양한 통신요금제 등을 내놓게 해 소비자 편익을 높이고자 경쟁이 정체된 통신시장에 메기(제4이통사)를 풀어놓고자 노력했다. 그 시도가 2010년 이후 무려 일곱 차례에 달한다. 그러나 번번이 신청 기업의 재정 능력 및 승인 기준점수 미달 등의 이유로 좌절됐다.하지만 이번만큼은 과거와 다른 결과가 나올 것이라는 게 주무부처인 과기정통부의 자신감이다. 새로운 메기 기업을 통해 소비자 편익 증진과 5G 시장 성숙은 물론, 향후 메타버스·자율주행·도심항공교통(UAM) 부문에서도 다양한 경쟁 효과를 일으키겠다는 야심이다. 그 어느 때보다도 강한 의지를 다지고 있는 정부의 제4이통사 진출 계획은 과연 성공할 수 있을까.정부는 SK텔레콤과 KT, LG유플러스의 뒤를 잇는 제4이통사 후보군으로 현재 2~3개 사업자와 밀도 있는 대화를 나누고 있다. 해당 후보 기업들이 통신시장에 진출하는 루트는 바로 '5G 28㎓ 대역' 신규 사업자 선정을 통해서다.본래 5G 28㎓ 대역은 SK텔레콤과 KT, LG유플러스가 2018년 각각 약 2000억원을 지불하고 가져간 대역이다.5G는 3.5㎓와 28㎓ 대역으로 나뉘는데, 고주파에 해당되는 28㎓ 대역은 3.5㎓ 대역보다 '대용량의 데이터를 훨씬 더 빠르게 저지연으로 보낼 수 있다'는 장점이 있지만 기지국을 촘촘히 설치해야 해서 비용이 훨씬 많이 든다.문제는 28㎓ 대역에 대한 수요가 거의 없다는 점이다. AR·가상현실(VR) 등 메타버스와 자율주행을 구현하기 위해선 '진짜 5G'에 해당되는 28㎓ 전국망이 필요하지만 아직 해당 산업이 저변화되지 못했다.이에 통신사들이 수요 빈약을 이유로 설비 투자를 머뭇거리자 급기야 정부는 작년 말 KT와 LG유플러스에 할당했던 28㎓ 주파수를 취소하고 향후 3년간 해당 대역 주파수를 받을 수 없게 했다. 바로 이 주파수를 새로 받을 기업들을 물색하면서 신규 참여 기업에 파격적인 우대 혜택을 부여해 제4이통사로 육성하겠다는 큰 그림을 그리고 있는 것이다.지금까지 정부가 발표한 인센티브의 핵심 방향은 수조 원에 달하는 통신업 진입장벽을 최대한 낮춰주겠다는 것이다.신규 투자에 대한 세제 지원을 최대 28%(조세특례제한법 개정 전제)까지 해주고, 정책자금도 저리(시중금리 대비 2% 저렴)로 빌려줄 예정이다.아울러 28㎓ 전국망을 받더라도 핫스폿에 한해서만 기지국을 구축하면 되고, 전국망이 필요없을 경우엔 대광역권(수도권, 동남권, 호남권 등) 단위로도 주파수를 할당받을 수 있다.정창림 과기정통부 통신정책관은 "신규 28㎓ 핫스폿을 300개 구축한다고 가정했을 때 약 3000억원의 투자금이 필요하다"고 밝혔다. AR·VR 등 메타버스 서비스를 구현하기 위해선 초고속 저지연의 28㎓ 대역이 필요한데, 전국의 콘서트장, 경기장, 전시관 등에 300개를 다 깔아도 비용은 3000억원이라는 것이다.기존 통신3사가 5G 3.5㎓ 및 28㎓ 대역 주파수를 할당받는 대가로 각각 1조원 이상을 썼고, 기지국 설치만 해도 최소 2조~3조원을 쓴 것과는 대비되는 대목이다. 통신3사와 비교해봤을 때 신규 사업자의 인프라스트럭처 구축 비용을 대략 10분의 1 수준으로 낮춘 것이다.시장에서는 자금력 있는 알뜰폰 사업자를 중심으로 제4이통사 진출 가능성을 주목하고 있다. 대표적으로 KB금융과 토스, 네이버, 카카오, 쿠팡 등이 잠재적인 후보군으로 꼽힌다. 롯데·신세계 등 초대형 유통기업의 이름도 조심스럽게 흘러나온다. 알뜰폰 사업자를 기준으로 정부의 각종 파격적인 인센티브를 대입하면 제4이통사로 육성시키는 정부 계획이 단순한 장밋빛 환상은 아니다. 예컨대 알뜰폰 사업자 B사가 월 3만원짜리 알뜰폰 요금제(LTE 무제한) 회원 100만명을 확보하면 연간 약 3600억원의 매출액과 180억원의 영업이익(업계 평균 영업이익률인 5% 기준)을 기대할 수 있다.투자금액 3000억원 중 80%인 2400억원을 2.5%의 저금리로 정부에서 보증받아 빌리게 되면 연간 이자비용은 60억원에 불과하다.또 매년 투자금액의 최대 22%까지 세액공제를 받으면 그만큼 재투자할 여력도 생긴다. 여기에 더해 향후 5G 28㎓ 콘텐츠에 대한 인식이 확대되고 해당 수요가 늘어나면 관련 과실은 모두 신규 진입자가 가져갈 수 있다.이미 통신3사 자회사를 제외한 알뜰폰 중 월 20만명 이상의 휴대폰 가입자를 보유한 사업자도 있어서 이번에 컨소시엄 형태로 5G 28㎓ 신규 사업자로 진출하면 나름대로 규모의 경제를 달성할 수도 있다.다만 정부의 막대한 유인책에도 불구하고 이 혜택이 종료되는 시점에 신규 사업자는 막대한 운영비 부담에 직면하게 된다. 언제까지 기존 이통3사로부터 망을 임차만 할 순 없기 때문이다. 제4이통사 역시 자체적인 통신망을 구축해야 하는 부담이 존재하는 만큼 향후 연간 수조 원대 운영비(마케팅비+유지보수비 등)가 필요하다. 업계에서는 탄탄한 자본력과 마케팅 능력을 갖춘 대기업이 향후 3년간 정부의 집중 지원 속에서 신속히 알뜰폰 가입자를 늘리는 식으로 규모의 경제를 달성해야 제4이통사로 성장 가능하다고 예측하고 있다.이에 따라 시장의 관심은 정부가 알뜰폰 시장에서 기존 통신3사 대비 신규 사업자가 얼마나 경쟁력을 가질 수 있게 하느냐에 쏠린다. 당장은 신규 사업자의 주된 사업이 알뜰폰, 부수 사업이 5G 28㎓ 대역일 것이기 때문이다.통신3사로부터 도매대가를 받고 망을 임차하는 알뜰폰 구조상 정부가 얼마나 파격적으로 도매대가를 인하해서 가격 경쟁력을 높이느냐가 관건이다. 이에 대해 알뜰폰업계에서는 "도매대가 비율이 최소 50% 이하는 돼야 경쟁력이 있다"고 목소리를 높이고 있다. 현재 가장 인기 있는 알뜰폰 대역은 LTE(4G) 월 데이터11GB 구간인데, 도매대가 비율이 50%다. 이 비율을 기준으로 보면 통신사의 요금제가 6만6000원일 경우 알뜰폰 사업자는 그 절반인 3만3000원의 요금제로 가입자를 유치하게 된다.만일 도매대가 비율이 60%를 넘어가게 되면, 통신사의 약정할인·프로모션 제공 등과 비교해봤을 때 알뜰폰의 가격 경쟁력이 현저하게 떨어질 수밖에 없는 구조다.현재 도매대가 비율이 60%대 근처인 5G 요금제를 기준으로 알뜰폰 가입자가 전국적으로 15만7459명(5G 전체 가입자 약 2800만명 대비 0.6%)에 불과한 것도 바로 이 때문이다.이에 대해 과기정통부 관계자는 "5G에서도 알뜰폰 사업자 경쟁력을 높여야 한다는 의견에 공감하고 있고, 관련 안을 검토하고 있다"며 "종합적으로 대응해 신규 진입자의 알뜰폰 경쟁력을 높이겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>은행 연체율 1년새 2배로 늘었다…고금리·경기침체에 비명</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003262155?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>은행에서 빌린 돈을 제때 못 갚는 가계와 기업이 늘어나고 있다. 금리 인상 여파가 본격적으로 나타나기 시작한 것으로 풀이된다. 경기 부진까지 겹치며 서민들의 대출 상환 여력은 향후 더 나빠질 것으로 전망된다. 이에 금융당국은 은행의 손실 흡수 능력을 점검하기로 했다.     지난해 11월 서울 중구 하나은행 본점 위변조대응센터에서 관계자가 5만 원 권 지폐들을 정리하는 모습. 연합뉴스           26일 금융권에 따르면 KB국민‧하나‧우리‧NH농협은행 등 4개 시중은행의 지난 1월 신규 연체율은 평균 0.09%로 집계됐다. 1년 전(0.04%)과 비교하면 2배 이상으로 높다. 신규 연체율은 당월 신규 연체 발생액을 전월 말 기준 대출잔액으로 나눈 지표다. 새로운 대출 부실이 얼마나 발생했는지를 보여준다. 이들 은행의 평균 신규 연체율은 지난해 1월 0.04%를 기록한 이후 6월까지 같은 수치를 나타냈다.그러다 지난해 9월 0.05%로 오른 데 이어 지난해 12월 0.07%로 상승했고, 올해 1월에는 0.1%에 육박하게 됐다. 가계와 기업 연체율 모두 유사한 상승 흐름을 보였다.     그래픽=박경민 기자 minn@joongang.co.kr           중·저신용자가 많이 이용하는 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷 은행 3사의 연체 대출도 늘고 있다. 금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 인터넷은행 3사의 1개월 이상 연체 대출 잔액은 2915억9100만원으로 집계됐다. 지난해 1분기 말(1062억원) 대비 3배 가까이로 증가했다. 인터넷은행 3사의 연체 대출 잔액은 지난해 2분기 말 1392억원, 3분기 말 1860억원, 4분기 말 2916억원으로 늘어나는 추세다.은행권의 연체율 상승은 누적된 기준금리 인상의 영향이 본격적으로 나타나고 있기 때문으로 풀이된다. 한국은행은 2021년 8월부터 올 1월까지 쉼 없이 기준금리를 올렸다가 지난 23일 기준금리를 연 3.5%로 동결했다.      이런 흐름은 당분간 이어질 가능성이 크다. 지속적인 고금리 기조에 경기 둔화가 더해진 탓이다. 기획재정부는 지난 17일 발표한 ‘최근 경제동향(그린북) 2월호’를 통해 “경기 흐름이 둔화했다”고 밝혔다. 정부가 ‘경기 둔화’ 국면에 들어섰다는 점을 공식적으로 인정한 것이다.      이에 금융당국도 상황을 예의 주시하고 있다. 금융당국 고위 관계자는 “금리 상승에 따른 서민들의 이자 부담은 이제부터 본격적으로 나타날 수 있다”며 “경기 부진에 고물가까지 겹치며 소득이 사실상 줄어든 가계나 영세 사업자의 대출 원리금 상환 여력이 크게 떨어질 것”이라고 말했다.     그래픽=차준홍 기자 cha.junhong@joongang.co.kr           금감원은 지난 10일부터 카카오뱅크를 시작으로 시중은행과 지방은행 등 10개 은행에 대한 결산 현장심사에 돌입했다. 이복현 금감원장은 “결산 검사 등을 통해 은행의 대손충당금, 자본 여력 등의 적정성을 면밀히 점검하고 손실흡수 능력을 확충토록 유도해 향후 위기 상황에서도 은행 본연의 자금공급기능을 충실히 수행할 수 있도록 해야 한다”고 말했다.       김정식 연세대 경제학부 명예교수는 “고금리, 경기 부진과 부동산 시장 침체 등이 겹쳐 기업과 가계대출이 부실화할 수 있다”며 “대출 부실에 따른 연체율 증가가 금융권 전반의 위기로 번지지 않도록 선제적으로 점검해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>5대 은행 1월 예대금리차 더 커졌다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003785428?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>평균 1.18%P… 전월보다 0.45%P ↑예금 금리, 대출보다 크게 하락 탓KB 1.51%P ‘최고’… NH·우리順 “주담대 금리 인하 효과 2월 반영”지난달 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 예대금리차(대출 금리와 예금 금리의 차이)가 확대된 것으로 나타났다. 예금 금리가 대출 금리보다 가파르게 떨어진 탓이다.  20일 은행연합회에 공시된 ‘은행별 예대금리차 비교’에 따르면 1월 말 기준 5대 시중은행의 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 가계 예대금리차는 평균 1.18%포인트로 전월 평균(0.73%포인트)보다 커졌다.     사진=연합뉴스    예대금리차가 확대됐다는 것은 대출 금리와 예금 금리의 격차가 커지며 은행권의 마진이 많아졌다는 뜻이다. 은행권에서는 서민 대상 정책금융상품의 금리가 높아, 이를 많이 취급할수록 예대금리차가 커진다는 지적에 이후 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.  5대 시중은행 중에서는 KB국민은행이 1.51%포인트로 예대금리차가 가장 컸다. 이어 NH농협(1.44%포인트), 우리(1.07%포인트), 하나(1.03%포인트), 신한(0.84%포인트) 순이었다. KB국민은행은 전월 예대금리차가 5대 시중은행 중 가장 적었으나 지난달 가장 큰 폭으로 차이가 벌어졌다.  급격히 떨어진 예금 금리에 비해 대출 금리는 제자리걸음을 하면서 예대금리차를 키웠다. 5대 시중은행의 평균 저축성 수신금리는 0.51%포인트 떨어졌으나, 가계대출금리(정책서민금융 제외)는 0.06%포인트 하락에 그쳤다. 일부 은행은 가계대출금리가 전월보다 오히려 상승했다.  KB국민은행 관계자는 “1월 들어 법인고객의 단기성 예금 비중이 늘면서 평균 예금 금리는 낮아진 반면, 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 확대됐다”고 설명했다.  은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%포인트)이었다. 인터넷은행 중에서는 토스뱅크가 4.72%포인트로 가장 컸다. 이어 케이뱅크(2.15%포인트), 카카오뱅크(1.25%포인트) 순이었다. 인터넷은행의 예대금리차는 대출 금리 하락과 수신 금리 인상 영향으로 소폭 하락했다.  금융 당국과 정부가 ‘금융권이 고금리로 돈 잔치를 벌이고 있다’고 강도 높게 비판하는 상황에서 예대금리차가 더 커짐에 따라 금융권에 대한 압박 강도는 더 거세질 전망이다.  은행권은 2월부터 예대금리차가 축소될 것으로 내다보고 있다. 은행권의 한 관계자는 “주택담보대출을 중심으로 지난달 대출 금리를 인하한 효과가 2월에 반영되고, 대출 변동금리의 기준이 되는 자금조달비용지수(코픽스·COFIX)도 2개월 연속 하락했다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>시중은행 ‘돈 잔치’ 비판 금감원장… 카뱅 찾아 “인터넷은행 역할 중요”</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001589936?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>과점 체제 깨겠다는 취지인 듯사진=금감원 제공금융당국이 최근 시중은행을 향해 ‘성과급 잔치’ ‘이자 장사’ 등 비판 수위를 높인 데 이어 이복현(사진) 금융감독원장이 취임 이후 처음 카카오뱅크 본사를 찾았다. 인터넷은행을 적극 지원하면서 시중은행의 과점 체제를 깨겠다는 취지로 보인다.이 원장은 27일 경기도 성남시 테크노밸리의 카카오뱅크를 방문해 인터넷 전문은행과 핀테크 기업에 대한 적극적인 지원 의사를 밝혔다. 이 원장은 “인터넷 전문은행과 핀테크 기업이 은행 산업의 경쟁을 촉진하는 ‘혁신 액셀러레이터’로 자리잡을 수 있도록 다각적 노력을 지속하겠다”고 말했다. 이어 “국내 인터넷 전문은행과 핀테크 기업도 금융서비스 접근성 및 소비자 선택권 확대 등 변화 촉진자로서의 역할과 비중이 늘어나고 있다”고 덧붙였다.이 원장은 또 인터넷 은행의 중금리 대출 공급 의무를 완화하는 방안에 대한 기자들 질문에 “합리적인 근거를 바탕으로 그 부분에 대한 개선책이 나온다면 적극적으로 검토할 소지가 있다”고 답했다. 이 자리에는 윤호영 카카오뱅크 대표와 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표, 박상진 네이버파이낸셜 대표, 이혜민 핀다 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.02.16~2023.02.28).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.02.16~2023.02.28).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"이자 얼마나 줄였니" 하나·NH농협, 5대 은행 중 금리 인하폭 최대</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000899631?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>사진은 서울 시내 한 은행 영업점 대출창구 모습./사진=뉴스1 시중은행이 돈잔치 비난에 직면하며 사회적 책임을 요구받는 가운데 5대 시중은행 가운데 금리인하요구권을 수용해 금리를 가장 많이 내린 곳은 하나은행과 NH농협은행으로 나타났다.은행연합회는 28일  은행들이 고객의 대출 금리인하요구권을 수용해 금리를 얼마나 내렸는지 인하 폭을 공시하기 시작했다.금리인하요구권은 대출자의 재산 또는 소득이 늘거나 신용평점이 상승하는 등 신용 상태가 개선됐을 때 대출자가 금융회사에 금리 인하를 요구할 수 있는 권리를 말한다.이날 발표된 지난해 하반기 기준 가계·기업대출 평균 금리 인하 폭을 보면 하나은행과 NH농협은행이 0.40%포인트로 5대 은행 중 가장 큰 것으로 나타났다.이어 신한은행과 KB국민은행이 0.20%포인트, 우리은행이 0.12%포인트 등의 순으로 나타났다.인터넷전문은행 중 금리인하요구권에 따른 인하 폭이 가장 큰 곳은 토스뱅크(0.70%포인트)였다. 이어 케이뱅크 0.44%포인트, 카카오뱅크 0.30%포인트 순으로 집계됐다.지방은행에선 제주은행이 0.90%포인트의 금리를 내려 인하 폭이 가장 컸고 DGB대구은행과 전북은행, BNK경남은행 모두 0.70%포인트 를 기록했다.이날 추가된 공시 항목에는 금리 인하 폭과 함께 비대면 신청률도 포함됐다. 금리인하요구권 신청 시 직접 은행 창구를 방문하는 대면 방식과 온라인 플랫폼을 활용한 비대면 방식으로 할 때 차이를 알 수 있도록 한 것이다.그동안 금리인하요구권 공시는 신청 건수, 수용 건수, 이자 감면액, 수용률 등 단순 신청 건수 위주의 수용률 공시에 그쳤다.5대 시중은행 가운데 금리인하요구권 비대면 신청률이 가장 높은 곳은 하나은행으로 99.1%에 달했고 신한은행과 우리은행이 99.0%, NH농협은행 92.3% 등으로 은행 4곳은 90%대 선을 훌쩍 넘었지만 KB국민은행은 87.0%로 가장 낮은 비대면 신청률을 보였다.금리인하요구권 수용에 따른 이자감면액이 가장 많은 곳은 5대 은행 가운데 신한은행으로 62억4700만원으로 집계됐다.이어 ▲우리은행(37억4800만원) ▲하나은행(28억2900만원) ▲NH농협은행(11억5400만원) ▲KB국민은행(7억3100만원) 순으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>다올인베스트먼트, 우리금융의 15번째 자회사 된다</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000725692?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>다음 달 주총 통과하면 인수 마무리우리금융 "비은행 경쟁력 지속 강화"서울 중구 우리금융그룹 사옥 전경. 우리금융그룹 제공1세대 벤처캐피털(VC) 다올인베스트먼트가 다음 달 우리금융그룹의 15번째 자회사로 편입된다. 우리금융은 27일 다올인베스트먼트 지분 52%를 인수하기 위한 주식매매계약(SPA)을 체결했다고 밝혔다. 인수대금은 2,124억9,020만 원이다. 다올투자증권이 보유하고 있던 지분 전량을 우리금융이 넘겨받는 것이다. 향후 양사의 시너지를 통한 가치 상승을 고려해 합리적인 가격으로 인수계약을 체결했다는 평가다. 앞서 다올투자증권은 "선제적 유동성 확보를 위해 다올인베스트먼트를 매각한다"며 희망 매각가로 2,000억 원 이상을 제시했다. 남은 절차는 다음 달 23일로 예정된 다올인베스트먼트 정기 주주총회다. 이날 주총에서 매각 안건이 통과하면 우리금융은 당일  인수를 최종 마무리할 계획이다.다올인베스트먼트는 1981년 설립된 VC 업계의 선도 업체로, 우아한형제들의 배달의민족, 비바리퍼블리카의 토스에 투자한 것으로 유명하다. 지난해 말 기준 약 1조4,000억 원 규모의 펀드를 운용해 업계에서 다섯 손가락 안에 들었다.우리금융은 이번 인수로 비은행 포트폴리오를 강화하고 종합금융으로 한 걸음 더 나아가게 됐다. 우리금융 관계자는 "향후 우리은행, 우리PE자산운용과 시너지 창출은 물론, 5년 내 업계 1위 도약을 목표로 적극 지원할 계획"이라며 "증권 등 비은행부문 경쟁력 강화를 지속적으로 추진할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>금리 인상 누적 여파… 4대 시중은행 신규 연체율 ‘껑충’</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003787226?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>지난 1월 0.09%… 1년 새 2배 상승인터넷은행 연체 대출도 급증금융당국, 손실 흡수 능력 점검장기간의 기준금리 인상 영향 등으로 은행권의 연체율이 빠르게 늘고 있다. 은행에서 돈을 빌리고 갚지 못하는 가계와 기업이 늘어난다는 의미다.     26일 금융권에 따르면 시중은행 4곳(KB국민·하나·우리·NH농협)의 지난달 신규 연체율은 평균 0.09%로 전년 동월 평균(0.04%)보다 2배 이상 늘어난 것으로 나타났다.     신규 연체율은 당월 신규 연체 발생액을 전월말 기준 대출잔액으로 나눈 것으로, 얼마나 새로운 부실이 발생했는지 보여주는 지표다.     서울 시내 시중은행 영업점에 대출금리 안내가 붙어 있다. 연합뉴스    연체율은 지난해 하반기부터 본격적으로 상승하고 있다. 지난해 1월부터 6월까지는 0.04%로 큰 변동이 없던 연체율은 9월 0.05%에 이어 12월 0.07%로 상승한 뒤 올해 1월에는 0.09% 수준까지 높아졌다. 가계와 기업(신규 평균 기준) 연체율 모두 이 기간 0.04%에서 0.07%로, 0.05%에서 0.10%로 올랐다.     기준금리 인상 여파로 이자 부담이 늘면서 가계나 개인사업자부터 대출 원리금 상환에 문제가 생기기 시작했다는 분석이다. 예금은행의 가계대출 중 주택담보대출과 신용대출 금리는 같은 기간 0.79%포인트와 2.69%포인트 올랐다. 중소기업 대출 금리(가중평균·신규취급액 기준)도 지난해 1월과 비교하면 2.24%포인트 상승했다. 주요국의 경기 둔화도 요인으로 꼽힌다.     중·저신용자 고객이 많은 인터넷은행의 연체 대출도 증가하고 있다. 금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 1개월 이상 연체 대출잔액은 2915억9100만원으로 지난해 1분기 말(1062억원) 대비 3배 가까이 급증했다.     연체율 상승은 은행 여신 건전성에도 악영향을 미칠 것으로 전망된다. 5대 시중은행의 평균 고정이하여신비율은 지난해 9월 0.21%에서 올해 1월 0.24%로 상승했다. 은행 총여신 중 부실채권을 의미하는 고정이하여신이 차지하는 비율로, 은행 자산 건전성을 나타내는 지표다.     이에 금융당국은 은행이 충분한 손실흡수 능력을 갖추고 있는지 점검에 들어갔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>고금리·불경기에… 은행 신규 연체율 2배 ‘쑥’</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003342170?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>작년 1월 0.04%→올 1월 0.09%중저신용자 많은 인뱅 3배 껑충20고금리에 이자 부담이 늘어난 가운데 경기 둔화로 수입은 줄면서 은행권 연체율이 빠르게 상승하고 있다. 특히 지난해 하반기 기준 중저신용자 대출 비중이 높은 인터넷전문은행의 연체 대출이 1년여 만에 3배 가까이 급증한 것으로 나타났다.26일 은행권에 따르면 4대 시중은행(KB국민·하나·우리·NH농협, 신한은행 제외)의 지난달 신규 연체율 평균은 0.09%로 집계됐다. 1년 전인 지난해 1월 신규 연체율(0.04%)과 비교해 2배 이상 높은 수치다. 지난해 1~6월(0.4% 수준)까지 큰 변동이 없다가 9월 0.05%에 이어 12월 0.07%로 높아진 뒤 0.09%까지 늘었다. 신규 연체율은 당월 신규 연체 발생액을 전월 말 기준 대출잔액으로 나눈 것으로 새로 발생한 연체 규모를 알 수 있는 지표다.기준금리 인상에 따른 대출금리 상승 누적 효과가 연체율 상승에 반영된 것으로 보인다. 한국은행이 2021년 8월부터 지난달까지 약 1년 5개월 동안 모두 열 차례 금리를 인상해 0.50%였던 기준금리는 3.50%까지 높아졌다.중저신용자의 상환 능력은 더 악화되고 있다. 금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사의 1개월 이상 연체 대출 잔액은 2915억 9100만원으로 집계됐다. 지난해 1분기 말(1062억원)보다 3배 가까이 급증했다. 은행별로 보면 지난해 말 토스뱅크의 1개월 이상 연체 대출이 619억원으로, 1분기 말(11억원)에 비해 56배 이상 늘었다.같은 기간 케이뱅크는 지난해 1분기(370억원)보다 2.5배(920억원), 카카오뱅크는 지난해 1분기(679억원)보다 2배(1377억원) 늘었다. 인터넷은행들은 금융취약계층 포용이라는 설립 취지에 따라 중저신용자 대출 비중이 높다. 카카오뱅크, 케이뱅크는 지난해 말 기준 중저신용자 대출 목표치 25%를 달성했다. 토스뱅크는 40%를 넘겼다.금융당국은 대출금리 인하를 계속 압박하고 있다. 김주현 금융위원장은 이날 한 방송에 출연해 지난 23일 한국은행의 기준금리 동결과 관련, “기준금리가 동결되면 대출금리의 원가가 되는 코픽스 금리라든가 자금 조달 금리가 안정된다”며 “(은행이) 가산금리를 낮출 경우 대출금리가 오르지 않거나 내려갈 수 있는 여지가 더 생길 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>대통령 한마디에, 금융TF 벌써 7개… '졸속 행정' 비판도 [정부發 금융권 지각변동 예고]</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004974387?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>인력증원 없이 TF 계속 출범당국 내부서도 반응 엇갈려외부 전문가 참여 긍정적이지만 실제 성과로 이어질지 미지수 김소영 금융위원회 부위원장이 지난 22일 정부서울청사에서 열린 '제1차 은행권 경영·영업관행·제도 개선 TF 회의'를 주재하고 있다. 연합뉴스 윤석열 정부 출범 후 금융위원회·금융감독원에서 출범한 태스크포스(TF)만 7개에 달하는 것으로 나타났다. 지난해 5월 금융리스크 대응 TF가 출범한 이래 최근 출범한 은행권 경영·영업 관행·제도개선 TF까지 거의 매달 새 TF가 생겨난 셈이다. 가히 금융 TF 전성시대다. 그러나 대통령 한마디에 속속 생겨나는 TF에 졸속행정이라는 비판도 나오고 있다.   26일 금융당국에 따르면 지난해 5월 금융리스크 대응 TF를 시작으로 6월에는 취약부문 금융애로 대응 TF가 발족했고, 8월에는 디지털자산 민관합동 TF가 출범했다. 같은 달에 금융권 내부통제 제도개선 TF도 생겨났다. 11월에는 은행권 금융시장 점검 실무 TF가 출범했다.   올해 들어서도 벌써 2개의 TF가 발족했다. 2월에 보험사 책임준비금 외부검증 개선 TF가 발족한 데 이어 대통령의 '은행은 공공재' 발언으로 은행권 경영·영업 관행·제도개선 TF가 급히 출범했다.   이처럼 TF가 급증하자 금융당국 내부에서 인력증원 없이 TF가 늘어나는 것에 대해 볼멘소리도 나온다. 거시적으로 접근하지 않고 외부환경과 정치적 이슈에 따라 미시적으로 접근하고 있다는 불만이 커지고 있는 것이다.   실제 지난 15일 비상경제민생회의에서 윤석열 대통령이 은행의 독과점 문제를 지적한 직후 금융위와 금감원은 은행권 경영·영업 관행·제도개선 TF를 꾸렸다. 공정거래위원회에도 금융·통신 분야 공정시장 정책을 마련하라고 지시하면서 공정위는 은행과 통신시장 경쟁 촉진 TF를 발족하기로 했다.   한 금융당국 관계자는 "다양한 이해관계자가 모이는 TF는 공무원만 모여서 협의하는 경우보다 더 나은 결론이 나올 가능성이 크긴 하지만 첨예한 이해대립이 이뤄지는 경우에는 흐지부지되는 경우도 있다"고 말했다.   지난 22일 첫 회의를 개최한 은행권 경영·영업 관행·제도개선 TF는 은행 독과점 해소를 위해 스몰라이선스, 챌린저 뱅크 등의 방안을 제시했는데 벌써 금융권에서는 실현 가능성이 없는 대안이라는 비판이 나오고 있다.   지난 2017년 시중은행들의 과점 체제를 바꾸고 경쟁을 촉진하기 위해 선보인 인터넷은행들도 아직 자리를 잡지 못한 상태다. 가장 규모가 큰 카카오뱅크는 지난해 9월 기준 총자산이 전체 은행 자산의 1.26%에 불과하다. 토스뱅크와 케이뱅크는 각각 0.84%, 0.4%에 그쳤다. 반면 5대 시중은행의 총자산은 70.73%에 달했다. 다만 외부 전문가와 업계가 참여하는 TF는 문제 해결을 위한 합리적 방안이라는 의견도 있다.   한 금융당국 관계자는 "공무원들만 논의해서는 사실 문제해결이 쉽지 않을뿐더러 추후 해결방안을 공표한 이후에도 민간의 반발에 부딪히기 십상"이라며 "처음부터 TF를 꾸려 외부 전문가와 업계를 참여시켜 다양한 의견을 듣고 결론을 만들어 나가는 것이 합리적"이라고 말했다. 안동현 서울대 경제학부 교수도 "TF가 많이 만들어지는 그 자체를 비판할 수는 없다"며 "TF가 많다고 해도 그것을 통해서 문제를 합리적으로 해결해 나간다면 TF 자체는 문제될 것 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>예대금리차 더 벌린 은행권…대한항공은 마일리지 개편 '백기'</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000323689?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>연일 '돈잔치' 비판을 받고 있는 은행권의 지난달 예대금리차가 전달보다 더 커진 것으로 나타났습니다. 비판받는 곳이 또 있었죠. 마일리지 정책을 바꿔 고객 혜택을 줄였다는 지적을 받았던 대한항공은 결국 꼬리를 내렸습니다. 류정현 기자와 알아보겠습니다. 먼저 은행 몇 곳이나 예대금리차가 더 벌어졌습니까?은행연합회 공시에 따르면 국내 19개 은행 가운데 15곳의 올해 1월 예대금리차가 전달인 지난해 12월보다 더 벌어졌습니다.5대 은행 중에선 KB국민은행이 가장 컸고 NH농협은행, 우리은행, 하나·신한은행 순이었습니다.은행 전체로 넓히면 수치가 더 커지는데요.전북은행이 6%포인트가 넘는 수치를 기록해 1위였고 2위는 인터넷은행인 토스뱅크가 차지했습니다.최근 은행권은 고금리에 편승해 돈을 벌고 내부 돈잔치만 벌이고 있다는 비판을 받고 있는데요.이런 점을 의식했는지 국내 은행들은 올해 상반기에만 2200명이 넘는 규모의 신규채용을 진행하겠다고 발표했습니다.신규채용 규모는 보험, 카드사 등 전체 금융권으로 넓히면 약 4700명에 달할 전망입니다.최근에 뭇매를 맞은 곳은 또 있죠. 대한항공은 결국 꼬리를 내렸다고요?그렇습니다.대한항공이 장거리 노선의 마일리지 공제 기준을 '지역'에서 '운항거리'로 바꾸겠다고 발표한 개편안이 무산됐습니다.대한항공 관계자는 "고객 의견을 수렴해 전반적인 개선 대책을 신중히 검토 중"이라고 밝혔는데요.해당 개편안은 오는 4월부터 적용될 예정이었는데 해외여행객들 사이에서 먼저 불만이 터져 나왔습니다.주무부처인 국토교통부에 정치권까지 나서자 결국 백기 투항한 겁니다.새 대책을 내놓겠다고는 했는데 이마저도 쉽지는 않을 전망입니다.한기정 공정거래위원장은 어제(20일) 국회 정무위원회에 출석해 "약관의 공정성 문제를 면밀히 살펴보고 있다"고 밝혔는데요.공정위는 새 개편안이 나오면 이 내용도 따로 살펴볼 방침입니다.이번엔 국회로 가보죠. 오늘(21일) 쟁점법안 하나가 국회 테이블에 오르죠?그렇습니다.이른바 노란봉투법인데요.오늘 국회 환경노동위원회는 전체회의를 열고 해당 법률 개정안을 처리할 방침입니다.환노위는 야당인 민주당과 정의당이 과반을 차지하고 있어 법안처리는 충분히 가능하고요.이재명 민주당 대표도 어제 국회 앞 관련 농성장을 찾아 힘을 실어줬습니다.다만 정부는 난색을 표하고 있는데 직접 들어보시죠.[이정식 / 고용노동부 장관 : 임금체불, 해고자 복직 등의 권리 분쟁이 법원이나 노동위원회의 법률적 판단이 아닌 노조가 파업 등 힘으로 해결할 수 있게 돼 노사갈등 비용이 커질 우려가 있습니다.]오늘 환노위를 넘어서면 여당인 국민의힘이 위원장을 맡은 법제사법위원회로 넘어가는데요. 민주당은 법사위 통과가 어려울 경우 이를 건너뛰고 본회의 직회부를 시도할 것으로 보입니다.류정현 기자, 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>바로고, 토스모바일 유심 배달대행 맡는다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002283502?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>대리점 방문 번거로움 해소·개통 시간 최소화바로고가 토스모바일 유심 배달 서비스를 제공해 이동 통신 서비스 고객과 접점을 확대한다. 바로고는 모바일 금융 플랫폼 토스와 배달대행 계약을 체결하고, 토스모바일 유심 배달 업무를 수행한다고 22일 밝혔다.지난달 30일 출시한 토스모바일 신규 요금제 4종은 토스 앱을 통해 통신 서비스 신청이 가능하다. 신청 과정에서 배달 서비스 선택 시, 바로고 프로그램을 사용하는 라이더를 통해 전국 어디서나 유심을 빠르게 받아볼 수 있다.바로고와 토스모바일은 유심 배달 서비스가 통신사 대리점에 방문하는 번거로움을 해소하고, 개통에 걸리는 시간을 최소화해 고객 편의성을 크게 높일 것으로 기대하고 있다. 특히, 토스모바일은 유심 배달과 개통 과정에서 발생하는 불편을 최소화하고자 24시간 고객센터를 운영한다.(사진=바로고)바로고 관계자는 “배달 일상화가 지속됨에 따라 유심 등 비음식 상품군 수요도 증가하는 추세”라며 “라스트마일 가능 상품군의 영역을 확대하며 제휴 기업의 서비스 경쟁력 강화를 도울 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>'5대 은행' 철옹성 깨질까… 이자 장사 비판에 금산분리 속도</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000896000?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장이 지난 14일 오전 서울 중구 명동 은행회관에서 열린 제4차 금융규제혁신회의에서 모두발언을 하고 있다./사진=뉴스1 윤석열 대통령이 은행의 실질적인 경쟁시스템을 강화하라며 금융당국에 제도 개선을 지시했다. 경쟁 무풍지대로 불리던 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 과점체제를 허물고 시장참여자의 시장 진입을 확대하려는 취지다. 금융권에선 금융위원회와 공정거래위원회가 대통령 업무보고에 담은 '금산분리' 규제 완화에 속도를 낼 것으로 보고 있다. 16일 금융권에 따르면 윤 대통령은 전날 오전 용산 대통령실에서 '제13차 비상경제민생회의'를 열어 공공·에너지 요금, 통신·금융비용 등 4대 민생분야 지출 부담 경감과 취약계층 지원 강화 방안을 중점 논의했다.윤 대통령은 공공재적 성격을 지닌 금융업계에 취약계층 고통 분담을 요구했다. 윤 대통령은 "금융분야는 공공재적 성격이 강하고, 과점 형태를 유지하는 정부의 특허사업"이라며 "많이 어려운 서민 가계에 큰 영향을 미치는 만큼 정부 차원의 제도 개선 노력과 함께 업계에서도 물가안정을 위한 고통 분담에 자발적으로 참여할 필요가 있다"고 말했다.이어 "정부는 모든 정책을 민생에 초점을 두고 비상한 각오로 서민과 취약계층의 어려움을 살피겠다"며 "장관들께서도 어떻게 하면 서민과 취약계층의 부담을 덜어드릴 수 있을지 밤낮없이 고민해 달라"고 당부했다.━4번째 인터넷은행 나올까… 금융규제 문턱 내려간다━금융당국은 올 상반기 금산분리 제도 개선을 추진한다. 금산분리는 금융자본과 산업자본이 상대 업종을 소유하거나 지배해서는 안 된다는 원칙이다. 은행이 대기업의 사금고로 전락하거나, 금융지주 회사가 산하 비금융 계열사에 자금을 몰아주는 폐단을 막기 위해 도입됐다. 한국에는 1982년 은행법에 은산분리 규정이 명시되면서 관련 규제가 탄생했다. 현재 특례를 받는 인터넷은행을 제외하면 산업자본이 금융자본 지분을 4% 이상 보유할 수 없다.핀테크 업계 등에선 산업간 경계가 허물어지는 빅블러 시대에 금산분리 규제가 완화해야 한다는 목소리가 제기됐다. 금산분리 규정을 완화해 산업발전과 경쟁력 강화를 꾀해야 한다는 목소리다. 금융위는 지난해 7월 1차 금융규제혁신회의를 열고 금산분리 완화를 주요과제로 논의했다. 주로 금융자본이 IT, 부동산, 소프트웨어, 디자인 등 다양한 사업을 영위할 수 있도록 비금융자회사 허용범위를 확대하기로 했다. 금융지주, 은행 등 전통 금융권은 각종 금융규제로 불리한 환경에서 빅테크(대형 IT기업)와 경쟁하고 있다며 규제 완화를 통해 '기울어진 운동장'을 바로잡아달라고 건의했기 때문이다. 현재 KB국민은행의 알뜰폰 사업이나 신한은행의 배달앱 서비스 등은 금융당국의 혁신금융서비스 지정을 통해 예외적으로만 허용되고 있다. 금융당국은 '은행권 경영·영업 관행·제도개선 태스크포스(TF)'를 이달 중 구축해 상반기 중 제도개선 방안을 마련할 방침이다. 금융과 IT 업계 간 영업 장벽을 낮춰 경쟁을 촉진하는 방안도 검토 대상이다. 인가 단위를 작게 쪼갠 '스몰 라이선스'가 유력한 방안으로 꼽힌다.인터넷전문은행의 업무 범위를 기업 대출 부문으로 확장하는 방안도 테이블에 오를 전망이다. 카카오뱅크·토스뱅크·케이뱅크 외에 네 번째 인터넷전문은행이나, 신규 외국계 은행 유치 방안도 거론된다. 은행 간 금리경쟁을 유도해 실질 금리가 내려가는 효과를 기대하는 눈치다. 금융당국 관계자는 "금융권은 5대 금융지주 체제 5대 은행이 중심인 과점체제가 형성됐다"며 "인터넷은행 등 신규 플레이어가 금융시장에 진입하면 금융소비자의 금융거래 편의성이 확대될 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[머니S포토] 이복현 "인터넷은행·핀테크 기업, '혁신 엑셀러레이터'로 자리 잡도록 노력 지속할 것"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000899120?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장(가운데) 이 27일 경기 성남시 분당구 백현동 카카오뱅크 판교오피스에서 열린 은행산업 경쟁촉진 및 금융소비자 편익제고를 위한 현장방문 간담회에서 발언하고 있다.이날 이 원장은 인터넷전문은행 및 핀테크 기업에 "국내 인터넷전문은행·핀테크 기업도 금융서비스 접근성, 소비자 선택권 확대 등 변화 촉진자 역할과 비중이 늘어나고 있다"며 "책임있는 금융혁신을 통해 은행업의 건전한 경쟁과 금융소비자 편익 제고를 위해 혁신 촉진자로 자리매김해달라"고 전했다.간담회에는 이 원장을 비롯해 윤호영 카카오뱅크 대표, 서호성 케이뱅크 대표, 박상진 네이버파이낸셜 대표, 홍민택 토스뱅크 대표, 이혜민 핀다 대표, 김태훈 뱅크샐러드 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>개척자 비긴즈[EP2] 사랑은 향기를 남기고 사역은 온기를 남긴다</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001588485?sid=103</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>하나님 위한 정규직 일꾼 꿈꾸지만 현실은 비정규직 사역자사임 마무리의 아쉬움, 성도들 향한 감사로 달래사랑은 향기를 남기고 사역은 온기를 남긴다교회는 부목사를 채용해 ‘사역’이란 이름의 업무에 투입시킨다. 대부분 2년 계약직이다. 길면 3년, 잘하면 그 이상도 가능하다. 하지만 그 본질은 안정보다 불안정에 가깝다. 세상 속 일터와 사역 현장을 비교하는 건 은혜와 감사보다는 자괴감과 실망으로 귀결되기 마련이다. 하지만 사역 현장에 있는 누구나 마찬가지일 것이다. 지금 이 순간, 소명이라 생각하며 임하는 일에 멈춤이 없이 ‘하나님을 위해 일하는 정규직 사역자’가 되고 싶다는 사실 말이다.부목사로 사역하던 1년 차 교역자 회의 때 일이다. 담임목사님께서 내 이름을 꺼내시며 말씀을 이어가셨다. ‘왜 슬픈 예감은 틀린 적이 없나.’ 혼났다. 단호한 어조였다.“Y목사는 전임 목사처럼 1년 뭉개지 말고 2년 차 되면 10월에 목양실 와서 어떻게 할지 얘기해!”‘목사 둥절’했다. ‘뭉개다니? 전임 목사님이 무엇을? 아니면 내가? 그것도 이렇게 공개적인 자리에서 앞뒤 설명도 없이?’ 이런 상황에서 1년 차 부목사가 할 수 있는 건 많지 않다. 그동안 사역해 온 돌다리를 두드려가며 스스로 수정과 보정을 거치며 묵묵히 할 일을 하는 것뿐이다.2년 차 10월이 되었다. 목양실에 찾아갈 날만을 기다렸다. 10월의 어느 날. 담임목사님께서 부목사들을 불렀다. 그러고는 먼저 물어보셨다.“Y목사는 앞으로 어떻게 할 건가.” 목사님께 내 대답을 토스했다. “목사님께서 결정해주시는 대로 따르겠습니다.” ‘예의’라는 이름의 포장지로 감싼 거짓말이었다. 실은 다른 교회에서 사역해보고 싶었다. 정말 그랬다. 그런데…“코로나19 팬데믹 상황이 여전하고 다른 교회들 현실도 마찬가지일 테니 하던 사역, 1년 더 하는 걸로!” 탈출 실패였다. 양가적인 마음이 들었다. 좋기도 안 좋기도 했다. 다시 부목사로의 1년이 시작됐다. 그렇게 또다시 1년이 흐른 2021년 10월. 이제는 정녕 결론을 내려야 할 시점이 다가왔다. 마음속에 품었던 ‘개척 농사꾼’으로서의 결단이었다. 19년. 울타리를 떠나 다른 울타리를 만들기 위한 결단을 내리기에 결코 짧은 시간이 아니었다. 담임목사님과 면담을 청했고 앞으로의 사역에 대해 진지하게 마음을 표현했다. 대화의 결론은 ‘사임과 개척 준비’였다. 사역 일정은 12월 어느 주일 저녁 예배까지로 조율됐다. 감사했다. 드디어 탈출이다.사역지로 19년을 몸담았던 교회에서의 마지막 날. 설교를 위해 부서 예배당 강단에 올랐다. 순간 울컥했다. 눈물이 나서 어떻게 설교를 했는지 기억도 나지 않는다. 찬양을 하면서도 울었다. 내 속에 담기에 너무 벅찬 아이들의 눈이, 그리고 웃음과 눈물이 한 조각 한 조각이 되어 거대하고 감동적인 퍼즐로 예배당 공간을 채웠다. 많은 기도에 눈물이 있었고 선물에는 사연이 있었다. 숱한 악수에는 잊을 수 없는 온기가 있었고, 나를 살포시 안아주는 가슴들은 터져 나오지 않는 속울음으로 들썩였다.탈출이라고 생각했던 내 마음과는 달리 이곳에서는 깊이 흐르는 시간이 있었다. 매 주일 아침마다 이 아이들을 만났고 이 아이들이 졸업하고 다시 교사가 된 시간들 또한 너무 감사했다. 잘해온 것 같았다. 그런데 모자랐다. 더 주지 못했고 더 시간을 내지 않았다. 더 함께하지 못함이 떠올라 미안했다. 그렇게 복잡하게 휘몰아치는 마음을 부여잡고 사진을 찍었다.부서 예배를 마친 뒤 성도들을 마주했다. 1부 예배를 드릴 때 내 사임 소식을 들은 성도님들이었다. 축복 아쉬움 기대감이 재료가 되어 한데 비벼진, 양푼 비빔밥 같은 대화들이 이어졌다. 울면서 악수를 청하는 성도들도 있었고 “목사님 어떻게 저희를 떠날 수가 있어요. 다시는 안 볼 거예요”라며 울먹이면서 안아주는 분도 계셨다. “저녁 예배까지 드리시냐”고 물어 봐주시던 분은 결국 저녁 예배 때 뵙지는 못했다. 그냥 인사였나보다.대예배실로 향했다. 2부 예배 때 인사를 해야 할 지도 모른다는 선배 목사님 말씀대로 앞자리에 앉아 예배를 드렸다. 광고 시간이 다가왔다. 준비한 인사말도 있었다. 담임목사님께서 짧게 내 사임에 대해 말씀하시고 자리에서 일어나 인사를 시켜주셨다. 끝이었다. 정말 끝이었다. 그러나 내 목소리는 그 자리에 없었다. 청룡영화상이나 연말 시상식 수상 소감 같은 시간을 기대했을까. 아니다. 20년 가까이 머물렀던 공동체를 떠나 신앙의 새 울타리를 마련할 한 일원으로서의 감사와 인사를 전하고 싶었을 따름이었다. 씁쓸한 마음, 섭섭한 마음이 아주 조금 들었다. 다행히 빨리 사라졌다.사임에 대해 말씀을 드리고 남은 두 달의 예배, 매일 일어나는 일상들 그리고 관계들은 참 고마웠다. 날마다 소중하게 대했고 마무리를 잘하고 싶었다. ‘말년이니까 대충?’이라는 마음은 없었다. 참 신기했다. ‘나 같은 사람이?’ 약간 대견했다. 어느 조직이든 탈출하고 싶으면 시간이 느리게 흐르고 이전보다 하는 일이 줄어들면 무료함도 클 텐데, 내겐 그 시간이 느리게 흘러서 좋았다.사역으로든 성도의 신앙적 교제나 상담으로든 이전과 동일한 나날이 이어졌다. 성도님 중엔 더러 “목사님 좀 쉬셔도 돼요”라는 말도 해주셨지만 내게는 그 어느 시간보다 쉼 같은 시간이었다. 수천, 수만 번을 오갔던 예배당인데도 ‘햇살이 이렇게 따뜻하게 들어왔나’ 싶었고, 드문드문 먼지가 낀 장의자에 홀로 앉아 기도하시는 권사님의 뒷모습이 그렇게 아름다울 수 없었다. 아직도 의문이다. 생각해보니 이곳이 좋았나 보다. 그렇게 다시 오지 않을 것 같은 시간이 흐르고 흘렀다. (Y will be back!)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>글로벌 주문 급감…中 항구에 빈 컨테이너 쌓여</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013769459?sid=104</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>홍콩매체 "광둥성 옌톈항 인근 일감없는 화물차 1㎞ 늘어서"중국 저장성 닝보항에 쌓여있는 컨테이너들(신화=연합뉴스) 지난달 31일 중국 저장성 닝보항에 쌓여있는 컨테이너들. 2023.2.21.    (홍콩=연합뉴스) 윤고은 특파원 = 글로벌 주문 급감에 중국의 수출항에 빈 컨테이너들이 쌓여있다고 홍콩 사우스차이나모닝포스트(SCMP)가 21일 보도했다.    보도에 따르면 세계에서 가장 바쁘게 움직이는 컨테이너항 가운데 하나인 중국 광둥성 선전시 옌톈항 인근에는 멈춰선 화물차가 거의 1㎞ 길이로 늘어서 있다.    옌텐항은 중국의 제조업과 수출의 중심지인 광둥성의 대외무역 3분의 1 이상, 중국 대미 무역 4분의 1을 담당하는 컨테이너 항구이다.     그러나 주차된 트럭들은 놀고 있는 트럭의 일부분에 불과하다고 트럭 기사 황모 씨는 지적했다.     황씨는 옌텐에서 차로 1시간가량 떨어진 광둥성의 또 다른 수출항 둥관에 일감이 없는 다른 컨테이너 화물차들이 주차돼 있다고 설명했다.     그는 옌텐항에 등록된 화물차 기사가 1만5천 명 이상인데 현재 약 2천 명만이 일거리가 있다고 밝혔다.     그는 "올해 수출 시장이 최악일 듯하다"며 "많은 공장주가 외국 고객들이 주문하지 않아 전자 제품을 수출할 수 없다고 말하는 것을 들었다. 또 많은 공장이 이미 동남아시아로 이전했다"고 말했다.     옌텐항의 이러한 부진한 상황은 2년 전과 극명한 대조를 이룬다.    2021년에는 너무나 많은 수출 화물이 밀려들어 옌텐항에서 빈 컨테이너를 구하는 게 어려웠다. 그러나 지금은 빈 컨테이너들이 항구 주변에 빈자리만 있으면 쌓이고 있다.     또 다른 화물 기사 쉬모 씨는 빈 컨테이너가 7층 높이로 쌓여있는 옌텐항의 톨게이트 바깥 공간을 가리키며 "지난 몇 년간 이곳에 빈 컨테이너는 없었다"고 말했다.     그는 "빈 컨테이너들이 작년 하반기부터 이곳에 쌓였는데 크레인이 7층 높이로만 컨테이너를 쌓아 올릴 수 있어 이제는 더이상 쌓을 수도 없다"고 설명했다.     앞서 작년 11월 옌텐항 당국은 성명을 통해 적재된 빈 컨테이너 규모가 2020년 3월 이후 최대이며 곧 옌텐항 개항 29년 만에 최대치에 도달할 것이라고 밝혔다.    옌텐항 인근 한 컨테이너 야적장의 익명을 요구한 관리자는 "일감이 없다"며 "일부 야적장은 사업을 접었다"고 말했다.중국 선전의 도로에 일감이 없어 주차된 빈 화물 트럭들[홍콩 사우스차이나모닝포스트 캡처. 재판매 및 DB 금지]    온라인 컨테이너 물류 플랫폼인 독일 컨테이너 익스체인지의 크리스티안 로엘로프스 최고경영자(CEO)는 컨테이너 흐름이 경제 발전과 글로벌 무역의 중요한 지표인데 현재의 시장 전망은 매우 암울하다고 지적했다.     그는 컨테이너 운임 하락과 세계 특정 지역에서 가용한 컨테이너가 늘어나는 것은 약한 수요와 경제 성장 둔화를 보여준다면서 닝보, 상하이, 싱가포르 같은 아시아 주요 항구의 컨테이너 대여·구매 비용이 지난해 급감했다고 설명했다.     지난달 해운 조사기관인 드루리의 보고서에 따르면 작년 12월 1FEU(40피트 컨테이너 1개) 가격이 전년 동월보다 45% 떨어졌다.     드루리는 컨테이너 가격이 올해 첫 6∼9개월간 계속해서 떨어질 것으로 전망했다.     화물운임 서비스업체 프레이토스의 해상운임지수(FBX)에 따르면 아시아에서 미국 서부 해안까지의 1FEU 운임은 지난주 1천295달러로 전년 동기보다 92% 급락했다.    같은 기간 아시아에서 미국 동부 해안으로의 운임은 86%, 아시아에서 북유럽으로의 운임은 80% 떨어졌다.     중국의 작년 12월 수출은 전년 동월 대비 9.9% 감소했다.     SCMP는 "컨테이너가 쌓여있는 상황은 글로벌 수요 둔화 속에서 수출이 중국 경제 회복에 거의 도움이 되지 않고 있음을 보여준다"고 지적했다.     pretty@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>모바일 플랫폼 최적화…금투협 '자격시험센터' 전면개편</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001084070?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>금융투자협회가 이용자의 접근성과 편의성을 높이는 방향으로 ‘금융투자협회 자격시험센터 홈페이지를 전면 개편했다고 20일 밝혔다.이날부터 새로 개편한 자격시험센터 홈페이지에서는 이용자 환경에 관계없이 웹 페이지를 최적화해 모바일을 통한 접속과 네이버페이, 카카오페이, 토스페이 등 간편결제 기능을 지원한다.이와 함께 이용자 개인의 시험합격 현황과 이에 따른 전문인력 등록현황, 필수교육(보수교육 등) 이수현황 등을 한 화면에서 조회 가능한 ‘MY자격정보’ 메뉴를 새롭게 추가했다.자격시험센터 홈페이지는 오는 3월 26일 시행되는 제17회 증권투자권유대행인 자격시험 접수부터 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>카뱅 간 이복현 “인뱅·핀테크기업이 ‘은행 혁신 촉진자’ 역할 해달라”</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002558767?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>금감원장,6개 회사 대표들 만나인가 세분화·대출규제완화 검토시중은행의 과점체제 행태를 비판하고 있는 이복현 금융감독원장이 인터넷전문은행과 주요 핀테크 기업에 ‘혁신 촉진자’ 역할을 당부했다. 금융권은 금융당국이 인터넷은행을 대상으로 대출 등 각종 규제를 완화하고, 기존 은행 인가를 세분화(스몰라이선스)해 타업권의 진입을 허용할 것으로 보고 있다. 이 원장은 27일 경기 성남시 카카오뱅크 본사를 방문해 3개 인터넷은행 대표와 3개 핀테크 기업 대표와 각사의 혁신상품 서비스 사례와 사업 추진 과정상의 어려움을 청취하며 이같이 밝혔다. 이 원장은 “국내 인터넷은행·핀테크 기업이 금융서비스 접근성과 소비자 선택권 확대 등 변화 촉진자로서 역할과 비중이 늘어나고 있다”며 “금감원도 인터넷은행·핀테크 기업이 은행 산업의 경쟁을 촉진하는 ‘혁신 촉진자’로 자리 잡을 수 있도록 다각적 노력을 지속하겠다”고 강조했다. 최근 금융당국은 ‘은행권 경영·영업 관행 및 제도개선 태스크포스(TF)’를 조직하고 예금·대출 분야 경쟁을 촉진하기 위해 금융업권별 진입장벽을 낮추는 방안을 논의하고 있다. 이 원장은 이종 업종 간 합종연횡이 활발한 인터넷은행·핀테크 기업을 찾아 재차 금융권의 ‘메기’ 역할을 강조한 것으로 풀이된다. 앞서 금융당국 관계자도 “은행 분야에 실질적인 경쟁 촉진이 돼야 하는데 신규 플레이어가 대형 은행과 견주려면 시간이 걸린다”며 “신규 경쟁자보다는 기존 다른 금융권을 실질적 유효 경쟁자로 들어오게 할 수 있다”고 밝혔다.경쟁 촉진 방식으로는 인터넷은행에 중·저신용층 신용대출 비중을 완화해주거나 핀테크 기업에 대출 비교플랫폼을 확대하는 등의 방법이 거론된다. 금융회사 인가를 세분화하는 스몰라이선스를 통해 증권사·보험사·카드사 등에 법인 지급 결제를 허용하는 방안도 유력하다. 궁극적으로는 2금융권의 은행 대출시장 진입을 유도할 것으로 전망된다.이 원장은 이와 함께 인터넷은행·핀테크 기업에 ‘책임 있는 금융혁신’이 전제돼야 한다고 강조했다. 디지털 소외계층에 대한 포용도 주문했다. 또 “사이버·보안 리스크 관리 등 양적 성장에 걸맞은 내부통제 및 인프라 구축에 힘써 줄 것을 당부한다”고 전했다. 이날 행사에는 인터넷은행의 윤호영 카카오뱅크 대표, 서호성 케이뱅크 대표, 홍민택 토스뱅크 대표가, 핀테크 기업의 박상진 네이버파이낸셜 대표, 이혜민 핀다 대표, 김태훈 뱅크샐러드 대표가 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SW 품질 탁월… `비즈플레이4.0` GS인증 획득</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002786408?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>비즈플레이는 '비즈플레이 4.0'에 대해 GS인증(소프트웨어 품질 인증) 1등급을 획득했다고 27일 밝혔다.GS인증은 국산 소프트웨어의 품질을 증명하는 국가 인증제도다. 한국정보통신기술협회와 한국산업기술시험원(KTL)이 ISO 국제 표준에 따라 기능성, 신뢰성, 성능 효율성, 사용성 등 9가지 항목을 평가해 인증을 부여한다. GS인증 솔루션은 행정·공공정보화 사업에서 우선 도입 대상 제품으로 지정된다.비즈플레이는 버전 3.0에 이어 버전 4.0도 GS인증을 획득했다. PC와 모바일을 통한 클라우드 기반의 경비지출관리 솔루션 비즈플레이는 법적 증빙 효력을 갖는 전자 영수증으로, 실물 종이 영수증 수집·보관 업무를 없애고 국내외 모든 ERP(전사적자원관리)와 연계돼 업무 자동화를 지원한다.비즈플레이는 현재 우리은행, 토스, 신세계아이앤씨, 한국관광공사, 한국수자원공사 등 2800여 대기업 및 공공기관과 3만여 중소기업이 쓰고 있다. 김홍기 비즈플레이 대표는 "이번 비즈플레이 4.0 GS인증 획득으로 차세대 경비지출 관리를 위한 비즈플레이의 품질과 서비스를 향상시킬 수 있었다"며 "앞으로도 지속적인 연구개발을 통해 디지털 전환 시대에 걸맞은 디지털 경비지출관리 솔루션을 제공하도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>이근주 핀테크산업협회장 "회원사 500개까지 늘리고 3월 연구원 출범"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000898052?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[CEO초대석] 디지털경제금융연구원 설립해 핀테크 친화적 정책 조성 위한 이론 구성이근주 핀테크산업협회장./사진=장동규 기자 "현재 국내에서 활동하는 핀테크 업체 수가 약 700개인데 현재 400여개인 회원사를 올해 말 500개까지 유치하는 것이 목표입니다. 아울러 이르면 올 3월 디지털경제금융연구원(가칭)을 출범해 핀테크 산업 발전을 위해 한목소리를 낼 것입니다."이근주 핀테크산업협회장(62·사진)은 이달 취임 1주년을 맞아 머니S와 진행한 인터뷰에서 이같은 목표를 제시했다.이근주 회장은 "2016년 100여개 핀테크 기업과 함께 출범한 협회가 지난해 7년만에 회원사가 400개사를 돌파했다"며 "핀테크 산업이 얼마나 빠르게 성장해 왔는지를 잘 보여주는 결과"라고 설명했다.이 회장은 은행원 출신의 핀테크 전문가다. 그는 IBK기업은행에서 뉴욕지점, 국제업무부를 거쳐 스마트금융부장(핀테크사업총괄)으로 근무하며 디지털금융 역량을 키웠다.30여년간 IBK기업은행에 재직한 이 회장은 은행 퇴임을 앞두고 손병환 전 NH농협금융지주 회장의 제안으로 2015년 7월 핀테크산업협회의 출범을 주도했다.이 회장은 "당시 NH농협은행에서 스마트금융부장을 맡았던 손병환 전 회장이 핀테크산업협회를 만들자고 제안해 흔쾌히 수락했다"고 회상했다. 당시 협회 설립을 위한 발기인으로 이승건 비바리퍼블리카(토스) 대표, 이효진 에잇퍼센트 대표, 김대윤 피플펀드 대표, 신혜성 와디즈 대표, 김태훈 뱅크샐러드 대표, 김종서 아톤 대표 등 10명이 모여 협회 설립을 이끌었다.전통 금융권에서는 IBK기업은행과 우리은행, NH농협은행이 출범 처음부터 회원사로 참여했다. 이후 회원사 100개사를 모아 출범한 핀테크산업협회 1대 회장은 이승건 대표가, 2대 회장은 김대윤 대표가, 3대 회장은 류영준 전 카카오페이 대표가 각각 맡았다.이 회장은 핀테크산업협회 설립준비국장(사무국장)과 소상공인간편결제추진단장, 한국핀테크산업협회 부회장, 한국간편결제진흥원장 등을 거쳐 지난해 2월17일 2년 임기의 제4대 핀테크산업협회 회장으로 선출됐다.현재 핀테크산업협회는 회원사만 410개에 이르는 조직으로 성장했다. 회원사에는 네이버파이낸셜, 카카오페이, 두나무, 빗썸코리아 등 핀테크 기업뿐만 아니라 SC제일은행, 교보생명, 비씨카드 등 전통 금융사도 합류해 있다.이 회장은 "올해 500개 회원사가 협회 구성원으로 모여 규제 혁신을 외치고 사회적 책임을 이행하는 등 시너지를 낼 수 있는 규모로 커지면 회장으로서 더 의미 있는 성과라고 본다"며 "이렇게 많은 회원사가 모여서 내는 목소리의 힘을 키우기 위해 핀테크 분야에 특화된 전문 연구원 설립을 준비하고 있다"고 설명했다.올 3월 설립되는 디지털경제금융연구원의 초대 연구원장으로는 정유신 서강대 기술경영대학원장이 맡을 예정이다.이 회장은 "외부 필진을 두고 협회 자문 교수들이 연구활동을 할 예정"이라며 "연구원은 핀테크산업협회의 사무처 조직 내 부서 형태로 둘 계획"이라고 말했다.핀테크 산업에 대한 변화의 목소리를 내는 데 있어 연구자료가 뒷받침돼야 하는데 핀테크산업에선 연구 전담 조직이 부재해 혁신 금융을 이끄는 데 한계를 느꼈다는 게 이 회장의 설명이다.그는 "핀테크 업권에 친화적인 규제·정책 환경이 조성될 수 있는 이론적 기반을 조성하고자 한다"며 "이를 바탕으로 정부나 국회에 핀테크 산업의 성장 필요성을 적극 설득해 나가고자 한다"고 설명했다.현재 핀테크산업협회의 사무처 인력은 10명이다. 이 회장은 "산업이 성장해 나가면서 살펴봐야 할 규제·정책의 범위도 확대됨에 따라 전문성을 갖춘 정책지원팀을 꾸려 대응하고 있다"며 "핀테크 기업들의 사업 분야나 니즈가 다양한 만큼 '혁신지원팀'을 따로 만들어 회원사의 성장을 지원할 수 있는 각종 사업을 진행하고 있다"고 말했다.이근주 핀테크산업협회장./사진=장동규 기자  ━"핀테크 분야 방대해… 시너지 내야"━핀테크 부문의 사업 분야도 다양하다 보니 의견을 듣고 취합하는데 어려움이 있다고 이 회장은 토로했다.그는 "핀테크업 종사자들과 자주 만나 많은 이야기를 듣는 것이 해결책이라고 생각한다"며 "이처럼 활발한 소통을 통해 협회는 물론 회원사 간 신뢰가 쌓여 업권 전체에 시너지 효과가 날 것"이라고 기대했다.다양한 의견을 듣는 과정에서도 회원사의 규모나 개별 이익보단 업권 전체가 성장할 수 있는 방향이 무엇인지 회원사와 함께 고민해 나가려 한다는 게 이 회장의 생각이다.일각에선 'OO페이'로 불리는 핀테크사의 간편결제 수수료가 일반 카드사보다 높아 소상공인·자영업자의 부담을 키운다는 지적이 나온다. 이에 금융감독원은 금융위원회에 등록된 전자금융업자 중 월평균 간편결제 규모가 1000억원 이상인 업체를 대상으로 간편결제 서비스 수수료율을 공시하기로 했다.이 회장은 "간편결제사와 카드사는 역할과 기능이 다르다"며 "예를 들어 여신행위가 가능한 카드사와 달리 간편결제사는 수수료만이 수입의 원천이고 간편결제의 경우 카드 의무수납제와 같은 제도적 장치로 보호를 받고 있지도 않다"고 설명했다.이어 "수수료 단순 비교가 부당한 이유는 간편결제 수수료에는 카드 수수료가 비용으로 포함돼 있기 때문"이라며 "전체 수수료에서 카드 수수료와 호스팅·서버 등 부대비용, 서비스 제공 비용 등을 제외하면 간편결제사가 수취하는 순 수수료는 낮은 수준"이라고 주장했다.특히 이 회장은 "간편결제사는 카드사와 달리 온라인 가맹점의 도산, 지급불능 위험 등 부담을 지고 있다"며  "간편결제사의 수수료에는 이러한 위험부담에 따른 대가와 서비스 수수료가 포함돼 있다"고 부연했다.따라서 간편결제 수수료와 카드 수수료 단순 비교는 부적절하며 특히 간편결제사가 카드사에 비해 과도한 수수료를 수취하고 있다고 볼 근거는 전혀 없다고 이 회장은 강조했다.━대환대출 플랫폼 이어 핀테크 ESG 위원회 출범까지━미국 애플사의 비접촉식 간편결제 서비스인 애플페이가 한국 출시를 공식화하면서 네이버페이·카카오페이·토스 등 국내  간편결제업체들에 위협이 될 수 있다는 우려와 관련해 이 회장은 "'애플페이가 완전히 정착하기 위해서는 단말기 보급 문제, 제휴카드사, 수수료 부담, 교통 이용 여부 등 과제가 아직 남아있다"고 말했다.그러면서 "애플페이가 시장진출을 위해 이러한 과제해결의 노력을 하는 과정에서 기존 간편결제사들 또한 애플페이가 가진 장점들을 흡수하고 시장점유율을 유지하기 위한 이용자 혜택 등을 고민하게 될 것"이라고 설명했다.궁극적으로 애플페이의 시장진출에 따른 경쟁 환경에서 소비자 편익 증가에 대해 얼마나 고민하고 노력하는지에 따라 간편결제 시장의 주도권이 정해질 것이라는 게 이 회장의 판단이다.특히 올 5월에는 고금리 장기화에 따라 대출자들의 이자부담을 줄여주기 위한 대환대출 플랫폼이 출시된다.대출자가 더 낮은 금리의 대출로 갈아타려면 복잡한 과정을 거쳐야 하지만 대환대출 플랫폼이 마련되면 사용자는 대출상품을 검색하고 대환 신청·실행까지 모두 비대면 원스톱으로 할 수 있게 된다.이 회장은 "현재 20여개의 플랫폼이 온라인 대출비교 시장에서 경쟁하고 있다"며 "온라인 대출비교 플랫폼이 등장한 이후 금융사들의 대출 모집 수수료는 오프라인·콜센터를 통한 모집 대비 대거 감소했다"고 설명했다.이어 "온라인 대출 플랫폼은 지점 영업채널이 부족한 2금융권에게 상당한 수익확보와 비용절감에 도움이 되고 있다"고 덧붙였다.핀테크사가 대환대출 플랫폼을 통해 금융사에 부과하는 수수료가 대출금리에 전가돼 금융소비자의 부담으로 이어질 것이라는 지적과 관련해 이 회장은 "플랫폼 시장의 경쟁체제에서 특정 플랫폼이 높은 수수료를 제시할 경우 경쟁에서 도태될 수밖에 없다"고 지적했다.향후 대환대출 플랫폼 도입 시 플랫폼 시장 경쟁이 더 활발해질 것으로 보임에 따라 단순하게 수수료를 낮추는 협의보다 금융사 측에서 소비자 선호가 높은 상품을 개발하거나 플랫폼과 협업을 통한 전용상품을 개발하는 등 다양한 비즈니스 협력을 통해 비용 문제를 상호 협의하는 과정이 필요하다고 이 회장은 판단했다.마지막으로 이 회장은 핀테크 산업의 지속가능한 성장 동력을 확보할 수 있는 환경을 마련하기 위해 다양한 사업을 전개하겠다는 포부도 드러냈다.그는 "핀테크 업계 전반의 역량 강화를 위해 올 상반기 '핀테크 아카데미'를 운영할 계획"이라며 "회원사 임직원이 현장에서 필요로 하는 교육 커리큘럼을 마련해 온·오프라인을 통해 제공할 예정"이라고 설명했다.특히 이 회장은 핀테크 업권 내 ESG(환경·사회·지배구조) 경영이 활성화되도록 지원하겠다고 힘줘 말했다.그는 "기업의 가치평가에 ESG가 중요하게 대두되는 만큼 회원사들이 ESG에 관심을 갖고 실천해 나갈 수 있는 방향성을 제시하고자 한다"며 "올 1월 발족한 '핀테크 ESG 위원회'를 통해 국내외 정보 제공이나 교육 프로그램을 제공하고 업계 공동의 사회적 책임 활동을 전개해 나갈 예정"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>당국 엄포에도 예대금리차 더 벌어져…은행 '곤혹'</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004158630?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1월들어 시중은행 대부분 확대KB 0.91%P 최대···부산銀 줄어카뱅 등 인터넷 은행들은 축소'이자 장사' 논란 더 거세질 듯[서울경제] 인터넷전문은행을 제외한 시중은행 대부분의 예대금리차(예금금리와 대출금리 차이)가 올해 1월 들어 확대된 것으로 나타났다. 금융권 ‘돈 잔치’ 논란이 심화되는 가운데 예대금리차가 커지면서 은행의 ‘이자 장사’에 대한 비판도 더욱 거세질 것으로 전망된다.20일 은행연합회에 따르면 올해 1월 기준 가계예대금리차가 전월보다 축소된 시중은행(인터넷전문은행 제외)은 BNK부산은행 한 곳뿐이었다. 또 서민금융상품을 제외한 가계예대금리차가 축소된 은행은 단 한 곳도 없었다.2115A10 5대 시중은행 가계예대금리차 추이5대 시중은행 가운데 예대금리차가 가장 큰 곳은 KB국민은행이었다. 국민은행은 전월보다 가계예대금리차는 0.91%포인트, 서민금융을 제외한 가계예대금리차는 0.9%포인트 늘어 각각 1.56%포인트, 1.51%포인트를 기록했다. KB금융은 지난해 12월 만해도 가계예대금리차가 0.65%포인트로 시중은행 가운데서도 작은 편이었지만 지난달 큰 폭으로 확대됐다. KB국민은행 관계자는 “지난달 법인의 단기성 예금 비중이 늘면서 평균 예금금리는 낮아진 반면 주택담보대출 대비 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 확대됐다”고 설명했다.시중은행 예대금리차는 전반적으로 확대되는 경향을 보이고 있다. NH농협은행의 가계예대금리차는 지난해 11월 1.33%포인트에서 지난달에는 1.49%로 벌어졌으며 같은 기간 신한은행은 0.84%포인트에서 1.01%포인트, 우리은행은 1.08%포인트에서 1.34%포인트, 하나은행은 0.71%포인트에서 1.13%포인트로 증가했다.반면 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행들은 예대금리차가 축소됐다. 카카오뱅크는 가계예대금리차가 1.33%포인트로 전월보다 0.5%포인트 축소됐고 케이뱅크와 토스뱅크도 각각 0.32%포인트, 0.76%포인트 줄었다.예대금리차 축소 등 은행권에 대한 정부의 압박이 거세지는 상황에서 오히려 금리차가 확대되는 모습을 보이자 은행들은 곤혹스러워하고 있다. 은행의 한 관계자는 “지난달 대출 잔액이 크게 감소했는데 기존 대출 상환에 나서는 사람이 많아지면서 상대적으로 최근 금리가 높게 실행된 대출 비중이 늘어났다”며 “은행마다 여러 가지 사정과 특성이 있는데 숫자는 이를 그대로 반영하지 못하기 때문에 답답한 면도 있다”고 털어놓았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.02.17.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>은행 과점 깰 챌린저뱅크…해외 사례 보니</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002684769?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>英 레볼루트, 금융그룹과 어깨 견줘투자 이외 수익모델 한계 회의론도5대 은행ⓒ연합뉴스[데일리안 = 김효숙 기자] 금융당국이 최근 5대 주요은행 과점 체제를 깨뜨리겠다고 공언하면서, 대안으로 거론되는 챌린저뱅크에 대한 관심이 커지고 있다. 유럽에선 챌린저뱅크들이 비약적으로 성장하며 은행 간 경쟁을 촉진하고 있는 점을 눈여겨 본 것이다.다만 이들은 수익성과 지속가능성이 한계로 꼽히고, 챌린저은행을 표방하며 탄생한 우리나라 인터넷전문은행 역시 시장 점유율이 작다는 점에서 챌린저뱅크에 대한 회의적인 시각도 나온다.17일 금융권 따르면 금융당국이 5대 금융지주, 시중은행의 과점 체제를 손질하겠다는 의지를 드러내면서 챌린저뱅크가 조명받고 있다.챌린저뱅크는 디지털 기술을 활용하는 측면에서는 기존 은행의 인터넷 뱅킹, 인터넷전문은행과 유사하지만, 기존 금융서비스의 보수적인 운영 방식에서 벗어나 효율적인 프로세스를 추구하고 개인영업, 기업영업, 주택담보대출 등 특정 서비스에 특화돼 있다는 특징을 보인다. 우리나라에서는 인터넷전문은행이 챌린저뱅크를 표방하며 탄생했다.영국이 지난 2008년 글로벌 금융위기 이후 대형은행들의 시장 독점을 저지하기 위해, 규제를 풀며 신생 은행 탄생을 독려한 결과 챌린저뱅크들이 급부상했다.챌린저뱅크가 가장 활발한 영국은 지난해 2월 기준 레볼루트, 몬조, 스탈링 등 3대 은행을 비롯해 26개 챌린저뱅크가 있다.가장 대표적 챌린저뱅크는 레볼루트로, 영국의 4대 금융그룹과 어깨를 견주는 몸값으로 평가되고 있다. 2021년 기준 레볼루트의 가치는 330억 달러로 영국 4대 금융그룹 중 하나인 넷웨스트(334억 달러)에 가깝다.환전과 송금 서비스로 사업을 시작했으나 은행, 보험, 주식, 가상자산, 여행 등으로 서비스 영역을 확장하고 구독 서비스를 시행하며 젊은 세대에게 큰 인기를얻었다. 영국을 비롯해 30여개국에서 이용이 가능하며 약 1600만명의 사용자를 보유하고 있다.몬조는 영국 내에서 500만명이 넘는 회원수를 보유한 챌린저뱅크로 자국에서 가장 인기가 많다. 마스터카드와의 협업을 통한 선불카드 서비스를 출시하면서 출범한 몬조는 2017년 은행업 인가를 획득해 기존 고객들에게 개인용, 중소기업용 계좌, 공유계좌(모임통장), 당좌대월, 저축 상품 중개, 간편 대출 서비스 등을 제공해 빠르게 성장했다. 몬조의 기업가치는 45억 달러로 평가받고 있다.스탈링은 셋 중 가장 늦게 은행업 인가를 받았지만, 2020년 이들 중 가장 먼저 흑자 전환에 성공했다. 스탈링의 성공은 개인용, 기업용, 10대 전용, 달러·외화 전용, 공유(모임) 등으로 고객군을 명확히 했다. 또 신속한 고객센터, 중소기업 중심 예금·대출 서비스로 기업 고객을 선점했다.미국의 대표 챌린저뱅크는 체이스다. 미국의 JP모건이 영국에 진출한 챌린저뱅크로지점 없는 모바일 앱 기반 뱅크로 온라인상 빠른 계좌 개설, 카드 사용에 대한 1% 캐시백, 해외 결제·인출 수수료 면제, 잔돈 반올림 기능, 24시간 고객 상담지원 등의 서비스를 계좌 수수료 없이 제공한다.하지만 신속성, 확장성이 강점인 해외 챌린저뱅크 역시 '수익성'이라는 한계에서 자유롭지 못하고 있다. 심수연 자본시장연구원 선임연구원은 '유럽 챌린저은행의 성장 및 시사점' 보고서를 통해 "은행 수 및 이용고객 수 측면에서 은행이 비약적으로 성장하고 있음에도 이익을 시현하는 은행은 소수에 그친다"며 "챌린저뱅크의 가치는 계속 상승하며 대규모 투자금이 유입이 계속되고 있으나 지속가능성을 위해 수익 모델을 마련해야 한다"고 지적했다.우리나라 금융권 '메기'로 탄생한 인터넷전문은행이 아직 시장 존재감이 미미한 점도 챌린저뱅크 필요성에 대해 의구심을 갖게 하는 부분이다. 카카오뱅크, 케이뱅크, 토스뱅크는 수익모델, 목표 고객, 주요사업 부문이 챌린저뱅크와 비슷함에도, 이들이 차지하는 자산은 전체 은행권에서 한자릿 수 비율에 그친다.은행권 관계자는 "영국에서 보듯 완전 경쟁체제로 가더라도 은행업은 규제가 많다 수익성을 내기 쉽지 않다"며 "과점체제를 깨고 금융소비자들에게 편익이 돌아갈 유일한 대안으로 보기 어렵다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>고금리에 '줍줍 재테크' 뜬다… 올해 금융 트렌드, 자산방어·절약</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000897827?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>/사진=하나금융 경기 둔화 여파에 금리가 오르면서 안전하고 절약하는 재무관리 태도가 금융소비자의 금융생활 전반에 확산될 전망이다. 주식시장 불황에 자산 가치를 지키는 금융소비자의 노력이 요구되는 '디펜스(방어) 재테크'가 지속될 것으로 보인다.  하나금융경영연구소는 올해 주목할 만한 금융소비의 특징을 제시한 '2023년 금융소비 트렌드와 금융 기회 보고서'를 22일 발표했다.하나금융경영연구소가 제시하는 올해 금융 소비 트렌드는 ▲디펜스 재테크 ▲줍줍 티끌 모으기 ▲'나'에게 집중 ▲'피지털' 금융 서비스 ▲'알파(α) 세대'의 부상 등이다.하나금융경영연구소에 따르면 올해 가계 재무 상황이 작년보다 악화할 것이라고 예상하는 부정 전망(43%)이 개선 전망(12%)보다 4배가량 높다. 자산 가치를 지키려는 소비자의 노력이 더욱 강화될 전망이다.고위험 고수익형 상품보다 채권 등 안정형 상품으로 여유 자금이 이동하고 자산 방어의 연장선에서 연금 등 장기 자산관리에 대한 인식이 강화될 것으로 보인다. /사진=하나금융경영연구소  올해 재무관리에 소액 재테크 서비스를 이용할 의향이 있다는 소비자는 71%에 달했다. 적은 돈이라도 알뜰히 관리하려는 수요가 늘며 소비자의 소액 재테크 선호는 더욱 강화될 전망이다.또 소비자의 66%는 건강관리, 외국어 학습 등 여러 가지 자기 계발 활동에 참여하고 있다. 올해는 저축 습관 형성뿐만 아니라 건강 등 다양한 자기관리 분야와 연계된 챌린지형 예적금 등 금융 상품 출시가 예상된다.피지털이란 물리적 공간(Physical)과 디지털(Digital)의 합성어로 체험이 가능한 오프라인 매장과 편리한 디지털 서비스 간의 결합을 의미한다. 신종 코로나바이러스(코로나19)의 엔데믹 전환 이후 소비자의 억눌린 공간 경험 수요가 폭발하며 유통 산업 중심으로 피지털 마케팅 붐이 일고 있다. 2010년 이후 출생자를 지칭하는 알파 세대는 저출산·고령화 사회에서 풍족하게 태어나 용돈 관리 교육까지 받은 '내·돈·내·관'(내 돈은 내가 관리) 세대다.현재 주요 시중은행과 인터넷전문은행은 미성년자 대상 서비스를 운영 중이며 특히 하나은행과 토스뱅크는 만 14세 이하까지도 대상으로 삼고 있다.신상희 하나금융경영연구소 수석연구원은 "올해는 디지털 기술을 통해 편리한 서비스를 제공하면서 소비자의 체험 수요에 부응하기 위해 금융사의 피지털화 노력이 강화될 것"이라며 "소비자가 경기 둔화를 본격적으로 체감하게 되면서 안정 지향적 자산 관리와 소액 재테크가 확산할 가능성이 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>토스모바일, 알뜰폰 요금제 드디어 전국 오픈</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002107597?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[토스모바일 제공][헤럴드경제=이영기 기자] 토스 사용자라면 전국 어디에서나 편리하고 빠르게 통신 서비스에 가입할 수 있게 됐다.토스의 통신 자회사 ‘토스모바일’은 통신 요금제 가입을 전국 단위로 오픈했다고 22일 밝혔다. 앞서 토스모바일은 지난달 30일 가입을 개시한 후 사전신청자를 대상으로 시범 서비스를 운영해왔다.시범 서비스를 통해 가입자들을 분석한 결과, 요금제 탐색부터 유심배송 신청까지 평균 3분이 소요된 것으로 조사됐다. 또 퀵 배송지역(수도권 및 광역시 일부지역)에서는 유심 수령까지 평균 17분이 걸렸다. 토스모바일은 유심도 무료로 제공하고 있다.토스모바일이 사전 가입자를 대상으로 한 만족도 조사(816명 응답)에서 토스모바일의 강점으로 편리한 가입, 개통 과정 등이 꼽혔다.사전 가입자들은 총 4개 요금제 중 ▷데이터 7GB 기본, 데이터·통화·문자 무제한 (월 1만4800원, 정가 2만4800원) 요금제에 가장 많은 관심을 보였다. 전체 가입자의 33.2%가 해당 요금제를 택했다.이어 ▷데이터 71GB 기본, 데이터·통화·문자 무제한(프로모션 가격 3만4800원, 정가 5만4800원) 27.8% ▷100GB 데이터 기본, 데이터·통화·문자 무제한(프로모션 가격 월 3만9800원) 26.9% 순이었다.가입자의 71%는 기존 이통사 사용자였다. 가상이동통신망사업자(MVNO)는 29%로 집계됐다.토스모바일 요금제는 미사용 데이터 캐시백과 24시간 고객센터 운영 등의 혜택을 제공한다. 토스 앱에서 잔여 데이터 확인 등도 손쉽게 가능하다. 또한, 토스페이 결제시 10% 캐시백 혜택을 제공한다.토스모바일 관계자는 “기존 알뜰폰 요금제에서 찾아볼 수 없던 미사용 잔여 데이터 캐시백과 토스페이 전 가맹점 10% 캐시백 혜택이 포함된 요금제에 많은 사용자들이 몰렸다”며 “편리한 가입 경험과 직관적인 셀프케어 등 장점을 극대화해 좀 더 많은 토스 유저가 만족할 만한 서비스를 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>연회비 없이 혜택 쏠쏠했는데…혜자카드의 '배신'</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004812148?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크토스 체크카드 '에피소드4'해외 결제시 캐시백 비율3%→2%로 크게 낮아져우리 '010페이 체크카드'결제 때 0.2~10% 적립서평일 0.2%, 주말 0.4% 고정토스뱅크 제공연회비가 없는 체크카드인데도 할인·적립률이 높아 젊은 층에서 큰 인기를 끈 ‘토스뱅크 카드’와 ‘010페이 카드’의 혜택이 다음달 1일부터 바뀐다. 두 카드 각각 결제 때 캐시백해주는 프랜차이즈나 특별 적립률이 적용되는 날이 늘어나는 반면 해외 결제 캐시백 비율과 기본 적립률은 크게 떨어진다.토스뱅크는 지난 14일 ‘에피소드 4’라는 이름의 체크카드 혜택 변경을 발표했다. 국내 각 할인 영역에서 하루 1회 1만원 미만 결제하면 100원, 1만원 이상 결제할 경우 500원을 캐시백해주는 틀은 기존과 같다. 단 커피전문점 편의점 패스트푸드 영화 디저트 택시 대중교통 등 기존 7개 할인 영역에 ‘구독서비스’ 영역이 추가됐다. 커피전문점 영역엔 빽다방과 공차, 패스트푸드 영역엔 써브웨이와 파파이스 등 신규 브랜드도 포함됐다.할인 영역이 늘어났지만 추가로 받을 수 있는 캐시백은 크지 않을 것으로 예상된다. 월 1회 결제하는 구독서비스 특성상 각 브랜드에서 한 달에 한 번만 캐시백되는데 월 최저 구독료는 △네이버플러스 4900원 △넷플릭스 5500원 △디즈니플러스 9900원 △쿠팡와우 4900원으로 모두 1만원 미만이어서 캐시백 금액은 각각 100원에 불과하기 때문이다. 네 개의 구독서비스를 모두 구독하고, 결제일을 각기 달리 설정해 최대로 캐시백을 받더라도 월 400원에 불과하다는 뜻이다.눈에 띄게 혜택이 줄어드는 것은 해외 이용 캐시백 비율이다. 해외 결제 캐시백 비율은 3%에서 2%로 크게 낮아진다.토스뱅크 카드의 경우 해외 결제 때 건당 0.5달러의 해외 이용 수수료와 결제액 1%의 국제 카드 브랜드 수수료가 부과된다. 이전에는 해외에서 약 30달러 이상을 결제할 땐 토스뱅크 카드가 유리했지만 이제는 기준선이 50달러 초과로 크게 높아진다. 50달러를 결제하면 1%의 국제 카드 브랜드 수수료로 0.5달러, 건당 수수료 0.5달러로 1달러가 수수료로 나가는데 캐시백으로 결제액의 2%인 1달러가 들어와 내는 수수료와 받는 캐시백이 같아져서다. 실제 캐시백 효과는 50달러가 넘는 금액을 결제할 때만 생긴다.핀테크 업체 헥토파이낸셜과 우리카드가 협업해 출시한 010페이 체크카드의 적립률도 다음달부터 크게 낮아진다. 소위 ‘응카’라 불린 이 카드는 기존에 ‘결제행운상자’라고 해서 결제 때마다 △1.2%의 확률로 10% 적립 △1.2%의 확률로 2% 적립 △97.6%의 확률로는 0.2~1%를 적립해줬다. 하지만 다음달부터는 적립률이 평일 0.2%, 주말 0.4%로 고정된다.매달 10일 5000원 이상 결제 시 건당 1000원, 하루 1만원 한도로 10%를 적립해주던 ‘응카데이’ 혜택도 반토막 난다. 응카데이를 매달 10, 20, 30일로 이틀 늘리는 대신 특별 적립률은 10%에서 최대 3.7%로 바뀐다. 평일 0.2%, 주말 0.4%의 기본 적립률에 매달 10, 20, 30일엔 3.3%포인트가 추가되는 방식이다. 월 1만5000원 이상 대중교통을 이용할 경우 최대 2000원 한도로 10%씩 적립해주던 대중교통 적립 혜택은 없어진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.02.24.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"푸틴의 군대, 아내 강간하고 남편·아이도...전시 성폭력은 구조적 범죄"[인터뷰]</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000725278?sid=104</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[전쟁 1년, 우크라이나를 다시 가다] &lt;4신&gt; 전쟁 중 러시아군 자행 인면수심 성폭력 전문가들 "구조적 범죄... 러시아 책임"유엔 보고서 발췌"2022년 3월 우크라이나 키이우주의 한 마을. 러시아 군인 두 명이 가정집에 무단 침입했다. 둘은 22세 여성을 차례로 강간했다. 여성의 남편에게도 성폭력을 저질렀다. 둘은 자신들이 보는 앞에서 부부가 성관계 갖기를 강요했다. 부부의 4세 딸도 유린했다."유엔은 같은 마을에서 러이사군이 저지른 유사한 성범죄 3건을 더 확인했다. 블라디미르 푸틴 러시아 대통령이 '조국 수호자의 날'을 하루 앞둔 22일(현지시간) 모스크바 루즈니키 스타디움에서 열린 '조국 수호자에게 영광을' 콘서트에서 수만 군중을 향해 인사하고 있다. 모스크바=로이터 연합뉴스러시아는 지난해 2월 24일 우크라이나를 침략한 뒤 수많은 전쟁범죄를 저질렀다. 강간을 비롯한 성폭력도 서슴지 않았다.  성폭력 피해자는 피해 신고를 주저하는 경향이 강하다. 사회가 그들에게 강요한 수치심 때문이다. 더구나 우크라이나 피해자들은 신고했다가 러시아군에게 보복당할까 두려워 더 굳게 입을 닫는다. 현재로선 피해 규모 파악조차 어렵다는 뜻이다. 한국일보는 우크라이나에서 발생한 전시 강간 실태를 파악하고 국제사회가 어떻게 대처해야 하는가를 살펴보고자 현지에서 전문가들과 만났다. (왼쪽부터) 여성 폭력 관련 인권단체인 '라 스트라다'의 카테리나 보로크디나 부대표, 러시아군의 전쟁범죄 증거를 수집한 기여를 인정받아 지난해 노벨평화상을 공동 수상한 우크라이나 인권단체 '시민자유센터'의 로만 네콜리악 국제관계조정관, 러시아 전시 성폭력에 대한 철저한 조사를 위해 설립된 우크라이나 국회의 위원회에서 부위원장을 맡고 있는 인나 소우선 의원. 키이우=신은별 특파원△러시아군의 전쟁범죄 증거를 수집한 기여를 인정받아 지난해 노벨평화상을 공동 수상한 우크라이나 인권단체 '시민자유센터'의 로만 네콜리악 국제관계조정관 △여성 폭력 관련 인권단체인 '라 스트라다'의 카테리나 보로크디나 부대표 △성평등과 소수자 인권에 관심을 쏟아온 인나 소우선 우크라이나 의원 △유럽 인권 증진 등을 목적으로 설립된 '유럽평의회'의 카카비아토스 파노스 대변인을 인터뷰했다. 파노스 대변인만 서면으로 만났다.  유엔이 지난해 10월 발간한 보고서에 실려 있는 러시아군의 전시 강간 사례. 빨간 상자 안에 담긴 사례는 '러시아군 2명이 22살의 우크라이나 여성을 강간하고, 남편에게도 성폭력을 저질렀다. 그중 한 명은 4세 딸에게도 구강성교를 시켰다'는 내용이다. 유엔 캡처"4세부터 83세까지 피해 "… 너무 잔혹한 러시아전문가들이 조심스럽게 들려준 사례와 유엔을 비롯한 국제기구의 조사 현황으로 확인한 전시 성폭력의 실상은 참혹했다. △우크라이나 북부 체르니우주의 한 마을을 점령한 러시아군은 83세 여성을 강간했다. 거동이 불편한 그의 남편도 성폭력을 당했다. △지난해 3월 키이우의 한 마을에서는 러시아군이 "내 아내를 건드리지 말라"고 말리는 남편을 총살한 뒤 아내를 강간했다. 피해자 보호를 위해 성폭력 수사는 과정과 내용을 철저히 비밀에 부친다. 25년간 인권 분야에서 활동한 보로크디나 부대표는 "우크라이나 법무부가 파악하고 있는 전시 강간은 약 200건 정도인 것으로 안다"고 전했다. 유엔은 100건 정도를 파악했다. 라 스트라다가 별도로 운영하는 '핫라인'을 통해 접수된 사건은 32건이다.러시아 군인들이 13일(현지시간) 러시아의 특수 군사 구역에서 다탄두 로켓을 설치하고 있다. 타스통신 연합뉴스'상처가 커서' '두려워서' 말 못 하는 피해자들이는 극히 일부에 불과할 것이라는 게 중론이다. 소우선 의원은 "성폭력 피해자 다수가 너무 충격을 받은 나머지 우크라이나를 떠나 버렸다"고 했다. 네콜리악 조정관은 "성폭력 피해자들은 '강간당했다'는 사실을 부끄럽게 여기는 경향이 있어서 쉽게 말을 꺼내지 못한다"고 했다. 프라밀라 패튼 유엔 사무총장 특별대표도 한 기자회견에서 "많은 피해자가 인터뷰를 거부했고, 자살을 고려한 이들도 있었다"고 말했다. 성폭력을 인지하지 못하는 경우도 많다. 보로크디나 부대표는 "우크라이나 여성이 다수의 러시아군 앞에서 '옷을 벗으라'고 강요를 당했다는 사례들이 있었다"며 "일부 피해자들은 '육체적 폭력이 없었는데 이것도 성폭력에 해당하느냐'고 물어왔다"고 했다. 라 스트라다에는 한 여성이 러시아군에게 성폭력을 당했다는 신고가 접수됐다. 범죄 장면을 여성의 3세 아이가 지켜봤다. 이 경우 아동도 성폭력 피해자여서 신고 대상이라는 사실을 아는 사람은 많지 않다. 전쟁의 공포에 장기간 노출되다 보니 성폭력 피해를 '상대적으로 사소한 것'이라고 생각하는 인식도 신고를 주저하게 한다. 여성 폭력 관련 인권단체인 '라 스트라다'의 카테리나 보로크디나 부대표가 22일(현지시간) 우크라이나 수도 키이우의 라 스트라다 사무실에서 만나 한국일보와 인터뷰하고 있다. 키이우=신은별 특파원우크라이나 여성들만 위험한 건 아니다. 네콜리악 조정관은 "분쟁 지역에서는 언론인, 인권·평화 활동가 등도 비슷한 위험에 노출돼 있다"고 했다. 남성도 피해자가 된다. 보로크디나 부대표는 "남성이 신고하는 경우는 10% 미만"이라면서도 "남성은 성폭력을 당했다는 것을 더 큰 수치로 여기기 때문에 신고 건수와 피해 건수가 더 큰 차이를 보일 것"이라고 말했다. '조심스럽게' 접근... 우크라 검찰청 '챗봇' 운영피해 사실이 끝까지 침묵에 부쳐져 러시아군 가해자들이 처벌을 면제받는 건 최악의 결말이다. 그래서 우크라이나 검찰청은 지난해 말 '성폭력 신고 챗봇'(인간과 대화하는 인공지능 프로그램)을 만들었다. 익명으로 신고할 수 있다. 보로크디나 부대표는 "성폭력을 당한 장소와 폭력 행위를 챗봇에 전달하는 것만으로 가해자를 특정하는 데 도움이 된다"고 말했다. 챗봇을 통해  정부에서 받을 수 있는 지원 등도 안내받는다. 성폭력 수사에선 '정의 구현'보다 '피해자 보호'가 우선이라는 원칙이 우크라이나에서도 지켜지고 있다. 보로크디나 부대표는 "피해자가 말하기 원하지 않는 것 이상을 요구하지 않는 관대함이 필요하다"고 말했다. 아동 피해자는 더 조심스럽게 조사하고 치료한다. 지난해 노벨평화상을 공동 수상한 우크라이나 인권단체 '시민자유센터'의 로만 네콜리악 국제관계조정관이 20일(현지시간) 우크라이나 수도 키이우의 사무실에서 한국일보와 인터뷰하고 있다. 키이우=신은별 특파원"전시 성폭력은 개인 아닌 국가의 책임"우크라이나인에게 성폭력을 저지른 건 러시아의 개별 군인이지만, 책임의 최종 주체는 러시아 정부라고 전문가들은 입을 모았다. 전시 성폭력은 '구조적 범죄'이기 때문이다.  네콜리악 조정관은 시민자유센터 대표인 올렉산드라 마트비추크의 말을 빌려 "러시아는 성폭력을 전쟁 전략으로 활용하고 있다"고 말했다. 우크라이나인의 육체와 정신을 말살해 우크라이나를 정복하려 한다는 것이다.  그는 또 "러시아군 수뇌부가 병사들을 일부러 통제하지 않는 것일 수도 있고, 이미 통제가 불가능한 상태에 빠진 것일 수도 있다"고 말했다. 의도적으로 방관하고 있다면, 러시아 정부의 책임은 더 커진다. "러시아 정부에 반드시 책임 묻겠다"시민자유센터는 전쟁이 끝난 뒤 러시아군과 정부 인사들을 법의 심판대에 세우는 증거자료로 쓰기 위해 성폭력 범죄를 꼼꼼하게 기록하고 있다. 우크라이나 의회에서는 전시 강간의 철저한 조사를 위한 입법도 진행 중이다. 소우선 의원은 "의원 10여 명으로 꾸린 별도 위원회를 준비하고 있다"고 말했다.  인나 소우선 우크라이나 국회의원이 18일(현지시간) 우크라이나 수도 키이우의 모처에서 한국일보와 인터뷰하고 있다. 그는 러시아 전시 성폭력에 대한 철저한 조사를 위해 최근 설립된 우크라이나 국회의 위원회에서 부위원장을 맡고 있다. 키이우=신은별 특파원국제사회와도 협업하고 있다. 독일 등 다수의 국가에서 러시아의 전쟁범죄를 조사하기 위한 수사팀을 파견했다. 소우선 의원은 "성폭력을 비롯한 러시아의 전쟁범죄는 전 세계가 보편적으로 중시하는 '인권' 문제이므로 국제사회가 함께 조사해야 한다"고 말했다. 별도의 국제기구를 설립해 러시아의 전시 성폭력을 처벌해야 한다는 목소리도 커지고 있다. 파노스 대변인은 "러시아의 전쟁범죄만 전문적으로 다룰 국제형사재판소를 설립해야 한다는 게 유럽평의회의 굳은 입장"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>"10원 모아 커피 한잔" 직장인들, 점심시간 광장에 모이는 이유는</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000896813?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>지난 17일 서울 중구 서울시립미술관을 찾은 시민들이 토스 '10원 줍기' 서비스에 참여하고 있다. 해당 서비스는 사람이 많이 모일수록 많은 포인트를 얻을 수 있어 점심시간 동안 많은 시민들이 시립미술관에 모였다./사진=뉴스1 모바일 금융플랫폼 '토스'가 출시한 '함께 토스 켜고 포인트 받기' 서비스가 앱테크(앱+재테크)족들의 관심을 끌고 있다.19일 금융권에 따르면 지난달 18일 토스가 출시한 '함께 토스 켜고 포인트 받기' 서비스의 누적 사용자 수는 150만명을 돌파했다.'10원 줍기'로 불리는 이 서비스는 스마트폰의 블루투스 기능과 토스 앱을 켜면, 주변에 토스 앱을 켠 다른 사용자가 모바일 화면에 아이콘으로 나타난다. 이를 클릭하면 10원을 받을 수 있다.토스 관계자는 "이벤트가 아니고 지속해 가져가는 토스 앱 내 서비스로 물리적으로 근처에 있는 토스 사용자가 함께 토스를 켜서 리워드를 받아갈 수 있는 재미를 녹여낸 서비스"라고 설명했다.토스 앱과 블루투스를 켠 사람이 한곳에 많이 모일수록 많은 금액을 모을 수 있어 서울 중구 시립미술관 앞 광장에는 최근 인산인해를 이루고 있다.매일 점심시간마다 10원줍기 서비스를 이용하는 직장인 A씨는 "의사 권유로 하루에 만 보씩 걷는데 최근 토스 앱테크 서비스를 접하게 됐다"며 "점심시간 시립미술관 앞을 지나갈 때 매일 동시에 서너 명씩 찍히더니 오늘은 1분 사이에 약 20명을 찍어 3000원을 벌었다"고 설명했다.직장인 B씨는 "시립미술관 앞 광장이 10원 줍기 성지로 떠올라 점심 장소도 일부러 이 근처로 잡는다"며 "땅 파면 10원 한 장도 안 나오는데 운동도 하고 돈도 모으고 일석이조"라고 말했다.고금리가 장기화하고 고물가가 이어지면서 앱테크는 '쏠쏠한 부업'으로 자리 잡고 있다. 가장 대표적인 앱테크로는 걸음 수에 따라 보상을 제공하는 토스 '만보기'가 꼽힌다.토스 만보기는 사용자 스마트폰에 측정된 걸음 수와 위치 정보로 보상을 주는 시스템으로 1000걸음, 5000걸음을 완료하면 각각 10원씩 얻을 수 있으며 1만보를 걸으면 20원을 준다.삼성 금융사들의 통합 앱 '모니모'에도 앱테크 서비스가 탑재됐다. 모니모 이용자는 걸음 수에 따라 리워드 '젤리'를 받아 '모니머니'로 교환해 사용할 수 있다. '모니머니'는 보험가입, 송금, 펀드투자 등에 현금처럼 사용할 수 있다.젤리는 두 종류(젤리·스페셜 젤리)로 나뉜다. 젤리 1개당 10원 이상, 스페셜 젤리는 1000원 이상으로 교환할 수 있다.젤리와 모니머니의 교환 비율은 삼성 금융 계열사 가입에 따라 다르게 제공된다. 비회원은 1배에 그치지만 삼성생명·화재·증권·카드 중 1곳의 회원이면 1.1배, 2곳 회원이면 1.2배, 3곳은 1.3배, 4사 전부 회원이면 1.5배다.KB국민은행 앱 'KB스타뱅킹'도 매주 걷기 미션을 통해 최대 200 포인트리를 제공한다. 일주일에 3만5000보를 걸으면 100포인트리, 7만보를 걸으면 100포인트리를 추가로 준다. 100포인트리는 100원으로 현금화할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>'돈 잔치' '과점' 질타에도 은행 예대금리차 더 커져</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004812586?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1월 2.11%P…전달보다 0.38%P↑예금금리 하락폭이 대출보다 커은행권을 향한 금융당국의 ‘돈 잔치’ 비판에도 국내 은행의 평균 가계 예대금리차(대출금리와 예금금리 차이)가 5개월 만에 2%대로 확대됐다. 시장금리 하락 속에 예금금리가 대출금리보다 가파르게 떨어진 데 따른 결과다.20일 은행연합회에 따르면 지난달 정책서민금융(햇살론뱅크·햇살론15·안전망대출)을 제외한 국내 17개 은행(산업·한국씨티은행 제외) 가계부문 평균 예대금리차는 2.11%포인트로 전달(1.73%포인트)보다 0.38%포인트 커졌다. 지난해 10월(0.6%포인트) 이후 4개월째 오름세다.국민 신한 하나 우리 농협 등 5대 은행의 1월 평균 예대금리차는 1.18%포인트로 전월(0.73%포인트) 대비 0.45%포인트 확대됐다.예대금리차가 확대된 가장 큰 이유는 예금금리 하락이다. 5대 은행의 지난달 평균 수신(예금) 금리는 연 3.8%로 전월(연 4.31%)보다 0.51%포인트 떨어졌다. 반면 가계대출 평균 금리는 같은 기간 연 5.03%에서 연 4.98%로 0.05%포인트 내리는 데 그쳤다. 대출금리보다 예금금리 내림폭이 훨씬 커 예대금리차가 확대됐다고 은행권은 보고 있다.예금금리가 떨어지는 것은 시장금리가 하락하고 있어서다. 금융투자협회 채권정보센터에 따르면 은행채(AAA·무보증) 1년 만기 금리는 지난해 11월 연 5.081~5.117%로 올랐지만 지난 17일엔 연 3.773~3.815%로 내려왔다.지방은행과 인터넷은행의 예대금리차도 여전히 높다는 지적이 나온다. 전북 광주 대구 부산 경남 제주 등 6개 지방은행의 지난달 가계부문 평균 예대금리차는 2.92%포인트로 전월(2.76%포인트)보다 0.16%포인트 올랐다. 전북은행의 예대금리차가 6.4%포인트로 가장 높았다. 같은 기간 카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행 3개사의 평균 가계 예대금리차는 3.2%포인트에서 2.71%포인트로 0.49%포인트 하락했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[커버스토리] 예금과 대출의 차이…'예대마진'이 문제?</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004815390?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Cover Story그래픽=신택수 한국경제신문 기자우리는 물품보관소에 귀중품을 맡길 때 보관료를 냅니다. 반대 상황도 있을까요? 물건을 맡기는 사람이 거꾸로 돈을 받는 경우 말입니다. 있습니다. 바로 돈입니다. 은행에 돈을 맡기면 돈을 받습니다. 이자라는 것이죠. 은행은 돈을 맡아주는 수고를 해야 하는데 왜 보관료를 안 받을까요? 이유는 은행의 역할에서 비롯됩니다.은행은 기본적으로 예금된 돈을 다른 사람에게 빌려주고 이자를 받는 곳입니다. 1000원 맡기는 사람(예금자)에게 10원의 이자를 주고, 빌려가는 사람(대출자)에게 이자 15원을 받아 5원을 남기는 식이죠.이것이 바로 이자 수익, 즉 예대마진이라는 겁니다. ‘예대마진=대출이자(여신이자)-예금이자(수신이자)’이죠. 요즘 이 예대마진이 논란입니다. 두 가지 이유가 있습니다. 첫째는 은행들의 예대마진이 너무 많다는 것입니다. 둘째는 은행들이 자기 돈도 아닌 남의 돈으로 이자 장사를 해서 직원들에게 엄청난 보너스·퇴직금을 준다는 겁니다. 지난해 우리나라 5대 은행(국민·신한·하나·우리·농협은행)이 거둔 이자수익은 50조원에 달합니다.최근 대통령이 나섰습니다. 금리가 올라서 대출자들이 이자 내기에 허덕이는데 은행들은 이자수익으로 돈 잔치를 한다고 지적했습니다. 일반 기업들은 돈 많이 번 것을 자랑하는데 은행들은 전전긍긍합니다. 돈으로 돈(이자)을 버는 걸 죄악시했던 조상들의 생각이 맞는 걸까요? 아니면 은행도 할 말이 있는 걸까요?은행은 예금자와 대출자를 이어주는 존재…3자가 만족하는 교집합은 어디쯤일까요?여기 김씨, 박씨, 이씨가 있습니다. 김씨는 여윳돈을 은행에 예금하려는 사람입니다. 박씨는 은행에서 돈을 빌리려는 사람이고, 이씨는 은행에서 예금과 대출 업무를 관장하는 임원입니다. 세 사람의 이해관계는 다릅니다. 김씨는 이자를 많이 주는 은행을 좋아하고, 박씨는 싼 이자로 대출받으려 합니다. 이씨는 예금이자를 주고도 이익이 남도록 대출이자를 더 받으려 합니다. 세 사람이 모두 만족하는 교집합은 어디쯤일까요? 수학적으로 답을 구하기 어렵습니다.은행의 기본 업무는 김씨와 박씨를 만나게 해주는 겁니다. 은행이 없다면 김씨와 박씨는 어떻게 될까요? 아마도 이럴 겁니다. 김씨는 돈을 빌리려는 사람을 직접 찾아다닙니다. 집집마다 다니면서 “돈 필요하세요?”라고 물어야 하죠. 욕을 들을 수도 있습니다. 박씨 역시 이집 저집 다니면서 “돈 좀 빌려주세요”라고 호소해야 할 겁니다. 그래서 어떤 사람이 생각했습니다. “돈을 맡아주고, 빌려주는 곳을 만들자.” 그랬더니 예금자와 대출자가 이곳에서 쉽게 만났습니다. 예금하면 이자를 주고 대출하면 이자를 받고. 이런 곳이 점점 더 생겼고 우리가 은행이라고 부르는 기업으로 진화했습니다.여기 또 다른 세 명이 있습니다. A씨는 열심히 저축하는 사람입니다. B씨는 기술력을 바탕으로 인공지능을 만드는 사업가이고, C씨는 빌린 돈을 떼먹은 적이 있는 신용불량자입니다. 은행은 신용이 다른 A, B, C씨에게 다른 대출이자를 적용합니다. 은행은 대출이자를 정할 때 신용을 가장 중시합니다. 신용도가 높은 사람에겐 돈을 빌려줘도 떼일 염려가 적기 때문에 낮은 이자를 받고, 신용도가 낮은 사람에겐 돈을 빌려줬다가 못 돌려받을 가능성이 높기 때문에 그 위험성을 반영해 높은 이자를 물립니다.은행도 기업이어서 흑자를 내야 생존할 수 있답니다. 돈을 벌어야 월급도 주고 시스템 투자도 할 수 있어요. 수익을 내지 못하는 기업이 망하듯, 적자를 보는 은행은 망할 겁니다. 한 은행이 망하면 불안감이 다른 은행으로 번져서 예금자들이 한꺼번에 돈을 인출해가려는 ‘뱅크런’이 발생할 수 있어요.흑자를 내는 방법은 여러 가지입니다. 대표적인 게 예대마진입니다. 예대마진은 대출이자에서 예금이자를 뺀 이자 수익을 말합니다. 예금자에게 주는 이자보다 대출자에게 받는 이자가 많으면 이익이 나는 거죠. 우리나라에선 예대마진이 가장 큰 수익원입니다. 5대 은행(국민·신한·하나·우리·농협은행)은 2022년 50조원가량의 예대마진을 올렸습니다. 전체 수익의 70% 정도라네요. 비(非)이자 수익(유가증권 매매 수수료·자산운용 수익 등) 사업도 있죠.은행이 대출·예금 업무만 하는 곳은 아닙니다. 은행 종류도 한국은행, 산업은행, 수출입은행, 민간은행, 저축은행 등으로 다양하고, 업무도 성격에 따라 다채롭습니다. 일일이 설명하기는 지면이 좁네요. 제1금융권(일반은행+특수은행), 제2금융권(저축은행+새마을금고 등), 제3금융권(사채+대부업체)이라는 용어도 있습니다.은행은 굴릴 자금을 두 가지 방법으로 마련합니다. 하나는 예금을 많이 유치하는 겁니다. 예금이자를 다른 은행보다 많이 주면 돈이 몰릴 겁니다. 은행채를 적정 금리로 발행해 자금을 조달하기도 하죠.우리나라엔 5대 은행 쏠림 현상이 있습니다. 전체 금융회사에 들어오는 예금의 74%, 대출의 63%가량을 5대 은행이 차지합니다. ‘과점’ 논란이 나오는 이유죠. 예금자들이 5대 은행에 몰리는 것은 아무래도 큰 은행의 안전성을 보고 돈을 많이 맡기고, 대출이자가 상대적으로 낮으니까 돈을 많이 빌리려 하기 때문입니다. 신용도가 낮은 사람들은 2금융권, 3금융권으로 갑니다.은행들도 서비스 경쟁을 합니다. 예금이자와 대출이자를 조정해 고객을 유치하죠. 기술 변화에 맞춰 모바일뱅킹 투자를 늘리기도 합니다. 토스뱅크 카카오뱅크 등 정보기술력을 앞세운 금융기업이 들어오면서 경쟁은 한층 치열해지고 있지요. 은행은 설립할 때 매우 까다로운 조건이 있고, 정부의 인허가를 받아야 합니다. 또한 일반 기업보다 정부 감시를 많이 받습니다. 은행이 위험해지면 경제 전체가 휘청거리기 때문인데요. 금융당국은 감독이라고 말하고, 은행들은 기업 간섭이라고 합니다. NIE 포인트1. 예금자, 대출자, 은행의 이해관계가 어떻게 다른지 토론해보자.2. 은행이 하는 주요 업무의 종류를 찾아보자.3. 은행이 대출자의 신용을 중시하는 이유를 알아보자.아리스토텔레스 "돈이 이자를 낳으면 안 돼요"…"은행이 없었다면 기업·산업 성장하지 못했죠"은행들이 요즘 욕을 많이 먹고 있습니다. 서민들은 대출이자 갚느라 허덕이는데 은행들은 ‘이자 장사’로 번 돈을 성과급으로 나눠 갖는다는 비판입니다. “은행들이 예대마진으로 돈 잔치를 한다”는 윤석열 대통령의 비판이 결정적으로 작용했습니다. 반대 의견도 있습니다. “은행도 민간기업이고 일반기업과 마찬가지로 이윤을 남기는 게 당연한데 이자 수익을 너무 죄악시한다”는 거죠.그리스 철학자 아리스토텔레스(BC 384~BC 322)는 이자를 ‘극혐’한 대표적 인물입니다. 그는 돈이 돈(이자)을 낳는 것을 정말로 싫어했습니다. 그가 주장한 ‘화폐 불임설(doctrine of the sterility of money)’은 그래서 유명합니다. “동식물은 자연스럽게 번식할 수 있지만, 화폐가 새끼를 치는 것은 비자연스러운 것이다.” 여기서 새끼는 이자를 말합니다.중세 성직자들도 비슷하게 생각했습니다. 1139년 라테란 종교회의 포고령은 아무리 이자율이 낮다고 해도 빌려준 돈에 이자를 물리는 행위 자체를 부도덕한 일로 간주했고, 교회가 고리대금업자를 파면하는 일이 생기기도 했습니다. 파면당한 사람은 아무런 보호를 받지 못할 뿐만 아니라 누가 죽여도 하소연할 수 없었습니다.위대한 문학 작품에서도 이자는 죄악의 상징이 되었습니다. 윌리엄 셰익스피어(1564~1616)는 그 선봉에 선 작가였습니다. 그의 명작 &lt;베니스의 상인&gt;에 등장하는 고리대금업자 샤일록은 최악의 악마로 그려졌습니다. 유대인인 샤일록은 재산을 탕진한 뒤 돈이 필요했던 친구 바사니오의 부탁을 받고 돈을 빌리러 온 안토니오에게 끔찍한 제안을 합니다. 안토니오를 몹시 싫어했던 샤일록은 대출해주면서 “돈을 기한 내 갚지 못할 경우 안토니오 가슴살 1파운드를 떼겠다”고 했죠. 이자를 받는 대금업을 천시한 당대 유럽 경제관을 엿볼 수 있습니다.도스토옙스키(1821~1881)도 &lt;죄와 벌&gt;에서 선이자를 떼고 물건을 맡아주는 전당포 주인을 탐욕스러운 인물로 그렸습니다. 주인공 라스콜니코프가 살해한 전당포 노파 알료나를 돈만 밝히는 노파로 묘사했죠.이자를 죄악시한 아리스토텔레스의 ‘위대한 착각’은 대항해 시대와 네덜란드 무역, 영국 금융 시대, 미국 월가 전성기를 거치면서 완전히 바뀝니다. 돈이 돈을 버는 시대가 금융업 덕분에 도래하기 시작한 거죠. 먼 곳을 항해하려는 사람에게 돈을 빌려주고, 전혀 모르는 이방인에게 신뢰를 바탕으로 대부해주고, 사업을 하려는 사람에게 가능성을 보고 대출해줬어요. 빌려주는 측은 돈을 떼일 위험(리스크)을 감수해야 했으므로 조건에 따라 이자율과 이면 조건을 다르게 책정했습니다. 돈줄을 움직였던 메디치 가문, 로스차일드 가문, JP모건 가문은 오늘날 은행이 하는 업무를 거의 다 하게 됐습니다.당대 선진국이었던 영국은 이런 금융업을 키워서 세계 금융의 허브가 됐죠. 이것이 훗날 미국으로 건너가 월스트리트가 생겼습니다. 은행들은 개인과 기업에 자금을 지원해 산업을 키우고 일자리를 만드는 데 일조했습니다. ‘금융 크기=국가 크기’가 성립했습니다.어느 나라 은행이든 예대마진을 주요 수익 창출 창구로 삼습니다. 작년 예대마진이 늘어난 이유를 국내 은행들은 고금리 기조와 예금금리 인하 압력에서 찾습니다. 대출금리는 ‘기준금리+코픽스+은행별 가산금리’로 정해집니다.한국은행은 기준금리를 여덟 차례나 인상했고, 8개 은행의 평균 자금조달 금리인 코픽스도 올랐습니다. 은행들이 결정하는 가산금리도 불경기와 대출 회수 어려움 등으로 올랐다는 겁니다. 반면에 예금금리는 높일 수 없었다고 합니다.5대 은행들이 연 5%의 고금리 예금상품을 내놨는데 금융당국의 지시로 없앴다고 합니다. 제1금융권 은행들이 예금이자를 높이면 제2금융권의 자금이 빠져나가 위기가 생긴다고 했다는 겁니다. 이 때문에 예대마진 폭이 커졌다는 것이 은행들의 해명입니다. 대출받은 사람들은 “대출이자를 내릴 여력이 많다”고 합니다. 은행 이자는 예나 지금이나 논란 대상입니다. NIE 포인트1. 화폐 불임설이 무엇인지 알아보고 비판해보자.2. 셰익스피어 &lt;베니스의 상인&gt;을 읽고 독후감을 써보자.3. 메디치 가문, 로스차일드 가문, JP모건 가문에 대해 알아보자.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>“4% 좋았는데”…토뱅, 입출금‧모임통장 금리 인하</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000040763?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스뱅크 “시장금리 안정에 따른 조치”카뱅·케뱅도 일제히 금리 인하토스뱅크가 지난 25일부터 수시입출금‧모임통장 금리를 최대 0.2%포인트 인하했다. [사진 토스뱅크 앱 캡처][이코노미스트 김윤주 기자] 토스뱅크는 국내 인터넷전문은행 중 가장 늦게 출범한 ‘인뱅 막내’지만, 출범 약 1년만에 고객 500만명 이상을 모으며 급성장 중이다. 하지만 높은 ‘금리 경쟁력’ 등을 내세워 빠르게 인지도를 올린 토스뱅크가 최근 수신(예적금) 상품의 금리 인하를 밝혀, 향후 영향에 관심이 집중된다.수시입출금통장 최대 0.2%포인트 인하27일 금융권에 따르면 토스뱅크는 지난 25일부터 입출금‧모임통장 금리를 0.1%포인트 인하했다. 이와 관련해 토스뱅크는 지난 24일 모바일 앱 알림 등을 통해 고객들에게 해당 내용을 공지했다.우선 토스뱅크는 수시입출식통장인 ‘토스뱅크 통장’의 금리를 연 2.3%에서 25일부터 2.2%로 0.1%포인트 내렸다. 이는 세전 5000만원까지 적용된다. ‘토스뱅크 통장’은 출범 초기부터 혁신적인 수시입출금 상품으로 고객 몰이에 주요했던 상품이다. 통상 은행의 수시입출금 통장 금리가 0.1% 수준에 그치는 점을 감안하면 파격적이었기 때문이다. 게다가 토스뱅크 통장은 ‘지금 이자받기’ 서비스를 제공해, 고객들은 매일 이자를 받아 일복리 효과까지 경험할 수 있다.이를 토대로 토스뱅크의 고객 수는 1년여만에 500만명을 돌파했다. 인터넷전문은행 중 제일 먼저 설립된 케이뱅크가 출범 이후 1년 동안 고객 71만명을 모은 것과 비교하면 빠른 성장세를 보였다.‘토스뱅크 통장’은 2021년 10월 출시 당시 연 2%대 금리를 제공하다가, 1년이 지난 지난해 10월 금리를 연 2.3%로 올렸다. 이후 같은해 12월에는 5000만원을 초과하는 금액에 대해선 연 4% 금리를 제공하겠다고 밝혔다. 토스뱅크의 개인 고객 대상 포트폴리오에는 정기예금 상품은 없지만, ‘토스뱅크 통장’에 고액을 예치하는 고객은 5000만원 이상 초과 금액에 연 4% 정기예금의 효과를 누릴 수 있었다. 하지만 이번 금리 인하로 5000만원 초과 금액에 적용됐던 연 4% 금리 또한 3.8%로 떨어졌다.다른 인터넷전문은행인 카카오뱅크의 경우 27일 기준 파킹통장인 ‘세이프박스’의 금리는 연 2.6%고, 정기예금은 3.7%다. 케이뱅크는 파킹통장 ‘플러스박스’의 금리가 연 2.7%, ‘코드K 정기예금’은 3.6%를 기록하고 있다. 카카오뱅크와 케이뱅크도 각각 지난 22일과 24일 수신상품 금리를 최대 0.2~0.3%포인트 인하했다.토스뱅크를 사용 중인 A씨는 “은행입장에선 0.1%포인트의 금리가 소폭이라고 생각할 수도 있지만 최근에는 조금의 금리도 아쉬운 상황”이라고 말했다.[사진 토스뱅크]“시장금리 하향에 금리 인하해”토스뱅크는 이달 초 출시한 신상품 ‘모임통장’의 금리도 기존 2.3%에서 2.2%로 내렸다. 토스뱅크 ‘모임통장’은 금리 경쟁력을 인정받으며 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다. 이후에도 고객 수와 잔액이 지속 증가하고 있는 추세다.토스뱅크의 모임통장은 ‘공동모임장’ 기능으로 이들 모두가 체크카드를 발급할 수 있는 것이 특징이다. 지난 9일 기준 개설된 모임통장 6개 중 1개는 모임통장에 참여한 구성원 모두가 공동모임장으로 참여해 카드 발급 및 결제 권한을 공유하고 있다.이에 대해 토스뱅크 관계자는 “시장 금리가 하향됨에 따라 최소한의 수준으로 수시입출금 상품의 금리를 인하했다”며 “모임통장도 동일한 수신상품이기 때문에 토스뱅크 통장과 함께 0.1%포인트 소폭 금리가 하락한 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"점심시간에 2000원 벌었어요"…직장인들 열광한 앱</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004813224?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>"자투리 시간에 앱테크" 직장인들 늘어나지난 17일 점심시간 서울 중구 서울시립미술관 앞이 한 모바일 금융서비스 업체에서 진행하는 스마트폰 앱 홍보 이벤트에 참가하는 시민들로 붐비고 있다. 사진=연합뉴스"점심 먹고 사무실로 돌아가는 길에 2000원 벌었어요." 30대 직장인 윤모 씨는 최근 휴대폰을 들고 토스 애플리케이션(앱)을 수시로 열어본다. 하루 자투리 시간을 활용하면 무료로 현금성 포인트를 받을 수 있기 때문이다. 지난해 7월부터 토스에 가입해 만보기, 광고보기 등 보상형(리워드) 프로그램에 참여해 모두 1만6000원을 벌었다.윤 씨는 "출퇴근 시간 활용해 매일 몇 백원 이상 버니 이득"이라며 "하루 받는 금액은 적지만 모으다 보니 어느새 밥값을 벌어 얼마 전 점심을 사 먹었다"고 했다.이미지=독자 제공 "자투리 시간에 앱테크 해야지"경기 불황과 고물가가 지속되면서 휴대폰 앱으로 돈을 모을 수 있는 앱테크(애플리케이션과 재테크 합성어)가 인기를 끌고 있다. 대부분 만보기 기능을 활용하거나 광고를 시청하는 등 간단한 참여 만으로 현금성 포인트를 제공하고 있는데, 일정 수준 쌓이면 통장으로 인출이 가능해 쏠쏠한 재테크 수단으로 각광받고 있다.21일 업계에 따르면 모바일 금융 플랫폼 토스가 지난달 18일 출시한 '함께 토스 켜고 포인트 받기' 서비스는 한 달 만에 누적 사용자가 150만명을 돌파했다. 이 서비스는 토스 앱 사용자가 한곳에 많이 모일수록 높은 금액을 모을 수 있는 프로그램이다.블루투스 기능을 켜고 이 앱을 실행하면 화면 속에 다른 이용자가 아이콘으로 뜬다. 이를 누르면 1명당 10원씩 적립되는 식이다. 일면식이 없더라도 다수가 모이면 2000~6000원까지 적지 않은 금액을 벌 수 있어 서울시립미술관 등 특정 지역이 토스 앱테크 '성지'로 떠오를 정도다. 이미지=독자제공'함께 토스 켜고 포인트 받기' 이용자가 급증하자 토스는 지난 17일부터 20회까지 10원씩 지급하고 그 이후부터는 1원씩 적은 금액을 주는 방식(29회부터는 계속 1원씩 지급)으로 지급 기준을 변경했다.회사 관계자는 "소수의 이용자들에게만 혜택이 돌아가지 않도록 하기 위한 것"이라고 설명했다. 지난달 9일 토스가 내놓은 '라이브 쇼핑보기' 보상형 프로그램도 현재 누적 사용자가 165만명을 넘어설 정도로 인기를 누리고 있다. 광고 시청 알림을 설정하고 방송 시작 때 잠깐이라도 영상을 보면 3원씩 받을 수 있는 서비스다. 소액이지만 하루 수차례 진행하는 '라이브 쇼핑보기'를 보면 제법 쏠쏠한 금액을 모을 수 있다는 게 이용자들의 반응이다.한 40대 토스 이용자는 "토스 만보기, 라이브 쇼핑 보기, 퀴즈 풀기 등 앱 내에 다양한 리워트 프로그램에 참여한 결과 지금까지 앱테크로 3만4000원을 벌었다"며 "친구에게 추천시 2000원을 받을 수 있어 주변인들에게 적극 앱 설치를 권하고 있다. 한 번 인출시 출금 수수료가 500원씩 발생해 이번에는 5만원 목돈을 만든 뒤 사용할 계획"이라고 했다.사진=연합뉴스"하루 100원이라도 버니 이득"…고물가 여파최근 앱테크가 관심받는 이유는 경기 침체에 고물가 상황이 지속되면서 소비자 부담이 커지고 있기 때문이다. 특히 올 들어 전기·가스요금에 이어 택시와 버스·지하철 등 공공요금까지 인상 수순을 밟으면서 서민들의 호주머니 부담이 가중되고 있다.통계청에 따르면 지난해 전국 소비자물가 상승률 5.1%를 기록했다. 지난해 7월 6.3%로 정점을 찍은 후 주춤하다 지난달 5.2%로 다시 오름세를 보이고 있다. 고물가 시대가 예상보다 더 길어지면서 스마트폰만 있으면 언제 어디서나 쉽게 할 수 있는 앱테크 인기가 높아지고 있는 것으로 풀이된다.사진=연합뉴스지난해 인쿠르트가 성인남녀 1707명을 설문 조사한 결과 응답자의 75%가 현재 앱테크에 참여하고 있다고 밝혔다. 앱테크를 하는 이유로 △자투리 시간에도 생산적인 활동을 하고 싶어서(32.3%)가 가장 많았다. 이어 △소액이라도 저축하고 싶어서(30.1%) △모은 포인트 차감으로 생활비를 절약할 수 있어서(19.0%)를 주된 이유로 꼽았다. 응답자의 68.5%는 앱테크를 '매일 한다'고 답했고, '일주일에 3일'(8%), '일주일에 5일'(7.9%)한다는 응답도 있었다.한 달 기준으로 수익 범위를 확인한 결과에서는 △3000원 미만(37.2%)이 가장 많았고 △5000원~1만원 미만(21.1%) △3000~5000원 미만(20.8%) △1~3만원 미만(10.5%) 순으로 나타났다.앱테크로 모은 적립금은 주로 식재료, 필수품 등 생활비에 보탠다(32.5%)는 응답이 가장 많았다. 이어 커피와 담배 등 기호품 살 때 쓴다(24.7%), 의류·신발·액세서리 등을 주문할 때 차감한다(23.0%), 예·적금한다(13.3%) 등 생활 속에서 다양하게 사용하고 있었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.02.28.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>금리·이자 잘 낮춰준 은행은? 농협·하나銀…혜택은 열명당 세명꼴(종합)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006657614?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>금융권 작년 하반기 '금리인하요구권' 운영 실적 공개보험·카드 등 2금융권은 수용률 절반 넘어서기도ⓒ News1 윤주희 디자이너(서울=뉴스1) 신병남 기자 = 지난해 하반기 5대 은행 중 금리인하요구권 수용률이 가장 높았던 곳은 NH농협은행이었다. 수용률이 70%에 임박해 신용이 개선된 차주에게 가장 적극적으로 이자 감면에 나선 것으로 나타났다. 1인당 감면액만 놓고 보면 하나은행이 25만원이 넘어서는 등 주요 은행 중 인하 폭이 가장 컸던 것으로 집계됐다. ◇은행업계 102만건 중 31만건 금리인하 수용…수용률 30% 넘어서28일 은행연합회가 발표한 금리인하요구권 운영실적 현황에 따르면 지난해 하반기 국내 은행들은 총 102만9112건(가계+기업)의 금리 인하 신청을 받아 이 중 31만5771건을 수용했다. 수용률은 30.6%로 지난해 상반기(24.86%) 대비 5.74%포인트(p) 상승했다. 금리인하요구권은 취직·승진·소득증가 시 금리를 낮춰 달라고 금융사에 요청할 수 있는 권리다. 차주 10명이 은행에 금리 인하를 신청했을 때 3명꼴로 이자가 적어졌다는 의미다.    KB국민·신한·하나·우리·NH농협 등 5대 은행 중 금리인하요구권 수용률이 가장 높았던 곳은 NH농협은행(69.3%)이었다. 총 1만6235건의 금리 인하 신청을 받아 이 중 1만1257건을 받아들였다. 이어 우리은행(37.9%), KB국민은행(36.9%), 신한은행(33.0%), 하나은행(26.9%) 등 순으로 나타났다.금리 인하 신청 건당 이자감면액은 하나은행이 25만1243원(1년 기준)으로 가장 많았다. 이어 신한은행(13만8615원), 농협은행(10만2513원), KB국민은행(7만3349원), 우리은행(5만9428원) 순이었다. 인터넷전문은행 중에서는 케이뱅크의 금리인하요구권 수용률이 35.7%로 가장 높았다. 카카오뱅크(23.4%), 토스뱅크(19.5%) 순이다. 지방은행 중에서는 부산은행(58.2%)이 가장 높았고 뒤이어 전북은행(48.0%), 광주은행(44.3%), 대구은행(35.3%), 경남은행(19.3%), 제주은행(10.2%) 등 순이다.  ◇카드·보험업계 수용률 절반 넘어서…최고는 8439건 중 6228건 낮춘 '현대카드’같은 기간 전체 신용카드사에 접수된 금리인하요구권 신청 건수는 16만5624건으로 이 중 8만5182건이 받아들여졌다. 수용률은 51.4%로, 상반기(40.3%) 대비 11.1%p 상승했다.신한·KB국민·삼성·현대·롯데·우리·하나 등 7개 전업카드사 가운데는 현대카드가 총 8439건 중 6228건을 받아들여 수용률이 73.8%로 가장 높았다. 롯데카드가 68.46%로 뒤를 이었으며 신한카드(68.20%), 우리카드(54.81%), 삼성카드(48.42%), KB국민카드(46.38%), 하나카드(40.97%) 등 순이다.보험업계의 수용률도 절반을 넘어섰다. 지난해 하반기 기준 보험사 금리인하요구권 수용률은 54.5%로, 상반기(37.4%) 대비 17.1%p 개선됐다.수용률만 놓고 보면 손보사 중에는 NH농협손보가 전체 16건 중 14건의 금리인하 요구를 모두 받아들여 수용률이 87.5%로 가장 높았다. 이어 DB손해보험이 68.4%로 높았고 삼성화재(64.1%), KB손해보험(60.4%), 롯데손해보험(57.1%) 등 순이다. 생보사 중에는 1건이 접수된 KDB생명을 제외 총 4723건 중 3524건을 수용한 삼성생명의 금리인하요구권 수용률이 74.61%로 가장 높았다. 이어 미래에셋생명(63.32%), 한화생명(63.1%), 흥국생명(59.78%), 푸본현대생명(58.58%) 등 순이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>걸으면 머니줍줍, 답하면 커피줍줍…디지털폐지줍기 아시나요? [머니줍줍]</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000323105?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[앵커]걸으면서 돈을 모으고 설문조사를 하면서 커피 쿠폰을 받고, 고물가에 필수 지출을 줄이며 한 푼이라도 아끼는 사람들이 늘고 있습니다.이른바 짠테크족의 디지털 폐지줍기를 문세영 기자가 알아봤습니다.[기자]걷기만 하면 돈이 쌓인다고 해서 직접 걸어보겠습니다.5천 걸음을 달성해서 10원이 적립됐고, 5천 걸음을 더 걸으니 20원이 들어왔습니다.이번엔 지도에 표기되어 있는 공원으로 이동했더니, 20원을 받았습니다.저는 이렇게 걷기만 했는데, 50원을 챙겼습니다.핸드폰을 들고 걷기만 해도 하루 최대 140원까지 벌 수 있습니다.[권연주 / 서울 노원구 : 재미로는 할만하겠지만, 정말 심각하게 돈을 벌어보겠다는 목적으로 하게 된다면 스트레스가 되지 않을까요.]설문조사에 응답만 해도 쿠폰을 주는 앱도 적지 않습니다.저는 방금 설문조사에 참여해, 100포인트를 받았습니다.여러 설문조사를 진행해 포인트가 쌓이면 커피 쿠폰으로 바꿀 수 있습니다.일명 '디지털 폐지줍기'로 불리는 앱을 이용한 짠테크는 참여 조건이 없고 휴대폰만 있으면 가능해 성인남녀 4명 중 3명이 사용해본 경험이 있을 정도로 인기입니다.걸으면 돈을 주는 토스 '만보기' 앱은 사용자가 8개월 만에 250만 명이 늘었습니다.[구정우 / 성균관대 사회학과 교수 : 불황기를 맞아서 소소하지만 확실한 행복을 추구하는 경향이 짙어지고 있고요. 여기에 아껴 쓰고 투자하는 금융 관념이 더해져서 '짠테크'라고 하는 새로운 라이프 스타일이 확산하고 (있습니다.)]고금리·고물가에 따른 경기 침체가 계속되면서, 고정 지출을 줄이거나 식비를 줄이는 등 다양한 짠테크가 각광을 받고 있습니다.SBS Biz 문세영입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>5대은행 1월 가계대출 예대금리차, KB·농협·우리은행 순</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011431676?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>지난달 전체 은행권에서 대출과 예금의 금리차가 가장 컸던 곳은 전북은행이었고 5대 은행 중에선 KB국민은행이었던 것으로 조사됐습니다. 은행연합회 소비자포털에 공시된 1월 '예대금리차 비교' 통계를 보면 정책서민금융을 뺀 KB국민은행의 가계 예대금리차는 1.51%p로 집계돼 5대 은행 중 가장 컸습니다. 이어 NH농협은행이 1.44%p, 우리은행 1.07%p, 하나은행 1.03%p, 신한은행 0.84%p 순이었습니다.인터넷 은행 중에서는 토스뱅크의 가계 예대금리차가 4.72%p로 가장 컸고 케이뱅크 2.15%p, 카카오뱅크 1.25%p 순이었습니다. 인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.40%p였습니다.기업 대출까지 포함한 전체 은행의 예대금리차 통계도 5대 은행 가운데 KB국민은행이 1.81%p로 가장 컸고 NH농협은행 1.69%p, 우리은행 1.59%p, 하나은행 1.44%p, 신한은행 1.33%p 순이었습니다. KB국민은행 관계자는 "지난해 12월 주택담보대출과 전세자금대출의 금리를 낮췄지만, 부동산 경기 침체 등의 영향으로 신규 대출이 감소한 반면 신용대출은 늘어 가계대출 평균 금리가 상승했다. 주택담보대출 금리는 5대 은행 가운데 가장 낮은 수준"이라고 설명했습니다. 그러면서 "지난달 시행한 최대 1.30%p의 금리 인하가 오는 26일부터 적용돼 2월 예대금리차에 반영될 예정"이라고 덧붙였습니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>'은행 새판 짜겠다'는 정부…"삼성은행 나오지 않는 한~"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005430323?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>금융당국, 은행 경쟁력 방안 TF 꾸리고 킥오프스몰라이선스ㆍ챌린저뱅크, 추가 인뱅 인가 검토영국식 챌린저뱅크 사례 주로 참고할 듯전문가 “과점 깨기엔 역부족...챌린저뱅크도 서브은행 수준"[이데일리 전선형 유은실 기자] 국내 은행들의 과점 체제를 깨기 위한 대규모 수술이 시작됐다. 은행들이 과점이라는 지위를 활용해 손쉽게 순익을 내고, 투자보다는 자신들의 성과급 지급에 몰두하며 금융당국의 눈총을 산 결과라는 지적이다. 일단 금융당국은 과점을 깨기 위해 다양한 플레이어의 등장이 필요하다고 보고 있다. 견제 세력이 있어야 긴장을 한다는 것이다. 이에 챌린저은행과 제4인터넷은행 설립이 유력하게 나오고 있다.[이데일리 김정훈 기자]◇은행 진입장벽 낮아질까…영국사례 참고 22일 금융당국에 따르면 금융위원회와 금융감독원은 ‘은행권 경영·영업 관행·제도개선 TF’를 통해 은행권 진입장벽을 낮출 수 있는 방안을 검토한다. 대안으로는 스몰라이선스·챌린저 뱅크 그리고 제4인터넷은행 설립 방안이 주로 논의될 것으로 보인다. 금융위 관계자는 “TF에서는 아직 구체적으로 논의된 것은 없으나, 챌린저은행, 추가 인터넷은행 설립 등을 모두 포함해 다양한 방안들을 논의한다고 보면 된다”며 “영국의 사례를 주로 참고해 면밀하게 볼 예정”이라고 말했다. 금융당국이 가장 중요하게 보는 건 기존 은행들을 긴장시킬 ‘메기’의 등장이다. 현재 가장 유력하게 논의되는 방안은 두 가지다. 추가 인터넷은행 설립과 비슷한 방식의 챌린저뱅크다. 인터넷은행은 현재 국내에 카카오ㆍKㆍ토스뱅크 등 3곳이 인가돼 영업 중이다. 2017년에 지금처럼 시중은행들의 과점 체제를 바꾸고 경쟁을 촉진하겠다는 취지로 출범했다. 3곳의 은행들이 처음 등장했을 때만 해도 낮은 금리와 수수료 무료 등 획기적인 서비스를 내놓으며 인기를 끌었다. 특히 저금리 상황에서 2%대 수준의 대출상품까지 내놓으면서 고신용 고객까지 싹쓸이했다. 현재 제4인터넷은행에 도전할 것으로 거론되는 곳은 네이버(035420), 키움증권(039490) 등이다. 네이버의 경우 현재 금융상품판매대리·중개업자 신분으로 금융업에 발을 들이고 있다. 직접 금융업무는 할 수 없지만, 제휴를 통해 통장을 만들고 대출 중계 업무를 하면서 영역범위를 확장 중이다. 은행업종 라이선스를 받는다면 제휴를 떼어내고 직접 여ㆍ수신 업무를 진행하며 규모를 키울 수 있다. 키움증권의 경우 인터넷은행 도입 시기부터 꾸준히 관심을 두고 있는 곳이다. 예비인가신청도 낸 경험이 있어 제4인터넷은행 설립이 추진된다면 설립을 추진할 가장 유력한 후보다. 추가 인터넷은행과 더불어 챌린저은행의 설립도 중점적으로 검토되고 있다. 챌린저뱅크란 영국이 금융 시장의 경쟁을 촉진하기 위해 지난 2013년 도입한 제도다. 디지털 기술을 활용한다는 측면에서 기존 인터넷은행과 유사하지만, 종합 은행업 라이선스를 받는 게 아니라 개인영업, 기업영업, 주택담보대출 등 특정 서비스에 특화돼 있다는 점에서 차이가 있다. 예를 들어 영국의 레볼루트는 환전과 해외송금에 특화된 챌린저뱅크다. 환전앱을 운영하는 핀테크업체로 시작해 지급결제계좌 발급을 기반으로 환전 수수료, 해외카드사용 수수료, 송금 수수료, 해외 ATM 수수료 등을 없애며 고객을 확보했다. 영국의 대표 챌린저뱅크인 몬조도 선불카드 서비스로 시작해 이를 기반으로 실시간 지출습관 분석, 카드 분실시 앱 활용 서비스 중지, 신속한 모바일 송금 등 스마트폰 세대에 맞춤 서비스를 제공하고 있다. [이데일리 김정훈 기자]인뱅도 반짝 효과…공룡 흔들긴 어려워다만 두 가지 방안이 성공할 수 있을지는 미지수다. 사실상 해당 대안들이 모두 핀테크사들의 성장을 뒷받침해줄 뿐, 은행업의 경쟁을 촉진하기에는 역부족이기 때문이다. 실제 현재 운영 중인 인터넷은행의 경우도 출범 초기애는 획기적인 서비스와 낮은 대출금리, 높은 파킹통장 금리로 이목을 끌었지만 시간이 갈수록 기존 은행과의 변별력이 사라졌다는 평가를 받고 있다. 특히 금리 인상기에 접어들면서 오히려 인터넷은행들의 대출금리 인상 속도가 빨라 고객 불만까지 터지며 인기도 떨어졌다. 영국의 챌린저뱅크도 자국 내 인기는 높지만, 결국 기존은행의 보조 수단으로 사용되고 있는 것으로 알려졌다. 금감원 런던사무소가 2021년 12월 펴낸 보고서에 따르면 기존은행의 카드사용률이 전체의 83%에 달했지만, 챌린저뱅크(온라인 전용은행) 은행의 카드사용률은 17% 수준이었다. 특히 은행계좌 보유액도 고객 절반이 1000파운드(157만원) 수준을 넣고 있었다. 기존 은행의 보조 수단으로 자리하고 있다는 의미다. 특히 인터넷은행과 챌린저뱅크 설립 대상인 국내 핀테크업체들도 은행업종에 대한 까다로운 인가 요건 때문에 대부분 ‘스몰라이선스’나 ‘혁신금융 기한 확대’를 요구하고 있는 상황이다. 한 금융권 고위 관계자는 “챌린저뱅크 규모가 작은 곳인데, 이들이 시중은행과 경쟁을할 수 있을지 의문”이라며 “시중은행을 견제하려면 조달비용을 낮게 할 수 있는 대기업이어야 하는데, 대기업들이 금융권에 들어온다면 또다른 특혜 문제를 낳을 수 있고, 금산분리 등 법적인 개정도 이뤄져야 해 어려운 부분”이라고 말했다. 성태윤 연세대 교수는 “대형 금융기관을 당장 만들 수 없기 때문에 인터넷뱅크, 챌린저뱅크, 스몰라이선스를 도입한다면 도움은 되겠지만, 과점을 깰 수 있는 제대로 된 대안이 될 수 있을지는 미지수”라며 “금융당국이 이야기 하고 있는 건 현재 은행들의 구조 문제를 해결할 수 있도록 강화된 관리·감독 차원을 이야기하는 것이라고 본다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>천하람·황교안 '약진', 양강 구도 '흔들'…복잡해진 연대 셈법</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000333291?sid=100</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[앵커]국민의힘 전당대회가 '양강'에서 '1강 3중'으로 빠르게 재편되고 있습니다. 천하람, 황교안 후보가 말 그대로 약진을 하며 '양강 구도'를 흔들고 있다는 분석인데요. 결선투표까지 갈 가능성이 커진 가운데, 후보들 간의 연대 셈법도 한층 복잡해습니다. 민주당에선 천 후보의 돌풍을 경계했는데요. 한편으론 '김기현 당대표 땡큐'를 외치기도 했습니다. 관련 내용, 정치 인사이드에서 짚어봤습니다.[기자]당초 김기현, 안철수 두 후보의 양강구도가 점쳐졌던 국민의힘 전당대회! 천하람, 황교안 후보가 '약진'을 하면서 상황이 싹 바뀌었습니다. 오늘 나온 여론조사 결과인데요. 양강이 주춤한 사이, 보시는 것처럼 두 후보의 상승세가 가파릅니다. 1차 투표 과반(김기현)과 결선투표 역전(안철수)을 꿈꿨던 양강 후보들! 전략 수정이 불가피해졌습니다.김기현 후보! '사퇴 요정'으로 변신한 황교안 후보 때문에 요즘 골머리를 앓고 있죠. 황 후보가 '정통 보수' 지지층을 흡수하며 1차 과반의 꿈도 물건너 갔다는 평가도 나옵니다. 혹시 모를 결선투표를 대비해 황 후보에게 뺨맞고, 안 후보에게 눈흘기던 여유도 사라졌는데요. "사퇴하라" 요구에 "은퇴하라"고 맞서고 있죠. 충청지역 합동연설회에선, 팔짱을 낀 채 의례적인 '인사'도 나누지 않았습니다.[황교안/국민의힘 당대표 후보 (지난 21일) : 김기현 후보, 권력형 토건비리 심각합니다. 막대한 이익을 챙기게 됐습니다. 아무리 변명해도 국민 정서상 절대 용납하지 않을 것입니다. 이재명 보십시오, 이재명. 이재명 안 되죠?]아스팔트에서 갈고 닦은 황 후보의 통쾌한 전투력! 당내에선 설마 김 후보에게 쓸 준 몰랐다! 의외라는 반응이 나오는데요.[홍석준/국민의힘 의원 (CBS '박재홍의 한판승부' / 어제) : 저도 상당히 의외였습니다. {황교안 후보의 토론이?} 사실은 황교안 전 대표와 김기현 후보 간에는 사실 관계가 나쁘지 않아서 나중에는 합종연횡할 가능성도 있다, 이렇게 할 수 있다고 생각했는데 아주 누구보다 세게 이걸 공격하시니까…]황 후보가 강하게 나가는 이유! 아무래도 책임질 식솔들 때문이겠죠.[민현주/전 의원 (YTN '뉴스나이트' / 지난 21일) : 본인과 같이 일했던 전직이나 아니면 원외에 있는 분들이 같이 총선에서 어떤 역할을 하고 출마를 하기 위해서는 이번에는 어떻게든 최소한 3등은 해야 된다, 마지막 등수를 차지해서는 안 된다…][유승찬/정치컨설턴트 (YTN '이재윤의 뉴스 정면승부' / 어제) : 결선투표가 만약 가잖아요? 복잡한 양상이 벌어지기 시작합니다. 황교안 후보도 지분을 요구하게 될 거고, 여러 가지 아무튼 복잡한 상호 물림 관계들이 형성될 것이라서 그게 관전 포인트 같습니다.]가장 먼저 후원금을 꽉꽉 채워준 강경 보수 유튜버들의 심정도 살펴봐야 합니다.[장성철/공론센터 소장 (CBS '김현정의 뉴스쇼' / 지난 21일) : 강신업, 그리고 신혜식 신의한수 대표. 이분들을 최고위원을 만들려고 했는데 이 지도부에서 컷오프 시켜버렸잖아요. {떨어진 그분들?} 그래서 그분들이 '우리는 도저히 김기현은 못 밀겠다. 그래서 우리는 황교안 민다'라고 지금 그분들이 똘똘 뭉쳐 있어요.]뭐니뭐니해도 가장 중요한 건 역시 본인의 정치적 입지겠죠. 적어도 15%의 당심은 확인해야 차기 대선을 바라볼 수 있다는 이야기가 나오는데요. 그러기 위해선 열심히 김 후보를 때려야겠죠? 전통적 지지층! 같은 텃밭을 일구고 있으니 말입니다. 한편에선 황 후보가 큰 그림을 그리고 있는 게 아니냐? 농반, 진반 분석도 있습니다. 바로 '부전승 당대표론'입니다.[배종찬/인사이트케이 연구소장 (CBS '박재홍의 한판승부' / 어제) : 지금 황교안 후보는 부전승으로 당대표가 되는 걸 노리는 것 같아요. {다 사퇴해라, 다 사퇴하고.} 실제로 지금 아주 땅 문제로 격렬해지기는 했거든요.]황 후보가 토스한 땅투기 의혹! 민주당이 TF팀까지 꾸리며 스매싱을 준비하고 있죠. 이게 오히려 김 후보를 돕는 일이 될 거란 전망도 나옵니다.[유승찬/정치컨설턴트 (YTN '이재윤의 뉴스 정면승부' / 어제) : 선거로만 보면 김기현 후보한테 유리할 겁니다. 상대 당이 진상조사를 하기 시작하면 오히려 결집 효과를 얻을 수도 있어요. 민주당이 김기현 후보를 좋아하면 더 세게 공격을 할 것이고, 이게 정치의 역설이거든요.]더욱이 최근 민주당 이재명 대표가 윤석열 대통령을 향해 '강패'라고 직격을 하기도 했죠. 윤심 지지층이 더 똘똘 뭉칠 수 있다는 겁니다.[배종찬/인사이트케이 연구소장 (CBS '박재홍의 한판승부' / 어제) : 대통령과 이재명 대표 사이의 이제 충돌이죠. 그러면서 윤심 지지층들이 더 결집할 수도 있거든요. 이렇게 되면 오히려 윤심을 안고 있는 김기현 후보 쪽으로 더 결집하는 것 아니냐…]민주당 지도부가 국민의힘 전대에 영향을 미치기 위해 세운, 고도의 전략인지도 모르겠습니다.[조응천/더불어민주당 의원 (MBC '김종배의 시선집중') : {누가 대표가 되면 우리는 땡큐 해갖고 땡. 누가 되기를 바라십니까, 민주당 의원 입장으로서?} 솔직하게? {네, 그럼 솔직하게 하셔야죠.} 지금 1등 하시는 분. {지금 누가 1등하고 있는데요?} 김기현.]'김당땡'(김기현 당대표 땡큐)이라? 총선 승리를 위해선 용산 여의도출장소가 딱이라는 겁니다. 그럼 민주당이 가장 꺼리는 당대표는 누굴까요?[조응천/더불어민주당 의원 (MBC '김종배의 시선집중') : {천하람 후보가 대표가 되면요?} 저희는 조금 두렵죠. {그렇습니까, 어떤 점에서요?} 이준석 대표의 환생. {그런 면에서, 오히려 당의 활력을 더 증진시킬 거다?} 그리고 뭐 중도층에 아무래도 소구하는 점이 꽤 많을 거기 때문에 총선을 앞두고. 우리가 이준석 체제에서 대선·지선 다 깨지지 않았습니까. 총선에서도 힘들지 않을까…]천하람 후보! '허리케인 천'을 열심히 밀더니, 실제로 바람을 일으키고 있다는 평가가 나오고 있죠. 최근 여론조사 결과가 흡족했는지, 홍보 멘트도 바꿨습니다.[천하람/국민의힘 당대표 후보 (MBC '김종배의 시선집중') : 민심 1위, 책임당원 2위 천하람 후보입니다.]이미 안 후보는 꺾었다! 자신을 하고 있는데요. 결선투표에서 쓸 '선거 프레임'도 미리 만들어놨습니다.[천하람/국민의힘 당대표 후보 (MBC '김종배의 시선집중') : 개혁의 천하람, 구태의 김기현으로 완전히 굳어졌습니다, 구도가. 선풍기 정도로 보면 한 2단에서 3단 넘어가는 정도 수준인 것 같고요. 그런데 제가 결선을 가게 되면 이건 이제 선풍기 수준이 아니고 태풍으로 바뀔 겁니다.]개혁과 구태의 대결! 김 후보도 신경이 좀 쓰이기 시작했나 봅니다. 태풍이 될 여지는 없다, 견제구를 던졌습니다.[김기현/국민의힘 당대표 후보 (CBS '김현정의 뉴스쇼') : 돌풍은 전혀 느껴지지 않고요. 찻잔 속의 미풍 정도라는 생각이고요. 안철수 후보하고 천하람 후보 사이에 서로 지지율을 나눠먹기 하고 있는 것 같아 보이기 때문에요. 태풍이 될 여지는 전혀 없다고 하는 것이 저의 확신입니다.]이른바 '비윤 표심'! 합쳐봤자 얼마나 되겠느냐는 겁니다. 친윤계에서도 '천하람 때리기'에 나섰는데요. 최고위원에 도전장을 던진 조수진 후보! 팀 '천아용인'에서 '천화동인'의 냄새가 난다, 공세를 폈죠.[조수진/국민의힘 최고위원 후보 (CBS '김현정의 뉴스쇼' / 어제) : 천아용인, 이 말도 대단히 부적절한 게요. 우리가 대장동 부패 게이트, 이재명 대표의 도덕성을 직공하는 입장에서 천화동인이나 대장동 게이트에 냄새를 안 띄워야 되는 거 아니에요?]천아용인과 천화동인! 4음절에 '천'자와 '인'자가 같긴 하죠. 연상작용이 일어난다는 주장인 듯합니다. 천 후보! 조 후보의 상상력을 고스란히 되갚아 줬습니다.[천하람/국민의힘 당대표 후보 (MBC '김종배의 시선집중') : 조수진 최고위원 후보를 보면 조선중앙방송, 북한방송의 아나운서가 연상이 됩니다. 그렇다고 해서 제가 조수진 후보에게 '왜 북한 아나운서 같은 외모를 갖고 계시냐'라고 얘기하지는 않지 않겠습니까.]조선중앙TV의 간판이죠. 리춘히 아나운서를 이야기한 듯싶은데요. 실제로 얼마나 닮았나? 최첨단 '디지털 분석'을 해봤습니다. 일치율 57.27%! 이 정도면 닮았다고 해야 할까요?천 후보가 자신한 태풍! 결선에 진출하더라도 안 후보의 지지층을 끌어안지 못한다면 선풍기 3단 수준에서 멈춰설 수 있겠죠. 실제로 김 후보는 뭉치지 못할 거다, 장담을 했는데요.[김기현/국민의힘 당대표 후보 (CBS '김현정의 뉴스쇼') : 안철수 후보, 그리고 천하람 후보가 추구하는 내용이 완전히 다르잖아요. 서로 그렇게 앙숙처럼 비판하는 사이에서 갑자기 표만을 위한 연대라고 한다는 게, 그게 성립이 되겠습니까.]천 후보! 연대까진 아니지만, 적극적인 관계 개선을 모색하고 있습니다. '전략적 제휴'라며 이태원에 함께 가자! 먼저 제안을 했죠. 비록 안 후보가 거절은 했지만, 이태원 상권을 살리자는 아이디어에 대해선 정의롭고 참신하다! 높게 평가를 했습니다. 안 후보가 취지엔 공감하면서도, 뭔가 다른 기획 의도가 있는 게 아니냐? 찜찜함 때문에 거절을 했을 거란 해석이 나오는데요. 뒷이야기를 들어보니, 기우가 아니었나 싶기도 합니다.[허은아/국민의힘 최고위원 후보 (BBS '전영신의 아침저널') : 저희가 상권 찾아보다가 여러 가지 업체를 찾아봤잖아요, 우리가 어디 가서 식사를 해야 될까. 그런데 거기에 '찰스 불닭'인가 이런 비슷한 (가게) 명칭이 있었습니다. 그러면 우리 안철수 후보랑도 같이 가면 좋겠다…]'찰스네'로 시작하는 이 업소인 듯한데요. 지금은 이태원 참사의 여파로 문을 닫았다고 합니다. 안 후보가 의도를 의심한 기획자! 이준석 전 대표죠.[이준석/전 국민의힘 대표 (YTN '뉴스킹 박지훈입니다' / 어제) : 안 받을 것 같다. 1, 왜냐하면 안철수 캠프는 구조적으로 이준석이 뭘 한다고 그러면 불안해해요.]결선 투표에 누가 나가든 '이준석의 강'을 건너야 '비윤 표심'이 하나로 뭉칠 수 있다는 지적도 나오고 있는데요. 연대나 제휴는 그 다음의 문제라는 겁니다.[김민하/시사평론가 (YTN '이재윤의 뉴스 정면승부' / 어제) : 이준석의 강을 건너야 됩니다. 이준석 전 대표를 버리거나, 때리거나, 무슨 밟으라는 얘기가 아니에요. 그게 아니라 이 문제에 대해서 제가 좀 속된 말로 하면 가르마를 타줘야 됩니다. 이준석 전 대표가, 예를 들면 다 잘한 거 아니다…][천하람/국민의힘 당대표 후보 (MBC '김종배의 시선집중') : 국민의힘이 '과거로 갈 거냐, 미래로 갈 거냐'의 어떤 개혁 프레임에서 붙어버리면 이준석 (전) 대표는 저는 아주 작은 고려 대상으로 줄어들게 될 거라고 봅니다.]천 후보! 아직까진 굳이 강을 건널 생각은 없는 듯한데요. 다만, 안 후보와 사이에 띄울 땟목은 마련해 둔 듯합니다. '천아용인' 중 한명이죠. 이기인 청년 최고위원 후보의 지역구! 안 후보의 지역구인 경기 성남 분당갑에 속해 있는데요. 지난 재보궐 선거 때 함께 유세를 하기도 했습니다. 그리고 이런 각별한 인연도 쌓았다고 합니다.[허은아/국민의힘 최고위원 후보 (BBS '전영신의 아침저널') : {보궐선거 때 안철수 후보가 선거운동하다가 잠깐 쓰러져서, 기절을 해서 이기인 후보가 심폐소생술을 해서 의식이 돌아왔다, 얘기가 있는데 맞는 거죠?} 네, 사실입니다. {그러면 안철수 후보 입장에서는 사실 생명의 은인하고도 다름이 없잖아요.}]천 후보! 과연 이번 전대에서 태풍을 만들어낼 수 있을까요? 이를 지켜보는 민주당의 엄살섞인 시선도 흥미롭습니다. 물론, 민주당에선 '어대현', 어차피 당대표는 김기현이길 바라고 있지만 말입니다. 오늘의 정치 인사이드! 민주당에서 원하는 천하람 태풍의 진로로 마무리하겠습니다.[박지원/전 국가정보원장 (SBS '김태현의 정치쇼') : 보수 분열이 되고, 저는 오히려 이준석, 유승민 당이 보수 1당이 될 확률이 많고 윤석열 당은 쪼그라들 수 있다, 저는 그렇게 봐요. 이준석, 천하람 돌풍이 지금 현재 불고 있잖아요. {보수정당이 쪼개질 수 있다?} 그렇죠.]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[게임찍먹] 슬램덩크 효과? 지금 모바일게임은 ‘스포츠’가 대세</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002142720?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>사진=DeNA[디지털데일리 왕진화 기자] 영화 ‘더 퍼스트 슬램덩크’가 올해 개봉작 중 처음으로 300만을 돌파했다. 지난달 4일 개봉, 44일 만에 누적 관객 수 301만2280명을 기록한 것이다. 영화의 인기는 게임으로도 번지고 있다.  디엔에이(DeNA)가 정식 라이선스를 받아 지난 2020년 7월 출시한 ‘슬램덩크 모바일’은 강백호, 채치수, 서태웅 등 등장인물들을 육성하며 실시간으로 승부를 펼치는 농구 게임이다. 출시 당일 애플 앱스토어 인기 순위 1위를 달성한 바 있다. 최근 영화 인기에 힘입어 다시 주목도가 급상승했다.    이에 따라 최근 출시된 모바일 증강현실(AR) 농구 게임은 물론, 원작 애니메이션을 기반으로 하는 스포츠 게임을 즐기는 이들도 가파르게 늘고 있는 추세다. 기존 다중접속역할수행게임(MMORPG) 장르에 국한돼 있던 국내 이용자 플레이 선호도가 스포츠게임에 제대로 분산될 수 있을지 관심을 모은다.  ◆증강현실 농구 게임 ‘NBA올월드’, 현실성 업=지난달 25일 출시된 나이언틱의 NBA올월드(NBA All-World)는 19일 기준 국내 구글플레이에서 50만회 이상 다운로드 수를 기록했다.    NBA올월드는 나이언틱 첫 공식 라이선스 스포츠 타이틀로, 위치정보가 연동된다. ‘포켓몬고’나 ‘피크민블룸’처럼 나이언틱 특유의 스타일을 이 게임에서도 확인 가능하다. 아무래도 포켓몬고를 한 번이라도 경험해봤던 이용자라면 이 게임에 더 빠르게 적응할 수 있다. 경쾌한 배경음악도 분위기를 띄우는 데 한몫한다.   먼저 이용자는 주변 지역을 탐험하며 동네를 대표해 좋아하는 NBA 플레이어에게 도전하고 경쟁할 수 있다. 포켓몬고 이용자 간 대결(PvP)처럼 같은 위치, 혹은 길에서 마주치게 되는 선수와 일대일 대결로 선수를 영입해야 한다. 도전하기 전, 훈련용 미니게임에서 철저한 연습이 중요하다. 특히 슛을 날리기 위한 타이밍에 화면을 꾹 눌렀다 알맞게 떼는 연습은 필수다.  이용자는 근처 NBA 선수들을 팀으로 영입해 코트에서 실력을 키울 수 있다. 팀 레벨이 올라가면 더 강력한 선수를 영입할 수 있게 된다. 공격, 수비, 피트니스 부스트를 사용해 선수들을 강화할 수 있다. 좋아하는 농구 및 라이프스타일 브랜드에서 획득한 한정 의상으로 선수들을 꾸미는 것도 가능하다.   다만 증강현실 게임인 만큼 다른 이용자를 마주쳐야 흥미도 높아지는데, 이용자 수가 아직은 적어 인공지능(AI)과의 대결이 주를 이룬다. 즉, 레벨업 속도가 국내 게임보다 꽤 더딘 편이어서 팀 구성이 초반엔 어려울 수도 있다.   ◆통통 튀는 SD캐릭터, 전략성은 덤…배구 게임 ‘하이큐!!터치더드림’=다야몬즈가 이달 1일 출시한 하이큐!!터치더드림(이하 하이큐)는 19일 기준 국내 구글플레이 스포츠 부문 인기 앱/게임 2위를 차지하고 있는 모바일 스포츠 게임이다. 국내 구글플레이 기준 10만회 이상 다운로드 수를 기록했다.    이노우에 다케이코 작가의 만화 ‘슬램덩크’를 게임 ‘슬램덩크 모바일’로 즐길 수 있듯, 하이큐 또한 원작 애니메이션이 있다. 하이큐는 ‘배구’하면 떠오르는 일본 유명 애니메이션 ‘하이큐!!’를 기반으로 만들어졌다. 주인공 ‘히나타 쇼요’를 중심으로, 오로지 배구를 향한 열정과 근성으로 한자리에 모인 고교 배구부 선수들의 스토리다.    게임 다운로드를 받는 동안 일본어로 풀 보이스 더빙된 애니메이션 도입부를 볼 수 있는데, 평소 배구를 좋아하거나 원작을 즐겨봤던 이용자라면 반가워할 장치다. 원작을 모르더라도 처음부터 애니메이션을 즐길 수 있기 때문에 진입장벽은 없다시피 했다.   초반 게임은 원작 애니메이션 주요 장면들을 기반으로 한 스토리모드가 중심이 된다. 경기 전 팀 편성 시, 능력치는 물론 선수 컨디션이나 속성, 감독 배치도 고려해야 된다. 상대 캐릭터 카드 우측 상단엔 가위, 바위, 보가 그려져 있는데, 이는 선수들의 속성이다. 상대 팀 정보를 확인하고 상성에 맞게 유리한 속성의 선수를 편성할수록 이길 확률이 높아진다.   팀을 꾸린 뒤 시합을 시작하면 다양한 상황에서 스킬을 선택하게 된다. 턴제 방식으로 진행되는데, 배구 진행 방식을 잘 모르더라도 게임 진행에 무리가 없도록 했다. 예컨대, 이용자 우측 하단 화면에 ‘굿(GOOD)’으로 표시된 스킬은 유리한 스킬을 의미한다. 이용자는 서브를 비롯해 ▲토스 ▲공격 ▲리시브 ▲블로킹 상황 등에서 쓰일 스킬을 골라 경기를 진행시키면 된다.   물론 유리한 스킬을 골랐다고 해서 백전백승하진 않는다. 상대 팀이 가진 스킬이 더 우위에 놓여있거나 상성이 맞물린다면 상대가 점수를 따낼 수도 있다. 이럴 땐 전략적으로 선수교대 카드도 고민해야 한다. 이용자는 경기마다 자동교대를 제외하고, 출전선수와 교대선수를 최대 3회까지 교대할 수 있다. 선수교대는 득점이 발생하거나 서브 상황일 때 이뤄진다.    이용자는 스토리모드나 PvP매치 등을 활용해 다양한 장비와 보상 획득이 가능하며, 필요에 따라 뽑기를 통해 선수나 장비, 스킬 조각 등을 얻을 수도 있었다. 또, 게임 내 ‘하이큐TV’를 통해 학교별 리그 방식 경기를 진행, 승부예측 콘텐츠도 선보이고 있다. 매일 오후 8시, 경기를 라이브로 진행하며 시청 인원 간 채팅이 가능하다.    비록 ‘피카츄배구’처럼 직접 공을 튀기는 손맛을 제대로 느낄 수 없다는 점은 아쉬웠다. 역동적으로 공을 튀기며 치열한 승부를 벌이는 것보다 전략적인 게임성이 더 두드러지는 모바일게임이었다. 그러나 기존 역할수행게임(RPG) 장르가 아닌 게임에서 새로운 재미를 추구하고 싶을 때나 평소 원작 애니메이션 및 배구에 대한 선호도가 높다면 충분히 즐겨볼 만하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>해상운임 급락에도 美~유럽은 요지부동</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004815330?sid=104</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>장기계약 탓…물가 자극할 수도사진=게티이미지뱅크(기사와 무관)공급망 혼란이 완화됐는데도 유럽과 미국을 잇는 항로의 해상 운임은 여전히 높은 수준인 것으로 나타났다. 해운업체와 장기계약을 맺는 관행 때문에 최근 운임 하락세가 반영되지 않아서다. 여전히 큰 물류비가 인플레이션을 자극하는 뜻밖의 뇌관이 될 수도 있다는 전망이 나온다.26일(현지시간) 블룸버그는 해운 예약 플랫폼 프레이토스를 인용해 유럽과 미국 항로의 해상 운임이 최근 1FEU(40피트 컨테이너 1개)당 575달러로 1년 전(442달러)보다 30%가량 상승했다고 보도했다. 코로나19 팬데믹 전인 2019년 평균의 약 2배다. 반면 공급망 혼란이 누그러지면서 다른 항로의 해상 운임은 대부분 하락했다. 중국과 미국 서안을 잇는 해상 운임(단기 기준)은 지난 23일 기준 1FEU당 1164달러로 내려앉으며 1년 새 90%가량 폭락했다. 이 항로의 해상 운임은 공급망 혼란이 극심했던 2021년 9월 1FEU당 2만달러까지 치솟았다가, 작년 상반기 1만5000달러 선으로 진정됐고 이후 하락세를 이어왔다. 미·중 무역 축소 여파도 반영됐다.미국과 유럽 사이 해상 운임이 좀처럼 떨어지지 않는 이유는 장기 계약 관행 때문이다. 실제 운송이 이뤄지기 1~2년 전에 해운업체와 유통업체가 장기 계약을 맺는다. 공급망 병목 현상이 심해 컨테이너 품귀 현상이 일어나 운임이 뛰었던 2021~2022년 가격이 장기 계약 시 반영되며 여파가 여전하다는 분석이 나온다. 해운 운송계약의 70%가량이 장기 계약이다.전문가들은 미국과 유럽의 인플레이션이 좀처럼 둔화하지 않는 이유 중 하나로 높은 해상 운임을 꼽기도 한다. 1월 미국 생산자물가지수(PPI) 상승률(전년 동월 대비)은 6%로 추정치(5.4%)를 웃돌았다. 유로존(유로화 사용 20개국)의 1월 근원 소비자물가지수(CPI)도 전년 동기 대비 5.3% 상승하며 사상 최고치를 찍었다. 크리스 로저스 S&amp;P글로벌마켓인텔리전스 연구원은 “소매업체들은 가격을 자주 바꾸는 걸 꺼린다”며 “해상 운임이 떨어져도 실제 제품 가격에 반영되기까지는 짧아도 1년은 걸릴 것”이라고 설명했다. 올해 물가에 악영향을 줄 수 있다는 뜻이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.02.18.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"토스, 섰거라" 대출중개플랫폼에 올라탄 신한은행</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000729416?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>대형 시중은행 첫 진출…은행판 슈퍼 앱 나오나신한은행이 시중은행 중 처음으로 대출 및 예·적금 금융상품 중개 서비스를 시작한다. 슈퍼 앱으로 발돋움할지 관심을 끈다.18일 금융권에 따르면 신한은행은 오는 6월 자체 앱 '신한 쏠(SOL)' 머니버스에서 예·적금 비교 서비스와 대출 비교 서비스를 선보일 예정이다.모바일뱅킹으로 자금을 이체 중이다 [사진=아이뉴스24 DB]온라인 예금상품 중개 서비스는 소비자가 여러 금융회사의 예·적금 상품을 비교하는 동시에 본인에게 맞는 최적의 상품을 추천하는 서비스다.신한은행은 지난해 11월 9일 금융위원회로부터 깃플, 네이버파이낸셜, 뱅크샐러드, 비바리퍼플리카, 씨비파이낸셜, 엔에이치엔페이코, 줌인터넷, 핀크 등 8개 핀테크와 함께 온라인 예금상품 중개 서비스 사업자로 지정받았다.1금융권에선 신한은행이 유일하다. 신한은행은 또 대출 중개 서비스도 동시에 시작하기 위해 금융위원회로부터 겸업 허가도 받았다. 비은행이 대출 중개를 위해선 라이선스를 취득해야 하지만 은행은 기존 대출 라이선스에 겸업 신청만으로도 대출 중개를 할 수 있다.그간 금융상품 중개 서비스는 핀테크가 점령해왔다. 금융사에서 금융상품을 받아 핀테크가 자사 플랫폼을 통해서 중개하는 방식이다. 대표적으로 네이버파이낸셜·카카오페이·토스 등 빅테크의 대출 상품 비교 서비스가 있다. 이들 업체는 시중은행은 물론 저축은행, 캐피탈, 보험사와도 제휴를 맺고 다양한 대출 상품의 금리와 한도를 비교하는 서비스를 제공하고 있다.금융권에선 이런 중개 서비스 특성상 대환 대출 인프라 등을 출시하면 은행권이 빅테크에 종속될 것이란 우려가 있었다. 신한은행의 중개 서비스 진출은 은행권 안팎의 종속 우려를 불식시키는 동시에 하나의 앱에서 다른 금융사의 상품까지 중개하며 슈퍼 앱으로 도약을 모색하는 것으로 풀이한다.현재 KB국민·신한·하나·우리·NH농협은행 등 다른 은행들도 대출 중개 서비스 구축을 검토하고 있어 경쟁도 치열해질 전망이다. 신한은행은 이들 은행이 보유하지 못한 예·적금 중개 라이선스도 보유하고 있어 유리한 고지를 선점했다는 평가가 나온다.금융권 관계자는 "지난해 말 네이버파이낸셜이 대출 중개 서비스를 출시한 뒤 다른 비교 플랫폼에선 고객이 이탈하는 일이 발생했는데, 은행이 중개 서비스를 출시하면 또 한 번 업계를 뒤흔들 수 있다"고 말했다.다른 관계자는 "중개 서비스의 경우 경쟁사의 상품도 중개해야 하는데, 은행끼리의 경쟁이 관건이 될 것"이라며 "고객이 많은 은행은 고객을 뺏긴다는 생각에 협조가 원활하지 않을 수 있다는 우려도 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>인터넷은행 연체 대출 급증…고금리에 중·저신용자 상환 여력 악화</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002687193?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연체 대출 증가 폭 가장 커케이뱅크,·카카오뱅크·토스뱅크. ⓒ각 사[데일리안 = 고정삼 기자] 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행 3사의 지난해 하반기 연체 대출이 급증한 것으로 나타났다.  고금리 상황이 장기화하면서 중·저신용자의 상환 능력이 악화한 영향으로 풀이된다.26일 금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 인터넷전문은행 3사의 1개월 이상 연체 대출 잔액은 2915억9100만원으로 집계됐다. 이는 작년 1분기 말(1062억원)보다 3배 가까이 급증한 수준이다.작년 1분기 말 1062억원 수준에서 2분기 말 1392억원, 3분기 말 1860억원, 4분기 말 2916억원으로 증가세를 보였다.은행별로 살펴보면 토스뱅크의 연체 대출 증가 폭이 가장 가팔랐다. 토스뱅크의 지난해 말 1개월 이상 연체 대출은 619억원으로, 1분기 말(11억원) 56배 이상 늘었다.같은 기간 케이뱅크는 920억원으로 2.5배 늘었고, 카카오뱅크는 1377억원으로 2배 증가했다.인터넷전문은행의 여신 규모가 꾸준히 성장하고 있는 만큼, 이에 비례해 연체 대출이 증가하는 것은 불가피한 측면도 있다. 다만 대표적인 건전성 관리 지표인 연체율과 고정이하여신 비율 역시 뚜렷한 악화 추세를 나타내고 있는 모습이다.지난해 말 카카오뱅크의 연체율은 0.49%로 1분기 말보다 0.23%포인트(p) 상승했다. 고정이하여신비율은 0.36%로 같은 기간 0.11%p 상승했다.작년 3분기 말 케이뱅크의 연체율은 0.67%로 1분기 말보다 0.19%p 상승했다. 같은 기간 고정이하여신비율은 0.12%p 오른 0.76%였다.토스뱅크의 작년 3분기 말 연체율은 1분기 말보다 0.26%p 오른 0.30%, 고정이하여신비율은 0.19%p 오른 0.23%를 기록했다.인터넷전문은행들은 작년 금융당국에 제출한 중저신용자 대상 신용대출 비중 목표치 달성에 집중했다. 이에 고금리 상황에서 중저신용자들의 상환 여력이 악화하면서 건전성 지표가 악화한 것으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>작년 아태지역 핀테크 투자 505억달러… 사상 최대치</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004854166?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>/사진=삼정KPMG지난해 아시아·태평양(아태) 지역의 핀테크 투자가 사상 최대치인 505억달러를 기록한 것으로 나타났다.글로벌 회계·컨설팅 기업 KPMG가 22일 발간한 보고서에 따르면 아태 지역 핀테크 투자는 2021년 502억달러에서 2022년 505억달러로 사상 최대치 기록을 갈아치웠다. 아태 지역 핀테크 관련 M&amp;A(인수합병) 규모는 2021년 233억달러에서 2022년 339억달러로 45.5% 증가했다. 블록이 호주 최대 선구매·후지불(BNPL, Buy Now Pay Later) 기업 애프터페이를 279억달러에 인수한 사례가 M&amp;A 규모 성장을 견인했다.아태 지역의 주요 벤처캐피탈(VC) 투자로는 한국 금융·핀테크 기업 토스 4억5000만달러, 인도네시아 젠딧과 싱가포르 앰버, 볼트테크가 각각 3억달러 유치에 성공했다.지난해 글로벌 핀테크 투자는 6006건 1641억달러로 전년 7321건 2389달러보다 줄었다. 사모펀드(PE) 투자와 VC 투자는 각각 97억달러, 805억달러로 2021년 이어 역대 두 번째 규모를 기록했다. 글로벌 핀테크 M&amp;A는 739억달러로 2021년 1051억달러보다 300억달러 가까이 줄었다. 레그테크(Regtech) 투자는 2021년 118억 달러에서 2022년 186억 달러로 57.6% 급증하며 지난해 주요 관심 분야였다. 보고서는 "기업들이 점점 더 복잡해지는 컴플라이언스 의무를 준수하며 비용 절감 등을 모색하면서 레그테크에 대한 투자가 급증하고 있다"고 분석했다.지급결제 분야에서는 531억 달러의 투자금을 모았다. 가상자산과 블록체인에 대한 투자는 2021년 300억 달러에서 2022년 231억 달러로 23% 줄었다. 지난해 하반기 발생한 루나 사태와 FTX 파산 영향으로 하락폭이 두드러졌다. 보고서는 올해 글로벌 핀테크 투자는 2022년과 비교해 상대적으로 저조할 것으로 내다봤다. M&amp;A 활동은 회복이 예상되지만 투자자들이 후기 단계 스타트업에 대한 평가가 안정되기를 기다리면서 거래 규모는 훨씬 적을 것이란 전망이다. 다만 전 세계적으로 금융 서비스의 급속한 변화와 금융과 비금융 서비스의 결합이 활성화되는 추세가 이어져 핀테크 투자에 대한 장기 전망에는 긍정적인 의견을 내놨다.삼정KPMG 핀테크 리더인 조재박 부대표는 "핀테크 시장 현황과 투자 동향을 봤을 때 향후 핀테크 기업은 B2B 및 B2B2C, 비금융 융합 관점의 임베디드금융, ESG 등 차별적 사업모델 발굴과 수익성에 대한 고민이 필요하다"며 "핀테크 스케일업과 투자 및 협업을 촉진하기 위한 지속적인 관심과 정책 지원도 중요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.02.19.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5대 시중銀보다 낫네…인터넷은행 복리 후생비 인당 1823만원, 유연 근무·안식 휴가도</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003784876?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>시중은행의 3∼4배 수준…주담대 이자 지원까지    출처=연합뉴스       주요 은행들이 금리 상승기 늘어난 이익을 기반으로 점심값 지급액을 높이고, 의료비 지원 한도를 늘리는 등 임직원 복리후생을 개선했다.     주요 은행들의 지난 2021년 기준 임직원 1인당 복리후생비는 전년 대비 증가했는데, 지난해에도 늘었을 것으로 예상된다.     특히 인터넷전문은행들의 경우 1인당 복리후생비가 5대 은행(KB국민·신한·하나·우리·NH농협)의 3배를 넘어서는 것으로 나타났다.     은행들이 금리 상승기 이자 수익을 기반으로 손쉽게 돈을 벌면서, 늘어난 이익을 공익에 환원하기보다 내부 임직원들의 상여금이나 복지를 늘리는 데 주력했다는 비판에서 벗어날 수 없는 이유다.     19일 연합뉴스와 금융감독원 금융통계시스템에 따르면 5대 은행의 복리후생비 지급 규모는 지난 2021년 4천36억원으로 전년(3천699억원) 대비 9.1% 증가했다.     임직원 1인당 복리후생비 평균 역시 2020년 487만원에서 2021년 538만원으로 51만원 늘었다.     5대 은행은 이미 자녀 학자금 지원, 휴가 숙박 지원, 가족 의료·건강지원비 혜택 등 임직원에게 다양한 복지혜택을 주고 있다.     5대 은행은 올해에도 2022년 임단협을 통해 복리후생 제도 개선에 합의했다.     신한은행은 중식대를 기존 1만3천원에서 1만9천600원으로 높였다.     국민은행은 장거리 출퇴근 직원을 위해 톨게이트 비용을 주기로 했다.     우리은행은 지난 2021년 임단협 당시 부모님 의료비 지원금 한도를 200만원에서 300만원으로 높였다.     NH농협은행도 2021년 임단협에서 만 35세 배우자 검진을 격년에서 매년으로 늘렸다.     카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행의 1인당 복리후생비는 주요 은행의 3∼4배 수준이다.     인터넷은행 3사의 임직원 1인당 복리후생비 평균은 2021년 1천823만원으로 2020년(토스뱅크 제외) 1천493만원보다 330만원 늘었다.     2021년 기준 카카오뱅크가 1인당 2천283만원으로 가장 많았고 토스뱅크(1천667만원), 케이뱅크(1천520만원) 순이었다.     인터넷은행들은 주요 복리후생 제도로 출·퇴근 시간을 자율적으로 정하는 유연근무제를 도입하고 있다.     휴가 제도도 다양하다. 카카오뱅크는 만 3년 근무 시 한 달의 안식휴가와 휴가비 200만원을 준다.     토스뱅크도 근속 3년마다 리프레시 유급휴가 1개월을 쓸 수 있다.     케이뱅크는 매년 3일의 유급 자기 계발 휴가를 준다.     이 외에도 카카오뱅크는 직원들에게 연 600만원 규모의 자기 주도 마일리지를 지급한다.     토스뱅크는 직원들의 주택담보대출 이자를 1억원 한도에서 지원한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.02.22.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>손쉬운 이자 장사, '메기' 풀어 손본다</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001037698?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;은행들이 손쉬운 이자장사로 성과급 잔치를 벌이고 있단 비판이 이어져왔죠. 금융당국이 은행 과점 체제를 깨기 위해 경쟁을 촉진하고 보수 체계도 손질하기로 했습니다.김정우 기자의 보도입니다.&lt;기자&gt;2019년 기준 전체 18개 은행의 예금 중 5대 은행의 비중은 77%, 대출 점유율도 67%에 달합니다.은행의 과점 체제가 경쟁을 제한해 쏠림 현상이 발생하고 결국 금융 소비자들의 이익을 침해한다고 정부는 보고 있습니다.대출 금리는 많이 올리고 예적금 금리는 조금 올리는 등 수천억 원의 이자 장사가 그 예라는 것입니다.[김소영/금융위원회 부위원장 : 은행이 고객에게 충분한 선택권과 차별화된 서비스를 제공하기 위해 노력하기보다는 이자 수익에만 치중하고.]이자 수익에 안주하는 은행의 행태 개선을 위해 정부는 '경쟁' 체제를 도입하기로 했습니다.영국에서 등장한 소규모 특화 은행 '챌린저 뱅크' 도입 등의 방안이 검토되고 있습니다.영국의 챌린저 뱅크들은 주식이나 가상자산, 여행 등 여러 분야에서 다양한 서비스를 제공하면서 1천400만 명의 고객을 확보했습니다.주요 챌린저 뱅크 3곳의 시장 점유율은 3년 만에 1%에서 8%까지 뛰어올랐습니다.다만 카카오뱅크와 토스뱅크, 케이뱅크 등 인터넷 은행들도 과점 체제를 깨지 못한 상황에서 상대적으로 자본력이 떨어지는 챌린저 뱅크가 얼마나 경쟁을 촉진시킬지는 미지수라는 평가도 나오고 있습니다.[성태윤/연세대 경제학부 교수 : 단순히 금융기관의 숫자를 늘리는 것만으로 이를 해결하는 데는 한계가 있기 때문에 이에 대한 가산금리 등에 대한 관리 감독이 일부분 필요한 것으로 생각됩니다.]돈 잔치 논란을 불러온 은행의 보수 체계도 손을 봅니다.은행 경영진 보수에 대해 주주 투표권을 도입한다든가 수익에 따라 성과급을 환수·삭감하는 방안을 검토 중입니다.(영상취재 : 이상학, 영상편집 : 전민규)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"상금 2000만원" 토스, 머니스토리 공모전 '드래프트 2023' 개최</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000896152?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>사진=토스 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(토스)는 돈에 관한 이야기를 담은 단편 에세이와 만화를 모으는 공모전 '드래프트(DRAFT) 2023'을 개최한다고 16일 밝혔다.작품의 초안 또는 원고를 말하는 '드래프트'는 신인 선수 선발을 의미한다. 토스는 누구나 자신만의 돈 이야기를 나누고 작가로 데뷔할 수 있는 장을 연다는 의미를 담아 공모전 이름을 이같이 정했다.'드래프트 2023'은 돈을 벌고(+) 쓰고(-) 불리고(×) 나누는(÷) 일에 관한 이야기를 공모한다. 각 사칙 연산자에 해당하는 주제 중 하나를 골라 3000자 이상의 단편 에세이를 쓰거나 10컷 이상의 단편 만화를 그려 참가할 수 있다.돈을 버는 일(+)에 관한 이야기를 응모하려면 '나의 소득 파이프라인 발굴기'를 주제로 콘텐츠를 만들면 된다. 배달 아르바이트로 돈을 벌어 투자한 일, 취미로 만든 물건을 팔아 소득을 올린 일, 회사생활 인스타툰(인스타그램+웹툰)을 그리다 광고를 받은 일 등 다양한 경험을 소재로 할 수 있다.'소비 일기'를 주제로 돈을 쓰는 일(-)에 대한 이야기를 공유해도 된다. 습관적 과소비와 무소비 챌린지, 충동구매와 콜렉션 등 다양한 소비 행태 또는 소비를 대하는 자세 등이 그 예다.'전국 재테크 자랑'(×)도 공모한다. 나만의 재테크 노하우, 부진한 수익률을 견디는 마음가짐 등 다양한 사연을 담을 수 있다.'소중히 여기는 마음'(÷)에 대한 이야기도 모은다. 육아나 효도, 기부와 선물, 유산 상속 등 다양한 나눔의 경험을 소재로 하면 된다.원고는 오는 4월2일까지 '드래프트 2023' 홈페이지를 통해 접수한다. 토스 콘텐츠팀과 파트너 출판사 웨일북은 원고를 함께 심사한 뒤 키워드 별로 최우수 1명과 우수 3명을 선정해 5월3일 발표할 예정이다. 수상자에게는 최우수 200만원, 우수 100만원 등 총 2,000만원의 상금을 지급한다.수상자는 토스의 공식 콘텐츠 플랫폼 토스피드에 작가로 등록된다. 수상작 16편은 토스피드에 연재되고 한 권으로 엮여 단행본으로도 출간된다.토스 관계자는 "이번 공모전이 누구나 편하게 돈 이야기를 하고 그 이야기의 가치를 새롭게 조명하는 시작점이 되기를 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.02.25.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>"월화수목일일일" 꿈의 주4일제, 우리도 될까 [전민정의 출근 중]</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001085267?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>● 급여 안깎는 주4일제 해보니…워라밸·생산성 'UP'얼마 전 영국 기업들에서 진행됐던 세계 최대 규모의  '주4일제' 실험이 화제가 됐습니다. 주4일제를 둘러싸고 생산성과 임금 하락에 대한 의구심이 계속 제기되고 있는 가운데 나온 결과라 더욱 주목을 받았는데요.노동 관련 싱크탱크인 오토노미(Autonomy)을 주축으로 한 공동연구팀이지난해 6월부터 12월까지 기업 60여곳을 대상으로 주4일, 평균 34시간을 근무하는 방식의 근무 환경을 조성했습니다.단, 기존 주 5일 근무할 때 직원들에게 지급했던 급여 수준은 그대로 유지하는 것이 조건이었습니다.실험 결과, 참여 기업 10곳 중 4곳의 수익이 실험 이전보다 평균 35%나 증가한 것으로 나타났습니다. 직원들의 이직, 병가, 휴직, 결근 비율도 전년도 같은 기간보다 절반 아래로 줄었고요.기업 입장에서 생산성이 늘었다면, 직원들 역시 주당 근무일이 짧아지면서 만족감이 크게 높아졌습니다. 직원 71%는 "번아웃(탈진)이 사라졌다"고 답했고, 40%는 "불면증 등 수면 장애가 없어졌다"고 했습니다.결국, 6개월간의 실험 결과 참여 기업들 중 92%가 주 4일 근무제를 연장하기로 결정했고, 이들 중 18개 회사는 향후 영구적으로 주 4일제 근무 환경을 도입하기로 했습니다.'주4일제' 도입한 평생교육 전문기업 '휴넷'● IT·교육 기업 중심 한국도 속속 도입 중…"행복지수 올랐다"'꿈의 주4일제'가 직원들의 만족도를 높이고 있다는 건 해외만의 얘기는 아닙니다. 우리나라 기업 사례에서도 찾아볼 수 있었습니다.지난해 주4일제를 도입한 평생교육 전문기업 휴넷이 사내 직원들을 대상으로 '직원행복지수' 조사를 진행해보니 주4일제 도입 전보다 점수가 6점이나 더 올랐다고 합니다.'우리 회사는 일하기 좋은 기업인가?'에 대한 질문에 대해선 조사 이래 역대 최고 점수를 받았고 채용 지원율도 14배나 상승했습니다.국내 기업들 중에선 IT(정보통신)과 교육 업종, 특히 벤처·스타트업을 중심으로 주 4~4.5일제를 도입하고 운영하고 있는 업체들이 늘어나는 추세인데요.대표적으로 CJ ENM, 토스, 여기어때, 보안업체 슈프리마, 금성출판사, 한국P&amp;G, 수퍼트리 등이 있습니다.●  정부, 선택적 근로시간제 도입 본격화…"주4일제 가능하게"우리나라의 경우 민간에서 먼저 도입 움직임이 나타난 '주4일제'는 정책적 측면에서 보면 '선택적 시간근로제(선택근로제)'의 범주에 들어갑니다.윤석열 정부 들어서 노동개혁을 위한 국정과제로 '근로시간 유연화' 논의가 본격화되면서 일과 생활의 균형을 이룰 수 있는 선택근로제 확대 방안 마련도 추진되고 있는데요.고용노동부는 지난 24일 '근로시간 제도 개편' 대국민 토론회를 열어  근로자가 선택근로제로 근로시간을 더욱 유연하게 쓸 수 있도록 법 개정을 추진하겠다고 밝혔습니다.선택근로제로 근로일, 출퇴근 시간 등을 자유롭게 선택하고 시차출퇴근, 주4일제 등으로 활용할 수 있도록 한다는 겁니다.이를 위해 고용부는 현재 3개월로 돼 있는 선택근로제 정산기간을 확대하고, 근로자가 사용자에게 선택근로제 적용을 요청할 수 있는 절차를 도입하는 방안도 검토 중입니다.● 근로시간 늘어야 생산성 높아지는 곳도 있다?'월화수목일일일'을 현실화할 수 있는 주 4일제는 직장인들 사이에서는 '최고의 복지'로 꼽힙니다.특히 코로나19를 계기로 재택근무 등이 활성화되고 MZ세대를 중심으로 워라벨이 일상의 우선 순위로 등장하면서 주4일제에 대한 수요와 기대는 그 어느 때보다도 높은 상황인데요.하지만 아직 우리나라에선 주4일제를 실현하기엔 법적, 제도적으로, 또 현실적으로도 풀어야 할 문제가 많습니다.일단 선택근로제의 전제조건부터 그 한계가 분명합니다. 선택근로제는 근로자가 스스로 총 근로시간 범위 안에서 일하는 시간을 직접 정할 수 있어야 가능하기 때문입니다.그래서 업무시간 조율이 가능한 IT·스타트업 업계 등에서 먼저 활성화되고 있는 거고요.반대로 근로시간이 길수록 생산성이 늘어나는 구조인 제조업체들의 경우엔 근무시간을 줄이는 주4일제가 쉽지 않습니다.오히려 일감이 몰리는 시기엔 공장을 더 돌려야 하기에 특근, 추가 근무가 불가피한 상황이죠.사업주는 범법자가 되고 근로자는 꼼수야간을 하는 기형적인 상황이 발생하면서 정부는 노사가 원하면 '월, 분기, 반기, 연간 단위'로 연장근로를 운영할 수 있도록 선택지를 부여해 현재 주 52시간에서 최대 주 69시간 일할 수 있도록 제도 개편을 추진하고 있습니다.앞서 영국 사례 처럼 오히려 쉬는 시간이 많을 수록 직원들의 만족도가 올라가 기업생산성이 올라간다는 연구 결과들도 나오고 있지만 국내 제조업의 현실에선 통하지 않기에 업종간 형평성 논란이 제기될 수 있겠죠.특히 그렇잖아도 구인난에 시달리고 있는 중소 제조업의 경우엔 주 4일제 도입이 확산될수록 우수 인력들이 취업을 기피해 인력난이 심화되는 풍선효과까지 우려됩니다.근로자의 입장에서도 주4일제 도입으로 근로시간이 줄어 임금도 함께 줄어들 수 있기에 이를 반기지 않는 이들도 분명히 있을테고요.또 선택근로제는 기본적으로 근로자 대표와 사용자 측의 서면합의가 필수라고는 하지만, 회사의 방침에 따라 바뀔 수 있다는 지적도 있습니다.지난해 10월에도 이와 관련된 해프닝이 있었는데요. 교육종합기업 에듀윌은 직원들의 동의 없이 3년 동안 유지한 주 4일 근무제를 철회하고 다시 주 5일 근무제로 돌아간다는 내용을 알렸다가 곤욕을 치렀습니다.갑작스러운 회사의 근무제 변경에 직원들이 직장인 익명 커뮤니티 블라인드 등을 통해 분노를 쏟아냈고, 결국 회사 측은 20일 만에 주 5일제 시행은 없던 일로 하고 주 4일제를 그대로 유지한다고 공지했습니다.따라서 전문가들은 주4일제를 본격 도입하기에 앞서 노사간, 나아가 충분한 사회적인 합의가 필요하다고 입을 모읍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>은행 과점 풀어줄 플랫폼 내 예금비교·대환대출 도입 속도낸다</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004852134?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 오대일 기자 = 최상목 경제수석이 15일 용산 대통령실 청사에서 비상경제민생회의 관련 브리핑을 하고 있다. (대통령실 제공) 2023.2.15/뉴스1  Copyright (C) 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.금융당국이 KB국민·신한·우리·하나·NH농협은행 등 5대 시중은행의 과점 체제를 깨기 위해 비대면 대환대출 인프라와 함께 예금비교 추천 서비스 도입에 속도를 낸다. 여러 금융사를 플랫폼이라는 한 운동장에서 경쟁시켜 5대 은행을 중심으로 굳어진 예금·대출 점유율에 지각변동을 일으키겠다는 목적이다. 다만, 일각에선 은행 과점은 완화되더라도 플랫폼 독점이라는 새로운 문제가 떠오를 수 있다고 지적한다. 윤석열 대통령은 15일 서울 용산 청사에서 열린 제13차 비상경제민생회의에서 은행권의 경쟁 촉진과 구조개선을 지시했다고 최상목 경제수석이 브리핑을 통해 밝혔다. 구체적으로 금융·정보기술(IT)간 영업장벽을 낮춰 경쟁을 촉진하는 방안 외에도 대환대출 인프라, 예금비교·추천 플랫폼 도입을 통한 금융사간 경쟁 활성화가 거론됐다. 플랫폼 내에서 은행의 예금·대출 상품을 경쟁시키면 신규 은행의 출현 없이도 기존 은행끼리 경쟁을 촉진시킬 수 있다. 기존에는 예금·대출 상품을 한눈에 비교할 방법이 없어 고객들은 주로 주거래은행 상품을 이용하곤 했다. 5대 시중은행의 과점 체계가 계속 공고해질 수 있던 이유다.  앞으로 비교 서비스가 본격 시행되면 고객을 잃지 않으려는 금융사는 경쟁적으로 예금금리를 높이고, 대출금리는 낮출 수밖에 없다. 고객들이 한 앱(애플리케이션)에 접속해 한눈에 여러 상품의 금리를 비교하게 되면, 금융사의 이름값과 별개로 최고 수준의 금리를 제공하는 금융사에 고객이 몰릴 것이기 때문이다. 금융당국은 비대면 대환대출 인프라와 예금비교·추천 플랫폼 도입에 속도를 내고 있다. 비대면 대환대출 인프라는 5월 중 구축 예정으로 카카오페이, 토스, 핀다 등 플랫폼사 외 신한은행, 카카오뱅크 등 은행권도 플랫폼 역할을 수행하겠다고 나섰다. 하반기에는 예금비교·추천 서비스도 시작될 전망이다. 한 앱에서 한눈에 여러 예금·대출금리를 비교할 수 있게 된 만큼 고객들의 대규모 이동도 이뤄질 전망이다.은행권도 비교 플랫폼이 금융사 사이 대출금리 인하, 예·적금 금리 인상 경쟁을 촉발할 수 있다고 본다. 금융사 입장에서 비교 플랫폼은 신규 소비자 유입 기회인 동시에 기존 소비자 이탈 위기이기 때문이다. 한 은행권 관계자는 "일부 금융사는 실적 개선 등을 위해 무리해서 소비자에 유리한 조건을 제시할 수 있다"며 "다른 금융사도 영향을 받을 수밖에 없다"고 말했다.다만, 플랫폼 독점이라는 새로운 문제가 나타날 수 있다는 우려도 제기된다. 한 금융권 관계자는 "플랫폼 사업의 핵심은 소비자가 많이 몰려야 한다는 건데, 빅테크에 비해 은행 앱이 경쟁력이 있는지 의문"이라며 "소비자뿐만 아니라 상품을 제공하는 금융사들도 서비스 속도 등 사용자 경험 등에서 앞서 있는 빅테크로 몰릴 가능성이 높다"고 설명했다.소비자 피해 우려도 나온다. 금융사들은 대출 중개 플랫폼에서 경쟁력을 확보하기 위해 대출금리를 낮추고, 신규 고객을 끌어 올 때 플랫폼을 제공한 업체에 중개수수료를 내야 한다. 이때 추가로 생긴 비용이 어떤 방식으로든 고객에 전가될 수 있다는 것이다. 또 예·적금 비교·추천의 경우 플랫폼에 소비자 보호 의무가 없다는 점도 지적된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[비즈브리핑] "점심시간도 허투루 쓸 수 없죠"…자투리 시간에도 걷기로 돈 버는 사람들</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003975839?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>◇'함께 토스 켜고 포인트 받기' 이용 모습. 사진=이미선 기자고물가에 한 푼이라도 아끼려는 사람들이 늘면서 올해도 '짠테크', '앱테크' 열풍이 계속되고 있다. 지난 22일 하나금융경영연구소가 서울 및 수도권에 거주하는 20~64세 금융소비자 1000명을 대상으로 실시한 설문조사 결과를 담은 '2023년 금융소비 트렌드'에 따르면 올해 재무관리를 위해 '소액 재테크' 서비스를 이용할 의향이 있다는 응답은 전체의 71%였다. 최근에는 날씨가 따뜻해지면서, 걸으며 돈을 벌 수 있는 앱테크가 더욱 인기를 끌고 있다.◇'데일리워킹 적금 시즌2' 이용 화면.우리은행은 지난해 선보인 데일리워킹 적금이 모집기간에 예상한 인원을 훌쩍 뛰어넘는 22만명이 신청하는 등 큰 호응을 얻자 지난달 '데일리워킹 적금 시즌2'를 내놨다. 해당 적금은 하루 최대 적립금액 1만원, 가입기간 6개월에 기본금리 1%를 제공한다. 여기에 하루 1만보를 걷고 우리WON뱅킹 상품 페이지에서 미션 성공을 누르면 우대금리 10%가 더해져 최대 11%의 금리가 적용된다. 삼성금융사 통합 앱 모니모에서도 걷기 미션을 통해 돈을 벌 수 있다. 매일 5000보를 걸으면 리워드 '젤리'를 받을 수 있다. 받은 젤리는 모니머니로 교환 가능하다. 모니머니는 현금화 뿐만아니라 보험가입, 송금, 펀드투자 등에 사용할 수 있다. 짠테크족들은 점심시간도 허투루 쓰지 않는다. 최근 온라인 커뮤니티 등에는 토스의 '함께 토스 켜고 포인트 받기' 서비스를 이용하기 위해 매일 점심시간 서울 중구에 위치한 시립미술관에 간다는 글이 다수 올라오고 있다.토스가 지난달 18일 출시한 이 서비스는 블루투스를 켜고 토스 앱을 실행하면 주변에 토스 앱을 실행중인 다른 사용자가 화면에 아이콘으로 뜬다. 이를 클릭하면 1명당 10원을 받을 수 있다. 사람이 많이 모여있는 곳일 수록 많은 금액을 모을 수 있어 회사가 몰려있는 서울 시립미술관 앞 광장 등이 앱테크의 성지로 떠오르고 있는 모습이다. 다만 21번째 클릭부터는 9원을, 22번째 클릭 시 8원을 적립받을 수 있다. 29번 이상부터는 1원만을 받을 수 있다.업계 관계자는 "시간 대비 수익이 크지 않아 효율성이 낮다는 점에서 앱테크에 대해 회의적인 반응도 있지만, 올해도 짠테크 열풍은 계속될 것으로 보인다"면서 "기업 입장에서도 관련 서비스를 선보인 이후로 앱 이용자 수가 증가하는 등 효과를 보고 있다. 늘어나는 짠테크족 공략을 위해 걷기 외에도 재미있는 방법으로 포인트를 모을 수 있는 서비스가 속속 출시될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.02.18.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>이정재가 영어로 연기하는 ‘오겜’, 엘비스가 부르는 K팝</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000044312?sid=102</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>━   ‘성수 AI 데이’ 콘퍼런스      16일 띵스플로우가 주최한 성수 AI 데이 콘퍼런스에 참석한 산업계와 학계 연사들이 AI 기술의 변화상에 대해 토론하고 있다. 최영재 기자           #1. ‘이정재가 영어를 저렇게 잘했어?’ 화면을 본 주변이 술렁거렸다. 아무리 봐도 이상하다. 세계적 인기를 모은 K드라마 ‘오징어 게임’(2021)에 나온 이정재(기훈 역)의 목소리가 분명 맞는데, 영어 발음은 원어민 수준이다. 사실 이 화면은 인공지능(AI) 신기술로 만들어졌다. AI 기술이 이정재 목소리를 영어로 연기한 외국인 성우의 목소리로 감쪽같이 변조한 것이다. 한국 드라마나 영화를 보는 외국인들은 재미있는 장면과 이야기엔 푹 빠져들지만, 외국인 성우가 영어나 프랑스어 등 자기네 언어로 더빙할 경우 작품 속 배우들의 목소리는 못 듣게 돼 연기에 대한 몰입감은 떨어질 수 있다. 이때 AI가 배우 목소리로 영어나 프랑스어 등을 하도록 성우 연기를 변조하면 해당 언어권 시청자들의 몰입감을 극대화할 수 있는 것이다.      #2. 엘비스 프레슬리가 환생해 생전의 감미로운 목소리로 K팝 발라드를 부르면 어떤 느낌일까. 혹은 비틀즈가 다시 뭉쳐 다시 중흥기를 맞고 있는 한국 트로트 곡을 연주하게 할 수는 없을까. 이 역시 AI의 힘을 빌면 불가능한 일이 아니다. AI 기술 관련 스타트업인 수퍼톤의 최형석 리서치리드는 성시경의 노래를 프레슬리 목소리로 바꾼 샘플을 소개했다. 엘비스의 오리지널이라 해도 믿을 만큼 감쪽같았다. 수퍼톤은 방탄소년단(BTS) 소속사인 하이브가 지난달 인수한 업체다. 이 업체가 자체 개발한 AI 음성 합성 기술인 ‘NANSY(Neural Analysis and Synthesis)’는 사람의 목소리를 음색과 발음, 운율, 세기 등으로 분해하고 개별 제어 및 재합성할 수 있도록 해 주는 기술이다. 기존 기술에 비해 AI의 학습 속도가 빠르고, 발음의 부정확성을 줄인 것이 특징이다. 노래 변조도 가능하다.    소비자가 아티스트 음악 재창작도 가능     16일 서울 성수동에서 열린 ‘성수 AI 데이’ 콘퍼런스에서 선보인 AI 기술들 중 일부다. 게임 개발 업체 크래프톤의 자회사 띵스플로우가 주최하고 한국마이크로소프트(MS)가 후원한 이날 행사엔 산업계와 학계의 AI 전문가들이 연사로 등장해 신기술 동향과 시사점을 제시했다. 마켓츠앤드마켓츠에 따르면 세계 AI 시장 규모는 올해 869억 달러(약 112조원)에서 2027년 4070억 달러(약 526조원)로 5년 사이 5배가량 성장할 전망이다. 2020년 2조2000억원 규모였던 국내 AI 시장도 2030년 27조5000억원 규모로 13배 커질 전망이다(KT경제경영연구소).      이런 가운데 삼성전자·네이버 등 국내 기업들도 AI 사업에 박차를 가하고 있다. 다만 자금력이 부족하거나 상용화했을 때 성공 확률이 낮은 아이디어만 갖고 AI 사업에 뛰어든 스타트업은 혹독한 실패를 맛보기도 한다. 관건은 시장에 어필할 수 있는 신기술을 선보여서 충분히 투자를 받고, 회사의 지속 가능한 성장을 도모하는 것이다. 이에 대해 벤처캐피탈(VC)인 SV인베스트먼트의 홍원호 대표는 “불경기로 최근 들어 투자가 많이 줄어든 게 사실이지만, AI 분야만큼은 (투자 가치가 충분하다고 보고) 글로벌 확장성에 초점을 맞춰 주시하고 있다”고 VC 업계 분위기를 전했다.      그래픽=이정권 기자 gaga@joongang.co.kr           어떤 AI 기술들이 세간을 사로잡고 있을까. 고광범 MS 부문장은 MS의 클라우드 서비스인 ‘애저(Azure)’에서 사용할 수 있는 이미지 생성 편집 AI ‘달리(Dall-E)’를 소개했다. 달리는 사용자가 입력한 텍스트를 이미지로 자동 변환해준다. 예를 들어 달에 착륙한 강아지를 그린 걸 보고 싶다면 이를 텍스트로 입력, 그대로 이미지가 나타나는 식이다. 고 부문장은 “챗GPT와 달리를 써서 일반 소비자가 단 이틀 만에 동화책 한 권을 완성한 사례도 있다”고 말했다. MS는 챗GPT보다 빠르고 정확한 AI 모델인 ‘프로메테우스’를 활용해 검색 엔진 ‘빙(Bing)’을 고도화하는 데도 나섰다.      토스모바일은 최근 가세한 알뜰폰 분야에서 AI 기술을 적용했다. 하대웅 비바리퍼블리카 최고제품책임자(CPO)는 “기존 알뜰폰 서비스에 가입하려면 거의 20단계에 달하는 절차를 거쳐야 해서 고통스러웠다”며 “알뜰폰에 자동 음성인식(ASR, Automatic Speech Recognition) 기술 등을 적용했더니 가입 절차가 2단계로 크게 줄었다”고 소개했다. 이 기술은 AI가 사람 대신 자동 응답 시스템(ARS, Automatic Response System)을 듣고, 데이터에 따라 소비자 맞춤형 정보를 텍스트로 바로 제공해준다. 기존 ARS에선 소비자가 안내원의 긴 설명을 다 듣고 있어야 해서 기억하기조차 쉽지 않았던 불편함을 해소한 것이다.    “AI도 다양한 문화권 역사적 배경 알아야”     뉴튠은 ‘믹스오디오’라는 AI 기반의 인터랙티브 음악 서비스를 운영하고 있다. 아티스트의 음악을 소비자가 재창작하고 그 저작권을 인정받는 미래형 음악 경험인 ‘플레이투크리에이트(Play2Create)’ 등에 부응하는 서비스다. 이종필 뉴튠 대표는 “AI의 도움으로 내가 좋아하는 아티스트 두 명의 음악을 섞은 작품을 만드는 등의 재창작이 가능하다”고 말했다. 메타버스엔터테인먼트는 지난달 공개한 가상인간 걸그룹 ‘메이브’의 뮤직비디오가 유튜브에서 3주 만에 누적 1400만 조회 수를 기록했다. 이 회사 강성구 최고기술경영자(CTO)는 “가상인간을 잘 만들려면 AI 학습 데이터의 품질이 중요하다”고 전했다.      AI 관련 신기술 개발엔 산업계뿐 아니라 학계도 발 벗고 나섰다. 박진영 성균관대 교수 연구팀은 AI가 텍스트에서 사람의 감정을 추론하는 방식에서 한 걸음 더 나아가 ‘왜 그런 감정을 갖게 됐는지’ 알아내도록 하는 연구를 하고 있다. 홍성은 인하대 교수는 AI가 사람 얼굴을 인식할 때 정면뿐 아니라 측면 등 환경적 차이가 있는 상황을 제대로 다루도록 하는 등의 ‘도메인 어댑테이션(DA)’을 연구 중이다. 홍 교수는 “DA를 이용하면 AI가 병원마다 다른 의료 장비로 학습한 이후 다른 병원에서 얻은 영상을 샘플만으로 분석하는 등의 일이 가능해진다”고 말했다.      다만 AI의 미래가 밝기만 한 것은 아니다. 과제도 많다. 김주연 유니스트 교수는 “챗GPT로도 실험해봤지만 여전히 AI는 학습이 된 것만 알고, 학습이 안 된 것은 모른다. 논리란 게 없고 갈 길이 남은 것”이라며 “AI가 사람처럼 경험에 의한 판단을 할 수 있는 수준까지 도달하도록 꾸준히 움직여서 학습시켜야 한다”고 지적했다. 하정우 네이버 AI랩 소장은 “AI 학습용 데이터엔 지식재산권(IP) 침해 리스크가 늘 따른다”며 국내외에서 관련 법·제도 정비가 시급하다는 전문가들의 우려에 동의했다. AI가 잘못된 데이터 학습으로 혐오·갈등 조장 표현이나 선정적 이미지 생성에 나설 위험성도 개선점으로 지목된다.      오혜연 카이스트 교수는 “사람처럼 AI도 다양한 문화권의 이야기를 듣고, 역사적 배경 등을 알아야 한다”며 “그래야 편향성 논란에서 자유로워질 수 있다”고 강조했다. 오 교수는 AI를 상대로 ‘어느 나라 사람이 적(敵)이냐’고 물었을 때 한국에선 일본인이라고 답한 경우가 많았던 연구 사례를 소개했다. 고광범 부문장은 “AI 서비스를 강화할수록 (기업들에) 강한 사회적 책임이 따른다는 점을 실감한다”며 “예기치 않은 비정상 동작 방지, 부정적 영향 차단 등에 기업들이 많은 신경을 써야 한다”고 덧붙였다.       헬로우봇, 개인화·개성 표출 서비스 차별화로 매출 급성장    김준희 띵스플로우 본부장. 최영재 기자       챗GPT가 급부상하면서 대화형 AI인 챗봇(chatbot) 전반에 대한 관심도가 높아지고 있다. 챗봇 서비스엔 이용자와 ‘놀아주는’ 것만 있는 게 아니다. 금융사나 대학병원 등의 ‘보이는 ARS’도 대표적인 챗봇 중 하나다. 이처럼 소비자 일상 깊숙이 스며든 챗봇이지만, 기업 입장에서 이것만 갖고 매출을 올리기는 쉽지 않다. 16일 만난 김준희 띵스플로우 AI콘텐트랩 본부장은 “띵스플로우가 5년여 전부터 서비스를 해온 챗봇은 성공적인 비즈니스모델(BM)로 입증됐다”고 자신감을 표했다.   Q : 챗GPT가 연일 화제인데. A : “시장에 나온 지 두 달밖에 안 된 최신 기술임에도 각계에 영향을 미치고 있다. 그중에서도 콘텐트 산업에서 파급력이 엄청나다. 2017년부터 캐릭터 지식재산권(IP) 기반 챗봇인 ‘헬로우봇’을 서비스 중인 띵스플로우도 이런 동향에 주목하고 있다. 막이 오른 챗GPT 시대를 성공적으로 맞을 자신이 있다. 생성형 AI를 실제 BM으로 키운 회사는 국내에서 우리가 유일하고, 세계에도 몇 곳 없다.”  Q : 근거는. A : “헬로우봇 하나에서만 매출이 2021년 45억원, 지난해 100억원 났고 올해는 250억원일 것으로 기대한다. 매출이 매년 2배 이상씩 성장 중인 유일한 챗봇이다. 해외 유명 챗봇인 미국의 ‘레플리카’도 헬로우봇보다 매출이 적다.”  Q : 다른 챗봇과 어떻게 차별화했나. A : “헬로우봇에서 유저는 현실의 나와 다른 자아인 ‘페르소나’를 다양하고 개성 있게 만들 수 있다. 개인화한 챗봇이라고 할 수 있다. 나를 감추는 공간인 온라인에서도 강렬한 개성 표출을 원하는 MZ세대에게 인기를 모으는 이유다. 또 헬로우봇엔 아기자기한 부가 서비스가 있다. 타로(Tarot) 카드로 연애 상담을 해주는 ‘라마마’가 대표적이다.”  Q : 헬로우봇 외에 어떤 AI 관련 플랫폼을 갖고 있나. A : “유저가 AI를 기반으로 이야기를 쉽게 만들 수 있도록 돕는 ‘스플(스토리플레이)’을 서비스하고 있다. 웹툰과 웹소설 등을 만드는 데 활용하는 아이디어 정리부터 기획, 시놉시스 작성 등에 이르기까지 AI가 단계별로 도와준다. 데이터 분석 개념도 들어간다. 어떻게 기획하면 20대 여성 독자가 얼마만큼 증가하는 효과를 얻는다는 등의 정확한 분석이 가능하다.  Q : 향후 계획은. A : “올해 목표 중 하나가 글로벌 서비스(수출)다. 챗GPT는 모든 언어를 섭렵한다지만 영어로 이용할 때 강점이 있는 서비스다. 띵스플로우도 영어를 쓰는 환경에서 강점을 갖도록 플랫폼을 개발 중이다. 국내에선 헬로우봇과 스플 외에 커플 전용 애플리케이션 ‘비트윈’까지 세 핵심 서비스에 고성능 AI를 내재화해서 효율을 극대화하고 이용자 만족도를 높일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.02.16.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>저축은행 파킹통장 금리도 줄하락</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004811359?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>SBI, 연 3.2%→3%로 인하애큐온·페퍼, 0.5~0.6%P 내려목돈 단기 예치 매력 떨어져저축은행 파킹통장 금리가 줄줄이 하락하고 있다. SBI저축은행은 16일부터 ‘사이다뱅크 입출금통장’ 최고 금리를 연 3.2%에서 연 3%로 내렸다.SBI저축은행 모바일 앱인 사이다뱅크에서 가입할 수 있는 이 상품은 별도 조건 없이 1억원까지 최고 금리를 적용해 목돈을 잠시 예치하려는 소비자에게 인기가 많았다. 이번 금리 인하로 고액 예금자에겐 사이다뱅크 입출금통장의 매력이 떨어지게 됐다. 가령 토스뱅크 입출금통장인 ‘토스뱅크통장’은 5000만원 이하 금액에 연 2.3%, 5000만원 초과분에는 연 4% 금리를 제공한다. 8500만원 넘는 목돈을 넣어둔다면 사이다뱅크 통장보다 토스뱅크통장이 더 유리하다.애큐온저축은행도 지난 14일부터 3000만원까지 예치할 수 있는 파킹통장인 ‘머니쪼개기 통장’ 금리를 연 4.1%에서 연 3.6%로 낮췄다. 페퍼저축은행의 ‘페퍼스파킹통장2’ 역시 최고 금리가 연 3.8%에서 연 3.2%로 떨어졌다.저축은행 예금 금리 인하는 한동안 이어질 것으로 보인다. 작년 말 연 5~6%대 고금리로 끌어모았던 자금의 이자 부담이 확대된 데다 건전성 악화로 충당금 추가 적립 필요성도 커지고 있기 때문이다. 한 저축은행 관계자는 “수익성과 건전성이 동반 악화하면서 고금리 예금을 유지할 여력이 사라지고 있다”며 “당분간은 자금 확보보다 이자 비용·리스크 관리가 우선순위”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.02.21.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>어릴수록 좋다…금융 Z세대 잡는 '게이미피케이션' [이민재의 쩐널리즘]</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001084236?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>가볍고도 무거운 '돈'에 대한 이모저모 '쩐널리즘' &lt;금융편&gt;  "게임화 시장, 연평균 25% 성장 전망"  국내 성공 사례 부각 '금융권 주목''게이미피케이션'이라고 아십니까?영어 단어인 Game과 Ification을 더한 말인데요. '게임'과 '되어가는 과정'을 뜻하는 말을 합친 건데, 줄이면 '게임화' 정도로 이야기할 수 있습니다.게임화 현상은 과거부터 있어왔습니다. 접근이 어려운 일에 게임 형식을 더해 더 쉽게 할 수 있도록 유도하기 위한 목적으로 진행돼 왔는데요. 다만, 계획대로 쉽게 흘러가진 않았습니다. 게임이 재미있거나, 아니면 게임이라 느끼지 못할 정도로 자연스러워야 하는데요. 그게 어렵습니다.다만, 최근에는 이를 지속적으로 추진해 조금씩 성공하는 사례가 나오는 분야가 있습니다. 바로 금융인데요. '게이미피케이션'을 이용하면 투자자들도 재미있게, 그리고 현명하게 돈을 벌 수 있으니 '일석이조(一石二鳥)'가 됩니다. 특히 돈 관리 능력을 키워야 하는 유소년부터 MZ세대 까지가 게이미피케이션의 공략 대상이 되고 있습니다.●외국에선 흔한 게이미피케이션…"유소년 공략"해외에서 케이피케이션의 흔적은 쉽게 찾을 수 있습니다. 가장 많이 거론되는 사례는 캐나다 RBC은행 용돈 관리앱입니다.RBC은행은 용돈관리앱 마이도(Mydoh)를 사용하고 있는데요. 부모와 자녀의 커뮤니케이션을 기반으로 저축습관 형성을 지원하고 있습니다.  마이도와 관련 현금카드를 사용하면 아이들이 돈 사용법 알 수 있도록 유도합니다. 또 이를 부모가 살펴보고 안내할 수 있도록 돕고 있습니다. 아이들이 앱을 통해 식기 세척기를 비우거나, 개에게 먹이를 주는 등 작업을 하면 수당을 받는 구조를 만듭니다. 해당 작업 완료날을 설정하면 이에 대한 수당을 입력할 수 있습니다.예를 들어 앱에서 작업을 만들고, 작업일, 범주, 반복 여부, 기한 등을 정하면 됩니다. 제 시간에 작업을 완료하면 정해진 날에 급여를 받습니다. 아이들은 작업 진행 여부를 살펴 예산안을 작성하고 수입을 통해 성취감을 얻습니다. 부모들도 아이들에게 주당 수당을 정해 놓고 아이들 용돈을 관리할 수 있습니다. 지출에서는 최대 3개 목표를 정하고 마이도 현금카드를 통해 목표와 관련된 구매를 하면 됩니다. 이 과정 곳곳에는 게이미케이션이 녹아 있습니다.또 게임 형식의 금융 교육 콘텐츠 '마이도 플레이(Mydoh Play)'가 있습니다. 짧은 수업과 퀴즈 형식의 게임으로 아이들이 더 쉽게 돈을 알아갈 수 있도록 도와줍니다. 퀴즈 주제는 어른이 된 후에도 필요한 돈의 심리학, 세금, 저축과 투자 등 다양합니다.영국의 내셔널웨스트민스터(Natwest) 은행의 용돈관리앱인 루스터 머니(Rooster Money)도 참고할만한 사례입니다. 아이들이 돈을 재미있게 느끼도록 다양한 시스템을 적용하고 있습니다.●국내 게이미피케이션도 점차 부각…"전 금융권 주목"국내에서도 점차 게이미피케이션을 활용하는 예시들이 늘고 있습니다.달리기나 걷기 앱을 통해 성취감을 얻고 상품 구매를 할 수 있는 포인트를 받거나, 가상자산을 사는 등의 예가 눈에 띄는데요. 금융에서도 다양한 시도가 나오고 있는데요. 실제 성과로 이어지고 있습니다.우리금융경영연구소는 컨슈머인사이트에 의뢰해 지난해 10월 27일부터 11월 7일까지 모바일 금융플랫폼을 이용하는 만 19~41세의 전국 남여 2천명을 대상으로 설문 조사를 실시했습니다. 그 결과에 따르면 조사대상의 71.1%가 게임형 부가서비스를 사용한 경험이 있는 것으로 나타났습니다. 미션을 통한 성취감, 경품 등을 통한 보상에 만족도가 컸습니다.구체적으로 보면 KB손해보험이 건강관리 플랫폼 오케어(O'Care)로 식사, 운동, 수면시간을 챙겨 리워드라는 적절한 보상을 제공하고 있습니다. 섬성화재의 애니핏 프로, 신한라이프의 하우핏 등도 보험에 헬스케어와 게임을 더하고 있습니다.은행업계에서는 카카오뱅크가 26주간 매주 증가하는 금액을 예금하는 구조의 적금을 선보인 게 눈길을 끌었습니다. 적금 이용자는 목표 금액을 넣을 때마다 캐릭터 도장이 찍히는 것을 무시하기 어렵습니다. 돈보다 그 도장에 성취감을 느끼기로 합니다. 토스는 만보기 서비스로 토스 머니를 지급했습니다. 증권업계에서는 주식 투자 연령이 낮아지는 것을 고려해 개임형 실전투자대회 등을 공개하기도 했습니다.●게이미피케이션 만능 아냐…"재미가 중요"미국 정보 기술 연구 및 자문 회사인 가트너(Gatne)r는 10년 전인 지난 2013년 게이미피케이션 기법을 기업들이 차용하는 사례가 갈수록 늘어날 것으로 예측했습니다. 전망은 현실이 됐습니다. 시장조사업체 모르도르 인텔리전스(Mordor Intelligence)는 오는 2025년까지 세계 게이미피케이션 시장이 연평균 25.1% 성장할 것으로 내다봤습니다.나이가 어릴수록 게임을 일상 생활처럼 즐기는 상황에서 이런 예측은 당연하다 볼 수 있습니다.다만, 게이미피케이션이 만능은 아닙니다.아직 챌린지에 머무는 게임 형식에는 한계가 있습니다. 흥미를 지속적으로 유발시키기에는 역부족이라는 평가가 나옵니다. 그렇다고 너무 복잡한 게임을 적용하면 진입이 쉽지 않거나 흥미 자체가 생기지 않을 수 있습니다. 우리금융경영연구소는 "국내에서도 유소년 전용 금융서비스에 대한 관심이 늘어나며 Z세대 전용 카드, 은행서비스 등은 출시되고 있으나, 글로벌 트렌드와 유사한 형태의 유소년 전용 플랫폼은 활성화되지 않은 상황"이라고 진단합니다. 잘 만든 게이미피케이션으로 유소년을 위한 ESG 경영과 수익까지 얻는 수 있을 것으로 전망했습니다.게이미피케이션이라고 해서 모두 좋아할 수는 없습니다. 다만 적극적으로 활용하고자 하는 기관과 기업들이 다양한 시도를 한다면 게이미피케이션 적용 범위는 갈수록 늘어날 것으로 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.02.23.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>아톰 신발? 빨간 장화신은 고양이? SNS서 핫하다는 ‘빅 레드 부츠’ 가격은?</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002558124?sid=103</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>모델이 MSCHF가 출시한 ‘빅 레드 부츠’를 신고 있다. 게럿 브루스 인스타그램 캡처   게럿 브루스 인스타그램 캡처  게럿 브루스 인스타그램 캡처  ‘아톰 부츠’ 애칭으로 불리며 패션 인플루언스들이 앞다퉈 ‘착샷’ 올려우스꽝스러운 모양에 인스타그램, 틱톡 등 SNS에서 인기350달러(약 45만원)인데 리셀 가격 1331달러 까지 치솟아‘아톰 부츠’라는 애칭이 붙은 우스꽝스럽게 생긴 ‘빅 레드 부츠’가 패션 인플루언서들을 타고 인기를 모으고 있다. MSCHF가 출시한 ‘빅 레드 부츠’  23일 CNN 등 외신 보도에 따르면 뉴욕의 예술집단인 MSCHF가 지난 16일 론칭한 커다란 빨간색 부츠가 SNS에서 각광을 받으면서 뉴욕패션위크에서도 선보였다. 시에라, 릴 웨인, 위즈덤 카예를 비롯한 SNS 인플루언서들과 연예인들이 화제를 몰고 온 점보 부츠를 신은 사진을 앞다퉈 공개하고 있다. 인플루언서 마케팅 회사인 유니키토스의 집계에 따르면 틱톡에서 ‘빅 레드 부츠’의 해시테그는 2500만 개가 넘는다. 코이 르레이 인스타그램 캡처  ‘빅 레드 부츠’를 신은 인플루언서들. CNN 유튜브 캡처  소매가격 350달러였던 이 부츠는 공개 몇 분만에 매진됐으며 인기가 높아지면서 리셀 가격도 치솟았다. 글로벌 최대 리셀 플랫폼인 스탁엑스에서 이 부츠 가격은 1331달러, 23일 한국에서 접속하면 구입 가격은 약 164만 원으로 안내되고 있다. ‘빅 레드 부츠’ 의 온라인 리셀 판매가. 스탁엑스 캡처   이 우스꽝스러운 모양의 부츠는 어디서 영감을 얻은 것일까. 미국 만화 TV 시리즈 ‘도라의 모험’에 등장하는 캐릭터 중 하나인 말하는 원숭이가 신고 다니는 부츠에서 영감을 얻었을 수 있다는 게 MSCHF의 설명이다. 하지만 많은 사람들은 일본 애니메이션 시리즈 ‘아톰’의 부츠와 닮았다며 ‘아톰 부츠’라는 애칭으로 부르고 있다. 하지만 디자인을 진행한 MSCHF는 저작권 문제로 ‘아톰’과의 연관성에 대해선 전혀 언급 하지 않고 있는 것으로 알려졌다. SNS에서 ‘아톰 부츠’로 소개되며 올라온 실제 착용 사진. 트위터 캡처  스타일 전문가 멜리사 가르시아는 “온라인에 이 부츠 사진이 차고 넘치지만 ‘빅 레드 부츠’는 평소에 신고 다닐 수 있게 디자인된 것이 아니다”라고 말했다. “전혀 발의 모양에 맞춰 제작된 것이 아니라 ‘극단적으로’ 부츠의 모양에 맞게 제작된 것”이라는 설명이다. MSCHF는 ‘멋진 3차원 세계를 위한 카툰 부츠’라는 보도 자료를 뿌렸는데 CNN은 “이 부츠에 한번 걷어차이면 날아갈 듯”이라고 평했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>빅테크 올라탄 지방은행, 대출 실적 3년 새 60배 늘었다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004161235?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>토스 ‘대출비교서비스’ 입점 5곳지난해 실행 대출금 1조6015억2019년 251억서 가파른 성장모바일접점 늘려 지역 한계 극복플랫폼·지방은행 '윈윈 제휴'[서울경제] 금융 당국이 5대 시중은행 중심의 과점 체제 해소를 연일 강조하는 가운데 토스·카카오페이 등 빅테크 업체의 대출 비교 서비스에 입점한 지방은행들의 대출금 규모가 빠르게 늘고 있어 주목된다. 빅테크와의 제휴를 통해 상대적으로 부족한 모바일 플랫폼 경쟁력을 보완하면서 전국 고객과의 접점을 확대한 것이 효과를 낸 것으로 분석된다.27일 토스에 따르면 토스의 대출 비교 서비스에 입점한 5대 지방은행(광주·경남·대구·부산·전북은행)이 지난해 토스를 통해 실행한 연간 대출금은 1조 6015억 원을 기록했다. 2019년 251억 원에 불과했지만 3년 사이 60배 이상 성장한 것이다. 2020년에는 4573억 원, 2021년 9532억 원을 기록하면서 전년 대비 연간 증가율은 2021년 108%, 2022년 68%를 나타냈다.2816A10 토스 내 5대 지방은행 대출 실행액 16판토스 애플리케이션 내 ‘대출받기’ 메뉴로 제공되는 대출 비교 서비스는 2019년 5월 금융위원회 혁신금융 서비스로 선정된 후 같은 해 8월 정식 출시됐다. 올해 2월 기준으로 58곳의 금융사가 제공하는 다양한 대출 상품을 한눈에 비교할 수 있다. 지방은행 중에는 광주은행이 2019년 9월, 경남은행이 같은 해 12월 입점한 데 이어 대구은행이 2020년 4월, 부산은행과 전북은행이 각각 같은 해 7월과 11월에 서비스를 시작했다.지방은행들은 대출 수요가 본점 소재지 등으로 제한되는 경향이 크고 모바일뱅킹 월활성이용자수(MAU)가 상대적으로 적다는 단점을 토스와의 협업으로 극복했다. 모바일인덱스에 따르면 올해 1월 기준 지방은행의 MAU는 △대구은행 107만여 명 △부산은행 104만여 명 △경남은행 62만여 명 △광주은행 56만여 명 △전북은행 39만여 명 등으로 나타났다. KB국민은행 스타뱅킹 MAU가 1174만 명, 신한은행 쏠(SOL) MAU가 같은 기간 894만여 명인 것을 감안하면 지방은행의 모바일 앱 이용률은 시중은행의 10% 수준에 불과하다. 이에 지방은행들은 비대면 접근성을 확대하기 위해 MAU 1400만여 명에 달하는 토스에 올라타는 전략을 선택한 것이다.토스 대출 비교 서비스를 본격 시작하면서 각 지방은행들이 토스를 통해 실행한 원화 대출금 규모는 최근 2년 사이 적게는 2조 원에서 많게는 10조 원 가까이 증가했다. 부산은행의 원화 대출금 규모는 2020년 말 약 45조 1000억 원에서 지난해 말 55조 원으로 약 10조 원 늘었다. 같은 기간 대구은행은 44조 원에서 50조 5000억 원으로, 경남은행은 32조 3000억 원에서 37조 3000억 원, 광주은행은 19조 9000억 원에서 21조 5000억 원, 전북은행은 14조 6000억 원에서 16조 9000억 원으로 일제히 증가했다. 특히 수도권에서 대출 규모가 확대돼 대구은행의 수도권 대출금은 2020년 4조 8034억 원에서 2022년 7조 9851억 원으로 증가했다. 부산·경남은행은 같은 기간 규모가 1조~2조 원씩 커졌다.금융 업계 관계자는 “상대적으로 지점망이 부족한 지방은행들은 모바일 금융 플랫폼을 통해 고객과 만날 기회를 만들고 있다”며 “대출 비교 서비스는 대출 상품을 편리하고 빠르게 보여주는 만큼 플랫폼과 제휴가 모두 ‘윈윈’할 수 있는 서비스”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.02.27.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>"인터넷銀, 혁신 촉진자 돼달라"는데…"혁신보다 생존 위기"</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004815313?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>이복현, CEO들과 간담회"은행 산업의 경쟁 촉진" 당부美네오뱅크는 되레 "생존 우선"은행이 과점체제에 기대 약탈적 영업을 하고 있다며 강경 발언을 쏟아냈던 이복현 금융감독원장이 27일 인터넷은행과 핀테크 기업 최고경영자(CEO)들을 만나 “은행산업의 경쟁을 촉진하는 ‘혁신 엑셀러레이터(촉진자)’로 자리매김해 달라”고 당부했다. 금융당국은 “은행은 공공재”라는 윤석열 대통령 발언 후 5대 은행의 과점 체제를 깨기 위한 방안으로 특화은행(스몰 라이선스) 도입, 인터넷은행과 핀테크 활성화 등을 검토 중이다.이 원장은 이날 경기 성남시 판교의 카카오뱅크 본사를 찾아 카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행 3사와 네이버파이낸셜 핀다 뱅크샐러드 등 주요 핀테크 기업의 대표를 만났다. 인터넷은행 대표들은 영위할 수 있는 업무 범위를 확대하는 한편 전체 대출의 일정 비중을 중·저신용자에게 공급하도록 의무화한 규제를 완화해달라고 건의한 것으로 전해졌다. 이 원장은 “사회적 책임을 다한다면 중장기적으로 (완화책을) 검토할 수 있을 것”이라고 했다. 인터넷은행의 기업대출 허용 여부에 대해선 일단 선을 그었다.하지만 시중은행 대항마로 인터넷은행과 핀테크 기업을 띄우려는 금융당국의 계획에는 한계가 뚜렷하다는 지적이 많다. 금융회사로서 지속 가능한 영업을 하기 위해 필수적인 수익성과 이용자 신뢰 확보가 대형 은행에 비해 뒤처지고 있는 것이 세계 ‘네오뱅크’들의 현실이다. 이는 고금리와 긴축의 시대에 접어들면서 더욱 두드러지고 있다.시장조사업체 인사이더인텔리전스가 미국 주요 상업은행과 네오뱅크 14곳의 디지털 신뢰지수를 조사해 순위를 매긴 결과 미국 최대 인터넷은행인 차임(이용자 수 기준)은 5위, 커런트는 6위, 바로와 애스퍼레이션은 각각 8위와 14위였다. 인터넷은행들은 ‘사용 편의성’과 ‘다양한 기능’ 부문에서 높은 점수를 받은 반면 ‘신뢰도’와 ‘보안성’ 부문에선 기존 은행보다 크게 뒤처졌다.대부분의 신생 인터넷은행이 수익을 내지 못하고 있는 점도 문제로 지적됐다. 국내 인터넷은행 막내인 토스뱅크도 건전성 관리와 추가자본 유치가 급선무로 떠올랐다. 인사이더인텔리전스는 “네오뱅크와 핀테크의 평가 가치가 급락하는 상황에서 네오뱅크의 제1과제는 혁신을 통한 이용자 확보에서 생존으로 바뀌고 있다”며 “혁신과 성장보다 안정성이 우선시되는 시기”라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.02.20.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>다시 늘어난 가계 예대금리차…평균 1.51%포인트</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002785204?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>지난해 하락세 이후 올들어 소폭 커져예금 금리 하락으로 지난달 은행권 예대금리차가 커졌다. 연합뉴스    지난해 예대금리차(예금금리-대출금리) 공시 시작 이후 줄어들던 5대 은행 예대마진이 올들어 소폭 커졌다. 은행들이 대출 금리를 내리고 있지만 경기 침체로 은행을 찾는 중·저신용자가 늘어난 영향이란 분석이다. 지난 1월 예대금리차는 5대 은행중에선 KB국민은행이, 전체 은행권에선 전북은행이 가장 컸던 것으로 나타났다.20일 은행연합회 '예대금리차 비교' 통계에 따르면 1월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 KB국민은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.51%포인트(p)로 집계됐다. 이어 NH농협은행(1.44%p), 우리은행(1.07%p), 하나은행(1.03%p), 신한은행(0.84%p) 순이었다.5대 은행의 정책서민금융 제외 가계 예대금리차는 지난해 8월(1.39%p)을 정점으로 10월(0.966%p) 들어 0%대로 떨어졌고 12월까지(0.728%p) 하락세를 이어왔다. 지난해 12월엔 5대 은행이 모두 0%대 가계 예대금리차를 기록하기도 했다. 하지만 지난달 저축성 수신금리(예금금리) 하락 영향으로 다시 1.178%p로 폭이 커졌다.KB국민은행 관계자는 "1월 들어 법인고객의 단기성 예금 비중이 늘면서 평균 예금금리는 낮아진 반면 주택담보대출 대비 금리가 높은 신용대출 취급이 증가하면서 일시적으로 예대금리차가 확대됐다"며 "1월 말 시행된 가계대출금리 인하효과는 2월 예대금리차 공시에 반영될 것"이라고 설명했다.인터넷전문은행 중에서는 토스뱅크의 가계 예대금리차(4.72%포인트)가 가장 컸고, 케이뱅크(2.15%포인트)와 카카오뱅크(1.25%포인트)가 뒤를 이었다. 인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(6.40%포인트)이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 KB국민은행이 1.81%포인트로 가장 컸다. 금융권 관계자는 "당국의 요구 등으로 은행들이 금리를 올리기 쉽지 않다"면서 "다음달 예대금리차는 줄어들 가능성이 있다"고 말했다. 예대금리차 공시는 은행의 지나친 '이자 장사'를 방지해야 한다며 지난해 7월부터 시작됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.02.26.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>중저신용자 상환 능력 악화…인터넷은행 연체액 3배로</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000586019?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>작년 하반기 중·저신용자의 상환 능력이 악화하며 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷 전문은행 3사의 연체 대출이 급증했습니다.금융감독원이 국회 정무위원회에 제출한 자료에 따르면 지난해 말 기준 인터넷 은행 3사의 1개월 이상 연체 대출 잔액은 2,915억9,100만원으로 집계됐습니다.이는 지난해 1분기 말의 1,062억원 대비 3배 가까이 급증한 수준입니다.이들 3개 인터넷 전문은행의 연체율도 최고 0.67%로, 일제히 상승했습니다.이은정 기자 (ask@yna.co.kr)연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
